--- a/annexe/Modèle investissement.xlsx
+++ b/annexe/Modèle investissement.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDAC2E0-BE4E-4A67-B3C1-CDD38C369118}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45F6C0B-5E22-4BA2-83C0-DBCE551B20CB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accueil" sheetId="2" r:id="rId1"/>
@@ -2481,38 +2481,38 @@
     <xf numFmtId="164" fontId="0" fillId="45" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="39" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2897,7 +2897,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2922,19 +2922,19 @@
       <c r="B3" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="216" t="s">
+      <c r="E3" s="214" t="s">
         <v>317</v>
       </c>
-      <c r="F3" s="217"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="214" t="s">
+      <c r="F3" s="215"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="212" t="s">
         <v>325</v>
       </c>
-      <c r="I3" s="215"/>
-      <c r="J3" s="214" t="s">
+      <c r="I3" s="213"/>
+      <c r="J3" s="212" t="s">
         <v>326</v>
       </c>
-      <c r="K3" s="215"/>
+      <c r="K3" s="213"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D4" s="190"/>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="E5" s="194">
         <f>Select!C68</f>
-        <v>8.6999999999999994E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F5" s="195" t="str">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(Select!F68&lt;&gt;"",Select!F68,IF(Select!G68&lt;&gt;"",(100%-Select!G68)*Select!C68,"")))</f>
@@ -2986,11 +2986,11 @@
       </c>
       <c r="H5" s="197">
         <f>Modèle!D163</f>
-        <v>7.3784810126582279E-2</v>
+        <v>3.3924050632911443E-2</v>
       </c>
       <c r="I5" s="198">
         <f>Modèle!I163</f>
-        <v>7.3784810126582265E-2</v>
+        <v>3.3924050632911436E-2</v>
       </c>
       <c r="J5" s="208"/>
       <c r="K5" s="209"/>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="E6" s="201">
         <f>Select!C69</f>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="F6" s="203" t="str">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(Select!F69&lt;&gt;"",Select!F69,IF(Select!G69&lt;&gt;"",(100%-Select!G69)*Select!C69,"")))</f>
@@ -3012,21 +3012,21 @@
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F69&lt;&gt;"",Select!G69&lt;&gt;""),Select!E69,""))</f>
         <v/>
       </c>
-      <c r="H6" s="219">
+      <c r="H6" s="217">
         <f>Modèle!D164</f>
-        <v>0.27174915611814349</v>
-      </c>
-      <c r="I6" s="221">
+        <v>0.2075443037974681</v>
+      </c>
+      <c r="I6" s="219">
         <f>Modèle!I164</f>
-        <v>0.27698511809808679</v>
-      </c>
-      <c r="J6" s="219">
+        <v>0.23575416816926681</v>
+      </c>
+      <c r="J6" s="217">
         <f>Modèle!D192</f>
         <v>0</v>
       </c>
-      <c r="K6" s="221">
+      <c r="K6" s="219">
         <f>Modèle!H192</f>
-        <v>0.73717564368863553</v>
+        <v>0.62149337538873961</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3035,7 +3035,7 @@
         <v>Pays</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D7" s="200" t="str">
         <f>VLOOKUP(CONCATENATE(_Impot,_Impot_IMF),_Tables,3,FALSE)</f>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="E7" s="202">
         <f>Select!C70</f>
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="F7" s="206" t="str">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(Select!F70&lt;&gt;"",Select!F70,IF(Select!G70&lt;&gt;"",(100%-Select!G70)*Select!C70,"")))</f>
@@ -3053,10 +3053,10 @@
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F70&lt;&gt;"",Select!G70&lt;&gt;""),Select!E70,""))</f>
         <v/>
       </c>
-      <c r="H7" s="220"/>
-      <c r="I7" s="222"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="222"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="220"/>
+      <c r="J7" s="218"/>
+      <c r="K7" s="220"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D8" s="56" t="str">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="E8" s="194">
         <f>Select!C71</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F8" s="195" t="str">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(Select!F71&lt;&gt;"",Select!F71,IF(Select!G71&lt;&gt;"",(100%-Select!G71)*Select!C71,"")))</f>
@@ -3077,11 +3077,11 @@
       </c>
       <c r="H8" s="197">
         <f>Modèle!D165</f>
-        <v>7.7642616033755302E-2</v>
+        <v>3.4590717299578015E-2</v>
       </c>
       <c r="I8" s="198">
         <f>Modèle!I165</f>
-        <v>7.9138605170881962E-2</v>
+        <v>3.9292361361544466E-2</v>
       </c>
       <c r="J8" s="208"/>
       <c r="K8" s="209"/>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="E9" s="183">
         <f>Select!C72</f>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F9" s="80" t="str">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(Select!F72&lt;&gt;"",Select!F72,IF(Select!G72&lt;&gt;"",(100%-Select!G72)*Select!C72,"")))</f>
@@ -3112,11 +3112,11 @@
       </c>
       <c r="H9" s="188">
         <f>Modèle!D166</f>
-        <v>1.3924050632911397E-2</v>
+        <v>1.044303797468356E-2</v>
       </c>
       <c r="I9" s="172">
         <f>Modèle!I166</f>
-        <v>1.3924050632911395E-2</v>
+        <v>1.0443037974683558E-2</v>
       </c>
       <c r="J9" s="210"/>
       <c r="K9" s="211"/>
@@ -3166,11 +3166,11 @@
       <c r="G11" s="52"/>
       <c r="H11" s="189">
         <f>Modèle!D168</f>
-        <v>0.43710063291139256</v>
+        <v>0.28650210970464107</v>
       </c>
       <c r="I11" s="174">
         <f>Modèle!I168</f>
-        <v>0.44383258402846243</v>
+        <v>0.31941361813840624</v>
       </c>
       <c r="J11" s="189">
         <f>Modèle!D195</f>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="K11" s="174">
         <f>Modèle!H195</f>
-        <v>1</v>
+        <v>0.86390257497952883</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3193,15 +3193,15 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="212" t="str">
+      <c r="A16" s="221" t="str">
         <f>VLOOKUP(_Bilan,_Tables,4,FALSE)</f>
         <v>Bilan à l'ouverture</v>
       </c>
-      <c r="B16" s="212"/>
-      <c r="C16" s="212"/>
-      <c r="D16" s="212"/>
-      <c r="E16" s="212"/>
-      <c r="F16" s="212"/>
+      <c r="B16" s="221"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="221"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="221"/>
       <c r="H16" s="73" t="str">
         <f>VLOOKUP(_PIBPNB,_Tables,4,FALSE)</f>
         <v>PIB ou PNB</v>
@@ -3211,18 +3211,18 @@
       <c r="K16" s="68"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="213" t="str">
+      <c r="A17" s="222" t="str">
         <f>VLOOKUP(_Actif,_Tables,4,FALSE)</f>
         <v>Actif</v>
       </c>
-      <c r="B17" s="213"/>
-      <c r="C17" s="213"/>
-      <c r="D17" s="213" t="str">
+      <c r="B17" s="222"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="222" t="str">
         <f>VLOOKUP(_Passif,_Tables,4,FALSE)</f>
         <v>Passif</v>
       </c>
-      <c r="E17" s="213"/>
-      <c r="F17" s="213"/>
+      <c r="E17" s="222"/>
+      <c r="F17" s="222"/>
       <c r="H17" s="56" t="str">
         <f>_PIBPNB_Liste</f>
         <v>PIB/tête</v>
@@ -3230,7 +3230,7 @@
       <c r="I17" s="57"/>
       <c r="J17" s="69">
         <f>_PIBPNB_Select</f>
-        <v>506611.40425374068</v>
+        <v>446686.61040326342</v>
       </c>
       <c r="K17" s="70" t="s">
         <v>251</v>
@@ -3527,29 +3527,29 @@
       <c r="K29" s="70"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="212" t="str">
+      <c r="A31" s="221" t="str">
         <f>VLOOKUP(_CompteDeResultat,_Tables,4,FALSE)</f>
         <v>Compte de résultat</v>
       </c>
-      <c r="B31" s="212"/>
-      <c r="C31" s="212"/>
-      <c r="D31" s="212"/>
-      <c r="E31" s="212"/>
-      <c r="F31" s="212"/>
+      <c r="B31" s="221"/>
+      <c r="C31" s="221"/>
+      <c r="D31" s="221"/>
+      <c r="E31" s="221"/>
+      <c r="F31" s="221"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="213" t="str">
+      <c r="A32" s="222" t="str">
         <f>VLOOKUP(_Charges,_Tables,4,FALSE)</f>
         <v>Charges</v>
       </c>
-      <c r="B32" s="213"/>
-      <c r="C32" s="213"/>
-      <c r="D32" s="213" t="str">
+      <c r="B32" s="222"/>
+      <c r="C32" s="222"/>
+      <c r="D32" s="222" t="str">
         <f>VLOOKUP(_Produits,_Tables,4,FALSE)</f>
         <v>Produits</v>
       </c>
-      <c r="E32" s="213"/>
-      <c r="F32" s="213"/>
+      <c r="E32" s="222"/>
+      <c r="F32" s="222"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="59" t="str">
@@ -3799,23 +3799,23 @@
       </c>
       <c r="B52" s="80">
         <f>_CFE_Taux_Select1</f>
-        <v>8.6999999999999994E-2</v>
+        <v>0.04</v>
       </c>
       <c r="C52" s="80">
         <f>_CFE_Taux_Select2</f>
-        <v>8.6999999999999994E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D52" s="80">
         <f>_CFE_Taux_Select3</f>
-        <v>8.6999999999999994E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E52" s="80">
         <f>_CFE_Taux_Select4</f>
-        <v>8.6999999999999994E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F52" s="81">
         <f>_CFE_Taux_Select5</f>
-        <v>8.6999999999999994E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H52" s="38" t="str">
         <f>VLOOKUP(_Constructions,_Tables,4,FALSE)</f>
@@ -3838,23 +3838,23 @@
       </c>
       <c r="B53" s="80">
         <f>_IS_Taux_Select1</f>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="C53" s="80">
         <f>_IS_Taux_Select2</f>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D53" s="80">
         <f>_IS_Taux_Select3</f>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="E53" s="80">
         <f>_IS_Taux_Select4</f>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="F53" s="81">
         <f>_IS_Taux_Select5</f>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="H53" s="38" t="str">
         <f>VLOOKUP(_Equipement,_Tables,4,FALSE)</f>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="K53" s="41">
         <f>_Equipement_CoefDegressif_Select</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -3877,23 +3877,23 @@
       </c>
       <c r="B54" s="80">
         <f>_IMF_Taux_Select1</f>
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C54" s="80">
         <f>_IMF_Taux_Select2</f>
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="D54" s="80">
         <f>_IMF_Taux_Select3</f>
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="E54" s="80">
         <f>_IMF_Taux_Select4</f>
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="F54" s="81">
         <f>_IMF_Taux_Select5</f>
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="H54" s="38" t="str">
         <f>VLOOKUP(_Camion,_Tables,4,FALSE)</f>
@@ -3916,23 +3916,23 @@
       </c>
       <c r="B55" s="80">
         <f>_IRVM_Taux_Select1</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C55" s="80">
         <f>_IRVM_Taux_Select2</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D55" s="80">
         <f>_IRVM_Taux_Select3</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E55" s="80">
         <f>_IRVM_Taux_Select4</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F55" s="81">
         <f>_IRVM_Taux_Select5</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H55" s="38" t="str">
         <f>VLOOKUP(_Informatique,_Tables,4,FALSE)</f>
@@ -3941,7 +3941,7 @@
       <c r="I55" s="39"/>
       <c r="J55" s="40">
         <f>_Informatique_DureeLineaire_Select</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K55" s="41">
         <f>_Informatique_CoefDegressif_Select</f>
@@ -3955,23 +3955,23 @@
       </c>
       <c r="B56" s="80">
         <f>_IRC_Taux_Select1</f>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="C56" s="80">
         <f>_IRC_Taux_Select2</f>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D56" s="80">
         <f>_IRC_Taux_Select3</f>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E56" s="80">
         <f>_IRC_Taux_Select4</f>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F56" s="81">
         <f>_IRC_Taux_Select5</f>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="H56" s="45" t="str">
         <f>VLOOKUP(_Bureau,_Tables,4,FALSE)</f>
@@ -4065,6 +4065,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="E3:G3"/>
@@ -4072,12 +4078,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4122,8 +4122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="G38" s="30">
         <f>VLOOKUP($B$38,_BaseFisc,_ColonneFisc_Select,FALSE)</f>
-        <v>506611.40425374068</v>
+        <v>446686.61040326342</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="G40" s="32">
         <f>IF(G39&lt;&gt;"",G39,G38)</f>
-        <v>506611.40425374068</v>
+        <v>446686.61040326342</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="B42" s="19" t="str">
         <f>VLOOKUP(1,$C43:$D54,2,FALSE)</f>
-        <v>_TCD</v>
+        <v>_BEN</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="C43" s="3">
         <f t="shared" ref="C43:C54" si="3">IF(_Pays_Liste=$B43,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="3" t="str">
         <f>_Pays_BEN</f>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="C53" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="3" t="str">
         <f>_Pays_TCD</f>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="B56" s="19">
         <f>HLOOKUP(_Pays_Select,BaseFisc!$E$1:$R$2,2,FALSE)</f>
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="C68" s="12">
         <f>IF(VLOOKUP(CONCATENATE($C$66,$B68,C$67),_BaseFisc,_ColonneFisc_Select,FALSE)="","",VLOOKUP(CONCATENATE($C$66,$B68,C$67),_BaseFisc,_ColonneFisc_Select,FALSE))</f>
-        <v>8.6999999999999994E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E68" s="23" t="str">
         <f t="shared" ref="E68:G73" si="4">IF(VLOOKUP(CONCATENATE($E$66,$B68,E$67),_BaseFisc,_ColonneFisc_Select,FALSE)="","",VLOOKUP(CONCATENATE($E$66,$B68,E$67),_BaseFisc,_ColonneFisc_Select,FALSE))</f>
@@ -5024,23 +5024,23 @@
       <c r="N68" s="25"/>
       <c r="P68" s="24">
         <f t="shared" ref="P68:T73" si="6">IF(J68&lt;&gt;"",J68,IF(OR(_Regime_Select=_Regime_Gen,$H68=_Regime_Gen),$C68,IF($E68&lt;P$67,$C68,IF($H68=_Information_Taux,$F68,IF($H68=_Information_ReducExo,(1-$G68)*$C68,_Error)))))</f>
-        <v>8.6999999999999994E-2</v>
+        <v>0.04</v>
       </c>
       <c r="Q68" s="24">
         <f t="shared" si="6"/>
-        <v>8.6999999999999994E-2</v>
+        <v>0.04</v>
       </c>
       <c r="R68" s="24">
         <f t="shared" si="6"/>
-        <v>8.6999999999999994E-2</v>
+        <v>0.04</v>
       </c>
       <c r="S68" s="24">
         <f t="shared" si="6"/>
-        <v>8.6999999999999994E-2</v>
+        <v>0.04</v>
       </c>
       <c r="T68" s="24">
         <f t="shared" si="6"/>
-        <v>8.6999999999999994E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
@@ -5049,8 +5049,8 @@
         <v>_IS</v>
       </c>
       <c r="C69" s="12">
-        <f t="shared" ref="C68:C73" si="7">IF(VLOOKUP(CONCATENATE($C$66,$B69,C$67),_BaseFisc,_ColonneFisc_Select,FALSE)="","",VLOOKUP(CONCATENATE($C$66,$B69,C$67),_BaseFisc,_ColonneFisc_Select,FALSE))</f>
-        <v>0.35</v>
+        <f t="shared" ref="C69:C73" si="7">IF(VLOOKUP(CONCATENATE($C$66,$B69,C$67),_BaseFisc,_ColonneFisc_Select,FALSE)="","",VLOOKUP(CONCATENATE($C$66,$B69,C$67),_BaseFisc,_ColonneFisc_Select,FALSE))</f>
+        <v>0.3</v>
       </c>
       <c r="E69" s="23">
         <f>IF(VLOOKUP(CONCATENATE($E$66,$B69,E$67),_BaseFisc,_ColonneFisc_Select,FALSE)="","",VLOOKUP(CONCATENATE($E$66,$B69,E$67),_BaseFisc,_ColonneFisc_Select,FALSE))</f>
@@ -5075,23 +5075,23 @@
       <c r="N69" s="25"/>
       <c r="P69" s="24">
         <f t="shared" si="6"/>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="Q69" s="24">
         <f t="shared" si="6"/>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="R69" s="24">
         <f t="shared" si="6"/>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="S69" s="24">
         <f t="shared" si="6"/>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="T69" s="24">
         <f t="shared" si="6"/>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
@@ -5101,23 +5101,23 @@
       </c>
       <c r="C70" s="12">
         <f t="shared" si="7"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E70" s="23">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E70" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="F70" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="H70" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>_ReducExo</v>
+        <v>_Gen</v>
       </c>
       <c r="J70" s="25"/>
       <c r="K70" s="25"/>
@@ -5126,23 +5126,23 @@
       <c r="N70" s="25"/>
       <c r="P70" s="24">
         <f t="shared" si="6"/>
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q70" s="24">
         <f t="shared" si="6"/>
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="R70" s="24">
         <f t="shared" si="6"/>
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="S70" s="24">
         <f t="shared" si="6"/>
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="T70" s="24">
         <f t="shared" si="6"/>
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="C71" s="12">
         <f t="shared" si="7"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E71" s="23" t="str">
         <f t="shared" si="4"/>
@@ -5177,23 +5177,23 @@
       <c r="N71" s="25"/>
       <c r="P71" s="24">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Q71" s="24">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="R71" s="24">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S71" s="24">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T71" s="24">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="C72" s="12">
         <f t="shared" si="7"/>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E72" s="23" t="str">
         <f t="shared" si="4"/>
@@ -5228,23 +5228,23 @@
       <c r="N72" s="25"/>
       <c r="P72" s="24">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="Q72" s="24">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="R72" s="24">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="S72" s="24">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="T72" s="24">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="D78" s="23">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="J78" s="26">
         <f>IF(G78&lt;&gt;"",G78,IF(D78="",1,IF(D78&lt;1,_Error,D78)))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
@@ -5421,7 +5421,7 @@
       </c>
       <c r="C80" s="23">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" s="23" t="str">
         <f t="shared" si="8"/>
@@ -5431,7 +5431,7 @@
       <c r="G80" s="27"/>
       <c r="I80" s="26">
         <f>IF(F80&lt;&gt;"",F80,IF(C80&lt;1,_Error,C80))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J80" s="26">
         <f>IF(G80&lt;&gt;"",G80,IF(D80="",1,IF(D80&lt;1,_Error,D80)))</f>
@@ -5566,7 +5566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:D114"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7117,10 +7117,10 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9009,7 +9009,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9430,11 +9430,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J195"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9486,7 +9486,7 @@
       </c>
       <c r="C4" s="93">
         <f>(_Terrain_Select+_Constructions_Select+_Equipement_Select+_Camion_Select+_Informatique_Select+_Bureau_Select)*_PIBPNB_Select</f>
-        <v>73458653.616792396</v>
+        <v>64769558.508473195</v>
       </c>
       <c r="D4" s="91"/>
       <c r="E4" s="91"/>
@@ -9509,23 +9509,23 @@
       <c r="C7" s="116"/>
       <c r="D7" s="117">
         <f>D$22</f>
-        <v>1013222.8085074815</v>
+        <v>893373.22080652684</v>
       </c>
       <c r="E7" s="117">
         <f t="shared" ref="E7:H7" si="0">E$22</f>
-        <v>1013222.8085074815</v>
+        <v>893373.2208065266</v>
       </c>
       <c r="F7" s="117">
         <f t="shared" si="0"/>
-        <v>1013222.8085074816</v>
+        <v>893373.22080652672</v>
       </c>
       <c r="G7" s="117">
         <f t="shared" si="0"/>
-        <v>1013222.8085074815</v>
+        <v>893373.22080652672</v>
       </c>
       <c r="H7" s="118">
         <f t="shared" si="0"/>
-        <v>1013222.8085074815</v>
+        <v>893373.22080652684</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -9538,23 +9538,23 @@
       <c r="C8" s="119"/>
       <c r="D8" s="113">
         <f>D$32</f>
-        <v>3039668.4255224443</v>
+        <v>6700299.1560489517</v>
       </c>
       <c r="E8" s="113">
         <f t="shared" ref="E8:H8" si="1">E$32</f>
-        <v>3039668.4255224438</v>
+        <v>5025224.3670367133</v>
       </c>
       <c r="F8" s="113">
         <f t="shared" si="1"/>
-        <v>3039668.4255224443</v>
+        <v>3768918.275277535</v>
       </c>
       <c r="G8" s="113">
         <f t="shared" si="1"/>
-        <v>3039668.4255224443</v>
+        <v>2826688.7064581513</v>
       </c>
       <c r="H8" s="120">
         <f t="shared" si="1"/>
-        <v>3039668.4255224448</v>
+        <v>2120016.5298436135</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -9567,15 +9567,15 @@
       <c r="C9" s="119"/>
       <c r="D9" s="113">
         <f>D$42</f>
-        <v>844352.34042290109</v>
+        <v>744477.68400543893</v>
       </c>
       <c r="E9" s="113">
         <f t="shared" ref="E9:H9" si="2">E$42</f>
-        <v>844352.34042290121</v>
+        <v>744477.68400543905</v>
       </c>
       <c r="F9" s="113">
         <f t="shared" si="2"/>
-        <v>844352.34042290121</v>
+        <v>744477.68400543905</v>
       </c>
       <c r="G9" s="113">
         <f t="shared" si="2"/>
@@ -9596,15 +9596,15 @@
       <c r="C10" s="119"/>
       <c r="D10" s="113">
         <f>D$52</f>
-        <v>844352.34042290109</v>
+        <v>1116716.5260081585</v>
       </c>
       <c r="E10" s="113">
         <f t="shared" ref="E10:H10" si="3">E$52</f>
-        <v>844352.34042290121</v>
+        <v>1116716.5260081585</v>
       </c>
       <c r="F10" s="113">
         <f t="shared" si="3"/>
-        <v>844352.34042290121</v>
+        <v>0</v>
       </c>
       <c r="G10" s="113">
         <f t="shared" si="3"/>
@@ -9625,23 +9625,23 @@
       <c r="C11" s="119"/>
       <c r="D11" s="113">
         <f>D$62</f>
-        <v>253305.70212687037</v>
+        <v>223343.30520163171</v>
       </c>
       <c r="E11" s="113">
         <f t="shared" ref="E11:H11" si="4">E$62</f>
-        <v>253305.70212687034</v>
+        <v>223343.30520163168</v>
       </c>
       <c r="F11" s="113">
         <f t="shared" si="4"/>
-        <v>253305.70212687034</v>
+        <v>223343.30520163168</v>
       </c>
       <c r="G11" s="113">
         <f t="shared" si="4"/>
-        <v>253305.70212687031</v>
+        <v>223343.30520163165</v>
       </c>
       <c r="H11" s="120">
         <f t="shared" si="4"/>
-        <v>253305.70212687031</v>
+        <v>223343.30520163165</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -9654,23 +9654,23 @@
       <c r="C12" s="121"/>
       <c r="D12" s="122">
         <f>SUM(D7:D11)</f>
-        <v>5994901.617002598</v>
+        <v>9678209.8920707069</v>
       </c>
       <c r="E12" s="122">
         <f t="shared" ref="E12:H12" si="5">SUM(E7:E11)</f>
-        <v>5994901.617002598</v>
+        <v>8003135.1030584695</v>
       </c>
       <c r="F12" s="122">
         <f t="shared" si="5"/>
-        <v>5994901.617002598</v>
+        <v>5630112.4852911327</v>
       </c>
       <c r="G12" s="122">
         <f t="shared" si="5"/>
-        <v>4306196.9361567963</v>
+        <v>3943405.2324663098</v>
       </c>
       <c r="H12" s="123">
         <f t="shared" si="5"/>
-        <v>4306196.9361567963</v>
+        <v>3236733.055851772</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -9682,7 +9682,7 @@
       </c>
       <c r="D14" s="95">
         <f>_Constructions_Select*_PIBPNB_Select</f>
-        <v>20264456.170149628</v>
+        <v>17867464.416130535</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -9748,23 +9748,23 @@
       <c r="C19" s="102"/>
       <c r="D19" s="103">
         <f>D14</f>
-        <v>20264456.170149628</v>
+        <v>17867464.416130535</v>
       </c>
       <c r="E19" s="104">
         <f>D19-D22</f>
-        <v>19251233.361642148</v>
+        <v>16974091.195324007</v>
       </c>
       <c r="F19" s="104">
         <f t="shared" ref="F19:H19" si="7">E19-E22</f>
-        <v>18238010.553134669</v>
+        <v>16080717.974517481</v>
       </c>
       <c r="G19" s="104">
         <f t="shared" si="7"/>
-        <v>17224787.744627185</v>
+        <v>15187344.753710955</v>
       </c>
       <c r="H19" s="105">
         <f t="shared" si="7"/>
-        <v>16211564.936119704</v>
+        <v>14293971.532904429</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -9835,23 +9835,23 @@
       <c r="C22" s="109"/>
       <c r="D22" s="110">
         <f>D19*D21</f>
-        <v>1013222.8085074815</v>
+        <v>893373.22080652684</v>
       </c>
       <c r="E22" s="110">
         <f t="shared" ref="E22:H22" si="9">E19*E21</f>
-        <v>1013222.8085074815</v>
+        <v>893373.2208065266</v>
       </c>
       <c r="F22" s="110">
         <f t="shared" si="9"/>
-        <v>1013222.8085074816</v>
+        <v>893373.22080652672</v>
       </c>
       <c r="G22" s="110">
         <f t="shared" si="9"/>
-        <v>1013222.8085074815</v>
+        <v>893373.22080652672</v>
       </c>
       <c r="H22" s="111">
         <f t="shared" si="9"/>
-        <v>1013222.8085074815</v>
+        <v>893373.22080652684</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -9863,7 +9863,7 @@
       </c>
       <c r="D24" s="95">
         <f>_Equipement_Select*_PIBPNB_Select</f>
-        <v>30396684.25522444</v>
+        <v>26801196.624195807</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -9887,7 +9887,7 @@
       </c>
       <c r="D26" s="94">
         <f>_Equipement_CoefDegressif_Select</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -9929,23 +9929,23 @@
       <c r="C29" s="102"/>
       <c r="D29" s="103">
         <f>D24</f>
-        <v>30396684.25522444</v>
+        <v>26801196.624195807</v>
       </c>
       <c r="E29" s="104">
         <f>D29-D32</f>
-        <v>27357015.829701997</v>
+        <v>20100897.468146853</v>
       </c>
       <c r="F29" s="104">
         <f t="shared" ref="F29" si="13">E29-E32</f>
-        <v>24317347.404179554</v>
+        <v>15075673.10111014</v>
       </c>
       <c r="G29" s="104">
         <f t="shared" ref="G29" si="14">F29-F32</f>
-        <v>21277678.978657112</v>
+        <v>11306754.825832605</v>
       </c>
       <c r="H29" s="105">
         <f t="shared" ref="H29" si="15">G29-G32</f>
-        <v>18238010.553134669</v>
+        <v>8480066.119374454</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -9987,23 +9987,23 @@
       <c r="C31" s="102"/>
       <c r="D31" s="106">
         <f>IF(D28=0,0,IF($D26*$D30&gt;100%,100%,IF($D26*$D30&gt;D30,$D26*$D30,D30)))</f>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E31" s="106">
         <f>IF(E28=0,0,IF($D26*$D30&gt;100%,100%,IF($D26*$D30&gt;E30,$D26*$D30,E30)))</f>
-        <v>0.1111111111111111</v>
+        <v>0.25</v>
       </c>
       <c r="F31" s="106">
         <f>IF(F28=0,0,IF($D26*$D30&gt;100%,100%,IF($D26*$D30&gt;F30,$D26*$D30,F30)))</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="G31" s="106">
         <f>IF(G28=0,0,IF($D26*$D30&gt;100%,100%,IF($D26*$D30&gt;G30,$D26*$D30,G30)))</f>
-        <v>0.14285714285714285</v>
+        <v>0.25</v>
       </c>
       <c r="H31" s="107">
         <f>IF(H28=0,0,IF($D26*$D30&gt;100%,100%,IF($D26*$D30&gt;H30,$D26*$D30,H30)))</f>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -10016,23 +10016,23 @@
       <c r="C32" s="109"/>
       <c r="D32" s="110">
         <f>D29*D31</f>
-        <v>3039668.4255224443</v>
+        <v>6700299.1560489517</v>
       </c>
       <c r="E32" s="110">
         <f t="shared" ref="E32:H32" si="17">E29*E31</f>
-        <v>3039668.4255224438</v>
+        <v>5025224.3670367133</v>
       </c>
       <c r="F32" s="110">
         <f t="shared" si="17"/>
-        <v>3039668.4255224443</v>
+        <v>3768918.275277535</v>
       </c>
       <c r="G32" s="110">
         <f t="shared" si="17"/>
-        <v>3039668.4255224443</v>
+        <v>2826688.7064581513</v>
       </c>
       <c r="H32" s="111">
         <f t="shared" si="17"/>
-        <v>3039668.4255224448</v>
+        <v>2120016.5298436135</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -10044,7 +10044,7 @@
       </c>
       <c r="D34" s="95">
         <f>_Camion_Select*_PIBPNB_Select</f>
-        <v>2533057.0212687035</v>
+        <v>2233433.0520163169</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -10110,15 +10110,15 @@
       <c r="C39" s="102"/>
       <c r="D39" s="103">
         <f>D34</f>
-        <v>2533057.0212687035</v>
+        <v>2233433.0520163169</v>
       </c>
       <c r="E39" s="104">
         <f>D39-D42</f>
-        <v>1688704.6808458024</v>
+        <v>1488955.3680108781</v>
       </c>
       <c r="F39" s="104">
         <f t="shared" ref="F39" si="21">E39-E42</f>
-        <v>844352.34042290121</v>
+        <v>744477.68400543905</v>
       </c>
       <c r="G39" s="104">
         <f t="shared" ref="G39" si="22">F39-F42</f>
@@ -10197,15 +10197,15 @@
       <c r="C42" s="109"/>
       <c r="D42" s="110">
         <f>D39*D41</f>
-        <v>844352.34042290109</v>
+        <v>744477.68400543893</v>
       </c>
       <c r="E42" s="110">
         <f t="shared" ref="E42:H42" si="25">E39*E41</f>
-        <v>844352.34042290121</v>
+        <v>744477.68400543905</v>
       </c>
       <c r="F42" s="110">
         <f t="shared" si="25"/>
-        <v>844352.34042290121</v>
+        <v>744477.68400543905</v>
       </c>
       <c r="G42" s="110">
         <f t="shared" si="25"/>
@@ -10225,7 +10225,7 @@
       </c>
       <c r="D44" s="95">
         <f>_Informatique_Select*_PIBPNB_Select</f>
-        <v>2533057.0212687035</v>
+        <v>2233433.0520163169</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -10237,7 +10237,7 @@
       </c>
       <c r="D45" s="94">
         <f>_Informatique_DureeLineaire_Select</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -10262,15 +10262,15 @@
       <c r="C48" s="97"/>
       <c r="D48" s="98">
         <f>D45</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" s="99">
         <f>IF(D48-1&gt;0,D48-1,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" s="99">
         <f t="shared" ref="F48" si="26">IF(E48-1&gt;0,E48-1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="99">
         <f t="shared" ref="G48" si="27">IF(F48-1&gt;0,F48-1,0)</f>
@@ -10291,15 +10291,15 @@
       <c r="C49" s="102"/>
       <c r="D49" s="103">
         <f>D44</f>
-        <v>2533057.0212687035</v>
+        <v>2233433.0520163169</v>
       </c>
       <c r="E49" s="104">
         <f>D49-D52</f>
-        <v>1688704.6808458024</v>
+        <v>1116716.5260081585</v>
       </c>
       <c r="F49" s="104">
         <f t="shared" ref="F49" si="29">E49-E52</f>
-        <v>844352.34042290121</v>
+        <v>0</v>
       </c>
       <c r="G49" s="104">
         <f t="shared" ref="G49" si="30">F49-F52</f>
@@ -10320,15 +10320,15 @@
       <c r="C50" s="102"/>
       <c r="D50" s="106">
         <f>IF(D48&gt;0,1/D48,0)</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E50" s="106">
         <f t="shared" ref="E50:H50" si="32">IF(E48&gt;0,1/E48,0)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F50" s="106">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" s="106">
         <f t="shared" si="32"/>
@@ -10349,15 +10349,15 @@
       <c r="C51" s="102"/>
       <c r="D51" s="106">
         <f>IF(D48=0,0,IF($D46*$D50&gt;100%,100%,IF($D46*$D50&gt;D50,$D46*$D50,D50)))</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E51" s="106">
         <f>IF(E48=0,0,IF($D46*$D50&gt;100%,100%,IF($D46*$D50&gt;E50,$D46*$D50,E50)))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F51" s="106">
         <f>IF(F48=0,0,IF($D46*$D50&gt;100%,100%,IF($D46*$D50&gt;F50,$D46*$D50,F50)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="106">
         <f>IF(G48=0,0,IF($D46*$D50&gt;100%,100%,IF($D46*$D50&gt;G50,$D46*$D50,G50)))</f>
@@ -10378,15 +10378,15 @@
       <c r="C52" s="109"/>
       <c r="D52" s="110">
         <f>D49*D51</f>
-        <v>844352.34042290109</v>
+        <v>1116716.5260081585</v>
       </c>
       <c r="E52" s="110">
         <f t="shared" ref="E52:H52" si="33">E49*E51</f>
-        <v>844352.34042290121</v>
+        <v>1116716.5260081585</v>
       </c>
       <c r="F52" s="110">
         <f t="shared" si="33"/>
-        <v>844352.34042290121</v>
+        <v>0</v>
       </c>
       <c r="G52" s="110">
         <f t="shared" si="33"/>
@@ -10406,7 +10406,7 @@
       </c>
       <c r="D54" s="95">
         <f>_Bureau_Select*_PIBPNB_Select</f>
-        <v>2533057.0212687035</v>
+        <v>2233433.0520163169</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -10472,23 +10472,23 @@
       <c r="C59" s="102"/>
       <c r="D59" s="103">
         <f>D54</f>
-        <v>2533057.0212687035</v>
+        <v>2233433.0520163169</v>
       </c>
       <c r="E59" s="104">
         <f>D59-D62</f>
-        <v>2279751.3191418331</v>
+        <v>2010089.7468146852</v>
       </c>
       <c r="F59" s="104">
         <f t="shared" ref="F59" si="37">E59-E62</f>
-        <v>2026445.6170149627</v>
+        <v>1786746.4416130534</v>
       </c>
       <c r="G59" s="104">
         <f t="shared" ref="G59" si="38">F59-F62</f>
-        <v>1773139.9148880923</v>
+        <v>1563403.1364114217</v>
       </c>
       <c r="H59" s="105">
         <f t="shared" ref="H59" si="39">G59-G62</f>
-        <v>1519834.2127612219</v>
+        <v>1340059.83120979</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -10559,23 +10559,23 @@
       <c r="C62" s="109"/>
       <c r="D62" s="110">
         <f>D59*D61</f>
-        <v>253305.70212687037</v>
+        <v>223343.30520163171</v>
       </c>
       <c r="E62" s="110">
         <f t="shared" ref="E62:H62" si="41">E59*E61</f>
-        <v>253305.70212687034</v>
+        <v>223343.30520163168</v>
       </c>
       <c r="F62" s="110">
         <f t="shared" si="41"/>
-        <v>253305.70212687034</v>
+        <v>223343.30520163168</v>
       </c>
       <c r="G62" s="110">
         <f t="shared" si="41"/>
-        <v>253305.70212687031</v>
+        <v>223343.30520163165</v>
       </c>
       <c r="H62" s="111">
         <f t="shared" si="41"/>
-        <v>253305.70212687031</v>
+        <v>223343.30520163165</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -10592,7 +10592,7 @@
       </c>
       <c r="D65" s="95">
         <f>(_Terrain_Select+_Constructions_Select+_Equipement_Select+_Camion_Select+_Informatique_Select+_Bureau_Select)*_PIBPNB_Select</f>
-        <v>73458653.616792396</v>
+        <v>64769558.508473195</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -10825,23 +10825,23 @@
       <c r="C80" s="116"/>
       <c r="D80" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4559502.6382836662</v>
+        <v>4020179.4936293708</v>
       </c>
       <c r="E80" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4559502.6382836662</v>
+        <v>4020179.4936293708</v>
       </c>
       <c r="F80" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4559502.6382836662</v>
+        <v>4020179.4936293708</v>
       </c>
       <c r="G80" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4559502.6382836662</v>
+        <v>4020179.4936293708</v>
       </c>
       <c r="H80" s="128">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4559502.6382836662</v>
+        <v>4020179.4936293708</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -10854,23 +10854,23 @@
       <c r="C81" s="119"/>
       <c r="D81" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>4466866.1040326338</v>
       </c>
       <c r="E81" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>4466866.1040326338</v>
       </c>
       <c r="F81" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>4466866.1040326338</v>
       </c>
       <c r="G81" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>4466866.1040326338</v>
       </c>
       <c r="H81" s="130">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>4466866.1040326338</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -10883,23 +10883,23 @@
       <c r="C82" s="119"/>
       <c r="D82" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>24317347.404179551</v>
+        <v>21440957.299356643</v>
       </c>
       <c r="E82" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>24317347.404179551</v>
+        <v>21440957.299356643</v>
       </c>
       <c r="F82" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>24317347.404179551</v>
+        <v>21440957.299356643</v>
       </c>
       <c r="G82" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>24317347.404179551</v>
+        <v>21440957.299356643</v>
       </c>
       <c r="H82" s="130">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>24317347.404179551</v>
+        <v>21440957.299356643</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -10912,23 +10912,23 @@
       <c r="C83" s="119"/>
       <c r="D83" s="114">
         <f>SUM(D80:D82)</f>
-        <v>33942964.085000619</v>
+        <v>29928002.897018649</v>
       </c>
       <c r="E83" s="114">
         <f t="shared" ref="E83:H83" si="47">SUM(E80:E82)</f>
-        <v>33942964.085000619</v>
+        <v>29928002.897018649</v>
       </c>
       <c r="F83" s="114">
         <f t="shared" si="47"/>
-        <v>33942964.085000619</v>
+        <v>29928002.897018649</v>
       </c>
       <c r="G83" s="114">
         <f t="shared" si="47"/>
-        <v>33942964.085000619</v>
+        <v>29928002.897018649</v>
       </c>
       <c r="H83" s="131">
         <f t="shared" si="47"/>
-        <v>33942964.085000619</v>
+        <v>29928002.897018649</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -10941,23 +10941,23 @@
       <c r="C84" s="119"/>
       <c r="D84" s="125">
         <f>_CFE_Taux_Select1</f>
-        <v>8.6999999999999994E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E84" s="125">
         <f>_CFE_Taux_Select2</f>
-        <v>8.6999999999999994E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F84" s="125">
         <f>_CFE_Taux_Select3</f>
-        <v>8.6999999999999994E-2</v>
+        <v>0.04</v>
       </c>
       <c r="G84" s="125">
         <f>_CFE_Taux_Select4</f>
-        <v>8.6999999999999994E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H84" s="126">
         <f>_CFE_Taux_Select5</f>
-        <v>8.6999999999999994E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -10970,23 +10970,23 @@
       <c r="C85" s="121"/>
       <c r="D85" s="110">
         <f>D83*D84</f>
-        <v>2953037.8753950535</v>
+        <v>1197120.1158807459</v>
       </c>
       <c r="E85" s="110">
         <f t="shared" ref="E85:H85" si="48">E83*E84</f>
-        <v>2953037.8753950535</v>
+        <v>1197120.1158807459</v>
       </c>
       <c r="F85" s="110">
         <f t="shared" si="48"/>
-        <v>2953037.8753950535</v>
+        <v>1197120.1158807459</v>
       </c>
       <c r="G85" s="110">
         <f t="shared" si="48"/>
-        <v>2953037.8753950535</v>
+        <v>1197120.1158807459</v>
       </c>
       <c r="H85" s="111">
         <f t="shared" si="48"/>
-        <v>2953037.8753950535</v>
+        <v>1197120.1158807459</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -11004,23 +11004,23 @@
       <c r="C88" s="116"/>
       <c r="D88" s="127">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2786362.7233955739</v>
+        <v>2456776.3572179489</v>
       </c>
       <c r="E88" s="127">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2786362.7233955739</v>
+        <v>2456776.3572179489</v>
       </c>
       <c r="F88" s="127">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2786362.7233955739</v>
+        <v>2456776.3572179489</v>
       </c>
       <c r="G88" s="127">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2786362.7233955739</v>
+        <v>2456776.3572179489</v>
       </c>
       <c r="H88" s="128">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2786362.7233955739</v>
+        <v>2456776.3572179489</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -11033,23 +11033,23 @@
       <c r="C89" s="119"/>
       <c r="D89" s="125">
         <f>_IRC_Taux_Select1</f>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E89" s="125">
         <f>_IRC_Taux_Select2</f>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F89" s="125">
         <f>_IRC_Taux_Select3</f>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="G89" s="125">
         <f>_IRC_Taux_Select4</f>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="H89" s="126">
         <f>_IRC_Taux_Select5</f>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -11062,23 +11062,23 @@
       <c r="C90" s="121"/>
       <c r="D90" s="110">
         <f>D88*D89</f>
-        <v>557272.54467911483</v>
+        <v>368516.45358269231</v>
       </c>
       <c r="E90" s="110">
         <f t="shared" ref="E90" si="49">E88*E89</f>
-        <v>557272.54467911483</v>
+        <v>368516.45358269231</v>
       </c>
       <c r="F90" s="110">
         <f t="shared" ref="F90" si="50">F88*F89</f>
-        <v>557272.54467911483</v>
+        <v>368516.45358269231</v>
       </c>
       <c r="G90" s="110">
         <f t="shared" ref="G90" si="51">G88*G89</f>
-        <v>557272.54467911483</v>
+        <v>368516.45358269231</v>
       </c>
       <c r="H90" s="111">
         <f t="shared" ref="H90" si="52">H88*H89</f>
-        <v>557272.54467911483</v>
+        <v>368516.45358269231</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -11096,23 +11096,23 @@
       <c r="C93" s="91"/>
       <c r="D93" s="93">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>531941974.46642768</v>
+        <v>469020940.92342657</v>
       </c>
       <c r="E93" s="93">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>531941974.46642768</v>
+        <v>469020940.92342657</v>
       </c>
       <c r="F93" s="93">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>531941974.46642768</v>
+        <v>469020940.92342657</v>
       </c>
       <c r="G93" s="93">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>531941974.46642768</v>
+        <v>469020940.92342657</v>
       </c>
       <c r="H93" s="137">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>531941974.46642768</v>
+        <v>469020940.92342657</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -11125,23 +11125,23 @@
       <c r="C94" s="119"/>
       <c r="D94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>443284978.72202307</v>
+        <v>390850784.1028555</v>
       </c>
       <c r="E94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>443284978.72202307</v>
+        <v>390850784.1028555</v>
       </c>
       <c r="F94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>443284978.72202307</v>
+        <v>390850784.1028555</v>
       </c>
       <c r="G94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>443284978.72202307</v>
+        <v>390850784.1028555</v>
       </c>
       <c r="H94" s="130">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>443284978.72202307</v>
+        <v>390850784.1028555</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -11212,23 +11212,23 @@
       <c r="C97" s="119"/>
       <c r="D97" s="129">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>4466866.1040326338</v>
       </c>
       <c r="E97" s="129">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>4466866.1040326338</v>
       </c>
       <c r="F97" s="129">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>4466866.1040326338</v>
       </c>
       <c r="G97" s="129">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>4466866.1040326338</v>
       </c>
       <c r="H97" s="130">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>4466866.1040326338</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -11241,23 +11241,23 @@
       <c r="C98" s="119"/>
       <c r="D98" s="129">
         <f>_DepensesPublicitaires_Select*_PIBPNB_Select</f>
-        <v>5319419.744664277</v>
+        <v>4690209.4092342658</v>
       </c>
       <c r="E98" s="129">
         <f>_DepensesPublicitaires_Select*_PIBPNB_Select</f>
-        <v>5319419.744664277</v>
+        <v>4690209.4092342658</v>
       </c>
       <c r="F98" s="129">
         <f>_DepensesPublicitaires_Select*_PIBPNB_Select</f>
-        <v>5319419.744664277</v>
+        <v>4690209.4092342658</v>
       </c>
       <c r="G98" s="129">
         <f>_DepensesPublicitaires_Select*_PIBPNB_Select</f>
-        <v>5319419.744664277</v>
+        <v>4690209.4092342658</v>
       </c>
       <c r="H98" s="130">
         <f>_DepensesPublicitaires_Select*_PIBPNB_Select</f>
-        <v>5319419.744664277</v>
+        <v>4690209.4092342658</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -11270,23 +11270,23 @@
       <c r="C99" s="119"/>
       <c r="D99" s="129">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>1519834.2127612219</v>
+        <v>1340059.8312097902</v>
       </c>
       <c r="E99" s="129">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>1519834.2127612219</v>
+        <v>1340059.8312097902</v>
       </c>
       <c r="F99" s="129">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>1519834.2127612219</v>
+        <v>1340059.8312097902</v>
       </c>
       <c r="G99" s="129">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>1519834.2127612219</v>
+        <v>1340059.8312097902</v>
       </c>
       <c r="H99" s="130">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>1519834.2127612219</v>
+        <v>1340059.8312097902</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -11299,23 +11299,23 @@
       <c r="C100" s="116"/>
       <c r="D100" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4559502.6382836662</v>
+        <v>4020179.4936293708</v>
       </c>
       <c r="E100" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4559502.6382836662</v>
+        <v>4020179.4936293708</v>
       </c>
       <c r="F100" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4559502.6382836662</v>
+        <v>4020179.4936293708</v>
       </c>
       <c r="G100" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4559502.6382836662</v>
+        <v>4020179.4936293708</v>
       </c>
       <c r="H100" s="128">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4559502.6382836662</v>
+        <v>4020179.4936293708</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -11328,23 +11328,23 @@
       <c r="C101" s="119"/>
       <c r="D101" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>4466866.1040326338</v>
       </c>
       <c r="E101" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>4466866.1040326338</v>
       </c>
       <c r="F101" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>4466866.1040326338</v>
       </c>
       <c r="G101" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>4466866.1040326338</v>
       </c>
       <c r="H101" s="130">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>4466866.1040326338</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -11357,23 +11357,23 @@
       <c r="C102" s="119"/>
       <c r="D102" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>24317347.404179551</v>
+        <v>21440957.299356643</v>
       </c>
       <c r="E102" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>24317347.404179551</v>
+        <v>21440957.299356643</v>
       </c>
       <c r="F102" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>24317347.404179551</v>
+        <v>21440957.299356643</v>
       </c>
       <c r="G102" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>24317347.404179551</v>
+        <v>21440957.299356643</v>
       </c>
       <c r="H102" s="130">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>24317347.404179551</v>
+        <v>21440957.299356643</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -11386,23 +11386,23 @@
       <c r="C103" s="121"/>
       <c r="D103" s="135">
         <f>D$85</f>
-        <v>2953037.8753950535</v>
+        <v>1197120.1158807459</v>
       </c>
       <c r="E103" s="135">
         <f t="shared" ref="E103:H103" si="54">E$85</f>
-        <v>2953037.8753950535</v>
+        <v>1197120.1158807459</v>
       </c>
       <c r="F103" s="135">
         <f t="shared" si="54"/>
-        <v>2953037.8753950535</v>
+        <v>1197120.1158807459</v>
       </c>
       <c r="G103" s="135">
         <f t="shared" si="54"/>
-        <v>2953037.8753950535</v>
+        <v>1197120.1158807459</v>
       </c>
       <c r="H103" s="136">
         <f t="shared" si="54"/>
-        <v>2953037.8753950535</v>
+        <v>1197120.1158807459</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -11415,23 +11415,23 @@
       <c r="C104" s="119"/>
       <c r="D104" s="129">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2786362.7233955739</v>
+        <v>2456776.3572179489</v>
       </c>
       <c r="E104" s="129">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2786362.7233955739</v>
+        <v>2456776.3572179489</v>
       </c>
       <c r="F104" s="129">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2786362.7233955739</v>
+        <v>2456776.3572179489</v>
       </c>
       <c r="G104" s="129">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2786362.7233955739</v>
+        <v>2456776.3572179489</v>
       </c>
       <c r="H104" s="130">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2786362.7233955739</v>
+        <v>2456776.3572179489</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -11444,23 +11444,23 @@
       <c r="C105" s="91"/>
       <c r="D105" s="112">
         <f>D$12</f>
-        <v>5994901.617002598</v>
+        <v>9678209.8920707069</v>
       </c>
       <c r="E105" s="112">
         <f t="shared" ref="E105:H105" si="55">E$12</f>
-        <v>5994901.617002598</v>
+        <v>8003135.1030584695</v>
       </c>
       <c r="F105" s="112">
         <f t="shared" si="55"/>
-        <v>5994901.617002598</v>
+        <v>5630112.4852911327</v>
       </c>
       <c r="G105" s="112">
         <f t="shared" si="55"/>
-        <v>4306196.9361567963</v>
+        <v>3943405.2324663098</v>
       </c>
       <c r="H105" s="134">
         <f t="shared" si="55"/>
-        <v>4306196.9361567963</v>
+        <v>3236733.055851772</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -11473,23 +11473,23 @@
       <c r="C106" s="116"/>
       <c r="D106" s="153">
         <f>D93-SUM(D94:D105)</f>
-        <v>31074361.443647861</v>
+        <v>24412912.213906288</v>
       </c>
       <c r="E106" s="153">
         <f>E93-SUM(E94:E105)</f>
-        <v>31074361.443647861</v>
+        <v>26087987.002918541</v>
       </c>
       <c r="F106" s="153">
         <f>F93-SUM(F94:F105)</f>
-        <v>31074361.443647861</v>
+        <v>28461009.620685875</v>
       </c>
       <c r="G106" s="153">
         <f>G93-SUM(G94:G105)</f>
-        <v>32763066.124493659</v>
+        <v>30147716.873510718</v>
       </c>
       <c r="H106" s="154">
         <f>H93-SUM(H94:H105)</f>
-        <v>32763066.124493659</v>
+        <v>30854389.050125241</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -11502,23 +11502,23 @@
       <c r="C107" s="121"/>
       <c r="D107" s="132">
         <f>D106/D$93</f>
-        <v>5.8416825396825398E-2</v>
+        <v>5.2050793650793507E-2</v>
       </c>
       <c r="E107" s="132">
         <f t="shared" ref="E107:H107" si="56">E106/E$93</f>
-        <v>5.8416825396825398E-2</v>
+        <v>5.5622222222222115E-2</v>
       </c>
       <c r="F107" s="132">
         <f t="shared" si="56"/>
-        <v>5.8416825396825398E-2</v>
+        <v>6.0681746031745913E-2</v>
       </c>
       <c r="G107" s="132">
         <f t="shared" si="56"/>
-        <v>6.1591428571428568E-2</v>
+        <v>6.4277976190476122E-2</v>
       </c>
       <c r="H107" s="133">
         <f t="shared" si="56"/>
-        <v>6.1591428571428568E-2</v>
+        <v>6.578467261904751E-2</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -11536,23 +11536,23 @@
       <c r="C110" s="116"/>
       <c r="D110" s="117">
         <f>D106</f>
-        <v>31074361.443647861</v>
+        <v>24412912.213906288</v>
       </c>
       <c r="E110" s="117">
         <f t="shared" ref="E110:H110" si="57">E106</f>
-        <v>31074361.443647861</v>
+        <v>26087987.002918541</v>
       </c>
       <c r="F110" s="117">
         <f t="shared" si="57"/>
-        <v>31074361.443647861</v>
+        <v>28461009.620685875</v>
       </c>
       <c r="G110" s="117">
         <f t="shared" si="57"/>
-        <v>32763066.124493659</v>
+        <v>30147716.873510718</v>
       </c>
       <c r="H110" s="118">
         <f t="shared" si="57"/>
-        <v>32763066.124493659</v>
+        <v>30854389.050125241</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -11594,23 +11594,23 @@
       <c r="C112" s="121"/>
       <c r="D112" s="122">
         <f>D110-D111</f>
-        <v>31074361.443647861</v>
+        <v>24412912.213906288</v>
       </c>
       <c r="E112" s="122">
         <f t="shared" ref="E112:H112" si="58">E110-E111</f>
-        <v>31074361.443647861</v>
+        <v>26087987.002918541</v>
       </c>
       <c r="F112" s="122">
         <f t="shared" si="58"/>
-        <v>31074361.443647861</v>
+        <v>28461009.620685875</v>
       </c>
       <c r="G112" s="122">
         <f t="shared" si="58"/>
-        <v>32763066.124493659</v>
+        <v>30147716.873510718</v>
       </c>
       <c r="H112" s="123">
         <f t="shared" si="58"/>
-        <v>32763066.124493659</v>
+        <v>30854389.050125241</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -11628,23 +11628,23 @@
       <c r="C115" s="116"/>
       <c r="D115" s="117">
         <f>D$112</f>
-        <v>31074361.443647861</v>
+        <v>24412912.213906288</v>
       </c>
       <c r="E115" s="117">
         <f t="shared" ref="E115:H115" si="59">E$112</f>
-        <v>31074361.443647861</v>
+        <v>26087987.002918541</v>
       </c>
       <c r="F115" s="117">
         <f t="shared" si="59"/>
-        <v>31074361.443647861</v>
+        <v>28461009.620685875</v>
       </c>
       <c r="G115" s="117">
         <f t="shared" si="59"/>
-        <v>32763066.124493659</v>
+        <v>30147716.873510718</v>
       </c>
       <c r="H115" s="118">
         <f t="shared" si="59"/>
-        <v>32763066.124493659</v>
+        <v>30854389.050125241</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -11657,23 +11657,23 @@
       <c r="C116" s="119"/>
       <c r="D116" s="125">
         <f>_IS_Taux_Select1</f>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="E116" s="125">
         <f>_IS_Taux_Select2</f>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="F116" s="125">
         <f>_IS_Taux_Select3</f>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G116" s="125">
         <f>_IS_Taux_Select4</f>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="H116" s="126">
         <f>_IS_Taux_Select5</f>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -11686,23 +11686,23 @@
       <c r="C117" s="121"/>
       <c r="D117" s="110">
         <f>D115*D116</f>
-        <v>10876026.505276751</v>
+        <v>7323873.6641718866</v>
       </c>
       <c r="E117" s="110">
         <f t="shared" ref="E117:H117" si="60">E115*E116</f>
-        <v>10876026.505276751</v>
+        <v>7826396.1008755621</v>
       </c>
       <c r="F117" s="110">
         <f t="shared" si="60"/>
-        <v>10876026.505276751</v>
+        <v>8538302.8862057626</v>
       </c>
       <c r="G117" s="110">
         <f t="shared" si="60"/>
-        <v>11467073.143572779</v>
+        <v>9044315.0620532148</v>
       </c>
       <c r="H117" s="111">
         <f t="shared" si="60"/>
-        <v>11467073.143572779</v>
+        <v>9256316.7150375713</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -11720,23 +11720,23 @@
       <c r="C120" s="116"/>
       <c r="D120" s="117">
         <f>D$93</f>
-        <v>531941974.46642768</v>
+        <v>469020940.92342657</v>
       </c>
       <c r="E120" s="117">
         <f t="shared" ref="E120:H120" si="61">E$93</f>
-        <v>531941974.46642768</v>
+        <v>469020940.92342657</v>
       </c>
       <c r="F120" s="117">
         <f t="shared" si="61"/>
-        <v>531941974.46642768</v>
+        <v>469020940.92342657</v>
       </c>
       <c r="G120" s="117">
         <f t="shared" si="61"/>
-        <v>531941974.46642768</v>
+        <v>469020940.92342657</v>
       </c>
       <c r="H120" s="118">
         <f t="shared" si="61"/>
-        <v>531941974.46642768</v>
+        <v>469020940.92342657</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -11749,23 +11749,23 @@
       <c r="C121" s="119"/>
       <c r="D121" s="125">
         <f>_IMF_Taux_Select1</f>
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="E121" s="125">
         <f>_IMF_Taux_Select2</f>
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="F121" s="125">
         <f>_IMF_Taux_Select3</f>
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="G121" s="125">
         <f>_IMF_Taux_Select4</f>
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="H121" s="126">
         <f>_IMF_Taux_Select5</f>
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -11778,23 +11778,23 @@
       <c r="C122" s="121"/>
       <c r="D122" s="110">
         <f>D120*D121</f>
-        <v>7979129.616996415</v>
+        <v>3517657.0569256991</v>
       </c>
       <c r="E122" s="110">
         <f t="shared" ref="E122" si="62">E120*E121</f>
-        <v>7979129.616996415</v>
+        <v>3517657.0569256991</v>
       </c>
       <c r="F122" s="110">
         <f t="shared" ref="F122" si="63">F120*F121</f>
-        <v>7979129.616996415</v>
+        <v>3517657.0569256991</v>
       </c>
       <c r="G122" s="110">
         <f t="shared" ref="G122" si="64">G120*G121</f>
-        <v>7979129.616996415</v>
+        <v>3517657.0569256991</v>
       </c>
       <c r="H122" s="111">
         <f t="shared" ref="H122" si="65">H120*H121</f>
-        <v>7979129.616996415</v>
+        <v>3517657.0569256991</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -11810,23 +11810,23 @@
       <c r="C125" s="116"/>
       <c r="D125" s="155">
         <f>IF(D$117&gt;D$122,D$117,D$122)</f>
-        <v>10876026.505276751</v>
+        <v>7323873.6641718866</v>
       </c>
       <c r="E125" s="155">
         <f>IF(E$117&gt;E$122,E$117,E$122)</f>
-        <v>10876026.505276751</v>
+        <v>7826396.1008755621</v>
       </c>
       <c r="F125" s="155">
         <f>IF(F$117&gt;F$122,F$117,F$122)</f>
-        <v>10876026.505276751</v>
+        <v>8538302.8862057626</v>
       </c>
       <c r="G125" s="155">
         <f>IF(G$117&gt;G$122,G$117,G$122)</f>
-        <v>11467073.143572779</v>
+        <v>9044315.0620532148</v>
       </c>
       <c r="H125" s="156">
         <f>IF(H$117&gt;H$122,H$117,H$122)</f>
-        <v>11467073.143572779</v>
+        <v>9256316.7150375713</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -11839,23 +11839,23 @@
       <c r="C126" s="119"/>
       <c r="D126" s="113">
         <f>D$106</f>
-        <v>31074361.443647861</v>
+        <v>24412912.213906288</v>
       </c>
       <c r="E126" s="113">
         <f t="shared" ref="E126:H126" si="66">E$106</f>
-        <v>31074361.443647861</v>
+        <v>26087987.002918541</v>
       </c>
       <c r="F126" s="113">
         <f t="shared" si="66"/>
-        <v>31074361.443647861</v>
+        <v>28461009.620685875</v>
       </c>
       <c r="G126" s="113">
         <f t="shared" si="66"/>
-        <v>32763066.124493659</v>
+        <v>30147716.873510718</v>
       </c>
       <c r="H126" s="120">
         <f t="shared" si="66"/>
-        <v>32763066.124493659</v>
+        <v>30854389.050125241</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -11868,23 +11868,23 @@
       <c r="C127" s="121"/>
       <c r="D127" s="132">
         <f>D126/D$93</f>
-        <v>5.8416825396825398E-2</v>
+        <v>5.2050793650793507E-2</v>
       </c>
       <c r="E127" s="132">
         <f t="shared" ref="E127:H127" si="67">E126/E$93</f>
-        <v>5.8416825396825398E-2</v>
+        <v>5.5622222222222115E-2</v>
       </c>
       <c r="F127" s="132">
         <f t="shared" si="67"/>
-        <v>5.8416825396825398E-2</v>
+        <v>6.0681746031745913E-2</v>
       </c>
       <c r="G127" s="132">
         <f t="shared" si="67"/>
-        <v>6.1591428571428568E-2</v>
+        <v>6.4277976190476122E-2</v>
       </c>
       <c r="H127" s="133">
         <f t="shared" si="67"/>
-        <v>6.1591428571428568E-2</v>
+        <v>6.578467261904751E-2</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -11902,23 +11902,23 @@
       <c r="C130" s="116"/>
       <c r="D130" s="117">
         <f>D126</f>
-        <v>31074361.443647861</v>
+        <v>24412912.213906288</v>
       </c>
       <c r="E130" s="117">
         <f t="shared" ref="E130:H130" si="68">E126</f>
-        <v>31074361.443647861</v>
+        <v>26087987.002918541</v>
       </c>
       <c r="F130" s="117">
         <f t="shared" si="68"/>
-        <v>31074361.443647861</v>
+        <v>28461009.620685875</v>
       </c>
       <c r="G130" s="117">
         <f t="shared" si="68"/>
-        <v>32763066.124493659</v>
+        <v>30147716.873510718</v>
       </c>
       <c r="H130" s="118">
         <f t="shared" si="68"/>
-        <v>32763066.124493659</v>
+        <v>30854389.050125241</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -11960,23 +11960,23 @@
       <c r="C132" s="119"/>
       <c r="D132" s="125">
         <f>_IRVM_Taux_Select1</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E132" s="125">
         <f>_IRVM_Taux_Select2</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F132" s="125">
         <f>_IRVM_Taux_Select3</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G132" s="125">
         <f>_IRVM_Taux_Select4</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H132" s="126">
         <f>_IRVM_Taux_Select5</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -11989,23 +11989,23 @@
       <c r="C133" s="121"/>
       <c r="D133" s="110">
         <f>D130*D131*D132</f>
-        <v>3107436.1443647863</v>
+        <v>1220645.6106953144</v>
       </c>
       <c r="E133" s="110">
         <f t="shared" ref="E133:H133" si="69">E130*E131*E132</f>
-        <v>3107436.1443647863</v>
+        <v>1304399.3501459272</v>
       </c>
       <c r="F133" s="110">
         <f t="shared" si="69"/>
-        <v>3107436.1443647863</v>
+        <v>1423050.4810342938</v>
       </c>
       <c r="G133" s="110">
         <f t="shared" si="69"/>
-        <v>3276306.6124493661</v>
+        <v>1507385.8436755361</v>
       </c>
       <c r="H133" s="111">
         <f t="shared" si="69"/>
-        <v>3276306.6124493661</v>
+        <v>1542719.4525062621</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -12063,27 +12063,27 @@
       <c r="C140" s="116"/>
       <c r="D140" s="117">
         <f>D$85</f>
-        <v>2953037.8753950535</v>
+        <v>1197120.1158807459</v>
       </c>
       <c r="E140" s="117">
         <f t="shared" ref="E140:H140" si="70">E$85</f>
-        <v>2953037.8753950535</v>
+        <v>1197120.1158807459</v>
       </c>
       <c r="F140" s="117">
         <f t="shared" si="70"/>
-        <v>2953037.8753950535</v>
+        <v>1197120.1158807459</v>
       </c>
       <c r="G140" s="117">
         <f t="shared" si="70"/>
-        <v>2953037.8753950535</v>
+        <v>1197120.1158807459</v>
       </c>
       <c r="H140" s="117">
         <f t="shared" si="70"/>
-        <v>2953037.8753950535</v>
+        <v>1197120.1158807459</v>
       </c>
       <c r="I140" s="162">
         <f t="shared" ref="I140:I145" si="71">NPV(_TauxDActualisation_Select,D140:H140)</f>
-        <v>11790623.964961573</v>
+        <v>4779753.502265133</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -12096,27 +12096,27 @@
       <c r="C141" s="119"/>
       <c r="D141" s="113">
         <f>D125</f>
-        <v>10876026.505276751</v>
+        <v>7323873.6641718866</v>
       </c>
       <c r="E141" s="113">
         <f>E125</f>
-        <v>10876026.505276751</v>
+        <v>7826396.1008755621</v>
       </c>
       <c r="F141" s="113">
         <f>F125</f>
-        <v>10876026.505276751</v>
+        <v>8538302.8862057626</v>
       </c>
       <c r="G141" s="113">
         <f>G125</f>
-        <v>11467073.143572779</v>
+        <v>9044315.0620532148</v>
       </c>
       <c r="H141" s="113">
         <f>H125</f>
-        <v>11467073.143572779</v>
+        <v>9256316.7150375713</v>
       </c>
       <c r="I141" s="163">
         <f t="shared" si="71"/>
-        <v>44261513.525375903</v>
+        <v>33216753.010250647</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -12129,27 +12129,27 @@
       <c r="C142" s="119"/>
       <c r="D142" s="113">
         <f>D$133</f>
-        <v>3107436.1443647863</v>
+        <v>1220645.6106953144</v>
       </c>
       <c r="E142" s="113">
         <f>E$133</f>
-        <v>3107436.1443647863</v>
+        <v>1304399.3501459272</v>
       </c>
       <c r="F142" s="113">
         <f t="shared" ref="F142:H142" si="72">F$133</f>
-        <v>3107436.1443647863</v>
+        <v>1423050.4810342938</v>
       </c>
       <c r="G142" s="113">
         <f t="shared" si="72"/>
-        <v>3276306.6124493661</v>
+        <v>1507385.8436755361</v>
       </c>
       <c r="H142" s="113">
         <f t="shared" si="72"/>
-        <v>3276306.6124493661</v>
+        <v>1542719.4525062621</v>
       </c>
       <c r="I142" s="163">
         <f t="shared" si="71"/>
-        <v>12646146.721535973</v>
+        <v>5536125.5017084414</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -12162,27 +12162,27 @@
       <c r="C143" s="119"/>
       <c r="D143" s="113">
         <f>D$90</f>
-        <v>557272.54467911483</v>
+        <v>368516.45358269231</v>
       </c>
       <c r="E143" s="113">
         <f t="shared" ref="E143:H143" si="73">E$90</f>
-        <v>557272.54467911483</v>
+        <v>368516.45358269231</v>
       </c>
       <c r="F143" s="113">
         <f t="shared" si="73"/>
-        <v>557272.54467911483</v>
+        <v>368516.45358269231</v>
       </c>
       <c r="G143" s="113">
         <f t="shared" si="73"/>
-        <v>557272.54467911483</v>
+        <v>368516.45358269231</v>
       </c>
       <c r="H143" s="113">
         <f t="shared" si="73"/>
-        <v>557272.54467911483</v>
+        <v>368516.45358269231</v>
       </c>
       <c r="I143" s="163">
         <f t="shared" si="71"/>
-        <v>2225027.6825283477</v>
+        <v>1471379.3430480356</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -12228,27 +12228,27 @@
       <c r="C145" s="121"/>
       <c r="D145" s="122">
         <f>SUM(D140:D144)</f>
-        <v>17493773.069715708</v>
+        <v>10110155.844330639</v>
       </c>
       <c r="E145" s="122">
         <f>SUM(E140:E144)</f>
-        <v>17493773.069715708</v>
+        <v>10696432.020484928</v>
       </c>
       <c r="F145" s="122">
         <f>SUM(F140:F144)</f>
-        <v>17493773.069715708</v>
+        <v>11526989.936703496</v>
       </c>
       <c r="G145" s="122">
         <f>SUM(G140:G144)</f>
-        <v>18253690.176096316</v>
+        <v>12117337.475192189</v>
       </c>
       <c r="H145" s="122">
         <f>SUM(H140:H144)</f>
-        <v>18253690.176096316</v>
+        <v>12364672.737007273</v>
       </c>
       <c r="I145" s="165">
         <f t="shared" si="71"/>
-        <v>70923311.894401804</v>
+        <v>45004011.35727226</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -12269,27 +12269,27 @@
       <c r="C147" s="116"/>
       <c r="D147" s="117">
         <f t="shared" ref="D147:H148" si="75">D140*D$136</f>
-        <v>2953037.8753950535</v>
+        <v>1197120.1158807459</v>
       </c>
       <c r="E147" s="117">
         <f t="shared" si="75"/>
-        <v>2734294.3290694938</v>
+        <v>1108444.5517414312</v>
       </c>
       <c r="F147" s="117">
         <f t="shared" si="75"/>
-        <v>2531754.0083976793</v>
+        <v>1026337.5479087328</v>
       </c>
       <c r="G147" s="117">
         <f t="shared" si="75"/>
-        <v>2344216.6744422955</v>
+        <v>950312.54435993766</v>
       </c>
       <c r="H147" s="117">
         <f t="shared" si="75"/>
-        <v>2170570.9948539771</v>
+        <v>879919.02255549782</v>
       </c>
       <c r="I147" s="162">
         <f>SUM(D147:H147)</f>
-        <v>12733873.882158499</v>
+        <v>5162133.7824463444</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -12302,27 +12302,27 @@
       <c r="C148" s="119"/>
       <c r="D148" s="113">
         <f t="shared" si="75"/>
-        <v>10876026.505276751</v>
+        <v>7323873.6641718866</v>
       </c>
       <c r="E148" s="113">
         <f t="shared" si="75"/>
-        <v>10070394.912293287</v>
+        <v>7246663.0563662602</v>
       </c>
       <c r="F148" s="113">
         <f t="shared" si="75"/>
-        <v>9324439.733604895</v>
+        <v>7320218.5238389596</v>
       </c>
       <c r="G148" s="113">
         <f t="shared" si="75"/>
-        <v>9102932.3715045806</v>
+        <v>7179668.8942021774</v>
       </c>
       <c r="H148" s="113">
         <f t="shared" si="75"/>
-        <v>8428641.0847264621</v>
+        <v>6803669.1124914158</v>
       </c>
       <c r="I148" s="163">
         <f t="shared" ref="I148:I152" si="76">SUM(D148:H148)</f>
-        <v>47802434.607405975</v>
+        <v>35874093.251070701</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -12335,27 +12335,27 @@
       <c r="C149" s="119"/>
       <c r="D149" s="113">
         <f t="shared" ref="D149:H149" si="77">D142*D$136</f>
-        <v>3107436.1443647863</v>
+        <v>1220645.6106953144</v>
       </c>
       <c r="E149" s="113">
         <f>E142*E$136</f>
-        <v>2877255.6892266539</v>
+        <v>1207777.1760610435</v>
       </c>
       <c r="F149" s="113">
         <f t="shared" si="77"/>
-        <v>2664125.6381728277</v>
+        <v>1220036.4206398265</v>
       </c>
       <c r="G149" s="113">
         <f t="shared" si="77"/>
-        <v>2600837.8204298806</v>
+        <v>1196611.4823670299</v>
       </c>
       <c r="H149" s="113">
         <f t="shared" si="77"/>
-        <v>2408183.167064704</v>
+        <v>1133944.8520819028</v>
       </c>
       <c r="I149" s="163">
         <f t="shared" si="76"/>
-        <v>13657838.459258853</v>
+        <v>5979015.5418451168</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -12368,27 +12368,27 @@
       <c r="C150" s="119"/>
       <c r="D150" s="113">
         <f t="shared" ref="D150:H150" si="78">D143*D$136</f>
-        <v>557272.54467911483</v>
+        <v>368516.45358269231</v>
       </c>
       <c r="E150" s="113">
         <f t="shared" si="78"/>
-        <v>515993.09692510625</v>
+        <v>341218.93850249285</v>
       </c>
       <c r="F150" s="113">
         <f t="shared" si="78"/>
-        <v>477771.3860417651</v>
+        <v>315943.46157638228</v>
       </c>
       <c r="G150" s="113">
         <f t="shared" si="78"/>
-        <v>442380.9130016343</v>
+        <v>292540.24220035394</v>
       </c>
       <c r="H150" s="113">
         <f t="shared" si="78"/>
-        <v>409611.95648299472</v>
+        <v>270870.59462995734</v>
       </c>
       <c r="I150" s="163">
         <f t="shared" si="76"/>
-        <v>2403029.8971306151</v>
+        <v>1589089.6904918787</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -12434,27 +12434,27 @@
       <c r="C152" s="121"/>
       <c r="D152" s="122">
         <f>SUM(D147:D151)</f>
-        <v>17493773.069715708</v>
+        <v>10110155.844330639</v>
       </c>
       <c r="E152" s="122">
         <f t="shared" ref="E152" si="80">SUM(E147:E151)</f>
-        <v>16197938.02751454</v>
+        <v>9904103.7226712275</v>
       </c>
       <c r="F152" s="122">
         <f t="shared" ref="F152" si="81">SUM(F147:F151)</f>
-        <v>14998090.766217168</v>
+        <v>9882535.9539639</v>
       </c>
       <c r="G152" s="122">
         <f t="shared" ref="G152" si="82">SUM(G147:G151)</f>
-        <v>14490367.77937839</v>
+        <v>9619133.1631294992</v>
       </c>
       <c r="H152" s="122">
         <f t="shared" ref="H152" si="83">SUM(H147:H151)</f>
-        <v>13417007.203128139</v>
+        <v>9088403.5817587748</v>
       </c>
       <c r="I152" s="165">
         <f t="shared" si="76"/>
-        <v>76597176.845953941</v>
+        <v>48604332.265854038</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -12477,27 +12477,27 @@
       <c r="C156" s="116"/>
       <c r="D156" s="166">
         <f t="shared" ref="D156:I161" si="84">D140/D$171</f>
-        <v>7.3784810126582279E-2</v>
+        <v>3.3924050632911443E-2</v>
       </c>
       <c r="E156" s="166">
         <f t="shared" si="84"/>
-        <v>7.3784810126582279E-2</v>
+        <v>3.3924050632911443E-2</v>
       </c>
       <c r="F156" s="166">
         <f t="shared" si="84"/>
-        <v>7.3784810126582279E-2</v>
+        <v>3.3924050632911443E-2</v>
       </c>
       <c r="G156" s="166">
         <f t="shared" si="84"/>
-        <v>7.3784810126582279E-2</v>
+        <v>3.3924050632911443E-2</v>
       </c>
       <c r="H156" s="166">
         <f t="shared" si="84"/>
-        <v>7.3784810126582279E-2</v>
+        <v>3.3924050632911443E-2</v>
       </c>
       <c r="I156" s="168">
         <f t="shared" si="84"/>
-        <v>7.3784810126582265E-2</v>
+        <v>3.3924050632911429E-2</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -12510,27 +12510,27 @@
       <c r="C157" s="119"/>
       <c r="D157" s="167">
         <f t="shared" si="84"/>
-        <v>0.27174915611814349</v>
+        <v>0.2075443037974681</v>
       </c>
       <c r="E157" s="167">
         <f t="shared" si="84"/>
-        <v>0.27174915611814349</v>
+        <v>0.22178481012658216</v>
       </c>
       <c r="F157" s="167">
         <f t="shared" si="84"/>
-        <v>0.27174915611814349</v>
+        <v>0.24195886075949355</v>
       </c>
       <c r="G157" s="167">
         <f t="shared" si="84"/>
-        <v>0.28651708860759495</v>
+        <v>0.25629825949367097</v>
       </c>
       <c r="H157" s="167">
         <f t="shared" si="84"/>
-        <v>0.28651708860759495</v>
+        <v>0.26230597310126574</v>
       </c>
       <c r="I157" s="169">
         <f>I141/I$171</f>
-        <v>0.27698511809808679</v>
+        <v>0.23575416816926678</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -12543,27 +12543,27 @@
       <c r="C158" s="119"/>
       <c r="D158" s="167">
         <f t="shared" si="84"/>
-        <v>7.7642616033755302E-2</v>
+        <v>3.4590717299578015E-2</v>
       </c>
       <c r="E158" s="167">
         <f t="shared" si="84"/>
-        <v>7.7642616033755302E-2</v>
+        <v>3.6964135021097029E-2</v>
       </c>
       <c r="F158" s="167">
         <f t="shared" si="84"/>
-        <v>7.7642616033755302E-2</v>
+        <v>4.0326476793248925E-2</v>
       </c>
       <c r="G158" s="167">
         <f t="shared" si="84"/>
-        <v>8.1862025316455714E-2</v>
+        <v>4.2716376582278504E-2</v>
       </c>
       <c r="H158" s="167">
         <f t="shared" si="84"/>
-        <v>8.1862025316455714E-2</v>
+        <v>4.3717662183544302E-2</v>
       </c>
       <c r="I158" s="169">
         <f t="shared" si="84"/>
-        <v>7.9138605170881948E-2</v>
+        <v>3.9292361361544466E-2</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -12576,27 +12576,27 @@
       <c r="C159" s="119"/>
       <c r="D159" s="167">
         <f t="shared" si="84"/>
-        <v>1.3924050632911397E-2</v>
+        <v>1.044303797468356E-2</v>
       </c>
       <c r="E159" s="167">
         <f t="shared" si="84"/>
-        <v>1.3924050632911397E-2</v>
+        <v>1.044303797468356E-2</v>
       </c>
       <c r="F159" s="167">
         <f t="shared" si="84"/>
-        <v>1.3924050632911397E-2</v>
+        <v>1.044303797468356E-2</v>
       </c>
       <c r="G159" s="167">
         <f t="shared" si="84"/>
-        <v>1.3924050632911397E-2</v>
+        <v>1.044303797468356E-2</v>
       </c>
       <c r="H159" s="167">
         <f t="shared" si="84"/>
-        <v>1.3924050632911397E-2</v>
+        <v>1.044303797468356E-2</v>
       </c>
       <c r="I159" s="169">
         <f t="shared" si="84"/>
-        <v>1.3924050632911399E-2</v>
+        <v>1.0443037974683557E-2</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -12642,27 +12642,27 @@
       <c r="C161" s="121"/>
       <c r="D161" s="170">
         <f t="shared" si="84"/>
-        <v>0.43710063291139256</v>
+        <v>0.28650210970464107</v>
       </c>
       <c r="E161" s="170">
         <f t="shared" si="84"/>
-        <v>0.43710063291139256</v>
+        <v>0.30311603375527418</v>
       </c>
       <c r="F161" s="170">
         <f t="shared" si="84"/>
-        <v>0.43710063291139256</v>
+        <v>0.32665242616033752</v>
       </c>
       <c r="G161" s="170">
         <f t="shared" si="84"/>
-        <v>0.45608797468354439</v>
+        <v>0.34338172468354444</v>
       </c>
       <c r="H161" s="170">
         <f t="shared" si="84"/>
-        <v>0.45608797468354439</v>
+        <v>0.35039072389240511</v>
       </c>
       <c r="I161" s="171">
         <f t="shared" si="84"/>
-        <v>0.44383258402846248</v>
+        <v>0.31941361813840624</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
@@ -12680,27 +12680,27 @@
       <c r="C163" s="116"/>
       <c r="D163" s="166">
         <f t="shared" ref="D163:I168" si="85">D147/D$172</f>
-        <v>7.3784810126582279E-2</v>
+        <v>3.3924050632911443E-2</v>
       </c>
       <c r="E163" s="166">
         <f t="shared" si="85"/>
-        <v>7.3784810126582279E-2</v>
+        <v>3.3924050632911443E-2</v>
       </c>
       <c r="F163" s="166">
         <f t="shared" si="85"/>
-        <v>7.3784810126582265E-2</v>
+        <v>3.3924050632911443E-2</v>
       </c>
       <c r="G163" s="166">
         <f t="shared" si="85"/>
-        <v>7.3784810126582265E-2</v>
+        <v>3.3924050632911443E-2</v>
       </c>
       <c r="H163" s="166">
         <f t="shared" si="85"/>
-        <v>7.3784810126582265E-2</v>
+        <v>3.3924050632911443E-2</v>
       </c>
       <c r="I163" s="168">
         <f t="shared" si="85"/>
-        <v>7.3784810126582265E-2</v>
+        <v>3.3924050632911436E-2</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
@@ -12713,27 +12713,27 @@
       <c r="C164" s="119"/>
       <c r="D164" s="167">
         <f t="shared" si="85"/>
-        <v>0.27174915611814349</v>
+        <v>0.2075443037974681</v>
       </c>
       <c r="E164" s="167">
         <f t="shared" si="85"/>
-        <v>0.27174915611814354</v>
+        <v>0.22178481012658216</v>
       </c>
       <c r="F164" s="167">
         <f t="shared" si="85"/>
-        <v>0.27174915611814349</v>
+        <v>0.24195886075949358</v>
       </c>
       <c r="G164" s="167">
         <f t="shared" si="85"/>
-        <v>0.28651708860759495</v>
+        <v>0.25629825949367097</v>
       </c>
       <c r="H164" s="167">
         <f t="shared" si="85"/>
-        <v>0.28651708860759489</v>
+        <v>0.26230597310126574</v>
       </c>
       <c r="I164" s="169">
         <f t="shared" si="85"/>
-        <v>0.27698511809808679</v>
+        <v>0.23575416816926681</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
@@ -12746,27 +12746,27 @@
       <c r="C165" s="119"/>
       <c r="D165" s="167">
         <f t="shared" si="85"/>
-        <v>7.7642616033755302E-2</v>
+        <v>3.4590717299578015E-2</v>
       </c>
       <c r="E165" s="167">
         <f t="shared" si="85"/>
-        <v>7.7642616033755302E-2</v>
+        <v>3.6964135021097029E-2</v>
       </c>
       <c r="F165" s="167">
         <f t="shared" si="85"/>
-        <v>7.7642616033755288E-2</v>
+        <v>4.0326476793248925E-2</v>
       </c>
       <c r="G165" s="167">
         <f t="shared" si="85"/>
-        <v>8.1862025316455714E-2</v>
+        <v>4.2716376582278504E-2</v>
       </c>
       <c r="H165" s="167">
         <f t="shared" si="85"/>
-        <v>8.1862025316455714E-2</v>
+        <v>4.3717662183544295E-2</v>
       </c>
       <c r="I165" s="169">
         <f t="shared" si="85"/>
-        <v>7.9138605170881962E-2</v>
+        <v>3.9292361361544466E-2</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
@@ -12779,27 +12779,27 @@
       <c r="C166" s="119"/>
       <c r="D166" s="167">
         <f t="shared" si="85"/>
-        <v>1.3924050632911397E-2</v>
+        <v>1.044303797468356E-2</v>
       </c>
       <c r="E166" s="167">
         <f t="shared" si="85"/>
-        <v>1.3924050632911397E-2</v>
+        <v>1.044303797468356E-2</v>
       </c>
       <c r="F166" s="167">
         <f t="shared" si="85"/>
-        <v>1.3924050632911397E-2</v>
+        <v>1.044303797468356E-2</v>
       </c>
       <c r="G166" s="167">
         <f t="shared" si="85"/>
-        <v>1.3924050632911397E-2</v>
+        <v>1.044303797468356E-2</v>
       </c>
       <c r="H166" s="167">
         <f t="shared" si="85"/>
-        <v>1.3924050632911399E-2</v>
+        <v>1.044303797468356E-2</v>
       </c>
       <c r="I166" s="169">
         <f t="shared" si="85"/>
-        <v>1.3924050632911395E-2</v>
+        <v>1.0443037974683558E-2</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
@@ -12845,27 +12845,27 @@
       <c r="C168" s="121"/>
       <c r="D168" s="170">
         <f t="shared" si="85"/>
-        <v>0.43710063291139256</v>
+        <v>0.28650210970464107</v>
       </c>
       <c r="E168" s="170">
         <f t="shared" si="85"/>
-        <v>0.43710063291139251</v>
+        <v>0.30311603375527418</v>
       </c>
       <c r="F168" s="170">
         <f t="shared" si="85"/>
-        <v>0.43710063291139245</v>
+        <v>0.32665242616033746</v>
       </c>
       <c r="G168" s="170">
         <f t="shared" si="85"/>
-        <v>0.45608797468354428</v>
+        <v>0.34338172468354444</v>
       </c>
       <c r="H168" s="170">
         <f t="shared" si="85"/>
-        <v>0.45608797468354428</v>
+        <v>0.35039072389240511</v>
       </c>
       <c r="I168" s="171">
         <f t="shared" si="85"/>
-        <v>0.44383258402846243</v>
+        <v>0.31941361813840624</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
@@ -12885,31 +12885,31 @@
       </c>
       <c r="C171" s="177">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-126652851.06343517</v>
+        <v>-111671652.60081585</v>
       </c>
       <c r="D171" s="117">
         <f>D$93-D$94-D$95-D$97-D$98-D$99-D$100-D$101-D$102-D$104</f>
-        <v>40022300.936045505</v>
+        <v>35288242.221857756</v>
       </c>
       <c r="E171" s="117">
         <f t="shared" ref="E171:G171" si="86">E$93-E$94-E$95-E$97-E$98-E$99-E$100-E$101-E$102-E$104</f>
-        <v>40022300.936045505</v>
+        <v>35288242.221857756</v>
       </c>
       <c r="F171" s="117">
         <f t="shared" si="86"/>
-        <v>40022300.936045505</v>
+        <v>35288242.221857756</v>
       </c>
       <c r="G171" s="117">
         <f t="shared" si="86"/>
-        <v>40022300.936045505</v>
+        <v>35288242.221857756</v>
       </c>
       <c r="H171" s="117">
         <f>H$93-H$94-H$95-H$97-H$98-H$99-H$100-H$101-H$102-H$104</f>
-        <v>40022300.936045505</v>
+        <v>35288242.221857756</v>
       </c>
       <c r="I171" s="162">
         <f>NPV(_TauxDActualisation_Select,D171:H171)</f>
-        <v>159797442.65430853</v>
+        <v>140895718.91005415</v>
       </c>
       <c r="J171" s="182"/>
     </row>
@@ -12922,31 +12922,31 @@
       </c>
       <c r="C172" s="178">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-126652851.06343517</v>
+        <v>-111671652.60081585</v>
       </c>
       <c r="D172" s="135">
         <f>D171*D$136</f>
-        <v>40022300.936045505</v>
+        <v>35288242.221857756</v>
       </c>
       <c r="E172" s="135">
         <f>E171*E$136</f>
-        <v>37057686.051893979</v>
+        <v>32674298.353571992</v>
       </c>
       <c r="F172" s="135">
         <f>F171*F$136</f>
-        <v>34312672.27027221</v>
+        <v>30253979.957011107</v>
       </c>
       <c r="G172" s="135">
         <f>G171*G$136</f>
-        <v>31770992.842844635</v>
+        <v>28012944.404639911</v>
       </c>
       <c r="H172" s="135">
         <f>H171*H$136</f>
-        <v>29417585.965596881</v>
+        <v>25937911.485777695</v>
       </c>
       <c r="I172" s="164">
         <f t="shared" ref="I172" si="87">SUM(D172:H172)</f>
-        <v>172581238.06665322</v>
+        <v>152167376.42285848</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
@@ -12971,31 +12971,31 @@
       </c>
       <c r="C175" s="127">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-126652851.06343517</v>
+        <v>-111671652.60081585</v>
       </c>
       <c r="D175" s="117">
         <f>D$171-D141</f>
-        <v>29146274.430768754</v>
+        <v>27964368.557685871</v>
       </c>
       <c r="E175" s="117">
         <f t="shared" ref="E175:H175" si="88">E$171-E141</f>
-        <v>29146274.430768754</v>
+        <v>27461846.120982192</v>
       </c>
       <c r="F175" s="117">
         <f t="shared" si="88"/>
-        <v>29146274.430768754</v>
+        <v>26749939.335651994</v>
       </c>
       <c r="G175" s="117">
         <f t="shared" si="88"/>
-        <v>28555227.792472728</v>
+        <v>26243927.159804542</v>
       </c>
       <c r="H175" s="117">
         <f t="shared" si="88"/>
-        <v>28555227.792472728</v>
+        <v>26031925.506820187</v>
       </c>
       <c r="I175" s="162">
         <f>NPV(_TauxDActualisation_Select,C175:H175)</f>
-        <v>-10293446.235650498</v>
+        <v>-3696932.1305670151</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
@@ -13007,31 +13007,31 @@
       </c>
       <c r="C176" s="176">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-126652851.06343517</v>
+        <v>-111671652.60081585</v>
       </c>
       <c r="D176" s="135">
         <f>D$172-D148</f>
-        <v>29146274.430768754</v>
+        <v>27964368.557685871</v>
       </c>
       <c r="E176" s="135">
         <f t="shared" ref="E176:H176" si="89">E$172-E148</f>
-        <v>26987291.139600694</v>
+        <v>25427635.297205731</v>
       </c>
       <c r="F176" s="135">
         <f t="shared" si="89"/>
-        <v>24988232.536667317</v>
+        <v>22933761.433172148</v>
       </c>
       <c r="G176" s="135">
         <f t="shared" si="89"/>
-        <v>22668060.471340053</v>
+        <v>20833275.510437734</v>
       </c>
       <c r="H176" s="135">
         <f t="shared" si="89"/>
-        <v>20988944.880870417</v>
+        <v>19134242.373286277</v>
       </c>
       <c r="I176" s="164">
         <f>SUM(C176:H176)</f>
-        <v>-1874047.6041879281</v>
+        <v>4621630.5709719136</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -13056,31 +13056,31 @@
       </c>
       <c r="C179" s="127">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-126652851.06343517</v>
+        <v>-111671652.60081585</v>
       </c>
       <c r="D179" s="117">
         <f>D$171-D$145</f>
-        <v>22528527.866329797</v>
+        <v>25178086.377527118</v>
       </c>
       <c r="E179" s="117">
         <f>E$171-E$145</f>
-        <v>22528527.866329797</v>
+        <v>24591810.201372828</v>
       </c>
       <c r="F179" s="117">
         <f>F$171-F$145</f>
-        <v>22528527.866329797</v>
+        <v>23761252.285154261</v>
       </c>
       <c r="G179" s="117">
         <f>G$171-G$145</f>
-        <v>21768610.759949189</v>
+        <v>23170904.746665567</v>
       </c>
       <c r="H179" s="117">
         <f>H$171-H$145</f>
-        <v>21768610.759949189</v>
+        <v>22923569.484850481</v>
       </c>
       <c r="I179" s="162">
         <f>NPV(_TauxDActualisation_Select,C179:H179)</f>
-        <v>-34980296.577341169</v>
+        <v>-14611060.229661105</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -13092,31 +13092,31 @@
       </c>
       <c r="C180" s="176">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-126652851.06343517</v>
+        <v>-111671652.60081585</v>
       </c>
       <c r="D180" s="135">
         <f>D$172-D$152</f>
-        <v>22528527.866329797</v>
+        <v>25178086.377527118</v>
       </c>
       <c r="E180" s="135">
         <f>E$172-E$152</f>
-        <v>20859748.02437944</v>
+        <v>22770194.630900763</v>
       </c>
       <c r="F180" s="135">
         <f>F$172-F$152</f>
-        <v>19314581.504055042</v>
+        <v>20371444.003047206</v>
       </c>
       <c r="G180" s="135">
         <f>G$172-G$152</f>
-        <v>17280625.063466243</v>
+        <v>18393811.241510414</v>
       </c>
       <c r="H180" s="135">
         <f>H$172-H$152</f>
-        <v>16000578.762468742</v>
+        <v>16849507.90401892</v>
       </c>
       <c r="I180" s="164">
         <f>SUM(C180:H180)</f>
-        <v>-30668789.842735924</v>
+        <v>-8108608.4438114278</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -13151,11 +13151,11 @@
       </c>
       <c r="G183" s="179">
         <f>MAX(0,IRR($C171:G171))</f>
-        <v>0.1007746915436194</v>
+        <v>0.10077469154361873</v>
       </c>
       <c r="H183" s="180">
         <f>MAX(0,IRR($C171:H171))</f>
-        <v>0.17477335350611378</v>
+        <v>0.17477335350611312</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -13189,7 +13189,7 @@
       </c>
       <c r="H186" s="180">
         <f>MAX(0,IRR($C175:H175))</f>
-        <v>4.59346941356229E-2</v>
+        <v>6.6152872107589467E-2</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -13223,7 +13223,7 @@
       </c>
       <c r="H189" s="180">
         <f>MAX(0,IRR($C179:H179))</f>
-        <v>0</v>
+        <v>2.3786203374374537E-2</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -13257,7 +13257,7 @@
       </c>
       <c r="H192" s="180">
         <f t="shared" si="90"/>
-        <v>0.73717564368863553</v>
+        <v>0.62149337538873961</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -13291,7 +13291,7 @@
       </c>
       <c r="H195" s="180">
         <f>IF(H$183&gt;0,(H$183-H189)/H$183,0)</f>
-        <v>1</v>
+        <v>0.86390257497952883</v>
       </c>
     </row>
   </sheetData>

--- a/annexe/Modèle investissement.xlsx
+++ b/annexe/Modèle investissement.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45F6C0B-5E22-4BA2-83C0-DBCE551B20CB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DFCBBA-38AE-41AC-B772-E969B8CD0923}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1197,7 +1197,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1844,7 +1845,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2481,6 +2482,12 @@
     <xf numFmtId="164" fontId="0" fillId="45" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2508,11 +2515,11 @@
     <xf numFmtId="164" fontId="16" fillId="40" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2896,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2922,19 +2929,19 @@
       <c r="B3" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="214" t="s">
+      <c r="E3" s="216" t="s">
         <v>317</v>
       </c>
-      <c r="F3" s="215"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="212" t="s">
+      <c r="F3" s="217"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="214" t="s">
         <v>325</v>
       </c>
-      <c r="I3" s="213"/>
-      <c r="J3" s="212" t="s">
+      <c r="I3" s="215"/>
+      <c r="J3" s="214" t="s">
         <v>326</v>
       </c>
-      <c r="K3" s="213"/>
+      <c r="K3" s="215"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D4" s="190"/>
@@ -3012,19 +3019,19 @@
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F69&lt;&gt;"",Select!G69&lt;&gt;""),Select!E69,""))</f>
         <v/>
       </c>
-      <c r="H6" s="217">
+      <c r="H6" s="219">
         <f>Modèle!D164</f>
         <v>0.2075443037974681</v>
       </c>
-      <c r="I6" s="219">
+      <c r="I6" s="221">
         <f>Modèle!I164</f>
         <v>0.23575416816926681</v>
       </c>
-      <c r="J6" s="217">
+      <c r="J6" s="219">
         <f>Modèle!D192</f>
         <v>0</v>
       </c>
-      <c r="K6" s="219">
+      <c r="K6" s="221">
         <f>Modèle!H192</f>
         <v>0.62149337538873961</v>
       </c>
@@ -3053,10 +3060,10 @@
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F70&lt;&gt;"",Select!G70&lt;&gt;""),Select!E70,""))</f>
         <v/>
       </c>
-      <c r="H7" s="218"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="220"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="220"/>
+      <c r="K7" s="222"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D8" s="56" t="str">
@@ -3193,15 +3200,15 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="221" t="str">
+      <c r="A16" s="212" t="str">
         <f>VLOOKUP(_Bilan,_Tables,4,FALSE)</f>
         <v>Bilan à l'ouverture</v>
       </c>
-      <c r="B16" s="221"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="221"/>
-      <c r="E16" s="221"/>
-      <c r="F16" s="221"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="212"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="212"/>
       <c r="H16" s="73" t="str">
         <f>VLOOKUP(_PIBPNB,_Tables,4,FALSE)</f>
         <v>PIB ou PNB</v>
@@ -3211,18 +3218,18 @@
       <c r="K16" s="68"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="222" t="str">
+      <c r="A17" s="213" t="str">
         <f>VLOOKUP(_Actif,_Tables,4,FALSE)</f>
         <v>Actif</v>
       </c>
-      <c r="B17" s="222"/>
-      <c r="C17" s="222"/>
-      <c r="D17" s="222" t="str">
+      <c r="B17" s="213"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="213" t="str">
         <f>VLOOKUP(_Passif,_Tables,4,FALSE)</f>
         <v>Passif</v>
       </c>
-      <c r="E17" s="222"/>
-      <c r="F17" s="222"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="213"/>
       <c r="H17" s="56" t="str">
         <f>_PIBPNB_Liste</f>
         <v>PIB/tête</v>
@@ -3527,29 +3534,29 @@
       <c r="K29" s="70"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="221" t="str">
+      <c r="A31" s="212" t="str">
         <f>VLOOKUP(_CompteDeResultat,_Tables,4,FALSE)</f>
         <v>Compte de résultat</v>
       </c>
-      <c r="B31" s="221"/>
-      <c r="C31" s="221"/>
-      <c r="D31" s="221"/>
-      <c r="E31" s="221"/>
-      <c r="F31" s="221"/>
+      <c r="B31" s="212"/>
+      <c r="C31" s="212"/>
+      <c r="D31" s="212"/>
+      <c r="E31" s="212"/>
+      <c r="F31" s="212"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="222" t="str">
+      <c r="A32" s="213" t="str">
         <f>VLOOKUP(_Charges,_Tables,4,FALSE)</f>
         <v>Charges</v>
       </c>
-      <c r="B32" s="222"/>
-      <c r="C32" s="222"/>
-      <c r="D32" s="222" t="str">
+      <c r="B32" s="213"/>
+      <c r="C32" s="213"/>
+      <c r="D32" s="213" t="str">
         <f>VLOOKUP(_Produits,_Tables,4,FALSE)</f>
         <v>Produits</v>
       </c>
-      <c r="E32" s="222"/>
-      <c r="F32" s="222"/>
+      <c r="E32" s="213"/>
+      <c r="F32" s="213"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="59" t="str">
@@ -4065,12 +4072,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="E3:G3"/>
@@ -4078,6 +4079,12 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4122,8 +4129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:T85"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4333,7 +4340,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="str">
         <f>_DettesLT</f>
         <v>_DettesLT</v>
@@ -4348,7 +4355,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="str">
         <f>_DettesCT</f>
         <v>_DettesCT</v>
@@ -4363,7 +4370,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="str">
         <f>_DettesFournisseurs</f>
         <v>_DettesFournisseurs</v>
@@ -4378,7 +4385,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="str">
         <f>_Achats</f>
         <v>_Achats</v>
@@ -4393,7 +4400,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="str">
         <f>_Petrole</f>
         <v>_Petrole</v>
@@ -4408,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="str">
         <f>_DepensesAdministratives</f>
         <v>_DepensesAdministratives</v>
@@ -4423,7 +4430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="str">
         <f>_DepensesPublicitaires</f>
         <v>_DepensesPublicitaires</v>
@@ -4438,7 +4445,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="str">
         <f>_DepensesDEntretien</f>
         <v>_DepensesDEntretien</v>
@@ -4453,7 +4460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="str">
         <f>_ChargesFinancieres</f>
         <v>_ChargesFinancieres</v>
@@ -4468,7 +4475,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="str">
         <f>_Ventes</f>
         <v>_Ventes</v>
@@ -4483,7 +4490,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>212</v>
       </c>
@@ -4497,7 +4504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>213</v>
       </c>
@@ -4510,8 +4517,12 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="J28" s="1">
+        <f>_TauxDActualisation_Select</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>214</v>
       </c>
@@ -4525,7 +4536,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>215</v>
       </c>
@@ -4539,7 +4550,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>216</v>
       </c>
@@ -4553,7 +4564,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>217</v>
       </c>
@@ -5566,7 +5577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:D114"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7117,10 +7128,10 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9428,13 +9439,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J195"/>
+  <dimension ref="A1:M195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D215" sqref="D215"/>
+      <selection pane="bottomRight" activeCell="L134" sqref="L134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9443,7 +9454,9 @@
     <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="8" width="12.83203125" style="6" customWidth="1"/>
     <col min="9" max="9" width="12.83203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -10594,6 +10607,10 @@
         <f>(_Terrain_Select+_Constructions_Select+_Equipement_Select+_Camion_Select+_Informatique_Select+_Bureau_Select)*_PIBPNB_Select</f>
         <v>64769558.508473195</v>
       </c>
+      <c r="F65" s="6" t="str">
+        <f>_Amortissement_TauxExceptionnel_Select</f>
+        <v>_Gen</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -11613,12 +11630,12 @@
         <v>30854389.050125241</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="89" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="115" t="s">
         <v>284</v>
       </c>
@@ -11647,7 +11664,7 @@
         <v>30854389.050125241</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="101" t="s">
         <v>89</v>
       </c>
@@ -11676,7 +11693,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="108" t="s">
         <v>57</v>
       </c>
@@ -11705,12 +11722,12 @@
         <v>9256316.7150375713</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="89" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="115" t="s">
         <v>173</v>
       </c>
@@ -11739,7 +11756,7 @@
         <v>469020940.92342657</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="101" t="s">
         <v>89</v>
       </c>
@@ -11768,7 +11785,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="108" t="s">
         <v>58</v>
       </c>
@@ -11797,12 +11814,12 @@
         <v>3517657.0569256991</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="152" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="175" t="s">
         <v>288</v>
       </c>
@@ -11828,8 +11845,11 @@
         <f>IF(H$117&gt;H$122,H$117,H$122)</f>
         <v>9256316.7150375713</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M125" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="101" t="s">
         <v>295</v>
       </c>
@@ -11857,8 +11877,11 @@
         <f t="shared" si="66"/>
         <v>30854389.050125241</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M126" s="1">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="108" t="s">
         <v>293</v>
       </c>
@@ -11886,13 +11909,24 @@
         <f t="shared" si="67"/>
         <v>6.578467261904751E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M127" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M128" s="1">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="89" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M129" s="1">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="115" t="s">
         <v>295</v>
       </c>
@@ -11921,7 +11955,7 @@
         <v>30854389.050125241</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="101" t="s">
         <v>225</v>
       </c>
@@ -11950,7 +11984,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="101" t="s">
         <v>89</v>
       </c>
@@ -11978,8 +12012,12 @@
         <f>_IRVM_Taux_Select5</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K132" s="224">
+        <f>NPV(M125,M126,M127,M128,M129)</f>
+        <v>42988.866880677524</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="108" t="s">
         <v>59</v>
       </c>
@@ -12008,12 +12046,23 @@
         <v>1542719.4525062621</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J134" s="223"/>
+      <c r="L134" s="1">
+        <f>(D141/1.08^0)+(E141/1.08^1)+(F141/1.08^2)+(G141/1.08^3)+(H141/1.08^4)</f>
+        <v>35874093.251070701</v>
+      </c>
+      <c r="M134" s="1">
+        <f>L134/1.08</f>
+        <v>33216753.010250647</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="152" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="159" t="s">
         <v>299</v>
       </c>
@@ -12040,12 +12089,15 @@
         <v>0.73502985279645328</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="89" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L138" s="223">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="17" t="s">
         <v>291</v>
       </c>
@@ -12053,7 +12105,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="115" t="s">
         <v>54</v>
       </c>
@@ -12082,11 +12134,15 @@
         <v>1197120.1158807459</v>
       </c>
       <c r="I140" s="162">
-        <f t="shared" ref="I140:I145" si="71">NPV(_TauxDActualisation_Select,D140:H140)</f>
+        <f>NPV(_TauxDActualisation_Select,D140:H140)</f>
         <v>4779753.502265133</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K140" s="182">
+        <f>(D140/(1.08))+(D140/(1.08*2))+(D140/(1.08*3))+(D140/(1.08*4))+(D140/(1.08*5))</f>
+        <v>2530948.3931429344</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="101" t="s">
         <v>288</v>
       </c>
@@ -12115,11 +12171,11 @@
         <v>9256316.7150375713</v>
       </c>
       <c r="I141" s="163">
-        <f t="shared" si="71"/>
+        <f t="shared" ref="I140:I145" si="71">NPV(_TauxDActualisation_Select,D141:H141)</f>
         <v>33216753.010250647</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="101" t="s">
         <v>59</v>
       </c>
@@ -12152,7 +12208,7 @@
         <v>5536125.5017084414</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="101" t="s">
         <v>60</v>
       </c>
@@ -12185,7 +12241,7 @@
         <v>1471379.3430480356</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="101" t="s">
         <v>61</v>
       </c>

--- a/annexe/Modèle investissement.xlsx
+++ b/annexe/Modèle investissement.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DFCBBA-38AE-41AC-B772-E969B8CD0923}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEE6F2F-5520-4C09-8124-3C0960EBCD64}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2482,44 +2482,44 @@
     <xf numFmtId="164" fontId="0" fillId="45" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="39" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2903,7 +2903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3200,15 +3200,15 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="212" t="str">
+      <c r="A16" s="223" t="str">
         <f>VLOOKUP(_Bilan,_Tables,4,FALSE)</f>
         <v>Bilan à l'ouverture</v>
       </c>
-      <c r="B16" s="212"/>
-      <c r="C16" s="212"/>
-      <c r="D16" s="212"/>
-      <c r="E16" s="212"/>
-      <c r="F16" s="212"/>
+      <c r="B16" s="223"/>
+      <c r="C16" s="223"/>
+      <c r="D16" s="223"/>
+      <c r="E16" s="223"/>
+      <c r="F16" s="223"/>
       <c r="H16" s="73" t="str">
         <f>VLOOKUP(_PIBPNB,_Tables,4,FALSE)</f>
         <v>PIB ou PNB</v>
@@ -3218,18 +3218,18 @@
       <c r="K16" s="68"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="213" t="str">
+      <c r="A17" s="224" t="str">
         <f>VLOOKUP(_Actif,_Tables,4,FALSE)</f>
         <v>Actif</v>
       </c>
-      <c r="B17" s="213"/>
-      <c r="C17" s="213"/>
-      <c r="D17" s="213" t="str">
+      <c r="B17" s="224"/>
+      <c r="C17" s="224"/>
+      <c r="D17" s="224" t="str">
         <f>VLOOKUP(_Passif,_Tables,4,FALSE)</f>
         <v>Passif</v>
       </c>
-      <c r="E17" s="213"/>
-      <c r="F17" s="213"/>
+      <c r="E17" s="224"/>
+      <c r="F17" s="224"/>
       <c r="H17" s="56" t="str">
         <f>_PIBPNB_Liste</f>
         <v>PIB/tête</v>
@@ -3534,29 +3534,29 @@
       <c r="K29" s="70"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="212" t="str">
+      <c r="A31" s="223" t="str">
         <f>VLOOKUP(_CompteDeResultat,_Tables,4,FALSE)</f>
         <v>Compte de résultat</v>
       </c>
-      <c r="B31" s="212"/>
-      <c r="C31" s="212"/>
-      <c r="D31" s="212"/>
-      <c r="E31" s="212"/>
-      <c r="F31" s="212"/>
+      <c r="B31" s="223"/>
+      <c r="C31" s="223"/>
+      <c r="D31" s="223"/>
+      <c r="E31" s="223"/>
+      <c r="F31" s="223"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="213" t="str">
+      <c r="A32" s="224" t="str">
         <f>VLOOKUP(_Charges,_Tables,4,FALSE)</f>
         <v>Charges</v>
       </c>
-      <c r="B32" s="213"/>
-      <c r="C32" s="213"/>
-      <c r="D32" s="213" t="str">
+      <c r="B32" s="224"/>
+      <c r="C32" s="224"/>
+      <c r="D32" s="224" t="str">
         <f>VLOOKUP(_Produits,_Tables,4,FALSE)</f>
         <v>Produits</v>
       </c>
-      <c r="E32" s="213"/>
-      <c r="F32" s="213"/>
+      <c r="E32" s="224"/>
+      <c r="F32" s="224"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="59" t="str">
@@ -4072,6 +4072,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="E3:G3"/>
@@ -4079,12 +4085,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4129,8 +4129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:T85"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="B58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4771,7 +4771,7 @@
         <v>_CIV</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Gabon</v>
@@ -4785,7 +4785,7 @@
         <v>_GAB</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Mali</v>
@@ -4799,7 +4799,7 @@
         <v>_MLI</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Niger</v>
@@ -4813,7 +4813,7 @@
         <v>_NER</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sénégal</v>
@@ -4827,7 +4827,7 @@
         <v>_SEN</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Tchad</v>
@@ -4841,7 +4841,7 @@
         <v>_TCD</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Togo</v>
@@ -4855,7 +4855,7 @@
         <v>_TGO</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="str">
         <f>_Colonne</f>
         <v>_Colonne</v>
@@ -4865,7 +4865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
         <f>_Regime</f>
         <v>_Regime</v>
@@ -4875,7 +4875,7 @@
         <v>_Gen</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="str">
         <f>VLOOKUP(CONCATENATE(_Regime,$D59),_Tables,4,FALSE)</f>
         <v>Régime général</v>
@@ -4889,7 +4889,7 @@
         <v>_Gen</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="str">
         <f>VLOOKUP(CONCATENATE(_Regime,$D60),_Tables,4,FALSE)</f>
         <v>Régime des investissements</v>
@@ -4903,7 +4903,13 @@
         <v>_Inv</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="1" t="str">
+        <f>_Information_Taux</f>
+        <v>_Taux</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="str">
         <f>_Texte</f>
         <v>_Texte</v>
@@ -4913,7 +4919,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="str">
         <f>_Regime</f>
         <v>_Regime</v>
@@ -4923,7 +4929,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="str">
         <f>_Zone</f>
         <v>_Zone</v>
@@ -5034,11 +5040,11 @@
       <c r="M68" s="25"/>
       <c r="N68" s="25"/>
       <c r="P68" s="24">
-        <f t="shared" ref="P68:T73" si="6">IF(J68&lt;&gt;"",J68,IF(OR(_Regime_Select=_Regime_Gen,$H68=_Regime_Gen),$C68,IF($E68&lt;P$67,$C68,IF($H68=_Information_Taux,$F68,IF($H68=_Information_ReducExo,(1-$G68)*$C68,_Error)))))</f>
+        <f>IF(J68&lt;&gt;"",J68,IF(OR(_Regime_Select=_Regime_Gen,$H68=_Regime_Gen),$C68,IF($E68&lt;P$67,$C68,IF($H68=_Information_Taux,$F68,IF($H68=_Information_ReducExo,(1-$G68)*$C68,_Error)))))</f>
         <v>0.04</v>
       </c>
       <c r="Q68" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="P68:T73" si="6">IF(K68&lt;&gt;"",K68,IF(OR(_Regime_Select=_Regime_Gen,$H68=_Regime_Gen),$C68,IF($E68&lt;Q$67,$C68,IF($H68=_Information_Taux,$F68,IF($H68=_Information_ReducExo,(1-$G68)*$C68,_Error)))))</f>
         <v>0.04</v>
       </c>
       <c r="R68" s="24">
@@ -5085,7 +5091,7 @@
       <c r="M69" s="25"/>
       <c r="N69" s="25"/>
       <c r="P69" s="24">
-        <f t="shared" si="6"/>
+        <f>IF(J69&lt;&gt;"",J69,IF(OR(_Regime_Select=_Regime_Gen,$H69=_Regime_Gen),$C69,IF($E69&lt;P$67,$C69,IF($H69=_Information_Taux,$F69,IF($H69=_Information_ReducExo,(1-$G69)*$C69,_Error)))))</f>
         <v>0.3</v>
       </c>
       <c r="Q69" s="24">
@@ -7128,10 +7134,10 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomRight" activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9017,10 +9023,10 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9442,10 +9448,10 @@
   <dimension ref="A1:M195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L134" sqref="L134"/>
+      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9459,7 +9465,7 @@
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>253</v>
       </c>
@@ -9485,12 +9491,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="89" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
         <v>316</v>
       </c>
@@ -9507,12 +9513,12 @@
       <c r="G4" s="91"/>
       <c r="H4" s="92"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="89" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="115" t="s">
         <v>72</v>
       </c>
@@ -9541,7 +9547,7 @@
         <v>893373.22080652684</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="101" t="s">
         <v>258</v>
       </c>
@@ -9570,7 +9576,7 @@
         <v>2120016.5298436135</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="101" t="s">
         <v>74</v>
       </c>
@@ -9599,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="101" t="s">
         <v>76</v>
       </c>
@@ -9628,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="101" t="s">
         <v>75</v>
       </c>
@@ -9657,7 +9663,7 @@
         <v>223343.30520163165</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="108" t="s">
         <v>267</v>
       </c>
@@ -9686,7 +9692,13 @@
         <v>3236733.055851772</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="1">
+        <f>2233433*(1/3)</f>
+        <v>744477.66666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="89" t="s">
         <v>72</v>
       </c>
@@ -9698,7 +9710,7 @@
         <v>17867464.416130535</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>90</v>
       </c>
@@ -9710,7 +9722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>107</v>
       </c>
@@ -9722,7 +9734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="96" t="s">
         <v>261</v>
       </c>
@@ -9750,8 +9762,12 @@
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J18" s="1">
+        <f>IF(E18=0,0,IF($D16*$D20&gt;100%,100%,IF($D16*$D20&gt;E20,$D16*$D20,E20)))*100</f>
+        <v>5.2631578947368416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="101" t="s">
         <v>262</v>
       </c>
@@ -9779,8 +9795,12 @@
         <f t="shared" si="7"/>
         <v>14293971.532904429</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J19" s="104">
+        <f>IF(E18=0,0,IF($D16*$D20&gt;100%,100%,IF($D16*$D20&gt;E20,$D16*$D20,E20)))</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="101" t="s">
         <v>263</v>
       </c>
@@ -9809,7 +9829,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="101" t="s">
         <v>265</v>
       </c>
@@ -9838,7 +9858,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="108" t="s">
         <v>266</v>
       </c>
@@ -9866,8 +9886,18 @@
         <f t="shared" si="9"/>
         <v>893373.22080652684</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K22" s="1">
+        <f>E19*E21</f>
+        <v>893373.2208065266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="1">
+        <f>E19*0.0526</f>
+        <v>892837.19687404286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="89" t="s">
         <v>73</v>
       </c>
@@ -9879,7 +9909,7 @@
         <v>26801196.624195807</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
@@ -9891,7 +9921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>107</v>
       </c>
@@ -9903,7 +9933,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="96" t="s">
         <v>261</v>
       </c>
@@ -9932,7 +9962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="101" t="s">
         <v>262</v>
       </c>
@@ -9961,7 +9991,7 @@
         <v>8480066.119374454</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="101" t="s">
         <v>263</v>
       </c>
@@ -9990,7 +10020,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="101" t="s">
         <v>265</v>
       </c>
@@ -10019,7 +10049,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="108" t="s">
         <v>266</v>
       </c>
@@ -10048,7 +10078,7 @@
         <v>2120016.5298436135</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="89" t="s">
         <v>74</v>
       </c>
@@ -10060,7 +10090,7 @@
         <v>2233433.0520163169</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>90</v>
       </c>
@@ -10072,7 +10102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>107</v>
       </c>
@@ -10084,7 +10114,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K37" s="1">
+        <f>2233433*(1/3)</f>
+        <v>744477.66666666663</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="96" t="s">
         <v>261</v>
       </c>
@@ -10112,8 +10148,12 @@
         <f t="shared" ref="H38" si="20">IF(G38-1&gt;0,G38-1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K38" s="1">
+        <f>2233433*0.3333</f>
+        <v>744403.21889999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="101" t="s">
         <v>262</v>
       </c>
@@ -10142,7 +10182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="101" t="s">
         <v>263</v>
       </c>
@@ -10171,7 +10211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="101" t="s">
         <v>265</v>
       </c>
@@ -10200,7 +10240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="108" t="s">
         <v>266</v>
       </c>
@@ -10229,7 +10269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="89" t="s">
         <v>76</v>
       </c>
@@ -10241,7 +10281,7 @@
         <v>2233433.0520163169</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>90</v>
       </c>
@@ -10253,7 +10293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>107</v>
       </c>
@@ -10265,7 +10305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="96" t="s">
         <v>261</v>
       </c>
@@ -12012,7 +12052,7 @@
         <f>_IRVM_Taux_Select5</f>
         <v>0.1</v>
       </c>
-      <c r="K132" s="224">
+      <c r="K132" s="213">
         <f>NPV(M125,M126,M127,M128,M129)</f>
         <v>42988.866880677524</v>
       </c>
@@ -12047,7 +12087,7 @@
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J134" s="223"/>
+      <c r="J134" s="212"/>
       <c r="L134" s="1">
         <f>(D141/1.08^0)+(E141/1.08^1)+(F141/1.08^2)+(G141/1.08^3)+(H141/1.08^4)</f>
         <v>35874093.251070701</v>
@@ -12093,7 +12133,7 @@
       <c r="A138" s="89" t="s">
         <v>290</v>
       </c>
-      <c r="L138" s="223">
+      <c r="L138" s="212">
         <v>43101</v>
       </c>
     </row>
@@ -12171,7 +12211,7 @@
         <v>9256316.7150375713</v>
       </c>
       <c r="I141" s="163">
-        <f t="shared" ref="I140:I145" si="71">NPV(_TauxDActualisation_Select,D141:H141)</f>
+        <f t="shared" ref="I141:I145" si="71">NPV(_TauxDActualisation_Select,D141:H141)</f>
         <v>33216753.010250647</v>
       </c>
     </row>
@@ -13368,7 +13408,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/annexe/Modèle investissement.xlsx
+++ b/annexe/Modèle investissement.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEE6F2F-5520-4C09-8124-3C0960EBCD64}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD24E688-9E47-4A2D-8180-7643C0E648BF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accueil" sheetId="2" r:id="rId1"/>
@@ -2488,6 +2488,12 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2514,12 +2520,6 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="40" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2903,7 +2903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2929,19 +2929,19 @@
       <c r="B3" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="216" t="s">
+      <c r="E3" s="218" t="s">
         <v>317</v>
       </c>
-      <c r="F3" s="217"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="214" t="s">
+      <c r="F3" s="219"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="216" t="s">
         <v>325</v>
       </c>
-      <c r="I3" s="215"/>
-      <c r="J3" s="214" t="s">
+      <c r="I3" s="217"/>
+      <c r="J3" s="216" t="s">
         <v>326</v>
       </c>
-      <c r="K3" s="215"/>
+      <c r="K3" s="217"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D4" s="190"/>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="I5" s="198">
         <f>Modèle!I163</f>
-        <v>3.3924050632911436E-2</v>
+        <v>3.3924050632911443E-2</v>
       </c>
       <c r="J5" s="208"/>
       <c r="K5" s="209"/>
@@ -3019,19 +3019,19 @@
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F69&lt;&gt;"",Select!G69&lt;&gt;""),Select!E69,""))</f>
         <v/>
       </c>
-      <c r="H6" s="219">
+      <c r="H6" s="221">
         <f>Modèle!D164</f>
         <v>0.2075443037974681</v>
       </c>
-      <c r="I6" s="221">
+      <c r="I6" s="223">
         <f>Modèle!I164</f>
-        <v>0.23575416816926681</v>
-      </c>
-      <c r="J6" s="219">
+        <v>0.23273122235010016</v>
+      </c>
+      <c r="J6" s="221">
         <f>Modèle!D192</f>
         <v>0</v>
       </c>
-      <c r="K6" s="221">
+      <c r="K6" s="223">
         <f>Modèle!H192</f>
         <v>0.62149337538873961</v>
       </c>
@@ -3060,10 +3060,10 @@
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F70&lt;&gt;"",Select!G70&lt;&gt;""),Select!E70,""))</f>
         <v/>
       </c>
-      <c r="H7" s="220"/>
-      <c r="I7" s="222"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="222"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="224"/>
+      <c r="J7" s="222"/>
+      <c r="K7" s="224"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D8" s="56" t="str">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="I8" s="198">
         <f>Modèle!I165</f>
-        <v>3.9292361361544466E-2</v>
+        <v>3.8788537058350031E-2</v>
       </c>
       <c r="J8" s="208"/>
       <c r="K8" s="209"/>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="I11" s="174">
         <f>Modèle!I168</f>
-        <v>0.31941361813840624</v>
+        <v>0.31588684801604522</v>
       </c>
       <c r="J11" s="189">
         <f>Modèle!D195</f>
@@ -3200,15 +3200,15 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="223" t="str">
+      <c r="A16" s="214" t="str">
         <f>VLOOKUP(_Bilan,_Tables,4,FALSE)</f>
         <v>Bilan à l'ouverture</v>
       </c>
-      <c r="B16" s="223"/>
-      <c r="C16" s="223"/>
-      <c r="D16" s="223"/>
-      <c r="E16" s="223"/>
-      <c r="F16" s="223"/>
+      <c r="B16" s="214"/>
+      <c r="C16" s="214"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="214"/>
       <c r="H16" s="73" t="str">
         <f>VLOOKUP(_PIBPNB,_Tables,4,FALSE)</f>
         <v>PIB ou PNB</v>
@@ -3218,18 +3218,18 @@
       <c r="K16" s="68"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="224" t="str">
+      <c r="A17" s="215" t="str">
         <f>VLOOKUP(_Actif,_Tables,4,FALSE)</f>
         <v>Actif</v>
       </c>
-      <c r="B17" s="224"/>
-      <c r="C17" s="224"/>
-      <c r="D17" s="224" t="str">
+      <c r="B17" s="215"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="215" t="str">
         <f>VLOOKUP(_Passif,_Tables,4,FALSE)</f>
         <v>Passif</v>
       </c>
-      <c r="E17" s="224"/>
-      <c r="F17" s="224"/>
+      <c r="E17" s="215"/>
+      <c r="F17" s="215"/>
       <c r="H17" s="56" t="str">
         <f>_PIBPNB_Liste</f>
         <v>PIB/tête</v>
@@ -3529,34 +3529,34 @@
       <c r="I29" s="57"/>
       <c r="J29" s="78">
         <f>_TauxDActualisation_Select</f>
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="K29" s="70"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="223" t="str">
+      <c r="A31" s="214" t="str">
         <f>VLOOKUP(_CompteDeResultat,_Tables,4,FALSE)</f>
         <v>Compte de résultat</v>
       </c>
-      <c r="B31" s="223"/>
-      <c r="C31" s="223"/>
-      <c r="D31" s="223"/>
-      <c r="E31" s="223"/>
-      <c r="F31" s="223"/>
+      <c r="B31" s="214"/>
+      <c r="C31" s="214"/>
+      <c r="D31" s="214"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="214"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="224" t="str">
+      <c r="A32" s="215" t="str">
         <f>VLOOKUP(_Charges,_Tables,4,FALSE)</f>
         <v>Charges</v>
       </c>
-      <c r="B32" s="224"/>
-      <c r="C32" s="224"/>
-      <c r="D32" s="224" t="str">
+      <c r="B32" s="215"/>
+      <c r="C32" s="215"/>
+      <c r="D32" s="215" t="str">
         <f>VLOOKUP(_Produits,_Tables,4,FALSE)</f>
         <v>Produits</v>
       </c>
-      <c r="E32" s="224"/>
-      <c r="F32" s="224"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="215"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="59" t="str">
@@ -4072,12 +4072,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="E3:G3"/>
@@ -4085,6 +4079,12 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4519,7 +4519,7 @@
       </c>
       <c r="J28" s="1">
         <f>_TauxDActualisation_Select</f>
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
@@ -4600,12 +4600,12 @@
       </c>
       <c r="C34" s="10">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="29">
         <f t="shared" si="1"/>
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -9023,10 +9023,10 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9430,7 +9430,7 @@
         <v>_TauxDActualisation</v>
       </c>
       <c r="B56" s="10">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -9447,11 +9447,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomRight" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12114,19 +12114,19 @@
       </c>
       <c r="E136" s="160">
         <f>1/POWER((1+_TauxDActualisation_Select),1)</f>
-        <v>0.92592592592592582</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F136" s="160">
         <f>1/POWER((1+_TauxDActualisation_Select),2)</f>
-        <v>0.85733882030178321</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="G136" s="160">
         <f>1/POWER((1+_TauxDActualisation_Select),3)</f>
-        <v>0.79383224102016958</v>
+        <v>0.57870370370370372</v>
       </c>
       <c r="H136" s="161">
         <f>1/POWER((1+_TauxDActualisation_Select),4)</f>
-        <v>0.73502985279645328</v>
+        <v>0.48225308641975312</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
@@ -12175,7 +12175,7 @@
       </c>
       <c r="I140" s="162">
         <f>NPV(_TauxDActualisation_Select,D140:H140)</f>
-        <v>4779753.502265133</v>
+        <v>3580121.9514926379</v>
       </c>
       <c r="K140" s="182">
         <f>(D140/(1.08))+(D140/(1.08*2))+(D140/(1.08*3))+(D140/(1.08*4))+(D140/(1.08*5))</f>
@@ -12212,7 +12212,7 @@
       </c>
       <c r="I141" s="163">
         <f t="shared" ref="I141:I145" si="71">NPV(_TauxDActualisation_Select,D141:H141)</f>
-        <v>33216753.010250647</v>
+        <v>24560927.789825071</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="I142" s="163">
         <f t="shared" si="71"/>
-        <v>5536125.5017084414</v>
+        <v>4093487.9649708462</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
@@ -12278,7 +12278,7 @@
       </c>
       <c r="I143" s="163">
         <f t="shared" si="71"/>
-        <v>1471379.3430480356</v>
+        <v>1102089.7798438156</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
@@ -12344,7 +12344,7 @@
       </c>
       <c r="I145" s="165">
         <f t="shared" si="71"/>
-        <v>45004011.35727226</v>
+        <v>33336627.486132372</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -12369,23 +12369,23 @@
       </c>
       <c r="E147" s="117">
         <f t="shared" si="75"/>
-        <v>1108444.5517414312</v>
+        <v>997600.09656728827</v>
       </c>
       <c r="F147" s="117">
         <f t="shared" si="75"/>
-        <v>1026337.5479087328</v>
+        <v>831333.41380607348</v>
       </c>
       <c r="G147" s="117">
         <f t="shared" si="75"/>
-        <v>950312.54435993766</v>
+        <v>692777.84483839467</v>
       </c>
       <c r="H147" s="117">
         <f t="shared" si="75"/>
-        <v>879919.02255549782</v>
+        <v>577314.87069866224</v>
       </c>
       <c r="I147" s="162">
         <f>SUM(D147:H147)</f>
-        <v>5162133.7824463444</v>
+        <v>4296146.3417911651</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -12402,23 +12402,23 @@
       </c>
       <c r="E148" s="113">
         <f t="shared" si="75"/>
-        <v>7246663.0563662602</v>
+        <v>6521996.7507296354</v>
       </c>
       <c r="F148" s="113">
         <f t="shared" si="75"/>
-        <v>7320218.5238389596</v>
+        <v>5929377.0043095574</v>
       </c>
       <c r="G148" s="113">
         <f t="shared" si="75"/>
-        <v>7179668.8942021774</v>
+        <v>5233978.6238733884</v>
       </c>
       <c r="H148" s="113">
         <f t="shared" si="75"/>
-        <v>6803669.1124914158</v>
+        <v>4463887.3047056189</v>
       </c>
       <c r="I148" s="163">
         <f t="shared" ref="I148:I152" si="76">SUM(D148:H148)</f>
-        <v>35874093.251070701</v>
+        <v>29473113.347790085</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -12435,23 +12435,23 @@
       </c>
       <c r="E149" s="113">
         <f>E142*E$136</f>
-        <v>1207777.1760610435</v>
+        <v>1086999.4584549393</v>
       </c>
       <c r="F149" s="113">
         <f t="shared" si="77"/>
-        <v>1220036.4206398265</v>
+        <v>988229.50071825949</v>
       </c>
       <c r="G149" s="113">
         <f t="shared" si="77"/>
-        <v>1196611.4823670299</v>
+        <v>872329.77064556489</v>
       </c>
       <c r="H149" s="113">
         <f t="shared" si="77"/>
-        <v>1133944.8520819028</v>
+        <v>743981.21745093667</v>
       </c>
       <c r="I149" s="163">
         <f t="shared" si="76"/>
-        <v>5979015.5418451168</v>
+        <v>4912185.5579650151</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -12468,23 +12468,23 @@
       </c>
       <c r="E150" s="113">
         <f t="shared" si="78"/>
-        <v>341218.93850249285</v>
+        <v>307097.04465224361</v>
       </c>
       <c r="F150" s="113">
         <f t="shared" si="78"/>
-        <v>315943.46157638228</v>
+        <v>255914.20387686964</v>
       </c>
       <c r="G150" s="113">
         <f t="shared" si="78"/>
-        <v>292540.24220035394</v>
+        <v>213261.83656405806</v>
       </c>
       <c r="H150" s="113">
         <f t="shared" si="78"/>
-        <v>270870.59462995734</v>
+        <v>177718.19713671505</v>
       </c>
       <c r="I150" s="163">
         <f t="shared" si="76"/>
-        <v>1589089.6904918787</v>
+        <v>1322507.7358125786</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -12534,23 +12534,23 @@
       </c>
       <c r="E152" s="122">
         <f t="shared" ref="E152" si="80">SUM(E147:E151)</f>
-        <v>9904103.7226712275</v>
+        <v>8913693.3504041061</v>
       </c>
       <c r="F152" s="122">
         <f t="shared" ref="F152" si="81">SUM(F147:F151)</f>
-        <v>9882535.9539639</v>
+        <v>8004854.1227107598</v>
       </c>
       <c r="G152" s="122">
         <f t="shared" ref="G152" si="82">SUM(G147:G151)</f>
-        <v>9619133.1631294992</v>
+        <v>7012348.075921407</v>
       </c>
       <c r="H152" s="122">
         <f t="shared" ref="H152" si="83">SUM(H147:H151)</f>
-        <v>9088403.5817587748</v>
+        <v>5962901.5899919327</v>
       </c>
       <c r="I152" s="165">
         <f t="shared" si="76"/>
-        <v>48604332.265854038</v>
+        <v>40003952.983358845</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -12593,7 +12593,7 @@
       </c>
       <c r="I156" s="168">
         <f t="shared" si="84"/>
-        <v>3.3924050632911429E-2</v>
+        <v>3.3924050632911443E-2</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -12626,7 +12626,7 @@
       </c>
       <c r="I157" s="169">
         <f>I141/I$171</f>
-        <v>0.23575416816926678</v>
+        <v>0.23273122235010013</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -12659,7 +12659,7 @@
       </c>
       <c r="I158" s="169">
         <f t="shared" si="84"/>
-        <v>3.9292361361544466E-2</v>
+        <v>3.8788537058350031E-2</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -12692,7 +12692,7 @@
       </c>
       <c r="I159" s="169">
         <f t="shared" si="84"/>
-        <v>1.0443037974683557E-2</v>
+        <v>1.0443037974683558E-2</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="I161" s="171">
         <f t="shared" si="84"/>
-        <v>0.31941361813840624</v>
+        <v>0.31588684801604516</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
@@ -12796,7 +12796,7 @@
       </c>
       <c r="I163" s="168">
         <f t="shared" si="85"/>
-        <v>3.3924050632911436E-2</v>
+        <v>3.3924050632911443E-2</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
@@ -12813,7 +12813,7 @@
       </c>
       <c r="E164" s="167">
         <f t="shared" si="85"/>
-        <v>0.22178481012658216</v>
+        <v>0.22178481012658213</v>
       </c>
       <c r="F164" s="167">
         <f t="shared" si="85"/>
@@ -12829,7 +12829,7 @@
       </c>
       <c r="I164" s="169">
         <f t="shared" si="85"/>
-        <v>0.23575416816926681</v>
+        <v>0.23273122235010016</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
@@ -12854,15 +12854,15 @@
       </c>
       <c r="G165" s="167">
         <f t="shared" si="85"/>
-        <v>4.2716376582278504E-2</v>
+        <v>4.2716376582278497E-2</v>
       </c>
       <c r="H165" s="167">
         <f t="shared" si="85"/>
-        <v>4.3717662183544295E-2</v>
+        <v>4.3717662183544302E-2</v>
       </c>
       <c r="I165" s="169">
         <f t="shared" si="85"/>
-        <v>3.9292361361544466E-2</v>
+        <v>3.8788537058350031E-2</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
@@ -12883,7 +12883,7 @@
       </c>
       <c r="F166" s="167">
         <f t="shared" si="85"/>
-        <v>1.044303797468356E-2</v>
+        <v>1.0443037974683558E-2</v>
       </c>
       <c r="G166" s="167">
         <f t="shared" si="85"/>
@@ -12953,15 +12953,15 @@
       </c>
       <c r="G168" s="170">
         <f t="shared" si="85"/>
-        <v>0.34338172468354444</v>
+        <v>0.3433817246835445</v>
       </c>
       <c r="H168" s="170">
         <f t="shared" si="85"/>
-        <v>0.35039072389240511</v>
+        <v>0.35039072389240505</v>
       </c>
       <c r="I168" s="171">
         <f t="shared" si="85"/>
-        <v>0.31941361813840624</v>
+        <v>0.31588684801604522</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="I171" s="162">
         <f>NPV(_TauxDActualisation_Select,D171:H171)</f>
-        <v>140895718.91005415</v>
+        <v>105533445.58504401</v>
       </c>
       <c r="J171" s="182"/>
     </row>
@@ -13026,23 +13026,23 @@
       </c>
       <c r="E172" s="135">
         <f>E171*E$136</f>
-        <v>32674298.353571992</v>
+        <v>29406868.518214799</v>
       </c>
       <c r="F172" s="135">
         <f>F171*F$136</f>
-        <v>30253979.957011107</v>
+        <v>24505723.765178997</v>
       </c>
       <c r="G172" s="135">
         <f>G171*G$136</f>
-        <v>28012944.404639911</v>
+        <v>20421436.470982499</v>
       </c>
       <c r="H172" s="135">
         <f>H171*H$136</f>
-        <v>25937911.485777695</v>
+        <v>17017863.72581875</v>
       </c>
       <c r="I172" s="164">
         <f t="shared" ref="I172" si="87">SUM(D172:H172)</f>
-        <v>152167376.42285848</v>
+        <v>126640134.7020528</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="I175" s="162">
         <f>NPV(_TauxDActualisation_Select,C175:H175)</f>
-        <v>-3696932.1305670151</v>
+        <v>-25582612.337997433</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
@@ -13111,23 +13111,23 @@
       </c>
       <c r="E176" s="135">
         <f t="shared" ref="E176:H176" si="89">E$172-E148</f>
-        <v>25427635.297205731</v>
+        <v>22884871.767485164</v>
       </c>
       <c r="F176" s="135">
         <f t="shared" si="89"/>
-        <v>22933761.433172148</v>
+        <v>18576346.76086944</v>
       </c>
       <c r="G176" s="135">
         <f t="shared" si="89"/>
-        <v>20833275.510437734</v>
+        <v>15187457.847109111</v>
       </c>
       <c r="H176" s="135">
         <f t="shared" si="89"/>
-        <v>19134242.373286277</v>
+        <v>12553976.42111313</v>
       </c>
       <c r="I176" s="164">
         <f>SUM(C176:H176)</f>
-        <v>4621630.5709719136</v>
+        <v>-14504631.246553142</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -13176,7 +13176,7 @@
       </c>
       <c r="I179" s="162">
         <f>NPV(_TauxDActualisation_Select,C179:H179)</f>
-        <v>-14611060.229661105</v>
+        <v>-32895695.418253522</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -13196,23 +13196,23 @@
       </c>
       <c r="E180" s="135">
         <f>E$172-E$152</f>
-        <v>22770194.630900763</v>
+        <v>20493175.167810693</v>
       </c>
       <c r="F180" s="135">
         <f>F$172-F$152</f>
-        <v>20371444.003047206</v>
+        <v>16500869.642468236</v>
       </c>
       <c r="G180" s="135">
         <f>G$172-G$152</f>
-        <v>18393811.241510414</v>
+        <v>13409088.395061092</v>
       </c>
       <c r="H180" s="135">
         <f>H$172-H$152</f>
-        <v>16849507.90401892</v>
+        <v>11054962.135826817</v>
       </c>
       <c r="I180" s="164">
         <f>SUM(C180:H180)</f>
-        <v>-8108608.4438114278</v>
+        <v>-25035470.882121891</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">

--- a/annexe/Modèle investissement.xlsx
+++ b/annexe/Modèle investissement.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD24E688-9E47-4A2D-8180-7643C0E648BF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26C5A93-62BC-4CDE-A8C5-0225D887704E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accueil" sheetId="2" r:id="rId1"/>
@@ -2488,38 +2488,38 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="39" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2901,10 +2901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2912,7 +2912,7 @@
     <col min="1" max="16384" width="12.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>240</v>
       </c>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="I1" s="34"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>VLOOKUP(_Donnee,_Tables,4,FALSE)</f>
         <v>Données</v>
@@ -2929,21 +2929,21 @@
       <c r="B3" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="218" t="s">
+      <c r="E3" s="216" t="s">
         <v>317</v>
       </c>
-      <c r="F3" s="219"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="216" t="s">
+      <c r="F3" s="217"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="214" t="s">
         <v>325</v>
       </c>
-      <c r="I3" s="217"/>
-      <c r="J3" s="216" t="s">
+      <c r="I3" s="215"/>
+      <c r="J3" s="214" t="s">
         <v>326</v>
       </c>
-      <c r="K3" s="217"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K3" s="215"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D4" s="190"/>
       <c r="E4" s="191" t="s">
         <v>319</v>
@@ -2967,7 +2967,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>VLOOKUP(_PIBPNB,_Tables,4,FALSE)</f>
         <v>PIB ou PNB</v>
@@ -2997,12 +2997,12 @@
       </c>
       <c r="I5" s="198">
         <f>Modèle!I163</f>
-        <v>3.3924050632911443E-2</v>
+        <v>3.3924050632911436E-2</v>
       </c>
       <c r="J5" s="208"/>
       <c r="K5" s="209"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D6" s="199" t="str">
         <f>VLOOKUP(CONCATENATE(_Impot,_Impot_IS),_Tables,3,FALSE)</f>
         <v>IS</v>
@@ -3019,24 +3019,24 @@
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F69&lt;&gt;"",Select!G69&lt;&gt;""),Select!E69,""))</f>
         <v/>
       </c>
-      <c r="H6" s="221">
+      <c r="H6" s="219">
         <f>Modèle!D164</f>
         <v>0.2075443037974681</v>
       </c>
-      <c r="I6" s="223">
+      <c r="I6" s="221">
         <f>Modèle!I164</f>
-        <v>0.23273122235010016</v>
-      </c>
-      <c r="J6" s="221">
+        <v>0.23575416816926681</v>
+      </c>
+      <c r="J6" s="219">
         <f>Modèle!D192</f>
         <v>0</v>
       </c>
-      <c r="K6" s="223">
+      <c r="K6" s="221">
         <f>Modèle!H192</f>
         <v>0.62149337538873961</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>VLOOKUP(_Pays,_Tables,4,FALSE)</f>
         <v>Pays</v>
@@ -3060,12 +3060,12 @@
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F70&lt;&gt;"",Select!G70&lt;&gt;""),Select!E70,""))</f>
         <v/>
       </c>
-      <c r="H7" s="222"/>
-      <c r="I7" s="224"/>
-      <c r="J7" s="222"/>
-      <c r="K7" s="224"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H7" s="220"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="220"/>
+      <c r="K7" s="222"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D8" s="56" t="str">
         <f>VLOOKUP(CONCATENATE(_Impot,_Impot_IRVM),_Tables,3,FALSE)</f>
         <v>IRVM</v>
@@ -3088,12 +3088,12 @@
       </c>
       <c r="I8" s="198">
         <f>Modèle!I165</f>
-        <v>3.8788537058350031E-2</v>
+        <v>3.9292361361544466E-2</v>
       </c>
       <c r="J8" s="208"/>
       <c r="K8" s="209"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f>VLOOKUP(_Regime,_Tables,4,FALSE)</f>
         <v>Régime</v>
@@ -3128,7 +3128,7 @@
       <c r="J9" s="210"/>
       <c r="K9" s="211"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="str">
         <f>Select!B62</f>
         <v/>
@@ -3160,7 +3160,7 @@
       <c r="J10" s="208"/>
       <c r="K10" s="209"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="19" t="str">
         <f>Select!B63</f>
         <v/>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="I11" s="174">
         <f>Modèle!I168</f>
-        <v>0.31588684801604522</v>
+        <v>0.31941361813840624</v>
       </c>
       <c r="J11" s="189">
         <f>Modèle!D195</f>
@@ -3188,27 +3188,35 @@
         <v>0.86390257497952883</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="str">
         <f>Select!B64</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="214" t="str">
+      <c r="N14" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="223" t="str">
         <f>VLOOKUP(_Bilan,_Tables,4,FALSE)</f>
         <v>Bilan à l'ouverture</v>
       </c>
-      <c r="B16" s="214"/>
-      <c r="C16" s="214"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="214"/>
+      <c r="B16" s="223"/>
+      <c r="C16" s="223"/>
+      <c r="D16" s="223"/>
+      <c r="E16" s="223"/>
+      <c r="F16" s="223"/>
       <c r="H16" s="73" t="str">
         <f>VLOOKUP(_PIBPNB,_Tables,4,FALSE)</f>
         <v>PIB ou PNB</v>
@@ -3217,19 +3225,19 @@
       <c r="J16" s="67"/>
       <c r="K16" s="68"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="215" t="str">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="224" t="str">
         <f>VLOOKUP(_Actif,_Tables,4,FALSE)</f>
         <v>Actif</v>
       </c>
-      <c r="B17" s="215"/>
-      <c r="C17" s="215"/>
-      <c r="D17" s="215" t="str">
+      <c r="B17" s="224"/>
+      <c r="C17" s="224"/>
+      <c r="D17" s="224" t="str">
         <f>VLOOKUP(_Passif,_Tables,4,FALSE)</f>
         <v>Passif</v>
       </c>
-      <c r="E17" s="215"/>
-      <c r="F17" s="215"/>
+      <c r="E17" s="224"/>
+      <c r="F17" s="224"/>
       <c r="H17" s="56" t="str">
         <f>_PIBPNB_Liste</f>
         <v>PIB/tête</v>
@@ -3243,7 +3251,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="59" t="str">
         <f>VLOOKUP(_ActifImmo,_Tables,4,FALSE)</f>
         <v>Actif immobilisé</v>
@@ -3256,8 +3264,12 @@
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="37"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N18" s="1">
+        <f>F34/(1+N13)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="str">
         <f>VLOOKUP(_Terrain,_Tables,4,FALSE)</f>
         <v>Terrain</v>
@@ -3284,7 +3296,7 @@
       <c r="J19" s="67"/>
       <c r="K19" s="68"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="str">
         <f>VLOOKUP(_Constructions,_Tables,4,FALSE)</f>
         <v>Constructions</v>
@@ -3308,7 +3320,7 @@
         <v>Indice salarial</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="38" t="str">
         <f>VLOOKUP(_Equipement,_Tables,4,FALSE)</f>
         <v>Equipement</v>
@@ -3335,7 +3347,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="str">
         <f>VLOOKUP(_Camion,_Tables,4,FALSE)</f>
         <v>Camion</v>
@@ -3362,7 +3374,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="str">
         <f>VLOOKUP(_Informatique,_Tables,4,FALSE)</f>
         <v>Matériel informatique</v>
@@ -3389,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="str">
         <f>VLOOKUP(_Bureau,_Tables,4,FALSE)</f>
         <v>Matériel de bureau</v>
@@ -3403,7 +3415,7 @@
       <c r="E24" s="46"/>
       <c r="F24" s="49"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="61" t="str">
         <f>VLOOKUP(_ActifCirculant,_Tables,4,FALSE)</f>
         <v>Actif circulant</v>
@@ -3424,7 +3436,7 @@
       <c r="J25" s="67"/>
       <c r="K25" s="68"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="38" t="str">
         <f>VLOOKUP(_Stocks,_Tables,4,FALSE)</f>
         <v>Stocks</v>
@@ -3456,7 +3468,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="str">
         <f>VLOOKUP(_CreancesClients,_Tables,4,FALSE)</f>
         <v>Créances clients</v>
@@ -3476,7 +3488,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="45" t="str">
         <f>VLOOKUP(_DisponibilitesBancaires,_Tables,4,FALSE)</f>
         <v>Disponibilités bancaires</v>
@@ -3503,7 +3515,7 @@
       <c r="J28" s="67"/>
       <c r="K28" s="68"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="63" t="str">
         <f>VLOOKUP(_Actif,_Tables,4,FALSE)</f>
         <v>Actif</v>
@@ -3529,34 +3541,34 @@
       <c r="I29" s="57"/>
       <c r="J29" s="78">
         <f>_TauxDActualisation_Select</f>
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="K29" s="70"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="214" t="str">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="223" t="str">
         <f>VLOOKUP(_CompteDeResultat,_Tables,4,FALSE)</f>
         <v>Compte de résultat</v>
       </c>
-      <c r="B31" s="214"/>
-      <c r="C31" s="214"/>
-      <c r="D31" s="214"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="214"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="215" t="str">
+      <c r="B31" s="223"/>
+      <c r="C31" s="223"/>
+      <c r="D31" s="223"/>
+      <c r="E31" s="223"/>
+      <c r="F31" s="223"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="224" t="str">
         <f>VLOOKUP(_Charges,_Tables,4,FALSE)</f>
         <v>Charges</v>
       </c>
-      <c r="B32" s="215"/>
-      <c r="C32" s="215"/>
-      <c r="D32" s="215" t="str">
+      <c r="B32" s="224"/>
+      <c r="C32" s="224"/>
+      <c r="D32" s="224" t="str">
         <f>VLOOKUP(_Produits,_Tables,4,FALSE)</f>
         <v>Produits</v>
       </c>
-      <c r="E32" s="215"/>
-      <c r="F32" s="215"/>
+      <c r="E32" s="224"/>
+      <c r="F32" s="224"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="59" t="str">
@@ -4072,6 +4084,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="E3:G3"/>
@@ -4079,12 +4097,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4519,7 +4531,7 @@
       </c>
       <c r="J28" s="1">
         <f>_TauxDActualisation_Select</f>
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
@@ -4600,12 +4612,12 @@
       </c>
       <c r="C34" s="10">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="29">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -5583,7 +5595,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:D114"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7134,7 +7148,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="R36" sqref="R36"/>
@@ -9026,7 +9040,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9430,7 +9444,7 @@
         <v>_TauxDActualisation</v>
       </c>
       <c r="B56" s="10">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -9445,13 +9459,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M195"/>
+  <dimension ref="A1:O195"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C176" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C178" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D115" sqref="D115"/>
+      <selection pane="bottomRight" activeCell="R203" sqref="R203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11917,6 +11931,10 @@
         <f t="shared" si="66"/>
         <v>30854389.050125241</v>
       </c>
+      <c r="I126" s="182">
+        <f>D110-D125</f>
+        <v>17089038.549734402</v>
+      </c>
       <c r="M126" s="1">
         <v>-10000</v>
       </c>
@@ -12114,19 +12132,19 @@
       </c>
       <c r="E136" s="160">
         <f>1/POWER((1+_TauxDActualisation_Select),1)</f>
-        <v>0.83333333333333337</v>
+        <v>0.92592592592592582</v>
       </c>
       <c r="F136" s="160">
         <f>1/POWER((1+_TauxDActualisation_Select),2)</f>
-        <v>0.69444444444444442</v>
+        <v>0.85733882030178321</v>
       </c>
       <c r="G136" s="160">
         <f>1/POWER((1+_TauxDActualisation_Select),3)</f>
-        <v>0.57870370370370372</v>
+        <v>0.79383224102016958</v>
       </c>
       <c r="H136" s="161">
         <f>1/POWER((1+_TauxDActualisation_Select),4)</f>
-        <v>0.48225308641975312</v>
+        <v>0.73502985279645328</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
@@ -12175,7 +12193,7 @@
       </c>
       <c r="I140" s="162">
         <f>NPV(_TauxDActualisation_Select,D140:H140)</f>
-        <v>3580121.9514926379</v>
+        <v>4779753.502265133</v>
       </c>
       <c r="K140" s="182">
         <f>(D140/(1.08))+(D140/(1.08*2))+(D140/(1.08*3))+(D140/(1.08*4))+(D140/(1.08*5))</f>
@@ -12212,7 +12230,7 @@
       </c>
       <c r="I141" s="163">
         <f t="shared" ref="I141:I145" si="71">NPV(_TauxDActualisation_Select,D141:H141)</f>
-        <v>24560927.789825071</v>
+        <v>33216753.010250647</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
@@ -12245,7 +12263,7 @@
       </c>
       <c r="I142" s="163">
         <f t="shared" si="71"/>
-        <v>4093487.9649708462</v>
+        <v>5536125.5017084414</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
@@ -12278,7 +12296,7 @@
       </c>
       <c r="I143" s="163">
         <f t="shared" si="71"/>
-        <v>1102089.7798438156</v>
+        <v>1471379.3430480356</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
@@ -12344,7 +12362,7 @@
       </c>
       <c r="I145" s="165">
         <f t="shared" si="71"/>
-        <v>33336627.486132372</v>
+        <v>45004011.35727226</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -12369,23 +12387,23 @@
       </c>
       <c r="E147" s="117">
         <f t="shared" si="75"/>
-        <v>997600.09656728827</v>
+        <v>1108444.5517414312</v>
       </c>
       <c r="F147" s="117">
         <f t="shared" si="75"/>
-        <v>831333.41380607348</v>
+        <v>1026337.5479087328</v>
       </c>
       <c r="G147" s="117">
         <f t="shared" si="75"/>
-        <v>692777.84483839467</v>
+        <v>950312.54435993766</v>
       </c>
       <c r="H147" s="117">
         <f t="shared" si="75"/>
-        <v>577314.87069866224</v>
+        <v>879919.02255549782</v>
       </c>
       <c r="I147" s="162">
         <f>SUM(D147:H147)</f>
-        <v>4296146.3417911651</v>
+        <v>5162133.7824463444</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -12402,23 +12420,23 @@
       </c>
       <c r="E148" s="113">
         <f t="shared" si="75"/>
-        <v>6521996.7507296354</v>
+        <v>7246663.0563662602</v>
       </c>
       <c r="F148" s="113">
         <f t="shared" si="75"/>
-        <v>5929377.0043095574</v>
+        <v>7320218.5238389596</v>
       </c>
       <c r="G148" s="113">
         <f t="shared" si="75"/>
-        <v>5233978.6238733884</v>
+        <v>7179668.8942021774</v>
       </c>
       <c r="H148" s="113">
         <f t="shared" si="75"/>
-        <v>4463887.3047056189</v>
+        <v>6803669.1124914158</v>
       </c>
       <c r="I148" s="163">
         <f t="shared" ref="I148:I152" si="76">SUM(D148:H148)</f>
-        <v>29473113.347790085</v>
+        <v>35874093.251070701</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -12435,23 +12453,23 @@
       </c>
       <c r="E149" s="113">
         <f>E142*E$136</f>
-        <v>1086999.4584549393</v>
+        <v>1207777.1760610435</v>
       </c>
       <c r="F149" s="113">
         <f t="shared" si="77"/>
-        <v>988229.50071825949</v>
+        <v>1220036.4206398265</v>
       </c>
       <c r="G149" s="113">
         <f t="shared" si="77"/>
-        <v>872329.77064556489</v>
+        <v>1196611.4823670299</v>
       </c>
       <c r="H149" s="113">
         <f t="shared" si="77"/>
-        <v>743981.21745093667</v>
+        <v>1133944.8520819028</v>
       </c>
       <c r="I149" s="163">
         <f t="shared" si="76"/>
-        <v>4912185.5579650151</v>
+        <v>5979015.5418451168</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -12468,23 +12486,23 @@
       </c>
       <c r="E150" s="113">
         <f t="shared" si="78"/>
-        <v>307097.04465224361</v>
+        <v>341218.93850249285</v>
       </c>
       <c r="F150" s="113">
         <f t="shared" si="78"/>
-        <v>255914.20387686964</v>
+        <v>315943.46157638228</v>
       </c>
       <c r="G150" s="113">
         <f t="shared" si="78"/>
-        <v>213261.83656405806</v>
+        <v>292540.24220035394</v>
       </c>
       <c r="H150" s="113">
         <f t="shared" si="78"/>
-        <v>177718.19713671505</v>
+        <v>270870.59462995734</v>
       </c>
       <c r="I150" s="163">
         <f t="shared" si="76"/>
-        <v>1322507.7358125786</v>
+        <v>1589089.6904918787</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -12534,23 +12552,23 @@
       </c>
       <c r="E152" s="122">
         <f t="shared" ref="E152" si="80">SUM(E147:E151)</f>
-        <v>8913693.3504041061</v>
+        <v>9904103.7226712275</v>
       </c>
       <c r="F152" s="122">
         <f t="shared" ref="F152" si="81">SUM(F147:F151)</f>
-        <v>8004854.1227107598</v>
+        <v>9882535.9539639</v>
       </c>
       <c r="G152" s="122">
         <f t="shared" ref="G152" si="82">SUM(G147:G151)</f>
-        <v>7012348.075921407</v>
+        <v>9619133.1631294992</v>
       </c>
       <c r="H152" s="122">
         <f t="shared" ref="H152" si="83">SUM(H147:H151)</f>
-        <v>5962901.5899919327</v>
+        <v>9088403.5817587748</v>
       </c>
       <c r="I152" s="165">
         <f t="shared" si="76"/>
-        <v>40003952.983358845</v>
+        <v>48604332.265854038</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -12593,7 +12611,7 @@
       </c>
       <c r="I156" s="168">
         <f t="shared" si="84"/>
-        <v>3.3924050632911443E-2</v>
+        <v>3.3924050632911429E-2</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -12626,7 +12644,7 @@
       </c>
       <c r="I157" s="169">
         <f>I141/I$171</f>
-        <v>0.23273122235010013</v>
+        <v>0.23575416816926678</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -12659,7 +12677,7 @@
       </c>
       <c r="I158" s="169">
         <f t="shared" si="84"/>
-        <v>3.8788537058350031E-2</v>
+        <v>3.9292361361544466E-2</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -12692,7 +12710,7 @@
       </c>
       <c r="I159" s="169">
         <f t="shared" si="84"/>
-        <v>1.0443037974683558E-2</v>
+        <v>1.0443037974683557E-2</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -12728,7 +12746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="108" t="s">
         <v>267</v>
       </c>
@@ -12758,15 +12776,15 @@
       </c>
       <c r="I161" s="171">
         <f t="shared" si="84"/>
-        <v>0.31588684801604516</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.31941361813840624</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="147" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="115" t="s">
         <v>54</v>
       </c>
@@ -12796,10 +12814,10 @@
       </c>
       <c r="I163" s="168">
         <f t="shared" si="85"/>
-        <v>3.3924050632911443E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3.3924050632911436E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="101" t="s">
         <v>288</v>
       </c>
@@ -12813,7 +12831,7 @@
       </c>
       <c r="E164" s="167">
         <f t="shared" si="85"/>
-        <v>0.22178481012658213</v>
+        <v>0.22178481012658216</v>
       </c>
       <c r="F164" s="167">
         <f t="shared" si="85"/>
@@ -12829,10 +12847,10 @@
       </c>
       <c r="I164" s="169">
         <f t="shared" si="85"/>
-        <v>0.23273122235010016</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.23575416816926681</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="101" t="s">
         <v>59</v>
       </c>
@@ -12854,18 +12872,18 @@
       </c>
       <c r="G165" s="167">
         <f t="shared" si="85"/>
-        <v>4.2716376582278497E-2</v>
+        <v>4.2716376582278504E-2</v>
       </c>
       <c r="H165" s="167">
         <f t="shared" si="85"/>
-        <v>4.3717662183544302E-2</v>
+        <v>4.3717662183544295E-2</v>
       </c>
       <c r="I165" s="169">
         <f t="shared" si="85"/>
-        <v>3.8788537058350031E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3.9292361361544466E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="101" t="s">
         <v>60</v>
       </c>
@@ -12883,7 +12901,7 @@
       </c>
       <c r="F166" s="167">
         <f t="shared" si="85"/>
-        <v>1.0443037974683558E-2</v>
+        <v>1.044303797468356E-2</v>
       </c>
       <c r="G166" s="167">
         <f t="shared" si="85"/>
@@ -12898,7 +12916,7 @@
         <v>1.0443037974683558E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="101" t="s">
         <v>61</v>
       </c>
@@ -12931,7 +12949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="108" t="s">
         <v>267</v>
       </c>
@@ -12953,26 +12971,44 @@
       </c>
       <c r="G168" s="170">
         <f t="shared" si="85"/>
-        <v>0.3433817246835445</v>
+        <v>0.34338172468354444</v>
       </c>
       <c r="H168" s="170">
         <f t="shared" si="85"/>
-        <v>0.35039072389240505</v>
+        <v>0.35039072389240511</v>
       </c>
       <c r="I168" s="171">
         <f t="shared" si="85"/>
-        <v>0.31588684801604522</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.31941361813840624</v>
+      </c>
+      <c r="N168" s="1">
+        <f>2^4</f>
+        <v>16</v>
+      </c>
+      <c r="O168" s="1">
+        <f>2^5</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O169" s="1">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="152" t="s">
         <v>301</v>
       </c>
       <c r="I170" s="6" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O170" s="1">
+        <f>(4/2)^4</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="96" t="s">
         <v>291</v>
       </c>
@@ -13005,11 +13041,15 @@
       </c>
       <c r="I171" s="162">
         <f>NPV(_TauxDActualisation_Select,D171:H171)</f>
-        <v>105533445.58504401</v>
+        <v>140895718.91005415</v>
       </c>
       <c r="J171" s="182"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O171" s="1">
+        <f>4^4/2^4</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="149" t="s">
         <v>300</v>
       </c>
@@ -13026,31 +13066,31 @@
       </c>
       <c r="E172" s="135">
         <f>E171*E$136</f>
-        <v>29406868.518214799</v>
+        <v>32674298.353571992</v>
       </c>
       <c r="F172" s="135">
         <f>F171*F$136</f>
-        <v>24505723.765178997</v>
+        <v>30253979.957011107</v>
       </c>
       <c r="G172" s="135">
         <f>G171*G$136</f>
-        <v>20421436.470982499</v>
+        <v>28012944.404639911</v>
       </c>
       <c r="H172" s="135">
         <f>H171*H$136</f>
-        <v>17017863.72581875</v>
+        <v>25937911.485777695</v>
       </c>
       <c r="I172" s="164">
         <f t="shared" ref="I172" si="87">SUM(D172:H172)</f>
-        <v>126640134.7020528</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+        <v>152167376.42285848</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I173" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="152" t="s">
         <v>314</v>
       </c>
@@ -13058,7 +13098,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="96" t="s">
         <v>291</v>
       </c>
@@ -13091,10 +13131,10 @@
       </c>
       <c r="I175" s="162">
         <f>NPV(_TauxDActualisation_Select,C175:H175)</f>
-        <v>-25582612.337997433</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-3696932.1305670151</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="149" t="s">
         <v>300</v>
       </c>
@@ -13111,23 +13151,23 @@
       </c>
       <c r="E176" s="135">
         <f t="shared" ref="E176:H176" si="89">E$172-E148</f>
-        <v>22884871.767485164</v>
+        <v>25427635.297205731</v>
       </c>
       <c r="F176" s="135">
         <f t="shared" si="89"/>
-        <v>18576346.76086944</v>
+        <v>22933761.433172148</v>
       </c>
       <c r="G176" s="135">
         <f t="shared" si="89"/>
-        <v>15187457.847109111</v>
+        <v>20833275.510437734</v>
       </c>
       <c r="H176" s="135">
         <f t="shared" si="89"/>
-        <v>12553976.42111313</v>
+        <v>19134242.373286277</v>
       </c>
       <c r="I176" s="164">
         <f>SUM(C176:H176)</f>
-        <v>-14504631.246553142</v>
+        <v>4621630.5709719136</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -13176,7 +13216,7 @@
       </c>
       <c r="I179" s="162">
         <f>NPV(_TauxDActualisation_Select,C179:H179)</f>
-        <v>-32895695.418253522</v>
+        <v>-14611060.229661105</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -13196,23 +13236,23 @@
       </c>
       <c r="E180" s="135">
         <f>E$172-E$152</f>
-        <v>20493175.167810693</v>
+        <v>22770194.630900763</v>
       </c>
       <c r="F180" s="135">
         <f>F$172-F$152</f>
-        <v>16500869.642468236</v>
+        <v>20371444.003047206</v>
       </c>
       <c r="G180" s="135">
         <f>G$172-G$152</f>
-        <v>13409088.395061092</v>
+        <v>18393811.241510414</v>
       </c>
       <c r="H180" s="135">
         <f>H$172-H$152</f>
-        <v>11054962.135826817</v>
+        <v>16849507.90401892</v>
       </c>
       <c r="I180" s="164">
         <f>SUM(C180:H180)</f>
-        <v>-25035470.882121891</v>
+        <v>-8108608.4438114278</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">

--- a/annexe/Modèle investissement.xlsx
+++ b/annexe/Modèle investissement.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26C5A93-62BC-4CDE-A8C5-0225D887704E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B94812-D36E-437E-8490-08847744194F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1197,7 +1197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
@@ -1205,6 +1205,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="#&quot; &quot;??/100"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1326,7 +1327,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1583,6 +1584,12 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -1845,7 +1852,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2488,6 +2495,12 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2515,11 +2528,17 @@
     <xf numFmtId="164" fontId="16" fillId="40" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2904,7 +2923,7 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2929,19 +2948,19 @@
       <c r="B3" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="216" t="s">
+      <c r="E3" s="218" t="s">
         <v>317</v>
       </c>
-      <c r="F3" s="217"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="214" t="s">
+      <c r="F3" s="219"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="216" t="s">
         <v>325</v>
       </c>
-      <c r="I3" s="215"/>
-      <c r="J3" s="214" t="s">
+      <c r="I3" s="217"/>
+      <c r="J3" s="216" t="s">
         <v>326</v>
       </c>
-      <c r="K3" s="215"/>
+      <c r="K3" s="217"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D4" s="190"/>
@@ -2993,11 +3012,11 @@
       </c>
       <c r="H5" s="197">
         <f>Modèle!D163</f>
-        <v>3.3924050632911443E-2</v>
+        <v>3.3924050632911366E-2</v>
       </c>
       <c r="I5" s="198">
         <f>Modèle!I163</f>
-        <v>3.3924050632911436E-2</v>
+        <v>0.12453628199283934</v>
       </c>
       <c r="J5" s="208"/>
       <c r="K5" s="209"/>
@@ -3019,21 +3038,21 @@
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F69&lt;&gt;"",Select!G69&lt;&gt;""),Select!E69,""))</f>
         <v/>
       </c>
-      <c r="H6" s="219">
+      <c r="H6" s="221">
         <f>Modèle!D164</f>
-        <v>0.2075443037974681</v>
-      </c>
-      <c r="I6" s="221">
+        <v>0.20754430379746966</v>
+      </c>
+      <c r="I6" s="223">
         <f>Modèle!I164</f>
-        <v>0.23575416816926681</v>
-      </c>
-      <c r="J6" s="219">
+        <v>0.86595380725714444</v>
+      </c>
+      <c r="J6" s="221">
         <f>Modèle!D192</f>
         <v>0</v>
       </c>
-      <c r="K6" s="221">
+      <c r="K6" s="223">
         <f>Modèle!H192</f>
-        <v>0.62149337538873961</v>
+        <v>0.6214933753887395</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -3060,10 +3079,10 @@
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F70&lt;&gt;"",Select!G70&lt;&gt;""),Select!E70,""))</f>
         <v/>
       </c>
-      <c r="H7" s="220"/>
-      <c r="I7" s="222"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="222"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="224"/>
+      <c r="J7" s="222"/>
+      <c r="K7" s="224"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D8" s="56" t="str">
@@ -3084,11 +3103,11 @@
       </c>
       <c r="H8" s="197">
         <f>Modèle!D165</f>
-        <v>3.4590717299578015E-2</v>
+        <v>3.4590717299578279E-2</v>
       </c>
       <c r="I8" s="198">
         <f>Modèle!I165</f>
-        <v>3.9292361361544466E-2</v>
+        <v>0.14432563454285741</v>
       </c>
       <c r="J8" s="208"/>
       <c r="K8" s="209"/>
@@ -3119,11 +3138,11 @@
       </c>
       <c r="H9" s="188">
         <f>Modèle!D166</f>
-        <v>1.044303797468356E-2</v>
+        <v>1.0443037974683536E-2</v>
       </c>
       <c r="I9" s="172">
         <f>Modèle!I166</f>
-        <v>1.0443037974683558E-2</v>
+        <v>3.833672859854196E-2</v>
       </c>
       <c r="J9" s="210"/>
       <c r="K9" s="211"/>
@@ -3173,11 +3192,11 @@
       <c r="G11" s="52"/>
       <c r="H11" s="189">
         <f>Modèle!D168</f>
-        <v>0.28650210970464107</v>
+        <v>0.28650210970464285</v>
       </c>
       <c r="I11" s="174">
         <f>Modèle!I168</f>
-        <v>0.31941361813840624</v>
+        <v>1.1731524523913832</v>
       </c>
       <c r="J11" s="189">
         <f>Modèle!D195</f>
@@ -3185,7 +3204,7 @@
       </c>
       <c r="K11" s="174">
         <f>Modèle!H195</f>
-        <v>0.86390257497952883</v>
+        <v>0.86390257497952838</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -3208,15 +3227,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="223" t="str">
+      <c r="A16" s="214" t="str">
         <f>VLOOKUP(_Bilan,_Tables,4,FALSE)</f>
         <v>Bilan à l'ouverture</v>
       </c>
-      <c r="B16" s="223"/>
-      <c r="C16" s="223"/>
-      <c r="D16" s="223"/>
-      <c r="E16" s="223"/>
-      <c r="F16" s="223"/>
+      <c r="B16" s="214"/>
+      <c r="C16" s="214"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="214"/>
       <c r="H16" s="73" t="str">
         <f>VLOOKUP(_PIBPNB,_Tables,4,FALSE)</f>
         <v>PIB ou PNB</v>
@@ -3226,18 +3245,18 @@
       <c r="K16" s="68"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="224" t="str">
+      <c r="A17" s="215" t="str">
         <f>VLOOKUP(_Actif,_Tables,4,FALSE)</f>
         <v>Actif</v>
       </c>
-      <c r="B17" s="224"/>
-      <c r="C17" s="224"/>
-      <c r="D17" s="224" t="str">
+      <c r="B17" s="215"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="215" t="str">
         <f>VLOOKUP(_Passif,_Tables,4,FALSE)</f>
         <v>Passif</v>
       </c>
-      <c r="E17" s="224"/>
-      <c r="F17" s="224"/>
+      <c r="E17" s="215"/>
+      <c r="F17" s="215"/>
       <c r="H17" s="56" t="str">
         <f>_PIBPNB_Liste</f>
         <v>PIB/tête</v>
@@ -3245,7 +3264,7 @@
       <c r="I17" s="57"/>
       <c r="J17" s="69">
         <f>_PIBPNB_Select</f>
-        <v>446686.61040326342</v>
+        <v>456876.52513616101</v>
       </c>
       <c r="K17" s="70" t="s">
         <v>251</v>
@@ -3541,34 +3560,34 @@
       <c r="I29" s="57"/>
       <c r="J29" s="78">
         <f>_TauxDActualisation_Select</f>
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K29" s="70"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="223" t="str">
+      <c r="A31" s="214" t="str">
         <f>VLOOKUP(_CompteDeResultat,_Tables,4,FALSE)</f>
         <v>Compte de résultat</v>
       </c>
-      <c r="B31" s="223"/>
-      <c r="C31" s="223"/>
-      <c r="D31" s="223"/>
-      <c r="E31" s="223"/>
-      <c r="F31" s="223"/>
+      <c r="B31" s="214"/>
+      <c r="C31" s="214"/>
+      <c r="D31" s="214"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="214"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="224" t="str">
+      <c r="A32" s="215" t="str">
         <f>VLOOKUP(_Charges,_Tables,4,FALSE)</f>
         <v>Charges</v>
       </c>
-      <c r="B32" s="224"/>
-      <c r="C32" s="224"/>
-      <c r="D32" s="224" t="str">
+      <c r="B32" s="215"/>
+      <c r="C32" s="215"/>
+      <c r="D32" s="215" t="str">
         <f>VLOOKUP(_Produits,_Tables,4,FALSE)</f>
         <v>Produits</v>
       </c>
-      <c r="E32" s="224"/>
-      <c r="F32" s="224"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="215"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="59" t="str">
@@ -4084,12 +4103,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="E3:G3"/>
@@ -4097,6 +4110,12 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4141,7 +4160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:T85"/>
   <sheetViews>
-    <sheetView topLeftCell="B58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
@@ -4531,7 +4550,7 @@
       </c>
       <c r="J28" s="1">
         <f>_TauxDActualisation_Select</f>
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
@@ -4612,12 +4631,12 @@
       </c>
       <c r="C34" s="10">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="29">
         <f t="shared" si="1"/>
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -4645,7 +4664,7 @@
       </c>
       <c r="G38" s="30">
         <f>VLOOKUP($B$38,_BaseFisc,_ColonneFisc_Select,FALSE)</f>
-        <v>446686.61040326342</v>
+        <v>456876.52513616101</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -4686,7 +4705,7 @@
       </c>
       <c r="G40" s="32">
         <f>IF(G39&lt;&gt;"",G39,G38)</f>
-        <v>446686.61040326342</v>
+        <v>456876.52513616101</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -7148,10 +7167,10 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R36" sqref="R36"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7310,7 +7329,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="30">
-        <v>446686.61040326342</v>
+        <v>456876.52513616101</v>
       </c>
       <c r="F5" s="30">
         <v>352538.78704732761</v>
@@ -9037,10 +9056,10 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9444,7 +9463,7 @@
         <v>_TauxDActualisation</v>
       </c>
       <c r="B56" s="10">
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9459,13 +9478,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O195"/>
+  <dimension ref="A1:Q195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C178" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R203" sqref="R203"/>
+      <selection pane="bottomRight" activeCell="E198" sqref="E198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9476,7 +9495,10 @@
     <col min="9" max="9" width="12.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="1"/>
     <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -9519,7 +9541,7 @@
       </c>
       <c r="C4" s="93">
         <f>(_Terrain_Select+_Constructions_Select+_Equipement_Select+_Camion_Select+_Informatique_Select+_Bureau_Select)*_PIBPNB_Select</f>
-        <v>64769558.508473195</v>
+        <v>66247096.144743346</v>
       </c>
       <c r="D4" s="91"/>
       <c r="E4" s="91"/>
@@ -9542,23 +9564,23 @@
       <c r="C7" s="116"/>
       <c r="D7" s="117">
         <f>D$22</f>
-        <v>893373.22080652684</v>
+        <v>913753.05027232214</v>
       </c>
       <c r="E7" s="117">
         <f t="shared" ref="E7:H7" si="0">E$22</f>
-        <v>893373.2208065266</v>
+        <v>913753.05027232191</v>
       </c>
       <c r="F7" s="117">
         <f t="shared" si="0"/>
-        <v>893373.22080652672</v>
+        <v>913753.05027232203</v>
       </c>
       <c r="G7" s="117">
         <f t="shared" si="0"/>
-        <v>893373.22080652672</v>
+        <v>913753.05027232203</v>
       </c>
       <c r="H7" s="118">
         <f t="shared" si="0"/>
-        <v>893373.22080652684</v>
+        <v>913753.05027232214</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -9571,23 +9593,23 @@
       <c r="C8" s="119"/>
       <c r="D8" s="113">
         <f>D$32</f>
-        <v>6700299.1560489517</v>
+        <v>6853147.8770424156</v>
       </c>
       <c r="E8" s="113">
         <f t="shared" ref="E8:H8" si="1">E$32</f>
-        <v>5025224.3670367133</v>
+        <v>5139860.9077818114</v>
       </c>
       <c r="F8" s="113">
         <f t="shared" si="1"/>
-        <v>3768918.275277535</v>
+        <v>3854895.6808363586</v>
       </c>
       <c r="G8" s="113">
         <f t="shared" si="1"/>
-        <v>2826688.7064581513</v>
+        <v>2891171.7606272688</v>
       </c>
       <c r="H8" s="120">
         <f t="shared" si="1"/>
-        <v>2120016.5298436135</v>
+        <v>2168378.8204704514</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -9600,15 +9622,15 @@
       <c r="C9" s="119"/>
       <c r="D9" s="113">
         <f>D$42</f>
-        <v>744477.68400543893</v>
+        <v>761460.87522693502</v>
       </c>
       <c r="E9" s="113">
         <f t="shared" ref="E9:H9" si="2">E$42</f>
-        <v>744477.68400543905</v>
+        <v>761460.87522693514</v>
       </c>
       <c r="F9" s="113">
         <f t="shared" si="2"/>
-        <v>744477.68400543905</v>
+        <v>761460.87522693514</v>
       </c>
       <c r="G9" s="113">
         <f t="shared" si="2"/>
@@ -9629,11 +9651,11 @@
       <c r="C10" s="119"/>
       <c r="D10" s="113">
         <f>D$52</f>
-        <v>1116716.5260081585</v>
+        <v>1142191.3128404026</v>
       </c>
       <c r="E10" s="113">
         <f t="shared" ref="E10:H10" si="3">E$52</f>
-        <v>1116716.5260081585</v>
+        <v>1142191.3128404026</v>
       </c>
       <c r="F10" s="113">
         <f t="shared" si="3"/>
@@ -9658,23 +9680,23 @@
       <c r="C11" s="119"/>
       <c r="D11" s="113">
         <f>D$62</f>
-        <v>223343.30520163171</v>
+        <v>228438.26256808054</v>
       </c>
       <c r="E11" s="113">
         <f t="shared" ref="E11:H11" si="4">E$62</f>
-        <v>223343.30520163168</v>
+        <v>228438.26256808051</v>
       </c>
       <c r="F11" s="113">
         <f t="shared" si="4"/>
-        <v>223343.30520163168</v>
+        <v>228438.26256808051</v>
       </c>
       <c r="G11" s="113">
         <f t="shared" si="4"/>
-        <v>223343.30520163165</v>
+        <v>228438.26256808048</v>
       </c>
       <c r="H11" s="120">
         <f t="shared" si="4"/>
-        <v>223343.30520163165</v>
+        <v>228438.26256808048</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -9687,23 +9709,23 @@
       <c r="C12" s="121"/>
       <c r="D12" s="122">
         <f>SUM(D7:D11)</f>
-        <v>9678209.8920707069</v>
+        <v>9898991.3779501561</v>
       </c>
       <c r="E12" s="122">
         <f t="shared" ref="E12:H12" si="5">SUM(E7:E11)</f>
-        <v>8003135.1030584695</v>
+        <v>8185704.4086895529</v>
       </c>
       <c r="F12" s="122">
         <f t="shared" si="5"/>
-        <v>5630112.4852911327</v>
+        <v>5758547.8689036965</v>
       </c>
       <c r="G12" s="122">
         <f t="shared" si="5"/>
-        <v>3943405.2324663098</v>
+        <v>4033363.0734676714</v>
       </c>
       <c r="H12" s="123">
         <f t="shared" si="5"/>
-        <v>3236733.055851772</v>
+        <v>3310570.133310854</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -9721,7 +9743,7 @@
       </c>
       <c r="D14" s="95">
         <f>_Constructions_Select*_PIBPNB_Select</f>
-        <v>17867464.416130535</v>
+        <v>18275061.005446441</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -9791,23 +9813,23 @@
       <c r="C19" s="102"/>
       <c r="D19" s="103">
         <f>D14</f>
-        <v>17867464.416130535</v>
+        <v>18275061.005446441</v>
       </c>
       <c r="E19" s="104">
         <f>D19-D22</f>
-        <v>16974091.195324007</v>
+        <v>17361307.955174118</v>
       </c>
       <c r="F19" s="104">
         <f t="shared" ref="F19:H19" si="7">E19-E22</f>
-        <v>16080717.974517481</v>
+        <v>16447554.904901797</v>
       </c>
       <c r="G19" s="104">
         <f t="shared" si="7"/>
-        <v>15187344.753710955</v>
+        <v>15533801.854629476</v>
       </c>
       <c r="H19" s="105">
         <f t="shared" si="7"/>
-        <v>14293971.532904429</v>
+        <v>14620048.804357154</v>
       </c>
       <c r="J19" s="104">
         <f>IF(E18=0,0,IF($D16*$D20&gt;100%,100%,IF($D16*$D20&gt;E20,$D16*$D20,E20)))</f>
@@ -9882,33 +9904,33 @@
       <c r="C22" s="109"/>
       <c r="D22" s="110">
         <f>D19*D21</f>
-        <v>893373.22080652684</v>
+        <v>913753.05027232214</v>
       </c>
       <c r="E22" s="110">
         <f t="shared" ref="E22:H22" si="9">E19*E21</f>
-        <v>893373.2208065266</v>
+        <v>913753.05027232191</v>
       </c>
       <c r="F22" s="110">
         <f t="shared" si="9"/>
-        <v>893373.22080652672</v>
+        <v>913753.05027232203</v>
       </c>
       <c r="G22" s="110">
         <f t="shared" si="9"/>
-        <v>893373.22080652672</v>
+        <v>913753.05027232203</v>
       </c>
       <c r="H22" s="111">
         <f t="shared" si="9"/>
-        <v>893373.22080652684</v>
+        <v>913753.05027232214</v>
       </c>
       <c r="K22" s="1">
         <f>E19*E21</f>
-        <v>893373.2208065266</v>
+        <v>913753.05027232191</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K23" s="1">
         <f>E19*0.0526</f>
-        <v>892837.19687404286</v>
+        <v>913204.79844215862</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -9920,7 +9942,7 @@
       </c>
       <c r="D24" s="95">
         <f>_Equipement_Select*_PIBPNB_Select</f>
-        <v>26801196.624195807</v>
+        <v>27412591.508169662</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -9986,23 +10008,23 @@
       <c r="C29" s="102"/>
       <c r="D29" s="103">
         <f>D24</f>
-        <v>26801196.624195807</v>
+        <v>27412591.508169662</v>
       </c>
       <c r="E29" s="104">
         <f>D29-D32</f>
-        <v>20100897.468146853</v>
+        <v>20559443.631127246</v>
       </c>
       <c r="F29" s="104">
         <f t="shared" ref="F29" si="13">E29-E32</f>
-        <v>15075673.10111014</v>
+        <v>15419582.723345434</v>
       </c>
       <c r="G29" s="104">
         <f t="shared" ref="G29" si="14">F29-F32</f>
-        <v>11306754.825832605</v>
+        <v>11564687.042509075</v>
       </c>
       <c r="H29" s="105">
         <f t="shared" ref="H29" si="15">G29-G32</f>
-        <v>8480066.119374454</v>
+        <v>8673515.2818818055</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -10073,23 +10095,23 @@
       <c r="C32" s="109"/>
       <c r="D32" s="110">
         <f>D29*D31</f>
-        <v>6700299.1560489517</v>
+        <v>6853147.8770424156</v>
       </c>
       <c r="E32" s="110">
         <f t="shared" ref="E32:H32" si="17">E29*E31</f>
-        <v>5025224.3670367133</v>
+        <v>5139860.9077818114</v>
       </c>
       <c r="F32" s="110">
         <f t="shared" si="17"/>
-        <v>3768918.275277535</v>
+        <v>3854895.6808363586</v>
       </c>
       <c r="G32" s="110">
         <f t="shared" si="17"/>
-        <v>2826688.7064581513</v>
+        <v>2891171.7606272688</v>
       </c>
       <c r="H32" s="111">
         <f t="shared" si="17"/>
-        <v>2120016.5298436135</v>
+        <v>2168378.8204704514</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -10101,7 +10123,7 @@
       </c>
       <c r="D34" s="95">
         <f>_Camion_Select*_PIBPNB_Select</f>
-        <v>2233433.0520163169</v>
+        <v>2284382.6256808052</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -10177,15 +10199,15 @@
       <c r="C39" s="102"/>
       <c r="D39" s="103">
         <f>D34</f>
-        <v>2233433.0520163169</v>
+        <v>2284382.6256808052</v>
       </c>
       <c r="E39" s="104">
         <f>D39-D42</f>
-        <v>1488955.3680108781</v>
+        <v>1522921.7504538703</v>
       </c>
       <c r="F39" s="104">
         <f t="shared" ref="F39" si="21">E39-E42</f>
-        <v>744477.68400543905</v>
+        <v>761460.87522693514</v>
       </c>
       <c r="G39" s="104">
         <f t="shared" ref="G39" si="22">F39-F42</f>
@@ -10264,15 +10286,15 @@
       <c r="C42" s="109"/>
       <c r="D42" s="110">
         <f>D39*D41</f>
-        <v>744477.68400543893</v>
+        <v>761460.87522693502</v>
       </c>
       <c r="E42" s="110">
         <f t="shared" ref="E42:H42" si="25">E39*E41</f>
-        <v>744477.68400543905</v>
+        <v>761460.87522693514</v>
       </c>
       <c r="F42" s="110">
         <f t="shared" si="25"/>
-        <v>744477.68400543905</v>
+        <v>761460.87522693514</v>
       </c>
       <c r="G42" s="110">
         <f t="shared" si="25"/>
@@ -10292,7 +10314,7 @@
       </c>
       <c r="D44" s="95">
         <f>_Informatique_Select*_PIBPNB_Select</f>
-        <v>2233433.0520163169</v>
+        <v>2284382.6256808052</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -10358,11 +10380,11 @@
       <c r="C49" s="102"/>
       <c r="D49" s="103">
         <f>D44</f>
-        <v>2233433.0520163169</v>
+        <v>2284382.6256808052</v>
       </c>
       <c r="E49" s="104">
         <f>D49-D52</f>
-        <v>1116716.5260081585</v>
+        <v>1142191.3128404026</v>
       </c>
       <c r="F49" s="104">
         <f t="shared" ref="F49" si="29">E49-E52</f>
@@ -10445,11 +10467,11 @@
       <c r="C52" s="109"/>
       <c r="D52" s="110">
         <f>D49*D51</f>
-        <v>1116716.5260081585</v>
+        <v>1142191.3128404026</v>
       </c>
       <c r="E52" s="110">
         <f t="shared" ref="E52:H52" si="33">E49*E51</f>
-        <v>1116716.5260081585</v>
+        <v>1142191.3128404026</v>
       </c>
       <c r="F52" s="110">
         <f t="shared" si="33"/>
@@ -10473,7 +10495,7 @@
       </c>
       <c r="D54" s="95">
         <f>_Bureau_Select*_PIBPNB_Select</f>
-        <v>2233433.0520163169</v>
+        <v>2284382.6256808052</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -10539,23 +10561,23 @@
       <c r="C59" s="102"/>
       <c r="D59" s="103">
         <f>D54</f>
-        <v>2233433.0520163169</v>
+        <v>2284382.6256808052</v>
       </c>
       <c r="E59" s="104">
         <f>D59-D62</f>
-        <v>2010089.7468146852</v>
+        <v>2055944.3631127246</v>
       </c>
       <c r="F59" s="104">
         <f t="shared" ref="F59" si="37">E59-E62</f>
-        <v>1786746.4416130534</v>
+        <v>1827506.1005446441</v>
       </c>
       <c r="G59" s="104">
         <f t="shared" ref="G59" si="38">F59-F62</f>
-        <v>1563403.1364114217</v>
+        <v>1599067.8379765635</v>
       </c>
       <c r="H59" s="105">
         <f t="shared" ref="H59" si="39">G59-G62</f>
-        <v>1340059.83120979</v>
+        <v>1370629.5754084829</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -10626,23 +10648,23 @@
       <c r="C62" s="109"/>
       <c r="D62" s="110">
         <f>D59*D61</f>
-        <v>223343.30520163171</v>
+        <v>228438.26256808054</v>
       </c>
       <c r="E62" s="110">
         <f t="shared" ref="E62:H62" si="41">E59*E61</f>
-        <v>223343.30520163168</v>
+        <v>228438.26256808051</v>
       </c>
       <c r="F62" s="110">
         <f t="shared" si="41"/>
-        <v>223343.30520163168</v>
+        <v>228438.26256808051</v>
       </c>
       <c r="G62" s="110">
         <f t="shared" si="41"/>
-        <v>223343.30520163165</v>
+        <v>228438.26256808048</v>
       </c>
       <c r="H62" s="111">
         <f t="shared" si="41"/>
-        <v>223343.30520163165</v>
+        <v>228438.26256808048</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -10659,7 +10681,7 @@
       </c>
       <c r="D65" s="95">
         <f>(_Terrain_Select+_Constructions_Select+_Equipement_Select+_Camion_Select+_Informatique_Select+_Bureau_Select)*_PIBPNB_Select</f>
-        <v>64769558.508473195</v>
+        <v>66247096.144743346</v>
       </c>
       <c r="F65" s="6" t="str">
         <f>_Amortissement_TauxExceptionnel_Select</f>
@@ -10896,23 +10918,23 @@
       <c r="C80" s="116"/>
       <c r="D80" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4020179.4936293708</v>
+        <v>4111888.7262254492</v>
       </c>
       <c r="E80" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4020179.4936293708</v>
+        <v>4111888.7262254492</v>
       </c>
       <c r="F80" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4020179.4936293708</v>
+        <v>4111888.7262254492</v>
       </c>
       <c r="G80" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4020179.4936293708</v>
+        <v>4111888.7262254492</v>
       </c>
       <c r="H80" s="128">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4020179.4936293708</v>
+        <v>4111888.7262254492</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -10925,23 +10947,23 @@
       <c r="C81" s="119"/>
       <c r="D81" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>4466866.1040326338</v>
+        <v>4568765.2513616104</v>
       </c>
       <c r="E81" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>4466866.1040326338</v>
+        <v>4568765.2513616104</v>
       </c>
       <c r="F81" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>4466866.1040326338</v>
+        <v>4568765.2513616104</v>
       </c>
       <c r="G81" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>4466866.1040326338</v>
+        <v>4568765.2513616104</v>
       </c>
       <c r="H81" s="130">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>4466866.1040326338</v>
+        <v>4568765.2513616104</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -10954,23 +10976,23 @@
       <c r="C82" s="119"/>
       <c r="D82" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>21440957.299356643</v>
+        <v>21930073.206535727</v>
       </c>
       <c r="E82" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>21440957.299356643</v>
+        <v>21930073.206535727</v>
       </c>
       <c r="F82" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>21440957.299356643</v>
+        <v>21930073.206535727</v>
       </c>
       <c r="G82" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>21440957.299356643</v>
+        <v>21930073.206535727</v>
       </c>
       <c r="H82" s="130">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>21440957.299356643</v>
+        <v>21930073.206535727</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -10983,23 +11005,23 @@
       <c r="C83" s="119"/>
       <c r="D83" s="114">
         <f>SUM(D80:D82)</f>
-        <v>29928002.897018649</v>
+        <v>30610727.184122786</v>
       </c>
       <c r="E83" s="114">
         <f t="shared" ref="E83:H83" si="47">SUM(E80:E82)</f>
-        <v>29928002.897018649</v>
+        <v>30610727.184122786</v>
       </c>
       <c r="F83" s="114">
         <f t="shared" si="47"/>
-        <v>29928002.897018649</v>
+        <v>30610727.184122786</v>
       </c>
       <c r="G83" s="114">
         <f t="shared" si="47"/>
-        <v>29928002.897018649</v>
+        <v>30610727.184122786</v>
       </c>
       <c r="H83" s="131">
         <f t="shared" si="47"/>
-        <v>29928002.897018649</v>
+        <v>30610727.184122786</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -11041,23 +11063,23 @@
       <c r="C85" s="121"/>
       <c r="D85" s="110">
         <f>D83*D84</f>
-        <v>1197120.1158807459</v>
+        <v>1224429.0873649116</v>
       </c>
       <c r="E85" s="110">
         <f t="shared" ref="E85:H85" si="48">E83*E84</f>
-        <v>1197120.1158807459</v>
+        <v>1224429.0873649116</v>
       </c>
       <c r="F85" s="110">
         <f t="shared" si="48"/>
-        <v>1197120.1158807459</v>
+        <v>1224429.0873649116</v>
       </c>
       <c r="G85" s="110">
         <f t="shared" si="48"/>
-        <v>1197120.1158807459</v>
+        <v>1224429.0873649116</v>
       </c>
       <c r="H85" s="111">
         <f t="shared" si="48"/>
-        <v>1197120.1158807459</v>
+        <v>1224429.0873649116</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -11075,23 +11097,23 @@
       <c r="C88" s="116"/>
       <c r="D88" s="127">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2456776.3572179489</v>
+        <v>2512820.8882488855</v>
       </c>
       <c r="E88" s="127">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2456776.3572179489</v>
+        <v>2512820.8882488855</v>
       </c>
       <c r="F88" s="127">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2456776.3572179489</v>
+        <v>2512820.8882488855</v>
       </c>
       <c r="G88" s="127">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2456776.3572179489</v>
+        <v>2512820.8882488855</v>
       </c>
       <c r="H88" s="128">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2456776.3572179489</v>
+        <v>2512820.8882488855</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -11133,23 +11155,23 @@
       <c r="C90" s="121"/>
       <c r="D90" s="110">
         <f>D88*D89</f>
-        <v>368516.45358269231</v>
+        <v>376923.1332373328</v>
       </c>
       <c r="E90" s="110">
         <f t="shared" ref="E90" si="49">E88*E89</f>
-        <v>368516.45358269231</v>
+        <v>376923.1332373328</v>
       </c>
       <c r="F90" s="110">
         <f t="shared" ref="F90" si="50">F88*F89</f>
-        <v>368516.45358269231</v>
+        <v>376923.1332373328</v>
       </c>
       <c r="G90" s="110">
         <f t="shared" ref="G90" si="51">G88*G89</f>
-        <v>368516.45358269231</v>
+        <v>376923.1332373328</v>
       </c>
       <c r="H90" s="111">
         <f t="shared" ref="H90" si="52">H88*H89</f>
-        <v>368516.45358269231</v>
+        <v>376923.1332373328</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -11167,23 +11189,23 @@
       <c r="C93" s="91"/>
       <c r="D93" s="93">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>469020940.92342657</v>
+        <v>479720351.39296907</v>
       </c>
       <c r="E93" s="93">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>469020940.92342657</v>
+        <v>479720351.39296907</v>
       </c>
       <c r="F93" s="93">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>469020940.92342657</v>
+        <v>479720351.39296907</v>
       </c>
       <c r="G93" s="93">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>469020940.92342657</v>
+        <v>479720351.39296907</v>
       </c>
       <c r="H93" s="137">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>469020940.92342657</v>
+        <v>479720351.39296907</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -11196,23 +11218,23 @@
       <c r="C94" s="119"/>
       <c r="D94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>390850784.1028555</v>
+        <v>399766959.49414086</v>
       </c>
       <c r="E94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>390850784.1028555</v>
+        <v>399766959.49414086</v>
       </c>
       <c r="F94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>390850784.1028555</v>
+        <v>399766959.49414086</v>
       </c>
       <c r="G94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>390850784.1028555</v>
+        <v>399766959.49414086</v>
       </c>
       <c r="H94" s="130">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>390850784.1028555</v>
+        <v>399766959.49414086</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -11273,7 +11295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="101" t="s">
         <v>175</v>
       </c>
@@ -11283,26 +11305,26 @@
       <c r="C97" s="119"/>
       <c r="D97" s="129">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>4466866.1040326338</v>
+        <v>4568765.2513616104</v>
       </c>
       <c r="E97" s="129">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>4466866.1040326338</v>
+        <v>4568765.2513616104</v>
       </c>
       <c r="F97" s="129">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>4466866.1040326338</v>
+        <v>4568765.2513616104</v>
       </c>
       <c r="G97" s="129">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>4466866.1040326338</v>
+        <v>4568765.2513616104</v>
       </c>
       <c r="H97" s="130">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>4466866.1040326338</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4568765.2513616104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="101" t="s">
         <v>176</v>
       </c>
@@ -11312,26 +11334,30 @@
       <c r="C98" s="119"/>
       <c r="D98" s="129">
         <f>_DepensesPublicitaires_Select*_PIBPNB_Select</f>
-        <v>4690209.4092342658</v>
+        <v>4797203.5139296902</v>
       </c>
       <c r="E98" s="129">
         <f>_DepensesPublicitaires_Select*_PIBPNB_Select</f>
-        <v>4690209.4092342658</v>
+        <v>4797203.5139296902</v>
       </c>
       <c r="F98" s="129">
         <f>_DepensesPublicitaires_Select*_PIBPNB_Select</f>
-        <v>4690209.4092342658</v>
+        <v>4797203.5139296902</v>
       </c>
       <c r="G98" s="129">
         <f>_DepensesPublicitaires_Select*_PIBPNB_Select</f>
-        <v>4690209.4092342658</v>
+        <v>4797203.5139296902</v>
       </c>
       <c r="H98" s="130">
         <f>_DepensesPublicitaires_Select*_PIBPNB_Select</f>
-        <v>4690209.4092342658</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4797203.5139296902</v>
+      </c>
+      <c r="I98" s="228">
+        <f>_DepensesPublicitaires_Select*_PIBPNB_Select</f>
+        <v>4797203.5139296902</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="101" t="s">
         <v>177</v>
       </c>
@@ -11341,26 +11367,26 @@
       <c r="C99" s="119"/>
       <c r="D99" s="129">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>1340059.8312097902</v>
+        <v>1370629.5754084829</v>
       </c>
       <c r="E99" s="129">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>1340059.8312097902</v>
+        <v>1370629.5754084829</v>
       </c>
       <c r="F99" s="129">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>1340059.8312097902</v>
+        <v>1370629.5754084829</v>
       </c>
       <c r="G99" s="129">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>1340059.8312097902</v>
+        <v>1370629.5754084829</v>
       </c>
       <c r="H99" s="130">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>1340059.8312097902</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1370629.5754084829</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="115" t="s">
         <v>272</v>
       </c>
@@ -11370,26 +11396,26 @@
       <c r="C100" s="116"/>
       <c r="D100" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4020179.4936293708</v>
+        <v>4111888.7262254492</v>
       </c>
       <c r="E100" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4020179.4936293708</v>
+        <v>4111888.7262254492</v>
       </c>
       <c r="F100" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4020179.4936293708</v>
+        <v>4111888.7262254492</v>
       </c>
       <c r="G100" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4020179.4936293708</v>
+        <v>4111888.7262254492</v>
       </c>
       <c r="H100" s="128">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4020179.4936293708</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4111888.7262254492</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="101" t="s">
         <v>273</v>
       </c>
@@ -11399,26 +11425,26 @@
       <c r="C101" s="119"/>
       <c r="D101" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>4466866.1040326338</v>
+        <v>4568765.2513616104</v>
       </c>
       <c r="E101" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>4466866.1040326338</v>
+        <v>4568765.2513616104</v>
       </c>
       <c r="F101" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>4466866.1040326338</v>
+        <v>4568765.2513616104</v>
       </c>
       <c r="G101" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>4466866.1040326338</v>
+        <v>4568765.2513616104</v>
       </c>
       <c r="H101" s="130">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>4466866.1040326338</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4568765.2513616104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="101" t="s">
         <v>274</v>
       </c>
@@ -11428,26 +11454,26 @@
       <c r="C102" s="119"/>
       <c r="D102" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>21440957.299356643</v>
+        <v>21930073.206535727</v>
       </c>
       <c r="E102" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>21440957.299356643</v>
+        <v>21930073.206535727</v>
       </c>
       <c r="F102" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>21440957.299356643</v>
+        <v>21930073.206535727</v>
       </c>
       <c r="G102" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>21440957.299356643</v>
+        <v>21930073.206535727</v>
       </c>
       <c r="H102" s="130">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>21440957.299356643</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+        <v>21930073.206535727</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="108" t="s">
         <v>54</v>
       </c>
@@ -11457,26 +11483,26 @@
       <c r="C103" s="121"/>
       <c r="D103" s="135">
         <f>D$85</f>
-        <v>1197120.1158807459</v>
+        <v>1224429.0873649116</v>
       </c>
       <c r="E103" s="135">
         <f t="shared" ref="E103:H103" si="54">E$85</f>
-        <v>1197120.1158807459</v>
+        <v>1224429.0873649116</v>
       </c>
       <c r="F103" s="135">
         <f t="shared" si="54"/>
-        <v>1197120.1158807459</v>
+        <v>1224429.0873649116</v>
       </c>
       <c r="G103" s="135">
         <f t="shared" si="54"/>
-        <v>1197120.1158807459</v>
+        <v>1224429.0873649116</v>
       </c>
       <c r="H103" s="136">
         <f t="shared" si="54"/>
-        <v>1197120.1158807459</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1224429.0873649116</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="101" t="s">
         <v>179</v>
       </c>
@@ -11486,26 +11512,26 @@
       <c r="C104" s="119"/>
       <c r="D104" s="129">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2456776.3572179489</v>
+        <v>2512820.8882488855</v>
       </c>
       <c r="E104" s="129">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2456776.3572179489</v>
+        <v>2512820.8882488855</v>
       </c>
       <c r="F104" s="129">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2456776.3572179489</v>
+        <v>2512820.8882488855</v>
       </c>
       <c r="G104" s="129">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2456776.3572179489</v>
+        <v>2512820.8882488855</v>
       </c>
       <c r="H104" s="130">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2456776.3572179489</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2512820.8882488855</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="90" t="s">
         <v>279</v>
       </c>
@@ -11515,26 +11541,26 @@
       <c r="C105" s="91"/>
       <c r="D105" s="112">
         <f>D$12</f>
-        <v>9678209.8920707069</v>
+        <v>9898991.3779501561</v>
       </c>
       <c r="E105" s="112">
         <f t="shared" ref="E105:H105" si="55">E$12</f>
-        <v>8003135.1030584695</v>
+        <v>8185704.4086895529</v>
       </c>
       <c r="F105" s="112">
         <f t="shared" si="55"/>
-        <v>5630112.4852911327</v>
+        <v>5758547.8689036965</v>
       </c>
       <c r="G105" s="112">
         <f t="shared" si="55"/>
-        <v>3943405.2324663098</v>
+        <v>4033363.0734676714</v>
       </c>
       <c r="H105" s="134">
         <f t="shared" si="55"/>
-        <v>3236733.055851772</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3310570.133310854</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="115" t="s">
         <v>280</v>
       </c>
@@ -11544,26 +11570,26 @@
       <c r="C106" s="116"/>
       <c r="D106" s="153">
         <f>D93-SUM(D94:D105)</f>
-        <v>24412912.213906288</v>
+        <v>24969825.02044183</v>
       </c>
       <c r="E106" s="153">
         <f>E93-SUM(E94:E105)</f>
-        <v>26087987.002918541</v>
+        <v>26683111.989702404</v>
       </c>
       <c r="F106" s="153">
         <f>F93-SUM(F94:F105)</f>
-        <v>28461009.620685875</v>
+        <v>29110268.529488266</v>
       </c>
       <c r="G106" s="153">
         <f>G93-SUM(G94:G105)</f>
-        <v>30147716.873510718</v>
+        <v>30835453.32492429</v>
       </c>
       <c r="H106" s="154">
         <f>H93-SUM(H94:H105)</f>
-        <v>30854389.050125241</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+        <v>31558246.265081108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="108" t="s">
         <v>294</v>
       </c>
@@ -11573,31 +11599,31 @@
       <c r="C107" s="121"/>
       <c r="D107" s="132">
         <f>D106/D$93</f>
-        <v>5.2050793650793507E-2</v>
+        <v>5.2050793650794021E-2</v>
       </c>
       <c r="E107" s="132">
         <f t="shared" ref="E107:H107" si="56">E106/E$93</f>
-        <v>5.5622222222222115E-2</v>
+        <v>5.5622222222222524E-2</v>
       </c>
       <c r="F107" s="132">
         <f t="shared" si="56"/>
-        <v>6.0681746031745913E-2</v>
+        <v>6.068174603174635E-2</v>
       </c>
       <c r="G107" s="132">
         <f t="shared" si="56"/>
-        <v>6.4277976190476122E-2</v>
+        <v>6.427797619047651E-2</v>
       </c>
       <c r="H107" s="133">
         <f t="shared" si="56"/>
-        <v>6.578467261904751E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.578467261904794E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="152" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="96" t="s">
         <v>280</v>
       </c>
@@ -11607,26 +11633,26 @@
       <c r="C110" s="116"/>
       <c r="D110" s="117">
         <f>D106</f>
-        <v>24412912.213906288</v>
+        <v>24969825.02044183</v>
       </c>
       <c r="E110" s="117">
         <f t="shared" ref="E110:H110" si="57">E106</f>
-        <v>26087987.002918541</v>
+        <v>26683111.989702404</v>
       </c>
       <c r="F110" s="117">
         <f t="shared" si="57"/>
-        <v>28461009.620685875</v>
+        <v>29110268.529488266</v>
       </c>
       <c r="G110" s="117">
         <f t="shared" si="57"/>
-        <v>30147716.873510718</v>
+        <v>30835453.32492429</v>
       </c>
       <c r="H110" s="118">
         <f t="shared" si="57"/>
-        <v>30854389.050125241</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+        <v>31558246.265081108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="147" t="s">
         <v>246</v>
       </c>
@@ -11655,7 +11681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="149" t="s">
         <v>284</v>
       </c>
@@ -11665,23 +11691,23 @@
       <c r="C112" s="121"/>
       <c r="D112" s="122">
         <f>D110-D111</f>
-        <v>24412912.213906288</v>
+        <v>24969825.02044183</v>
       </c>
       <c r="E112" s="122">
         <f t="shared" ref="E112:H112" si="58">E110-E111</f>
-        <v>26087987.002918541</v>
+        <v>26683111.989702404</v>
       </c>
       <c r="F112" s="122">
         <f t="shared" si="58"/>
-        <v>28461009.620685875</v>
+        <v>29110268.529488266</v>
       </c>
       <c r="G112" s="122">
         <f t="shared" si="58"/>
-        <v>30147716.873510718</v>
+        <v>30835453.32492429</v>
       </c>
       <c r="H112" s="123">
         <f t="shared" si="58"/>
-        <v>30854389.050125241</v>
+        <v>31558246.265081108</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -11699,23 +11725,23 @@
       <c r="C115" s="116"/>
       <c r="D115" s="117">
         <f>D$112</f>
-        <v>24412912.213906288</v>
+        <v>24969825.02044183</v>
       </c>
       <c r="E115" s="117">
         <f t="shared" ref="E115:H115" si="59">E$112</f>
-        <v>26087987.002918541</v>
+        <v>26683111.989702404</v>
       </c>
       <c r="F115" s="117">
         <f t="shared" si="59"/>
-        <v>28461009.620685875</v>
+        <v>29110268.529488266</v>
       </c>
       <c r="G115" s="117">
         <f t="shared" si="59"/>
-        <v>30147716.873510718</v>
+        <v>30835453.32492429</v>
       </c>
       <c r="H115" s="118">
         <f t="shared" si="59"/>
-        <v>30854389.050125241</v>
+        <v>31558246.265081108</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -11757,23 +11783,23 @@
       <c r="C117" s="121"/>
       <c r="D117" s="110">
         <f>D115*D116</f>
-        <v>7323873.6641718866</v>
+        <v>7490947.5061325487</v>
       </c>
       <c r="E117" s="110">
         <f t="shared" ref="E117:H117" si="60">E115*E116</f>
-        <v>7826396.1008755621</v>
+        <v>8004933.5969107207</v>
       </c>
       <c r="F117" s="110">
         <f t="shared" si="60"/>
-        <v>8538302.8862057626</v>
+        <v>8733080.5588464793</v>
       </c>
       <c r="G117" s="110">
         <f t="shared" si="60"/>
-        <v>9044315.0620532148</v>
+        <v>9250635.9974772874</v>
       </c>
       <c r="H117" s="111">
         <f t="shared" si="60"/>
-        <v>9256316.7150375713</v>
+        <v>9467473.8795243315</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
@@ -11791,23 +11817,23 @@
       <c r="C120" s="116"/>
       <c r="D120" s="117">
         <f>D$93</f>
-        <v>469020940.92342657</v>
+        <v>479720351.39296907</v>
       </c>
       <c r="E120" s="117">
         <f t="shared" ref="E120:H120" si="61">E$93</f>
-        <v>469020940.92342657</v>
+        <v>479720351.39296907</v>
       </c>
       <c r="F120" s="117">
         <f t="shared" si="61"/>
-        <v>469020940.92342657</v>
+        <v>479720351.39296907</v>
       </c>
       <c r="G120" s="117">
         <f t="shared" si="61"/>
-        <v>469020940.92342657</v>
+        <v>479720351.39296907</v>
       </c>
       <c r="H120" s="118">
         <f t="shared" si="61"/>
-        <v>469020940.92342657</v>
+        <v>479720351.39296907</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -11849,23 +11875,23 @@
       <c r="C122" s="121"/>
       <c r="D122" s="110">
         <f>D120*D121</f>
-        <v>3517657.0569256991</v>
+        <v>3597902.6354472679</v>
       </c>
       <c r="E122" s="110">
         <f t="shared" ref="E122" si="62">E120*E121</f>
-        <v>3517657.0569256991</v>
+        <v>3597902.6354472679</v>
       </c>
       <c r="F122" s="110">
         <f t="shared" ref="F122" si="63">F120*F121</f>
-        <v>3517657.0569256991</v>
+        <v>3597902.6354472679</v>
       </c>
       <c r="G122" s="110">
         <f t="shared" ref="G122" si="64">G120*G121</f>
-        <v>3517657.0569256991</v>
+        <v>3597902.6354472679</v>
       </c>
       <c r="H122" s="111">
         <f t="shared" ref="H122" si="65">H120*H121</f>
-        <v>3517657.0569256991</v>
+        <v>3597902.6354472679</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -11881,23 +11907,23 @@
       <c r="C125" s="116"/>
       <c r="D125" s="155">
         <f>IF(D$117&gt;D$122,D$117,D$122)</f>
-        <v>7323873.6641718866</v>
+        <v>7490947.5061325487</v>
       </c>
       <c r="E125" s="155">
         <f>IF(E$117&gt;E$122,E$117,E$122)</f>
-        <v>7826396.1008755621</v>
+        <v>8004933.5969107207</v>
       </c>
       <c r="F125" s="155">
         <f>IF(F$117&gt;F$122,F$117,F$122)</f>
-        <v>8538302.8862057626</v>
+        <v>8733080.5588464793</v>
       </c>
       <c r="G125" s="155">
         <f>IF(G$117&gt;G$122,G$117,G$122)</f>
-        <v>9044315.0620532148</v>
+        <v>9250635.9974772874</v>
       </c>
       <c r="H125" s="156">
         <f>IF(H$117&gt;H$122,H$117,H$122)</f>
-        <v>9256316.7150375713</v>
+        <v>9467473.8795243315</v>
       </c>
       <c r="M125" s="1">
         <v>0.1</v>
@@ -11913,27 +11939,27 @@
       <c r="C126" s="119"/>
       <c r="D126" s="113">
         <f>D$106</f>
-        <v>24412912.213906288</v>
+        <v>24969825.02044183</v>
       </c>
       <c r="E126" s="113">
         <f t="shared" ref="E126:H126" si="66">E$106</f>
-        <v>26087987.002918541</v>
+        <v>26683111.989702404</v>
       </c>
       <c r="F126" s="113">
         <f t="shared" si="66"/>
-        <v>28461009.620685875</v>
+        <v>29110268.529488266</v>
       </c>
       <c r="G126" s="113">
         <f t="shared" si="66"/>
-        <v>30147716.873510718</v>
+        <v>30835453.32492429</v>
       </c>
       <c r="H126" s="120">
         <f t="shared" si="66"/>
-        <v>30854389.050125241</v>
+        <v>31558246.265081108</v>
       </c>
       <c r="I126" s="182">
         <f>D110-D125</f>
-        <v>17089038.549734402</v>
+        <v>17478877.51430928</v>
       </c>
       <c r="M126" s="1">
         <v>-10000</v>
@@ -11949,23 +11975,23 @@
       <c r="C127" s="121"/>
       <c r="D127" s="132">
         <f>D126/D$93</f>
-        <v>5.2050793650793507E-2</v>
+        <v>5.2050793650794021E-2</v>
       </c>
       <c r="E127" s="132">
         <f t="shared" ref="E127:H127" si="67">E126/E$93</f>
-        <v>5.5622222222222115E-2</v>
+        <v>5.5622222222222524E-2</v>
       </c>
       <c r="F127" s="132">
         <f t="shared" si="67"/>
-        <v>6.0681746031745913E-2</v>
+        <v>6.068174603174635E-2</v>
       </c>
       <c r="G127" s="132">
         <f t="shared" si="67"/>
-        <v>6.4277976190476122E-2</v>
+        <v>6.427797619047651E-2</v>
       </c>
       <c r="H127" s="133">
         <f t="shared" si="67"/>
-        <v>6.578467261904751E-2</v>
+        <v>6.578467261904794E-2</v>
       </c>
       <c r="M127" s="1">
         <v>3000</v>
@@ -11976,7 +12002,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="89" t="s">
         <v>289</v>
       </c>
@@ -11984,7 +12010,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="115" t="s">
         <v>295</v>
       </c>
@@ -11994,26 +12020,26 @@
       <c r="C130" s="116"/>
       <c r="D130" s="117">
         <f>D126</f>
-        <v>24412912.213906288</v>
+        <v>24969825.02044183</v>
       </c>
       <c r="E130" s="117">
         <f t="shared" ref="E130:H130" si="68">E126</f>
-        <v>26087987.002918541</v>
+        <v>26683111.989702404</v>
       </c>
       <c r="F130" s="117">
         <f t="shared" si="68"/>
-        <v>28461009.620685875</v>
+        <v>29110268.529488266</v>
       </c>
       <c r="G130" s="117">
         <f t="shared" si="68"/>
-        <v>30147716.873510718</v>
+        <v>30835453.32492429</v>
       </c>
       <c r="H130" s="118">
         <f t="shared" si="68"/>
-        <v>30854389.050125241</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+        <v>31558246.265081108</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="101" t="s">
         <v>225</v>
       </c>
@@ -12042,7 +12068,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="101" t="s">
         <v>89</v>
       </c>
@@ -12075,7 +12101,7 @@
         <v>42988.866880677524</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="108" t="s">
         <v>59</v>
       </c>
@@ -12085,42 +12111,42 @@
       <c r="C133" s="121"/>
       <c r="D133" s="110">
         <f>D130*D131*D132</f>
-        <v>1220645.6106953144</v>
+        <v>1248491.2510220916</v>
       </c>
       <c r="E133" s="110">
         <f t="shared" ref="E133:H133" si="69">E130*E131*E132</f>
-        <v>1304399.3501459272</v>
+        <v>1334155.5994851203</v>
       </c>
       <c r="F133" s="110">
         <f t="shared" si="69"/>
-        <v>1423050.4810342938</v>
+        <v>1455513.4264744134</v>
       </c>
       <c r="G133" s="110">
         <f t="shared" si="69"/>
-        <v>1507385.8436755361</v>
+        <v>1541772.6662462146</v>
       </c>
       <c r="H133" s="111">
         <f t="shared" si="69"/>
-        <v>1542719.4525062621</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1577912.3132540556</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J134" s="212"/>
       <c r="L134" s="1">
         <f>(D141/1.08^0)+(E141/1.08^1)+(F141/1.08^2)+(G141/1.08^3)+(H141/1.08^4)</f>
-        <v>35874093.251070701</v>
+        <v>36692461.079509825</v>
       </c>
       <c r="M134" s="1">
         <f>L134/1.08</f>
-        <v>33216753.010250647</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+        <v>33974500.999546133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="152" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="159" t="s">
         <v>299</v>
       </c>
@@ -12132,22 +12158,26 @@
       </c>
       <c r="E136" s="160">
         <f>1/POWER((1+_TauxDActualisation_Select),1)</f>
-        <v>0.92592592592592582</v>
+        <v>0.93023255813953487</v>
       </c>
       <c r="F136" s="160">
         <f>1/POWER((1+_TauxDActualisation_Select),2)</f>
-        <v>0.85733882030178321</v>
+        <v>0.86533261222282321</v>
       </c>
       <c r="G136" s="160">
         <f>1/POWER((1+_TauxDActualisation_Select),3)</f>
-        <v>0.79383224102016958</v>
+        <v>0.80496056950960304</v>
       </c>
       <c r="H136" s="161">
         <f>1/POWER((1+_TauxDActualisation_Select),4)</f>
-        <v>0.73502985279645328</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.7488005297763749</v>
+      </c>
+      <c r="I136" s="1">
+        <f>_TauxDActualisation_Select</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="89" t="s">
         <v>290</v>
       </c>
@@ -12155,7 +12185,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="17" t="s">
         <v>291</v>
       </c>
@@ -12163,7 +12193,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="115" t="s">
         <v>54</v>
       </c>
@@ -12173,34 +12203,49 @@
       <c r="C140" s="116"/>
       <c r="D140" s="117">
         <f>D$85</f>
-        <v>1197120.1158807459</v>
+        <v>1224429.0873649116</v>
       </c>
       <c r="E140" s="117">
         <f t="shared" ref="E140:H140" si="70">E$85</f>
-        <v>1197120.1158807459</v>
+        <v>1224429.0873649116</v>
       </c>
       <c r="F140" s="117">
         <f t="shared" si="70"/>
-        <v>1197120.1158807459</v>
+        <v>1224429.0873649116</v>
       </c>
       <c r="G140" s="117">
         <f t="shared" si="70"/>
-        <v>1197120.1158807459</v>
+        <v>1224429.0873649116</v>
       </c>
       <c r="H140" s="117">
         <f t="shared" si="70"/>
-        <v>1197120.1158807459</v>
+        <v>1224429.0873649116</v>
       </c>
       <c r="I140" s="162">
         <f>NPV(_TauxDActualisation_Select,D140:H140)</f>
-        <v>4779753.502265133</v>
+        <v>4953899.1581374388</v>
       </c>
       <c r="K140" s="182">
         <f>(D140/(1.08))+(D140/(1.08*2))+(D140/(1.08*3))+(D140/(1.08*4))+(D140/(1.08*5))</f>
-        <v>2530948.3931429344</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2588684.9532251987</v>
+      </c>
+      <c r="M140" s="1">
+        <v>1</v>
+      </c>
+      <c r="N140" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="O140" s="1">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="P140" s="1">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="Q140" s="1">
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="101" t="s">
         <v>288</v>
       </c>
@@ -12210,30 +12255,30 @@
       <c r="C141" s="119"/>
       <c r="D141" s="113">
         <f>D125</f>
-        <v>7323873.6641718866</v>
+        <v>7490947.5061325487</v>
       </c>
       <c r="E141" s="113">
         <f>E125</f>
-        <v>7826396.1008755621</v>
+        <v>8004933.5969107207</v>
       </c>
       <c r="F141" s="113">
         <f>F125</f>
-        <v>8538302.8862057626</v>
+        <v>8733080.5588464793</v>
       </c>
       <c r="G141" s="113">
         <f>G125</f>
-        <v>9044315.0620532148</v>
+        <v>9250635.9974772874</v>
       </c>
       <c r="H141" s="113">
         <f>H125</f>
-        <v>9256316.7150375713</v>
+        <v>9467473.8795243315</v>
       </c>
       <c r="I141" s="163">
         <f t="shared" ref="I141:I145" si="71">NPV(_TauxDActualisation_Select,D141:H141)</f>
-        <v>33216753.010250647</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+        <v>34446570.654837258</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" s="101" t="s">
         <v>59</v>
       </c>
@@ -12243,30 +12288,30 @@
       <c r="C142" s="119"/>
       <c r="D142" s="113">
         <f>D$133</f>
-        <v>1220645.6106953144</v>
+        <v>1248491.2510220916</v>
       </c>
       <c r="E142" s="113">
         <f>E$133</f>
-        <v>1304399.3501459272</v>
+        <v>1334155.5994851203</v>
       </c>
       <c r="F142" s="113">
         <f t="shared" ref="F142:H142" si="72">F$133</f>
-        <v>1423050.4810342938</v>
+        <v>1455513.4264744134</v>
       </c>
       <c r="G142" s="113">
         <f t="shared" si="72"/>
-        <v>1507385.8436755361</v>
+        <v>1541772.6662462146</v>
       </c>
       <c r="H142" s="113">
         <f t="shared" si="72"/>
-        <v>1542719.4525062621</v>
+        <v>1577912.3132540556</v>
       </c>
       <c r="I142" s="163">
         <f t="shared" si="71"/>
-        <v>5536125.5017084414</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+        <v>5741095.109139544</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="101" t="s">
         <v>60</v>
       </c>
@@ -12276,30 +12321,30 @@
       <c r="C143" s="119"/>
       <c r="D143" s="113">
         <f>D$90</f>
-        <v>368516.45358269231</v>
+        <v>376923.1332373328</v>
       </c>
       <c r="E143" s="113">
         <f t="shared" ref="E143:H143" si="73">E$90</f>
-        <v>368516.45358269231</v>
+        <v>376923.1332373328</v>
       </c>
       <c r="F143" s="113">
         <f t="shared" si="73"/>
-        <v>368516.45358269231</v>
+        <v>376923.1332373328</v>
       </c>
       <c r="G143" s="113">
         <f t="shared" si="73"/>
-        <v>368516.45358269231</v>
+        <v>376923.1332373328</v>
       </c>
       <c r="H143" s="113">
         <f t="shared" si="73"/>
-        <v>368516.45358269231</v>
+        <v>376923.1332373328</v>
       </c>
       <c r="I143" s="163">
         <f t="shared" si="71"/>
-        <v>1471379.3430480356</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1524987.6139788758</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="101" t="s">
         <v>61</v>
       </c>
@@ -12342,27 +12387,27 @@
       <c r="C145" s="121"/>
       <c r="D145" s="122">
         <f>SUM(D140:D144)</f>
-        <v>10110155.844330639</v>
+        <v>10340790.977756884</v>
       </c>
       <c r="E145" s="122">
         <f>SUM(E140:E144)</f>
-        <v>10696432.020484928</v>
+        <v>10940441.416998085</v>
       </c>
       <c r="F145" s="122">
         <f>SUM(F140:F144)</f>
-        <v>11526989.936703496</v>
+        <v>11789946.205923136</v>
       </c>
       <c r="G145" s="122">
         <f>SUM(G140:G144)</f>
-        <v>12117337.475192189</v>
+        <v>12393760.884325746</v>
       </c>
       <c r="H145" s="122">
         <f>SUM(H140:H144)</f>
-        <v>12364672.737007273</v>
+        <v>12646738.41338063</v>
       </c>
       <c r="I145" s="165">
         <f t="shared" si="71"/>
-        <v>45004011.35727226</v>
+        <v>46666552.536093123</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -12383,27 +12428,27 @@
       <c r="C147" s="116"/>
       <c r="D147" s="117">
         <f t="shared" ref="D147:H148" si="75">D140*D$136</f>
-        <v>1197120.1158807459</v>
+        <v>1224429.0873649116</v>
       </c>
       <c r="E147" s="117">
         <f t="shared" si="75"/>
-        <v>1108444.5517414312</v>
+        <v>1139003.8021999176</v>
       </c>
       <c r="F147" s="117">
         <f t="shared" si="75"/>
-        <v>1026337.5479087328</v>
+        <v>1059538.4206510864</v>
       </c>
       <c r="G147" s="117">
         <f t="shared" si="75"/>
-        <v>950312.54435993766</v>
+        <v>985617.13548938266</v>
       </c>
       <c r="H147" s="117">
         <f t="shared" si="75"/>
-        <v>879919.02255549782</v>
+        <v>916853.149292449</v>
       </c>
       <c r="I147" s="162">
         <f>SUM(D147:H147)</f>
-        <v>5162133.7824463444</v>
+        <v>5325441.5949977469</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -12416,27 +12461,27 @@
       <c r="C148" s="119"/>
       <c r="D148" s="113">
         <f t="shared" si="75"/>
-        <v>7323873.6641718866</v>
+        <v>7490947.5061325487</v>
       </c>
       <c r="E148" s="113">
         <f t="shared" si="75"/>
-        <v>7246663.0563662602</v>
+        <v>7446449.8575913683</v>
       </c>
       <c r="F148" s="113">
         <f t="shared" si="75"/>
-        <v>7320218.5238389596</v>
+        <v>7557019.412738977</v>
       </c>
       <c r="G148" s="113">
         <f t="shared" si="75"/>
-        <v>7179668.8942021774</v>
+        <v>7446397.2208553525</v>
       </c>
       <c r="H148" s="113">
         <f t="shared" si="75"/>
-        <v>6803669.1124914158</v>
+        <v>7089249.4566318104</v>
       </c>
       <c r="I148" s="163">
         <f t="shared" ref="I148:I152" si="76">SUM(D148:H148)</f>
-        <v>35874093.251070701</v>
+        <v>37030063.453950055</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -12449,27 +12494,27 @@
       <c r="C149" s="119"/>
       <c r="D149" s="113">
         <f t="shared" ref="D149:H149" si="77">D142*D$136</f>
-        <v>1220645.6106953144</v>
+        <v>1248491.2510220916</v>
       </c>
       <c r="E149" s="113">
         <f>E142*E$136</f>
-        <v>1207777.1760610435</v>
+        <v>1241074.9762652281</v>
       </c>
       <c r="F149" s="113">
         <f t="shared" si="77"/>
-        <v>1220036.4206398265</v>
+        <v>1259503.2354564962</v>
       </c>
       <c r="G149" s="113">
         <f t="shared" si="77"/>
-        <v>1196611.4823670299</v>
+        <v>1241066.2034758921</v>
       </c>
       <c r="H149" s="113">
         <f t="shared" si="77"/>
-        <v>1133944.8520819028</v>
+        <v>1181541.576105302</v>
       </c>
       <c r="I149" s="163">
         <f t="shared" si="76"/>
-        <v>5979015.5418451168</v>
+        <v>6171677.2423250098</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -12482,27 +12527,27 @@
       <c r="C150" s="119"/>
       <c r="D150" s="113">
         <f t="shared" ref="D150:H150" si="78">D143*D$136</f>
-        <v>368516.45358269231</v>
+        <v>376923.1332373328</v>
       </c>
       <c r="E150" s="113">
         <f t="shared" si="78"/>
-        <v>341218.93850249285</v>
+        <v>350626.17045333283</v>
       </c>
       <c r="F150" s="113">
         <f t="shared" si="78"/>
-        <v>315943.46157638228</v>
+        <v>326163.87949147244</v>
       </c>
       <c r="G150" s="113">
         <f t="shared" si="78"/>
-        <v>292540.24220035394</v>
+        <v>303408.25999206741</v>
       </c>
       <c r="H150" s="113">
         <f t="shared" si="78"/>
-        <v>270870.59462995734</v>
+        <v>282240.24185308593</v>
       </c>
       <c r="I150" s="163">
         <f t="shared" si="76"/>
-        <v>1589089.6904918787</v>
+        <v>1639361.6850272915</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -12548,27 +12593,27 @@
       <c r="C152" s="121"/>
       <c r="D152" s="122">
         <f>SUM(D147:D151)</f>
-        <v>10110155.844330639</v>
+        <v>10340790.977756884</v>
       </c>
       <c r="E152" s="122">
         <f t="shared" ref="E152" si="80">SUM(E147:E151)</f>
-        <v>9904103.7226712275</v>
+        <v>10177154.806509845</v>
       </c>
       <c r="F152" s="122">
         <f t="shared" ref="F152" si="81">SUM(F147:F151)</f>
-        <v>9882535.9539639</v>
+        <v>10202224.948338032</v>
       </c>
       <c r="G152" s="122">
         <f t="shared" ref="G152" si="82">SUM(G147:G151)</f>
-        <v>9619133.1631294992</v>
+        <v>9976488.8198126946</v>
       </c>
       <c r="H152" s="122">
         <f t="shared" ref="H152" si="83">SUM(H147:H151)</f>
-        <v>9088403.5817587748</v>
+        <v>9469884.4238826483</v>
       </c>
       <c r="I152" s="165">
         <f t="shared" si="76"/>
-        <v>48604332.265854038</v>
+        <v>50166543.976300105</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -12591,27 +12636,27 @@
       <c r="C156" s="116"/>
       <c r="D156" s="166">
         <f t="shared" ref="D156:I161" si="84">D140/D$171</f>
-        <v>3.3924050632911443E-2</v>
+        <v>3.3924050632911366E-2</v>
       </c>
       <c r="E156" s="166">
         <f t="shared" si="84"/>
-        <v>3.3924050632911443E-2</v>
+        <v>3.3924050632911366E-2</v>
       </c>
       <c r="F156" s="166">
         <f t="shared" si="84"/>
-        <v>3.3924050632911443E-2</v>
+        <v>3.3924050632911366E-2</v>
       </c>
       <c r="G156" s="166">
         <f t="shared" si="84"/>
-        <v>3.3924050632911443E-2</v>
+        <v>3.3924050632911366E-2</v>
       </c>
       <c r="H156" s="166">
         <f t="shared" si="84"/>
-        <v>3.3924050632911443E-2</v>
+        <v>3.3924050632911366E-2</v>
       </c>
       <c r="I156" s="168">
         <f t="shared" si="84"/>
-        <v>3.3924050632911429E-2</v>
+        <v>3.3924050632911366E-2</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -12624,27 +12669,27 @@
       <c r="C157" s="119"/>
       <c r="D157" s="167">
         <f t="shared" si="84"/>
-        <v>0.2075443037974681</v>
+        <v>0.20754430379746966</v>
       </c>
       <c r="E157" s="167">
         <f t="shared" si="84"/>
-        <v>0.22178481012658216</v>
+        <v>0.22178481012658333</v>
       </c>
       <c r="F157" s="167">
         <f t="shared" si="84"/>
-        <v>0.24195886075949355</v>
+        <v>0.24195886075949474</v>
       </c>
       <c r="G157" s="167">
         <f t="shared" si="84"/>
-        <v>0.25629825949367097</v>
+        <v>0.25629825949367196</v>
       </c>
       <c r="H157" s="167">
         <f t="shared" si="84"/>
-        <v>0.26230597310126574</v>
+        <v>0.26230597310126685</v>
       </c>
       <c r="I157" s="169">
         <f>I141/I$171</f>
-        <v>0.23575416816926678</v>
+        <v>0.23588837191110981</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -12657,27 +12702,27 @@
       <c r="C158" s="119"/>
       <c r="D158" s="167">
         <f t="shared" si="84"/>
-        <v>3.4590717299578015E-2</v>
+        <v>3.4590717299578279E-2</v>
       </c>
       <c r="E158" s="167">
         <f t="shared" si="84"/>
-        <v>3.6964135021097029E-2</v>
+        <v>3.6964135021097223E-2</v>
       </c>
       <c r="F158" s="167">
         <f t="shared" si="84"/>
-        <v>4.0326476793248925E-2</v>
+        <v>4.0326476793249126E-2</v>
       </c>
       <c r="G158" s="167">
         <f t="shared" si="84"/>
-        <v>4.2716376582278504E-2</v>
+        <v>4.2716376582278663E-2</v>
       </c>
       <c r="H158" s="167">
         <f t="shared" si="84"/>
-        <v>4.3717662183544302E-2</v>
+        <v>4.371766218354449E-2</v>
       </c>
       <c r="I158" s="169">
         <f t="shared" si="84"/>
-        <v>3.9292361361544466E-2</v>
+        <v>3.9314728651851642E-2</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -12690,27 +12735,27 @@
       <c r="C159" s="119"/>
       <c r="D159" s="167">
         <f t="shared" si="84"/>
-        <v>1.044303797468356E-2</v>
+        <v>1.0443037974683536E-2</v>
       </c>
       <c r="E159" s="167">
         <f t="shared" si="84"/>
-        <v>1.044303797468356E-2</v>
+        <v>1.0443037974683536E-2</v>
       </c>
       <c r="F159" s="167">
         <f t="shared" si="84"/>
-        <v>1.044303797468356E-2</v>
+        <v>1.0443037974683536E-2</v>
       </c>
       <c r="G159" s="167">
         <f t="shared" si="84"/>
-        <v>1.044303797468356E-2</v>
+        <v>1.0443037974683536E-2</v>
       </c>
       <c r="H159" s="167">
         <f t="shared" si="84"/>
-        <v>1.044303797468356E-2</v>
+        <v>1.0443037974683536E-2</v>
       </c>
       <c r="I159" s="169">
         <f t="shared" si="84"/>
-        <v>1.0443037974683557E-2</v>
+        <v>1.0443037974683536E-2</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -12746,7 +12791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" s="108" t="s">
         <v>267</v>
       </c>
@@ -12756,35 +12801,35 @@
       <c r="C161" s="121"/>
       <c r="D161" s="170">
         <f t="shared" si="84"/>
-        <v>0.28650210970464107</v>
+        <v>0.28650210970464285</v>
       </c>
       <c r="E161" s="170">
         <f t="shared" si="84"/>
-        <v>0.30311603375527418</v>
+        <v>0.3031160337552754</v>
       </c>
       <c r="F161" s="170">
         <f t="shared" si="84"/>
-        <v>0.32665242616033752</v>
+        <v>0.32665242616033874</v>
       </c>
       <c r="G161" s="170">
         <f t="shared" si="84"/>
-        <v>0.34338172468354444</v>
+        <v>0.34338172468354555</v>
       </c>
       <c r="H161" s="170">
         <f t="shared" si="84"/>
-        <v>0.35039072389240511</v>
+        <v>0.35039072389240622</v>
       </c>
       <c r="I161" s="171">
         <f t="shared" si="84"/>
-        <v>0.31941361813840624</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.31957018917055641</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="147" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="115" t="s">
         <v>54</v>
       </c>
@@ -12794,30 +12839,50 @@
       <c r="C163" s="116"/>
       <c r="D163" s="166">
         <f t="shared" ref="D163:I168" si="85">D147/D$172</f>
-        <v>3.3924050632911443E-2</v>
+        <v>3.3924050632911366E-2</v>
       </c>
       <c r="E163" s="166">
         <f t="shared" si="85"/>
-        <v>3.3924050632911443E-2</v>
+        <v>3.3924050632911366E-2</v>
       </c>
       <c r="F163" s="166">
         <f t="shared" si="85"/>
-        <v>3.3924050632911443E-2</v>
+        <v>3.3924050632911366E-2</v>
       </c>
       <c r="G163" s="166">
         <f t="shared" si="85"/>
-        <v>3.3924050632911443E-2</v>
+        <v>3.3924050632911366E-2</v>
       </c>
       <c r="H163" s="166">
         <f t="shared" si="85"/>
-        <v>3.3924050632911443E-2</v>
+        <v>3.3924050632911366E-2</v>
       </c>
       <c r="I163" s="168">
         <f t="shared" si="85"/>
-        <v>3.3924050632911436E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.12453628199283934</v>
+      </c>
+      <c r="L163" s="1">
+        <f>D171*M140</f>
+        <v>36093245.485756747</v>
+      </c>
+      <c r="M163" s="1">
+        <f t="shared" ref="M163:P163" si="86">E171*N140</f>
+        <v>33566718.301753774</v>
+      </c>
+      <c r="N163" s="1">
+        <f t="shared" si="86"/>
+        <v>31220657.345179588</v>
+      </c>
+      <c r="O163" s="1">
+        <f t="shared" si="86"/>
+        <v>29055062.616034184</v>
+      </c>
+      <c r="P163" s="1">
+        <f t="shared" si="86"/>
+        <v>27033840.868831802</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" s="101" t="s">
         <v>288</v>
       </c>
@@ -12827,30 +12892,30 @@
       <c r="C164" s="119"/>
       <c r="D164" s="167">
         <f t="shared" si="85"/>
-        <v>0.2075443037974681</v>
+        <v>0.20754430379746966</v>
       </c>
       <c r="E164" s="167">
         <f t="shared" si="85"/>
-        <v>0.22178481012658216</v>
+        <v>0.22178481012658333</v>
       </c>
       <c r="F164" s="167">
         <f t="shared" si="85"/>
-        <v>0.24195886075949358</v>
+        <v>0.24195886075949474</v>
       </c>
       <c r="G164" s="167">
         <f t="shared" si="85"/>
-        <v>0.25629825949367097</v>
+        <v>0.25629825949367196</v>
       </c>
       <c r="H164" s="167">
         <f t="shared" si="85"/>
-        <v>0.26230597310126574</v>
+        <v>0.26230597310126685</v>
       </c>
       <c r="I164" s="169">
         <f t="shared" si="85"/>
-        <v>0.23575416816926681</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.86595380725714444</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" s="101" t="s">
         <v>59</v>
       </c>
@@ -12860,30 +12925,30 @@
       <c r="C165" s="119"/>
       <c r="D165" s="167">
         <f t="shared" si="85"/>
-        <v>3.4590717299578015E-2</v>
+        <v>3.4590717299578279E-2</v>
       </c>
       <c r="E165" s="167">
         <f t="shared" si="85"/>
-        <v>3.6964135021097029E-2</v>
+        <v>3.6964135021097223E-2</v>
       </c>
       <c r="F165" s="167">
         <f t="shared" si="85"/>
-        <v>4.0326476793248925E-2</v>
+        <v>4.0326476793249126E-2</v>
       </c>
       <c r="G165" s="167">
         <f t="shared" si="85"/>
-        <v>4.2716376582278504E-2</v>
+        <v>4.2716376582278663E-2</v>
       </c>
       <c r="H165" s="167">
         <f t="shared" si="85"/>
-        <v>4.3717662183544295E-2</v>
+        <v>4.371766218354449E-2</v>
       </c>
       <c r="I165" s="169">
         <f t="shared" si="85"/>
-        <v>3.9292361361544466E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.14432563454285741</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" s="101" t="s">
         <v>60</v>
       </c>
@@ -12893,30 +12958,34 @@
       <c r="C166" s="119"/>
       <c r="D166" s="167">
         <f t="shared" si="85"/>
-        <v>1.044303797468356E-2</v>
+        <v>1.0443037974683536E-2</v>
       </c>
       <c r="E166" s="167">
         <f t="shared" si="85"/>
-        <v>1.044303797468356E-2</v>
+        <v>1.0443037974683536E-2</v>
       </c>
       <c r="F166" s="167">
         <f t="shared" si="85"/>
-        <v>1.044303797468356E-2</v>
+        <v>1.0443037974683536E-2</v>
       </c>
       <c r="G166" s="167">
         <f t="shared" si="85"/>
-        <v>1.044303797468356E-2</v>
+        <v>1.0443037974683536E-2</v>
       </c>
       <c r="H166" s="167">
         <f t="shared" si="85"/>
-        <v>1.044303797468356E-2</v>
+        <v>1.0443037974683536E-2</v>
       </c>
       <c r="I166" s="169">
         <f t="shared" si="85"/>
-        <v>1.0443037974683558E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3.833672859854196E-2</v>
+      </c>
+      <c r="K166" s="167">
+        <f>((L171-I179)/I171)</f>
+        <v>9.4639086148413196E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" s="101" t="s">
         <v>61</v>
       </c>
@@ -12949,7 +13018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" s="108" t="s">
         <v>267</v>
       </c>
@@ -12959,27 +13028,27 @@
       <c r="C168" s="121"/>
       <c r="D168" s="170">
         <f t="shared" si="85"/>
-        <v>0.28650210970464107</v>
+        <v>0.28650210970464285</v>
       </c>
       <c r="E168" s="170">
         <f t="shared" si="85"/>
-        <v>0.30311603375527418</v>
+        <v>0.3031160337552754</v>
       </c>
       <c r="F168" s="170">
         <f t="shared" si="85"/>
-        <v>0.32665242616033746</v>
+        <v>0.32665242616033879</v>
       </c>
       <c r="G168" s="170">
         <f t="shared" si="85"/>
-        <v>0.34338172468354444</v>
+        <v>0.34338172468354555</v>
       </c>
       <c r="H168" s="170">
         <f t="shared" si="85"/>
-        <v>0.35039072389240511</v>
+        <v>0.35039072389240628</v>
       </c>
       <c r="I168" s="171">
         <f t="shared" si="85"/>
-        <v>0.31941361813840624</v>
+        <v>1.1731524523913832</v>
       </c>
       <c r="N168" s="1">
         <f>2^4</f>
@@ -12990,25 +13059,29 @@
         <v>32</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O169" s="1">
         <f>2</f>
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" s="152" t="s">
         <v>301</v>
       </c>
       <c r="I170" s="6" t="s">
         <v>302</v>
+      </c>
+      <c r="K170" s="225">
+        <f>(I171-I179)/I171</f>
+        <v>1.0946390861484132</v>
       </c>
       <c r="O170" s="1">
         <f>(4/2)^4</f>
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" s="96" t="s">
         <v>291</v>
       </c>
@@ -13017,39 +13090,43 @@
       </c>
       <c r="C171" s="177">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-111671652.60081585</v>
+        <v>-114219131.28404026</v>
       </c>
       <c r="D171" s="117">
         <f>D$93-D$94-D$95-D$97-D$98-D$99-D$100-D$101-D$102-D$104</f>
-        <v>35288242.221857756</v>
+        <v>36093245.485756747</v>
       </c>
       <c r="E171" s="117">
-        <f t="shared" ref="E171:G171" si="86">E$93-E$94-E$95-E$97-E$98-E$99-E$100-E$101-E$102-E$104</f>
-        <v>35288242.221857756</v>
+        <f t="shared" ref="E171:G171" si="87">E$93-E$94-E$95-E$97-E$98-E$99-E$100-E$101-E$102-E$104</f>
+        <v>36093245.485756747</v>
       </c>
       <c r="F171" s="117">
-        <f t="shared" si="86"/>
-        <v>35288242.221857756</v>
+        <f t="shared" si="87"/>
+        <v>36093245.485756747</v>
       </c>
       <c r="G171" s="117">
-        <f t="shared" si="86"/>
-        <v>35288242.221857756</v>
+        <f t="shared" si="87"/>
+        <v>36093245.485756747</v>
       </c>
       <c r="H171" s="117">
         <f>H$93-H$94-H$95-H$97-H$98-H$99-H$100-H$101-H$102-H$104</f>
-        <v>35288242.221857756</v>
+        <v>36093245.485756747</v>
       </c>
       <c r="I171" s="162">
         <f>NPV(_TauxDActualisation_Select,D171:H171)</f>
-        <v>140895718.91005415</v>
+        <v>146029116.97494701</v>
       </c>
       <c r="J171" s="182"/>
+      <c r="K171" s="1">
+        <f>176945019-4817529</f>
+        <v>172127490</v>
+      </c>
       <c r="O171" s="1">
         <f>4^4/2^4</f>
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" s="149" t="s">
         <v>300</v>
       </c>
@@ -13058,39 +13135,43 @@
       </c>
       <c r="C172" s="178">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-111671652.60081585</v>
+        <v>-114219131.28404026</v>
       </c>
       <c r="D172" s="135">
         <f>D171*D$136</f>
-        <v>35288242.221857756</v>
+        <v>36093245.485756747</v>
       </c>
       <c r="E172" s="135">
         <f>E171*E$136</f>
-        <v>32674298.353571992</v>
+        <v>33575112.079773717</v>
       </c>
       <c r="F172" s="135">
         <f>F171*F$136</f>
-        <v>30253979.957011107</v>
+        <v>31232662.399789508</v>
       </c>
       <c r="G172" s="135">
         <f>G171*G$136</f>
-        <v>28012944.404639911</v>
+        <v>29053639.441664662</v>
       </c>
       <c r="H172" s="135">
         <f>H171*H$136</f>
-        <v>25937911.485777695</v>
+        <v>27026641.341083404</v>
       </c>
       <c r="I172" s="164">
-        <f t="shared" ref="I172" si="87">SUM(D172:H172)</f>
-        <v>152167376.42285848</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+        <f>SUM(C172:H172)</f>
+        <v>42762169.464027777</v>
+      </c>
+      <c r="K172" s="1">
+        <f>K171/176945019</f>
+        <v>0.97277386485798734</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I173" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="152" t="s">
         <v>314</v>
       </c>
@@ -13098,7 +13179,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" s="96" t="s">
         <v>291</v>
       </c>
@@ -13107,34 +13188,34 @@
       </c>
       <c r="C175" s="127">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-111671652.60081585</v>
+        <v>-114219131.28404026</v>
       </c>
       <c r="D175" s="117">
         <f>D$171-D141</f>
-        <v>27964368.557685871</v>
+        <v>28602297.979624197</v>
       </c>
       <c r="E175" s="117">
         <f t="shared" ref="E175:H175" si="88">E$171-E141</f>
-        <v>27461846.120982192</v>
+        <v>28088311.888846025</v>
       </c>
       <c r="F175" s="117">
         <f t="shared" si="88"/>
-        <v>26749939.335651994</v>
+        <v>27360164.926910266</v>
       </c>
       <c r="G175" s="117">
         <f t="shared" si="88"/>
-        <v>26243927.159804542</v>
+        <v>26842609.488279462</v>
       </c>
       <c r="H175" s="117">
         <f t="shared" si="88"/>
-        <v>26031925.506820187</v>
+        <v>26625771.606232416</v>
       </c>
       <c r="I175" s="162">
         <f>NPV(_TauxDActualisation_Select,C175:H175)</f>
-        <v>-3696932.1305670151</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-2452637.1757493117</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" s="149" t="s">
         <v>300</v>
       </c>
@@ -13143,47 +13224,67 @@
       </c>
       <c r="C176" s="176">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-111671652.60081585</v>
+        <v>-114219131.28404026</v>
       </c>
       <c r="D176" s="135">
         <f>D$172-D148</f>
-        <v>27964368.557685871</v>
+        <v>28602297.979624197</v>
       </c>
       <c r="E176" s="135">
         <f t="shared" ref="E176:H176" si="89">E$172-E148</f>
-        <v>25427635.297205731</v>
+        <v>26128662.222182348</v>
       </c>
       <c r="F176" s="135">
         <f t="shared" si="89"/>
-        <v>22933761.433172148</v>
+        <v>23675642.987050533</v>
       </c>
       <c r="G176" s="135">
         <f t="shared" si="89"/>
-        <v>20833275.510437734</v>
+        <v>21607242.220809311</v>
       </c>
       <c r="H176" s="135">
         <f t="shared" si="89"/>
-        <v>19134242.373286277</v>
+        <v>19937391.884451594</v>
       </c>
       <c r="I176" s="164">
         <f>SUM(C176:H176)</f>
-        <v>4621630.5709719136</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5732106.0100777261</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I177" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" s="152" t="s">
         <v>309</v>
       </c>
       <c r="I178" s="6" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M178" s="1">
+        <f>D171/((1+_TauxDActualisation_Select)^D1)</f>
+        <v>33575112.079773717</v>
+      </c>
+      <c r="N178" s="1">
+        <f>E171/((1+_TauxDActualisation_Select)^E1)</f>
+        <v>31232662.399789508</v>
+      </c>
+      <c r="O178" s="1">
+        <f>F171/((1+_TauxDActualisation_Select)^F1)</f>
+        <v>29053639.441664658</v>
+      </c>
+      <c r="P178" s="1">
+        <f>G171/((1+_TauxDActualisation_Select)^G1)</f>
+        <v>27026641.341083404</v>
+      </c>
+      <c r="Q178" s="1">
+        <f>H171/((1+_TauxDActualisation_Select)^H1)</f>
+        <v>25141061.712635726</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" s="96" t="s">
         <v>291</v>
       </c>
@@ -13192,34 +13293,38 @@
       </c>
       <c r="C179" s="127">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-111671652.60081585</v>
+        <v>-114219131.28404026</v>
       </c>
       <c r="D179" s="117">
         <f>D$171-D$145</f>
-        <v>25178086.377527118</v>
+        <v>25752454.507999863</v>
       </c>
       <c r="E179" s="117">
         <f>E$171-E$145</f>
-        <v>24591810.201372828</v>
+        <v>25152804.068758663</v>
       </c>
       <c r="F179" s="117">
         <f>F$171-F$145</f>
-        <v>23761252.285154261</v>
+        <v>24303299.279833611</v>
       </c>
       <c r="G179" s="117">
         <f>G$171-G$145</f>
-        <v>23170904.746665567</v>
+        <v>23699484.601431001</v>
       </c>
       <c r="H179" s="117">
         <f>H$171-H$145</f>
-        <v>22923569.484850481</v>
+        <v>23446507.072376117</v>
       </c>
       <c r="I179" s="162">
         <f>NPV(_TauxDActualisation_Select,C179:H179)</f>
-        <v>-14611060.229661105</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-13820062.181568718</v>
+      </c>
+      <c r="M179" s="1">
+        <f>SUM(M178:Q178)</f>
+        <v>146029116.97494701</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" s="149" t="s">
         <v>300</v>
       </c>
@@ -13228,44 +13333,60 @@
       </c>
       <c r="C180" s="176">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-111671652.60081585</v>
+        <v>-114219131.28404026</v>
       </c>
       <c r="D180" s="135">
         <f>D$172-D$152</f>
-        <v>25178086.377527118</v>
+        <v>25752454.507999863</v>
       </c>
       <c r="E180" s="135">
         <f>E$172-E$152</f>
-        <v>22770194.630900763</v>
+        <v>23397957.273263872</v>
       </c>
       <c r="F180" s="135">
         <f>F$172-F$152</f>
-        <v>20371444.003047206</v>
+        <v>21030437.451451477</v>
       </c>
       <c r="G180" s="135">
         <f>G$172-G$152</f>
-        <v>18393811.241510414</v>
+        <v>19077150.621851966</v>
       </c>
       <c r="H180" s="135">
         <f>H$172-H$152</f>
-        <v>16849507.90401892</v>
+        <v>17556756.917200755</v>
       </c>
       <c r="I180" s="164">
         <f>SUM(C180:H180)</f>
-        <v>-8108608.4438114278</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-7404374.512272317</v>
+      </c>
+      <c r="K180" s="1">
+        <f>_TauxDActualisation_Select</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M180" s="182">
+        <f>-C171+M179</f>
+        <v>260248248.25898725</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I181" s="6" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K181" s="1">
+        <f>C179+(D179/(1.08^D1))+(E179/(1.08)^E1)+(F179/(1.08)^F1)+(G179/(1.08)^G1)+(H179/(1.08)^H1)</f>
+        <v>-16139920.679235701</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" s="152" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K182" s="1">
+        <f>K181/1.08</f>
+        <v>-14944370.999292314</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" s="159" t="s">
         <v>291</v>
       </c>
@@ -13287,19 +13408,53 @@
       </c>
       <c r="G183" s="179">
         <f>MAX(0,IRR($C171:G171))</f>
-        <v>0.10077469154361873</v>
+        <v>0.10077469154361962</v>
       </c>
       <c r="H183" s="180">
         <f>MAX(0,IRR($C171:H171))</f>
-        <v>0.17477335350611312</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.17477335350611423</v>
+      </c>
+      <c r="K183" s="182">
+        <f>SUM(C180:H180)</f>
+        <v>-7404374.512272317</v>
+      </c>
+      <c r="M183" s="1">
+        <f>D179/((1+_TauxDActualisation_Select)^D1)</f>
+        <v>23955771.635348711</v>
+      </c>
+      <c r="N183" s="1">
+        <f>E179/((1+_TauxDActualisation_Select)^E1)</f>
+        <v>21765541.649547789</v>
+      </c>
+      <c r="O183" s="1">
+        <f>F179/((1+_TauxDActualisation_Select)^F1)</f>
+        <v>19563197.629257187</v>
+      </c>
+      <c r="P183" s="1">
+        <f>G179/((1+_TauxDActualisation_Select)^G1)</f>
+        <v>17746186.624978572</v>
+      </c>
+      <c r="Q183" s="1">
+        <f>H179/((1+_TauxDActualisation_Select)^H1)</f>
+        <v>16331866.899721634</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M184" s="1">
+        <f>SUM(M183:Q183)</f>
+        <v>99362564.438853905</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" s="152" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M185" s="182">
+        <f>-C179+M184</f>
+        <v>213581695.72289416</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" s="159" t="s">
         <v>291</v>
       </c>
@@ -13325,15 +13480,33 @@
       </c>
       <c r="H186" s="180">
         <f>MAX(0,IRR($C175:H175))</f>
-        <v>6.6152872107589467E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6.6152872107589911E-2</v>
+      </c>
+      <c r="M186" s="182">
+        <f>M180-M185</f>
+        <v>46666552.536093086</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M187" s="226">
+        <f>M186/M180</f>
+        <v>0.17931552987689142</v>
+      </c>
+      <c r="N187" s="227">
+        <f>I171-I179</f>
+        <v>159849179.15651572</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188" s="152" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N188" s="1">
+        <f>N187/I171</f>
+        <v>1.0946390861484132</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189" s="159" t="s">
         <v>291</v>
       </c>
@@ -13359,15 +13532,15 @@
       </c>
       <c r="H189" s="180">
         <f>MAX(0,IRR($C179:H179))</f>
-        <v>2.3786203374374537E-2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.3786203374374759E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191" s="152" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192" s="159" t="s">
         <v>291</v>
       </c>
@@ -13393,7 +13566,7 @@
       </c>
       <c r="H192" s="180">
         <f t="shared" si="90"/>
-        <v>0.62149337538873961</v>
+        <v>0.6214933753887395</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -13427,7 +13600,7 @@
       </c>
       <c r="H195" s="180">
         <f>IF(H$183&gt;0,(H$183-H189)/H$183,0)</f>
-        <v>0.86390257497952883</v>
+        <v>0.86390257497952838</v>
       </c>
     </row>
   </sheetData>

--- a/annexe/Modèle investissement.xlsx
+++ b/annexe/Modèle investissement.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B94812-D36E-437E-8490-08847744194F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3CF2CA-CE13-4924-B28B-F9298C9F1F8A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="328">
   <si>
     <t>BEN</t>
   </si>
@@ -1191,6 +1191,9 @@
   </si>
   <si>
     <t>Taux effectifs marginaux</t>
+  </si>
+  <si>
+    <t>tri</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1208,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="168" formatCode="#&quot; &quot;??/100"/>
+    <numFmt numFmtId="166" formatCode="#&quot; &quot;??/100"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1852,7 +1855,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2495,49 +2498,55 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="39" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2948,19 +2957,19 @@
       <c r="B3" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="218" t="s">
+      <c r="E3" s="220" t="s">
         <v>317</v>
       </c>
-      <c r="F3" s="219"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="216" t="s">
+      <c r="F3" s="221"/>
+      <c r="G3" s="222"/>
+      <c r="H3" s="218" t="s">
         <v>325</v>
       </c>
-      <c r="I3" s="217"/>
-      <c r="J3" s="216" t="s">
+      <c r="I3" s="219"/>
+      <c r="J3" s="218" t="s">
         <v>326</v>
       </c>
-      <c r="K3" s="217"/>
+      <c r="K3" s="219"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D4" s="190"/>
@@ -3012,11 +3021,11 @@
       </c>
       <c r="H5" s="197">
         <f>Modèle!D163</f>
-        <v>3.3924050632911366E-2</v>
+        <v>2.7628865979381443E-2</v>
       </c>
       <c r="I5" s="198">
         <f>Modèle!I163</f>
-        <v>0.12453628199283934</v>
+        <v>6.7814051619584467E-2</v>
       </c>
       <c r="J5" s="208"/>
       <c r="K5" s="209"/>
@@ -3038,21 +3047,21 @@
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F69&lt;&gt;"",Select!G69&lt;&gt;""),Select!E69,""))</f>
         <v/>
       </c>
-      <c r="H6" s="221">
+      <c r="H6" s="223">
         <f>Modèle!D164</f>
-        <v>0.20754430379746966</v>
-      </c>
-      <c r="I6" s="223">
+        <v>0.22470103092783605</v>
+      </c>
+      <c r="I6" s="225">
         <f>Modèle!I164</f>
-        <v>0.86595380725714444</v>
-      </c>
-      <c r="J6" s="221">
+        <v>0.6081802353939163</v>
+      </c>
+      <c r="J6" s="223">
         <f>Modèle!D192</f>
         <v>0</v>
       </c>
-      <c r="K6" s="223">
+      <c r="K6" s="225">
         <f>Modèle!H192</f>
-        <v>0.6214933753887395</v>
+        <v>0.47755558461966696</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -3079,10 +3088,10 @@
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F70&lt;&gt;"",Select!G70&lt;&gt;""),Select!E70,""))</f>
         <v/>
       </c>
-      <c r="H7" s="222"/>
-      <c r="I7" s="224"/>
-      <c r="J7" s="222"/>
-      <c r="K7" s="224"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="226"/>
+      <c r="J7" s="224"/>
+      <c r="K7" s="226"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D8" s="56" t="str">
@@ -3103,11 +3112,11 @@
       </c>
       <c r="H8" s="197">
         <f>Modèle!D165</f>
-        <v>3.4590717299578279E-2</v>
+        <v>3.7450171821306014E-2</v>
       </c>
       <c r="I8" s="198">
         <f>Modèle!I165</f>
-        <v>0.14432563454285741</v>
+        <v>0.10136337256565273</v>
       </c>
       <c r="J8" s="208"/>
       <c r="K8" s="209"/>
@@ -3138,11 +3147,11 @@
       </c>
       <c r="H9" s="188">
         <f>Modèle!D166</f>
-        <v>1.0443037974683536E-2</v>
+        <v>8.505154639175257E-3</v>
       </c>
       <c r="I9" s="172">
         <f>Modèle!I166</f>
-        <v>3.833672859854196E-2</v>
+        <v>2.0875594248566113E-2</v>
       </c>
       <c r="J9" s="210"/>
       <c r="K9" s="211"/>
@@ -3192,11 +3201,11 @@
       <c r="G11" s="52"/>
       <c r="H11" s="189">
         <f>Modèle!D168</f>
-        <v>0.28650210970464285</v>
+        <v>0.29828522336769875</v>
       </c>
       <c r="I11" s="174">
         <f>Modèle!I168</f>
-        <v>1.1731524523913832</v>
+        <v>0.79823325382771959</v>
       </c>
       <c r="J11" s="189">
         <f>Modèle!D195</f>
@@ -3204,7 +3213,7 @@
       </c>
       <c r="K11" s="174">
         <f>Modèle!H195</f>
-        <v>0.86390257497952838</v>
+        <v>0.64071148368534714</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -3227,15 +3236,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="214" t="str">
+      <c r="A16" s="227" t="str">
         <f>VLOOKUP(_Bilan,_Tables,4,FALSE)</f>
         <v>Bilan à l'ouverture</v>
       </c>
-      <c r="B16" s="214"/>
-      <c r="C16" s="214"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="214"/>
+      <c r="B16" s="227"/>
+      <c r="C16" s="227"/>
+      <c r="D16" s="227"/>
+      <c r="E16" s="227"/>
+      <c r="F16" s="227"/>
       <c r="H16" s="73" t="str">
         <f>VLOOKUP(_PIBPNB,_Tables,4,FALSE)</f>
         <v>PIB ou PNB</v>
@@ -3245,18 +3254,18 @@
       <c r="K16" s="68"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="215" t="str">
+      <c r="A17" s="228" t="str">
         <f>VLOOKUP(_Actif,_Tables,4,FALSE)</f>
         <v>Actif</v>
       </c>
-      <c r="B17" s="215"/>
-      <c r="C17" s="215"/>
-      <c r="D17" s="215" t="str">
+      <c r="B17" s="228"/>
+      <c r="C17" s="228"/>
+      <c r="D17" s="228" t="str">
         <f>VLOOKUP(_Passif,_Tables,4,FALSE)</f>
         <v>Passif</v>
       </c>
-      <c r="E17" s="215"/>
-      <c r="F17" s="215"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="228"/>
       <c r="H17" s="56" t="str">
         <f>_PIBPNB_Liste</f>
         <v>PIB/tête</v>
@@ -3565,29 +3574,29 @@
       <c r="K29" s="70"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="214" t="str">
+      <c r="A31" s="227" t="str">
         <f>VLOOKUP(_CompteDeResultat,_Tables,4,FALSE)</f>
         <v>Compte de résultat</v>
       </c>
-      <c r="B31" s="214"/>
-      <c r="C31" s="214"/>
-      <c r="D31" s="214"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="214"/>
+      <c r="B31" s="227"/>
+      <c r="C31" s="227"/>
+      <c r="D31" s="227"/>
+      <c r="E31" s="227"/>
+      <c r="F31" s="227"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="215" t="str">
+      <c r="A32" s="228" t="str">
         <f>VLOOKUP(_Charges,_Tables,4,FALSE)</f>
         <v>Charges</v>
       </c>
-      <c r="B32" s="215"/>
-      <c r="C32" s="215"/>
-      <c r="D32" s="215" t="str">
+      <c r="B32" s="228"/>
+      <c r="C32" s="228"/>
+      <c r="D32" s="228" t="str">
         <f>VLOOKUP(_Produits,_Tables,4,FALSE)</f>
         <v>Produits</v>
       </c>
-      <c r="E32" s="215"/>
-      <c r="F32" s="215"/>
+      <c r="E32" s="228"/>
+      <c r="F32" s="228"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="59" t="str">
@@ -3611,7 +3620,7 @@
       <c r="B34" s="39"/>
       <c r="C34" s="41">
         <f>_Achats_Select</f>
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="D34" s="39" t="str">
         <f>VLOOKUP(_Ventes,_Tables,4,FALSE)</f>
@@ -4103,6 +4112,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="E3:G3"/>
@@ -4110,12 +4125,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4423,12 +4432,12 @@
       </c>
       <c r="C20" s="13">
         <f t="shared" si="0"/>
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>875</v>
+        <v>857</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
@@ -7167,7 +7176,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
@@ -9053,13 +9062,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9275,7 +9284,7 @@
         <v>_Achats</v>
       </c>
       <c r="B28" s="13">
-        <v>875</v>
+        <v>857</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -9314,25 +9323,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="str">
         <f>VLOOKUP(_ImpotsEtTaxes,_Tables,4,FALSE)</f>
         <v>Impôts et taxes</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="str">
         <f>VLOOKUP(_MasseSalariale,_Tables,4,FALSE)</f>
         <v>Masse salariale</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="str">
         <f>VLOOKUP(_ChargesFinancieres,_Tables,4,FALSE)</f>
         <v>Charges financières</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="str">
         <f>_ChargesFinancieres</f>
         <v>_ChargesFinancieres</v>
@@ -9341,25 +9350,29 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="str">
         <f>VLOOKUP(_Amortissement,_Tables,4,FALSE)</f>
         <v>Amortissement</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E37" s="1">
+        <f>B40/1.225</f>
+        <v>857.14285714285711</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="str">
         <f>VLOOKUP(_Produits,_Tables,4,FALSE)</f>
         <v>Produits</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="str">
         <f>VLOOKUP(_Ventes,_Tables,4,FALSE)</f>
         <v>Ventes</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="str">
         <f>_Ventes</f>
         <v>_Ventes</v>
@@ -9368,19 +9381,19 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="str">
         <f>VLOOKUP(_Salaries,_Tables,4,FALSE)</f>
         <v>Salariés</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="str">
         <f>VLOOKUP(_Nombre,_Tables,4,FALSE)</f>
         <v>Nombre</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>212</v>
       </c>
@@ -9388,7 +9401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>213</v>
       </c>
@@ -9396,7 +9409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>214</v>
       </c>
@@ -9404,7 +9417,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="str">
         <f>VLOOKUP(_Indice,_Tables,4,FALSE)</f>
         <v>Indice salarial</v>
@@ -9412,7 +9425,7 @@
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>215</v>
       </c>
@@ -9481,10 +9494,10 @@
   <dimension ref="A1:Q195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C174" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C156" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E198" sqref="E198"/>
+      <selection pane="bottomRight" activeCell="K162" sqref="K162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11218,23 +11231,23 @@
       <c r="C94" s="119"/>
       <c r="D94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>399766959.49414086</v>
+        <v>391543182.04168999</v>
       </c>
       <c r="E94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>399766959.49414086</v>
+        <v>391543182.04168999</v>
       </c>
       <c r="F94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>399766959.49414086</v>
+        <v>391543182.04168999</v>
       </c>
       <c r="G94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>399766959.49414086</v>
+        <v>391543182.04168999</v>
       </c>
       <c r="H94" s="130">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>399766959.49414086</v>
+        <v>391543182.04168999</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -11333,27 +11346,27 @@
       </c>
       <c r="C98" s="119"/>
       <c r="D98" s="129">
-        <f>_DepensesPublicitaires_Select*_PIBPNB_Select</f>
+        <f t="shared" ref="D98:I98" si="54">_DepensesPublicitaires_Select*_PIBPNB_Select</f>
         <v>4797203.5139296902</v>
       </c>
       <c r="E98" s="129">
-        <f>_DepensesPublicitaires_Select*_PIBPNB_Select</f>
+        <f t="shared" si="54"/>
         <v>4797203.5139296902</v>
       </c>
       <c r="F98" s="129">
-        <f>_DepensesPublicitaires_Select*_PIBPNB_Select</f>
+        <f t="shared" si="54"/>
         <v>4797203.5139296902</v>
       </c>
       <c r="G98" s="129">
-        <f>_DepensesPublicitaires_Select*_PIBPNB_Select</f>
+        <f t="shared" si="54"/>
         <v>4797203.5139296902</v>
       </c>
       <c r="H98" s="130">
-        <f>_DepensesPublicitaires_Select*_PIBPNB_Select</f>
+        <f t="shared" si="54"/>
         <v>4797203.5139296902</v>
       </c>
-      <c r="I98" s="228">
-        <f>_DepensesPublicitaires_Select*_PIBPNB_Select</f>
+      <c r="I98" s="217">
+        <f t="shared" si="54"/>
         <v>4797203.5139296902</v>
       </c>
     </row>
@@ -11486,19 +11499,19 @@
         <v>1224429.0873649116</v>
       </c>
       <c r="E103" s="135">
-        <f t="shared" ref="E103:H103" si="54">E$85</f>
+        <f t="shared" ref="E103:H103" si="55">E$85</f>
         <v>1224429.0873649116</v>
       </c>
       <c r="F103" s="135">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>1224429.0873649116</v>
       </c>
       <c r="G103" s="135">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>1224429.0873649116</v>
       </c>
       <c r="H103" s="136">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>1224429.0873649116</v>
       </c>
     </row>
@@ -11544,19 +11557,19 @@
         <v>9898991.3779501561</v>
       </c>
       <c r="E105" s="112">
-        <f t="shared" ref="E105:H105" si="55">E$12</f>
+        <f t="shared" ref="E105:H105" si="56">E$12</f>
         <v>8185704.4086895529</v>
       </c>
       <c r="F105" s="112">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>5758547.8689036965</v>
       </c>
       <c r="G105" s="112">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>4033363.0734676714</v>
       </c>
       <c r="H105" s="134">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>3310570.133310854</v>
       </c>
     </row>
@@ -11570,23 +11583,23 @@
       <c r="C106" s="116"/>
       <c r="D106" s="153">
         <f>D93-SUM(D94:D105)</f>
-        <v>24969825.02044183</v>
+        <v>33193602.472892702</v>
       </c>
       <c r="E106" s="153">
         <f>E93-SUM(E94:E105)</f>
-        <v>26683111.989702404</v>
+        <v>34906889.442153275</v>
       </c>
       <c r="F106" s="153">
         <f>F93-SUM(F94:F105)</f>
-        <v>29110268.529488266</v>
+        <v>37334045.981939137</v>
       </c>
       <c r="G106" s="153">
         <f>G93-SUM(G94:G105)</f>
-        <v>30835453.32492429</v>
+        <v>39059230.777375162</v>
       </c>
       <c r="H106" s="154">
         <f>H93-SUM(H94:H105)</f>
-        <v>31558246.265081108</v>
+        <v>39782023.717531979</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -11599,23 +11612,23 @@
       <c r="C107" s="121"/>
       <c r="D107" s="132">
         <f>D106/D$93</f>
-        <v>5.2050793650794021E-2</v>
+        <v>6.9193650793651099E-2</v>
       </c>
       <c r="E107" s="132">
-        <f t="shared" ref="E107:H107" si="56">E106/E$93</f>
-        <v>5.5622222222222524E-2</v>
+        <f t="shared" ref="E107:H107" si="57">E106/E$93</f>
+        <v>7.2765079365079616E-2</v>
       </c>
       <c r="F107" s="132">
-        <f t="shared" si="56"/>
-        <v>6.068174603174635E-2</v>
+        <f t="shared" si="57"/>
+        <v>7.7824603174603435E-2</v>
       </c>
       <c r="G107" s="132">
-        <f t="shared" si="56"/>
-        <v>6.427797619047651E-2</v>
+        <f t="shared" si="57"/>
+        <v>8.1420833333333595E-2</v>
       </c>
       <c r="H107" s="133">
-        <f t="shared" si="56"/>
-        <v>6.578467261904794E-2</v>
+        <f t="shared" si="57"/>
+        <v>8.2927529761905025E-2</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -11633,23 +11646,23 @@
       <c r="C110" s="116"/>
       <c r="D110" s="117">
         <f>D106</f>
-        <v>24969825.02044183</v>
+        <v>33193602.472892702</v>
       </c>
       <c r="E110" s="117">
-        <f t="shared" ref="E110:H110" si="57">E106</f>
-        <v>26683111.989702404</v>
+        <f t="shared" ref="E110:H110" si="58">E106</f>
+        <v>34906889.442153275</v>
       </c>
       <c r="F110" s="117">
-        <f t="shared" si="57"/>
-        <v>29110268.529488266</v>
+        <f t="shared" si="58"/>
+        <v>37334045.981939137</v>
       </c>
       <c r="G110" s="117">
-        <f t="shared" si="57"/>
-        <v>30835453.32492429</v>
+        <f t="shared" si="58"/>
+        <v>39059230.777375162</v>
       </c>
       <c r="H110" s="118">
-        <f t="shared" si="57"/>
-        <v>31558246.265081108</v>
+        <f t="shared" si="58"/>
+        <v>39782023.717531979</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -11691,23 +11704,23 @@
       <c r="C112" s="121"/>
       <c r="D112" s="122">
         <f>D110-D111</f>
-        <v>24969825.02044183</v>
+        <v>33193602.472892702</v>
       </c>
       <c r="E112" s="122">
-        <f t="shared" ref="E112:H112" si="58">E110-E111</f>
-        <v>26683111.989702404</v>
+        <f t="shared" ref="E112:H112" si="59">E110-E111</f>
+        <v>34906889.442153275</v>
       </c>
       <c r="F112" s="122">
-        <f t="shared" si="58"/>
-        <v>29110268.529488266</v>
+        <f t="shared" si="59"/>
+        <v>37334045.981939137</v>
       </c>
       <c r="G112" s="122">
-        <f t="shared" si="58"/>
-        <v>30835453.32492429</v>
+        <f t="shared" si="59"/>
+        <v>39059230.777375162</v>
       </c>
       <c r="H112" s="123">
-        <f t="shared" si="58"/>
-        <v>31558246.265081108</v>
+        <f t="shared" si="59"/>
+        <v>39782023.717531979</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -11725,23 +11738,23 @@
       <c r="C115" s="116"/>
       <c r="D115" s="117">
         <f>D$112</f>
-        <v>24969825.02044183</v>
+        <v>33193602.472892702</v>
       </c>
       <c r="E115" s="117">
-        <f t="shared" ref="E115:H115" si="59">E$112</f>
-        <v>26683111.989702404</v>
+        <f t="shared" ref="E115:H115" si="60">E$112</f>
+        <v>34906889.442153275</v>
       </c>
       <c r="F115" s="117">
-        <f t="shared" si="59"/>
-        <v>29110268.529488266</v>
+        <f t="shared" si="60"/>
+        <v>37334045.981939137</v>
       </c>
       <c r="G115" s="117">
-        <f t="shared" si="59"/>
-        <v>30835453.32492429</v>
+        <f t="shared" si="60"/>
+        <v>39059230.777375162</v>
       </c>
       <c r="H115" s="118">
-        <f t="shared" si="59"/>
-        <v>31558246.265081108</v>
+        <f t="shared" si="60"/>
+        <v>39782023.717531979</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -11783,23 +11796,23 @@
       <c r="C117" s="121"/>
       <c r="D117" s="110">
         <f>D115*D116</f>
-        <v>7490947.5061325487</v>
+        <v>9958080.7418678105</v>
       </c>
       <c r="E117" s="110">
-        <f t="shared" ref="E117:H117" si="60">E115*E116</f>
-        <v>8004933.5969107207</v>
+        <f t="shared" ref="E117:H117" si="61">E115*E116</f>
+        <v>10472066.832645983</v>
       </c>
       <c r="F117" s="110">
-        <f t="shared" si="60"/>
-        <v>8733080.5588464793</v>
+        <f t="shared" si="61"/>
+        <v>11200213.794581741</v>
       </c>
       <c r="G117" s="110">
-        <f t="shared" si="60"/>
-        <v>9250635.9974772874</v>
+        <f t="shared" si="61"/>
+        <v>11717769.233212547</v>
       </c>
       <c r="H117" s="111">
-        <f t="shared" si="60"/>
-        <v>9467473.8795243315</v>
+        <f t="shared" si="61"/>
+        <v>11934607.115259593</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
@@ -11820,19 +11833,19 @@
         <v>479720351.39296907</v>
       </c>
       <c r="E120" s="117">
-        <f t="shared" ref="E120:H120" si="61">E$93</f>
+        <f t="shared" ref="E120:H120" si="62">E$93</f>
         <v>479720351.39296907</v>
       </c>
       <c r="F120" s="117">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>479720351.39296907</v>
       </c>
       <c r="G120" s="117">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>479720351.39296907</v>
       </c>
       <c r="H120" s="118">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>479720351.39296907</v>
       </c>
     </row>
@@ -11878,19 +11891,19 @@
         <v>3597902.6354472679</v>
       </c>
       <c r="E122" s="110">
-        <f t="shared" ref="E122" si="62">E120*E121</f>
+        <f t="shared" ref="E122" si="63">E120*E121</f>
         <v>3597902.6354472679</v>
       </c>
       <c r="F122" s="110">
-        <f t="shared" ref="F122" si="63">F120*F121</f>
+        <f t="shared" ref="F122" si="64">F120*F121</f>
         <v>3597902.6354472679</v>
       </c>
       <c r="G122" s="110">
-        <f t="shared" ref="G122" si="64">G120*G121</f>
+        <f t="shared" ref="G122" si="65">G120*G121</f>
         <v>3597902.6354472679</v>
       </c>
       <c r="H122" s="111">
-        <f t="shared" ref="H122" si="65">H120*H121</f>
+        <f t="shared" ref="H122" si="66">H120*H121</f>
         <v>3597902.6354472679</v>
       </c>
     </row>
@@ -11907,23 +11920,23 @@
       <c r="C125" s="116"/>
       <c r="D125" s="155">
         <f>IF(D$117&gt;D$122,D$117,D$122)</f>
-        <v>7490947.5061325487</v>
+        <v>9958080.7418678105</v>
       </c>
       <c r="E125" s="155">
         <f>IF(E$117&gt;E$122,E$117,E$122)</f>
-        <v>8004933.5969107207</v>
+        <v>10472066.832645983</v>
       </c>
       <c r="F125" s="155">
         <f>IF(F$117&gt;F$122,F$117,F$122)</f>
-        <v>8733080.5588464793</v>
+        <v>11200213.794581741</v>
       </c>
       <c r="G125" s="155">
         <f>IF(G$117&gt;G$122,G$117,G$122)</f>
-        <v>9250635.9974772874</v>
+        <v>11717769.233212547</v>
       </c>
       <c r="H125" s="156">
         <f>IF(H$117&gt;H$122,H$117,H$122)</f>
-        <v>9467473.8795243315</v>
+        <v>11934607.115259593</v>
       </c>
       <c r="M125" s="1">
         <v>0.1</v>
@@ -11939,27 +11952,27 @@
       <c r="C126" s="119"/>
       <c r="D126" s="113">
         <f>D$106</f>
-        <v>24969825.02044183</v>
+        <v>33193602.472892702</v>
       </c>
       <c r="E126" s="113">
-        <f t="shared" ref="E126:H126" si="66">E$106</f>
-        <v>26683111.989702404</v>
+        <f t="shared" ref="E126:H126" si="67">E$106</f>
+        <v>34906889.442153275</v>
       </c>
       <c r="F126" s="113">
-        <f t="shared" si="66"/>
-        <v>29110268.529488266</v>
+        <f t="shared" si="67"/>
+        <v>37334045.981939137</v>
       </c>
       <c r="G126" s="113">
-        <f t="shared" si="66"/>
-        <v>30835453.32492429</v>
+        <f t="shared" si="67"/>
+        <v>39059230.777375162</v>
       </c>
       <c r="H126" s="120">
-        <f t="shared" si="66"/>
-        <v>31558246.265081108</v>
+        <f t="shared" si="67"/>
+        <v>39782023.717531979</v>
       </c>
       <c r="I126" s="182">
         <f>D110-D125</f>
-        <v>17478877.51430928</v>
+        <v>23235521.731024891</v>
       </c>
       <c r="M126" s="1">
         <v>-10000</v>
@@ -11975,23 +11988,23 @@
       <c r="C127" s="121"/>
       <c r="D127" s="132">
         <f>D126/D$93</f>
-        <v>5.2050793650794021E-2</v>
+        <v>6.9193650793651099E-2</v>
       </c>
       <c r="E127" s="132">
-        <f t="shared" ref="E127:H127" si="67">E126/E$93</f>
-        <v>5.5622222222222524E-2</v>
+        <f t="shared" ref="E127:H127" si="68">E126/E$93</f>
+        <v>7.2765079365079616E-2</v>
       </c>
       <c r="F127" s="132">
-        <f t="shared" si="67"/>
-        <v>6.068174603174635E-2</v>
+        <f t="shared" si="68"/>
+        <v>7.7824603174603435E-2</v>
       </c>
       <c r="G127" s="132">
-        <f t="shared" si="67"/>
-        <v>6.427797619047651E-2</v>
+        <f t="shared" si="68"/>
+        <v>8.1420833333333595E-2</v>
       </c>
       <c r="H127" s="133">
-        <f t="shared" si="67"/>
-        <v>6.578467261904794E-2</v>
+        <f t="shared" si="68"/>
+        <v>8.2927529761905025E-2</v>
       </c>
       <c r="M127" s="1">
         <v>3000</v>
@@ -12020,23 +12033,23 @@
       <c r="C130" s="116"/>
       <c r="D130" s="117">
         <f>D126</f>
-        <v>24969825.02044183</v>
+        <v>33193602.472892702</v>
       </c>
       <c r="E130" s="117">
-        <f t="shared" ref="E130:H130" si="68">E126</f>
-        <v>26683111.989702404</v>
+        <f t="shared" ref="E130:H130" si="69">E126</f>
+        <v>34906889.442153275</v>
       </c>
       <c r="F130" s="117">
-        <f t="shared" si="68"/>
-        <v>29110268.529488266</v>
+        <f t="shared" si="69"/>
+        <v>37334045.981939137</v>
       </c>
       <c r="G130" s="117">
-        <f t="shared" si="68"/>
-        <v>30835453.32492429</v>
+        <f t="shared" si="69"/>
+        <v>39059230.777375162</v>
       </c>
       <c r="H130" s="118">
-        <f t="shared" si="68"/>
-        <v>31558246.265081108</v>
+        <f t="shared" si="69"/>
+        <v>39782023.717531979</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
@@ -12111,34 +12124,34 @@
       <c r="C133" s="121"/>
       <c r="D133" s="110">
         <f>D130*D131*D132</f>
-        <v>1248491.2510220916</v>
+        <v>1659680.1236446351</v>
       </c>
       <c r="E133" s="110">
-        <f t="shared" ref="E133:H133" si="69">E130*E131*E132</f>
-        <v>1334155.5994851203</v>
+        <f t="shared" ref="E133:H133" si="70">E130*E131*E132</f>
+        <v>1745344.4721076638</v>
       </c>
       <c r="F133" s="110">
-        <f t="shared" si="69"/>
-        <v>1455513.4264744134</v>
+        <f t="shared" si="70"/>
+        <v>1866702.2990969568</v>
       </c>
       <c r="G133" s="110">
-        <f t="shared" si="69"/>
-        <v>1541772.6662462146</v>
+        <f t="shared" si="70"/>
+        <v>1952961.5388687581</v>
       </c>
       <c r="H133" s="111">
-        <f t="shared" si="69"/>
-        <v>1577912.3132540556</v>
+        <f t="shared" si="70"/>
+        <v>1989101.185876599</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J134" s="212"/>
       <c r="L134" s="1">
         <f>(D141/1.08^0)+(E141/1.08^1)+(F141/1.08^2)+(G141/1.08^3)+(H141/1.08^4)</f>
-        <v>36692461.079509825</v>
+        <v>47331052.523289263</v>
       </c>
       <c r="M134" s="1">
         <f>L134/1.08</f>
-        <v>33974500.999546133</v>
+        <v>43825048.632675238</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
@@ -12206,19 +12219,19 @@
         <v>1224429.0873649116</v>
       </c>
       <c r="E140" s="117">
-        <f t="shared" ref="E140:H140" si="70">E$85</f>
+        <f t="shared" ref="E140:H140" si="71">E$85</f>
         <v>1224429.0873649116</v>
       </c>
       <c r="F140" s="117">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1224429.0873649116</v>
       </c>
       <c r="G140" s="117">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1224429.0873649116</v>
       </c>
       <c r="H140" s="117">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1224429.0873649116</v>
       </c>
       <c r="I140" s="162">
@@ -12255,27 +12268,27 @@
       <c r="C141" s="119"/>
       <c r="D141" s="113">
         <f>D125</f>
-        <v>7490947.5061325487</v>
+        <v>9958080.7418678105</v>
       </c>
       <c r="E141" s="113">
         <f>E125</f>
-        <v>8004933.5969107207</v>
+        <v>10472066.832645983</v>
       </c>
       <c r="F141" s="113">
         <f>F125</f>
-        <v>8733080.5588464793</v>
+        <v>11200213.794581741</v>
       </c>
       <c r="G141" s="113">
         <f>G125</f>
-        <v>9250635.9974772874</v>
+        <v>11717769.233212547</v>
       </c>
       <c r="H141" s="113">
         <f>H125</f>
-        <v>9467473.8795243315</v>
+        <v>11934607.115259593</v>
       </c>
       <c r="I141" s="163">
-        <f t="shared" ref="I141:I145" si="71">NPV(_TauxDActualisation_Select,D141:H141)</f>
-        <v>34446570.654837258</v>
+        <f t="shared" ref="I141:I145" si="72">NPV(_TauxDActualisation_Select,D141:H141)</f>
+        <v>44428307.764517143</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
@@ -12288,27 +12301,27 @@
       <c r="C142" s="119"/>
       <c r="D142" s="113">
         <f>D$133</f>
-        <v>1248491.2510220916</v>
+        <v>1659680.1236446351</v>
       </c>
       <c r="E142" s="113">
         <f>E$133</f>
-        <v>1334155.5994851203</v>
+        <v>1745344.4721076638</v>
       </c>
       <c r="F142" s="113">
-        <f t="shared" ref="F142:H142" si="72">F$133</f>
-        <v>1455513.4264744134</v>
+        <f t="shared" ref="F142:H142" si="73">F$133</f>
+        <v>1866702.2990969568</v>
       </c>
       <c r="G142" s="113">
+        <f t="shared" si="73"/>
+        <v>1952961.5388687581</v>
+      </c>
+      <c r="H142" s="113">
+        <f t="shared" si="73"/>
+        <v>1989101.185876599</v>
+      </c>
+      <c r="I142" s="163">
         <f t="shared" si="72"/>
-        <v>1541772.6662462146</v>
-      </c>
-      <c r="H142" s="113">
-        <f t="shared" si="72"/>
-        <v>1577912.3132540556</v>
-      </c>
-      <c r="I142" s="163">
-        <f t="shared" si="71"/>
-        <v>5741095.109139544</v>
+        <v>7404717.9607528578</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
@@ -12324,23 +12337,23 @@
         <v>376923.1332373328</v>
       </c>
       <c r="E143" s="113">
-        <f t="shared" ref="E143:H143" si="73">E$90</f>
+        <f t="shared" ref="E143:H143" si="74">E$90</f>
         <v>376923.1332373328</v>
       </c>
       <c r="F143" s="113">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>376923.1332373328</v>
       </c>
       <c r="G143" s="113">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>376923.1332373328</v>
       </c>
       <c r="H143" s="113">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>376923.1332373328</v>
       </c>
       <c r="I143" s="163">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1524987.6139788758</v>
       </c>
     </row>
@@ -12357,27 +12370,27 @@
         <v>0</v>
       </c>
       <c r="E144" s="113">
-        <f t="shared" ref="E144:H144" si="74">E$77</f>
+        <f t="shared" ref="E144:H144" si="75">E$77</f>
         <v>0</v>
       </c>
       <c r="F144" s="113">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="G144" s="113">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="H144" s="113">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I144" s="163">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="108" t="s">
         <v>267</v>
       </c>
@@ -12387,30 +12400,30 @@
       <c r="C145" s="121"/>
       <c r="D145" s="122">
         <f>SUM(D140:D144)</f>
-        <v>10340790.977756884</v>
+        <v>13219113.08611469</v>
       </c>
       <c r="E145" s="122">
         <f>SUM(E140:E144)</f>
-        <v>10940441.416998085</v>
+        <v>13818763.52535589</v>
       </c>
       <c r="F145" s="122">
         <f>SUM(F140:F144)</f>
-        <v>11789946.205923136</v>
+        <v>14668268.314280942</v>
       </c>
       <c r="G145" s="122">
         <f>SUM(G140:G144)</f>
-        <v>12393760.884325746</v>
+        <v>15272082.99268355</v>
       </c>
       <c r="H145" s="122">
         <f>SUM(H140:H144)</f>
-        <v>12646738.41338063</v>
+        <v>15525060.521738436</v>
       </c>
       <c r="I145" s="165">
-        <f t="shared" si="71"/>
-        <v>46666552.536093123</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="72"/>
+        <v>58311912.497386321</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="147" t="s">
         <v>300</v>
       </c>
@@ -12418,7 +12431,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="115" t="s">
         <v>54</v>
       </c>
@@ -12427,23 +12440,23 @@
       </c>
       <c r="C147" s="116"/>
       <c r="D147" s="117">
-        <f t="shared" ref="D147:H148" si="75">D140*D$136</f>
+        <f t="shared" ref="D147:H148" si="76">D140*D$136</f>
         <v>1224429.0873649116</v>
       </c>
       <c r="E147" s="117">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1139003.8021999176</v>
       </c>
       <c r="F147" s="117">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1059538.4206510864</v>
       </c>
       <c r="G147" s="117">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>985617.13548938266</v>
       </c>
       <c r="H147" s="117">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>916853.149292449</v>
       </c>
       <c r="I147" s="162">
@@ -12451,7 +12464,7 @@
         <v>5325441.5949977469</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="101" t="s">
         <v>288</v>
       </c>
@@ -12460,31 +12473,31 @@
       </c>
       <c r="C148" s="119"/>
       <c r="D148" s="113">
-        <f t="shared" si="75"/>
-        <v>7490947.5061325487</v>
+        <f t="shared" si="76"/>
+        <v>9958080.7418678105</v>
       </c>
       <c r="E148" s="113">
-        <f t="shared" si="75"/>
-        <v>7446449.8575913683</v>
+        <f t="shared" si="76"/>
+        <v>9741457.5187404491</v>
       </c>
       <c r="F148" s="113">
-        <f t="shared" si="75"/>
-        <v>7557019.412738977</v>
+        <f t="shared" si="76"/>
+        <v>9691910.2603195179</v>
       </c>
       <c r="G148" s="113">
-        <f t="shared" si="75"/>
-        <v>7446397.2208553525</v>
+        <f t="shared" si="76"/>
+        <v>9432342.1953488775</v>
       </c>
       <c r="H148" s="113">
-        <f t="shared" si="75"/>
-        <v>7089249.4566318104</v>
+        <f t="shared" si="76"/>
+        <v>8936640.130579276</v>
       </c>
       <c r="I148" s="163">
-        <f t="shared" ref="I148:I152" si="76">SUM(D148:H148)</f>
-        <v>37030063.453950055</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" ref="I148:I152" si="77">SUM(D148:H148)</f>
+        <v>47760430.846855938</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="101" t="s">
         <v>59</v>
       </c>
@@ -12493,31 +12506,31 @@
       </c>
       <c r="C149" s="119"/>
       <c r="D149" s="113">
-        <f t="shared" ref="D149:H149" si="77">D142*D$136</f>
-        <v>1248491.2510220916</v>
+        <f t="shared" ref="D149:H149" si="78">D142*D$136</f>
+        <v>1659680.1236446351</v>
       </c>
       <c r="E149" s="113">
         <f>E142*E$136</f>
-        <v>1241074.9762652281</v>
+        <v>1623576.2531234082</v>
       </c>
       <c r="F149" s="113">
+        <f t="shared" si="78"/>
+        <v>1615318.3767199195</v>
+      </c>
+      <c r="G149" s="113">
+        <f t="shared" si="78"/>
+        <v>1572057.0325581464</v>
+      </c>
+      <c r="H149" s="113">
+        <f t="shared" si="78"/>
+        <v>1489440.021763213</v>
+      </c>
+      <c r="I149" s="163">
         <f t="shared" si="77"/>
-        <v>1259503.2354564962</v>
-      </c>
-      <c r="G149" s="113">
-        <f t="shared" si="77"/>
-        <v>1241066.2034758921</v>
-      </c>
-      <c r="H149" s="113">
-        <f t="shared" si="77"/>
-        <v>1181541.576105302</v>
-      </c>
-      <c r="I149" s="163">
-        <f t="shared" si="76"/>
-        <v>6171677.2423250098</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7960071.8078093231</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="101" t="s">
         <v>60</v>
       </c>
@@ -12526,31 +12539,31 @@
       </c>
       <c r="C150" s="119"/>
       <c r="D150" s="113">
-        <f t="shared" ref="D150:H150" si="78">D143*D$136</f>
+        <f t="shared" ref="D150:H150" si="79">D143*D$136</f>
         <v>376923.1332373328</v>
       </c>
       <c r="E150" s="113">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>350626.17045333283</v>
       </c>
       <c r="F150" s="113">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>326163.87949147244</v>
       </c>
       <c r="G150" s="113">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>303408.25999206741</v>
       </c>
       <c r="H150" s="113">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>282240.24185308593</v>
       </c>
       <c r="I150" s="163">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1639361.6850272915</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" s="101" t="s">
         <v>61</v>
       </c>
@@ -12559,31 +12572,31 @@
       </c>
       <c r="C151" s="119"/>
       <c r="D151" s="113">
-        <f t="shared" ref="D151:H151" si="79">D144*D$136</f>
+        <f t="shared" ref="D151:H151" si="80">D144*D$136</f>
         <v>0</v>
       </c>
       <c r="E151" s="113">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="F151" s="113">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="G151" s="113">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="H151" s="113">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="I151" s="163">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" s="108" t="s">
         <v>267</v>
       </c>
@@ -12593,40 +12606,62 @@
       <c r="C152" s="121"/>
       <c r="D152" s="122">
         <f>SUM(D147:D151)</f>
-        <v>10340790.977756884</v>
+        <v>13219113.08611469</v>
       </c>
       <c r="E152" s="122">
-        <f t="shared" ref="E152" si="80">SUM(E147:E151)</f>
-        <v>10177154.806509845</v>
+        <f t="shared" ref="E152" si="81">SUM(E147:E151)</f>
+        <v>12854663.744517107</v>
       </c>
       <c r="F152" s="122">
-        <f t="shared" ref="F152" si="81">SUM(F147:F151)</f>
-        <v>10202224.948338032</v>
+        <f t="shared" ref="F152" si="82">SUM(F147:F151)</f>
+        <v>12692930.937181996</v>
       </c>
       <c r="G152" s="122">
-        <f t="shared" ref="G152" si="82">SUM(G147:G151)</f>
-        <v>9976488.8198126946</v>
+        <f t="shared" ref="G152" si="83">SUM(G147:G151)</f>
+        <v>12293424.623388473</v>
       </c>
       <c r="H152" s="122">
-        <f t="shared" ref="H152" si="83">SUM(H147:H151)</f>
-        <v>9469884.4238826483</v>
+        <f t="shared" ref="H152" si="84">SUM(H147:H151)</f>
+        <v>11625173.543488024</v>
       </c>
       <c r="I152" s="165">
-        <f t="shared" si="76"/>
-        <v>50166543.976300105</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="77"/>
+        <v>62685305.934690297</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M153" s="182">
+        <f>SUM(D140:D144)</f>
+        <v>13219113.08611469</v>
+      </c>
+      <c r="N153" s="182">
+        <f t="shared" ref="N153:Q153" si="85">SUM(E140:E144)</f>
+        <v>13818763.52535589</v>
+      </c>
+      <c r="O153" s="182">
+        <f t="shared" si="85"/>
+        <v>14668268.314280942</v>
+      </c>
+      <c r="P153" s="182">
+        <f t="shared" si="85"/>
+        <v>15272082.99268355</v>
+      </c>
+      <c r="Q153" s="182">
+        <f t="shared" si="85"/>
+        <v>15525060.521738436</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" s="152" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="115" t="s">
         <v>54</v>
       </c>
@@ -12635,31 +12670,51 @@
       </c>
       <c r="C156" s="116"/>
       <c r="D156" s="166">
-        <f t="shared" ref="D156:I161" si="84">D140/D$171</f>
-        <v>3.3924050632911366E-2</v>
+        <f t="shared" ref="D156:I161" si="86">D140/D$171</f>
+        <v>2.7628865979381443E-2</v>
       </c>
       <c r="E156" s="166">
-        <f t="shared" si="84"/>
-        <v>3.3924050632911366E-2</v>
+        <f t="shared" si="86"/>
+        <v>2.7628865979381443E-2</v>
       </c>
       <c r="F156" s="166">
-        <f t="shared" si="84"/>
-        <v>3.3924050632911366E-2</v>
+        <f t="shared" si="86"/>
+        <v>2.7628865979381443E-2</v>
       </c>
       <c r="G156" s="166">
-        <f t="shared" si="84"/>
-        <v>3.3924050632911366E-2</v>
+        <f t="shared" si="86"/>
+        <v>2.7628865979381443E-2</v>
       </c>
       <c r="H156" s="166">
-        <f t="shared" si="84"/>
-        <v>3.3924050632911366E-2</v>
+        <f t="shared" si="86"/>
+        <v>2.7628865979381443E-2</v>
       </c>
       <c r="I156" s="168">
-        <f t="shared" si="84"/>
-        <v>3.3924050632911366E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="86"/>
+        <v>7.6117289868924506E-2</v>
+      </c>
+      <c r="M156" s="182">
+        <f>M153/((1+_TauxDActualisation_Select)^D1)</f>
+        <v>12296849.382432271</v>
+      </c>
+      <c r="N156" s="182">
+        <f>N153/((1+_TauxDActualisation_Select)^E1)</f>
+        <v>11957826.739085682</v>
+      </c>
+      <c r="O156" s="182">
+        <f>O153/((1+_TauxDActualisation_Select)^F1)</f>
+        <v>11807377.615983251</v>
+      </c>
+      <c r="P156" s="182">
+        <f>P153/((1+_TauxDActualisation_Select)^G1)</f>
+        <v>11435743.835710207</v>
+      </c>
+      <c r="Q156" s="182">
+        <f>Q153/((1+_TauxDActualisation_Select)^H1)</f>
+        <v>10814114.924174907</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="101" t="s">
         <v>288</v>
       </c>
@@ -12668,31 +12723,35 @@
       </c>
       <c r="C157" s="119"/>
       <c r="D157" s="167">
-        <f t="shared" si="84"/>
-        <v>0.20754430379746966</v>
+        <f t="shared" si="86"/>
+        <v>0.22470103092783605</v>
       </c>
       <c r="E157" s="167">
-        <f t="shared" si="84"/>
-        <v>0.22178481012658333</v>
+        <f t="shared" si="86"/>
+        <v>0.23629896907216574</v>
       </c>
       <c r="F157" s="167">
-        <f t="shared" si="84"/>
-        <v>0.24195886075949474</v>
+        <f t="shared" si="86"/>
+        <v>0.25272938144329982</v>
       </c>
       <c r="G157" s="167">
-        <f t="shared" si="84"/>
-        <v>0.25629825949367196</v>
+        <f t="shared" si="86"/>
+        <v>0.2644078608247431</v>
       </c>
       <c r="H157" s="167">
-        <f t="shared" si="84"/>
-        <v>0.26230597310126685</v>
+        <f t="shared" si="86"/>
+        <v>0.26930074097938228</v>
       </c>
       <c r="I157" s="169">
         <f>I141/I$171</f>
-        <v>0.23588837191110981</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.68264659262240857</v>
+      </c>
+      <c r="M157" s="182">
+        <f>SUM(M156:Q156)</f>
+        <v>58311912.497386314</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="101" t="s">
         <v>59</v>
       </c>
@@ -12701,31 +12760,39 @@
       </c>
       <c r="C158" s="119"/>
       <c r="D158" s="167">
-        <f t="shared" si="84"/>
-        <v>3.4590717299578279E-2</v>
+        <f t="shared" si="86"/>
+        <v>3.7450171821306014E-2</v>
       </c>
       <c r="E158" s="167">
-        <f t="shared" si="84"/>
-        <v>3.6964135021097223E-2</v>
+        <f t="shared" si="86"/>
+        <v>3.9383161512027628E-2</v>
       </c>
       <c r="F158" s="167">
-        <f t="shared" si="84"/>
-        <v>4.0326476793249126E-2</v>
+        <f t="shared" si="86"/>
+        <v>4.2121563573883303E-2</v>
       </c>
       <c r="G158" s="167">
-        <f t="shared" si="84"/>
-        <v>4.2716376582278663E-2</v>
+        <f t="shared" si="86"/>
+        <v>4.4067976804123853E-2</v>
       </c>
       <c r="H158" s="167">
-        <f t="shared" si="84"/>
-        <v>4.371766218354449E-2</v>
+        <f t="shared" si="86"/>
+        <v>4.4883456829897049E-2</v>
       </c>
       <c r="I158" s="169">
-        <f t="shared" si="84"/>
-        <v>3.9314728651851642E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="86"/>
+        <v>0.11377443210373477</v>
+      </c>
+      <c r="K158" s="182">
+        <f>C172+M157</f>
+        <v>-55907218.786653943</v>
+      </c>
+      <c r="M158" s="215">
+        <f>K158/I171</f>
+        <v>-0.85902151866755005</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="101" t="s">
         <v>60</v>
       </c>
@@ -12734,31 +12801,31 @@
       </c>
       <c r="C159" s="119"/>
       <c r="D159" s="167">
-        <f t="shared" si="84"/>
-        <v>1.0443037974683536E-2</v>
+        <f t="shared" si="86"/>
+        <v>8.505154639175257E-3</v>
       </c>
       <c r="E159" s="167">
-        <f t="shared" si="84"/>
-        <v>1.0443037974683536E-2</v>
+        <f t="shared" si="86"/>
+        <v>8.505154639175257E-3</v>
       </c>
       <c r="F159" s="167">
-        <f t="shared" si="84"/>
-        <v>1.0443037974683536E-2</v>
+        <f t="shared" si="86"/>
+        <v>8.505154639175257E-3</v>
       </c>
       <c r="G159" s="167">
-        <f t="shared" si="84"/>
-        <v>1.0443037974683536E-2</v>
+        <f t="shared" si="86"/>
+        <v>8.505154639175257E-3</v>
       </c>
       <c r="H159" s="167">
-        <f t="shared" si="84"/>
-        <v>1.0443037974683536E-2</v>
+        <f t="shared" si="86"/>
+        <v>8.505154639175257E-3</v>
       </c>
       <c r="I159" s="169">
-        <f t="shared" si="84"/>
-        <v>1.0443037974683536E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="86"/>
+        <v>2.3431628411142807E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="101" t="s">
         <v>61</v>
       </c>
@@ -12767,27 +12834,27 @@
       </c>
       <c r="C160" s="119"/>
       <c r="D160" s="167">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="E160" s="167">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="F160" s="167">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="G160" s="167">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="H160" s="167">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="I160" s="169">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
     </row>
@@ -12800,34 +12867,45 @@
       </c>
       <c r="C161" s="121"/>
       <c r="D161" s="170">
-        <f t="shared" si="84"/>
-        <v>0.28650210970464285</v>
+        <f t="shared" si="86"/>
+        <v>0.29828522336769875</v>
       </c>
       <c r="E161" s="170">
-        <f t="shared" si="84"/>
-        <v>0.3031160337552754</v>
+        <f t="shared" si="86"/>
+        <v>0.31181615120275008</v>
       </c>
       <c r="F161" s="170">
-        <f t="shared" si="84"/>
-        <v>0.32665242616033874</v>
+        <f t="shared" si="86"/>
+        <v>0.33098496563573981</v>
       </c>
       <c r="G161" s="170">
-        <f t="shared" si="84"/>
-        <v>0.34338172468354555</v>
+        <f t="shared" si="86"/>
+        <v>0.34460985824742368</v>
       </c>
       <c r="H161" s="170">
-        <f t="shared" si="84"/>
-        <v>0.35039072389240622</v>
+        <f t="shared" si="86"/>
+        <v>0.350318218427836</v>
       </c>
       <c r="I161" s="171">
-        <f t="shared" si="84"/>
-        <v>0.31957018917055641</v>
+        <f t="shared" si="86"/>
+        <v>0.8959699430062108</v>
+      </c>
+      <c r="J161" s="216">
+        <f>I171-I179</f>
+        <v>58311912.497386336</v>
+      </c>
+      <c r="K161" s="230">
+        <f>J161/I171</f>
+        <v>0.89596994300621102</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="147" t="s">
         <v>300</v>
       </c>
+      <c r="K162" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="115" t="s">
@@ -12838,48 +12916,48 @@
       </c>
       <c r="C163" s="116"/>
       <c r="D163" s="166">
-        <f t="shared" ref="D163:I168" si="85">D147/D$172</f>
-        <v>3.3924050632911366E-2</v>
+        <f t="shared" ref="D163:I168" si="87">D147/D$172</f>
+        <v>2.7628865979381443E-2</v>
       </c>
       <c r="E163" s="166">
-        <f t="shared" si="85"/>
-        <v>3.3924050632911366E-2</v>
+        <f t="shared" si="87"/>
+        <v>2.7628865979381443E-2</v>
       </c>
       <c r="F163" s="166">
-        <f t="shared" si="85"/>
-        <v>3.3924050632911366E-2</v>
+        <f t="shared" si="87"/>
+        <v>2.7628865979381446E-2</v>
       </c>
       <c r="G163" s="166">
-        <f t="shared" si="85"/>
-        <v>3.3924050632911366E-2</v>
+        <f t="shared" si="87"/>
+        <v>2.7628865979381443E-2</v>
       </c>
       <c r="H163" s="166">
-        <f t="shared" si="85"/>
-        <v>3.3924050632911366E-2</v>
+        <f t="shared" si="87"/>
+        <v>2.7628865979381443E-2</v>
       </c>
       <c r="I163" s="168">
-        <f t="shared" si="85"/>
-        <v>0.12453628199283934</v>
+        <f t="shared" si="87"/>
+        <v>6.7814051619584467E-2</v>
       </c>
       <c r="L163" s="1">
         <f>D171*M140</f>
-        <v>36093245.485756747</v>
+        <v>44317022.938207619</v>
       </c>
       <c r="M163" s="1">
-        <f t="shared" ref="M163:P163" si="86">E171*N140</f>
-        <v>33566718.301753774</v>
+        <f t="shared" ref="M163:P163" si="88">E171*N140</f>
+        <v>41214831.332533091</v>
       </c>
       <c r="N163" s="1">
-        <f t="shared" si="86"/>
-        <v>31220657.345179588</v>
+        <f t="shared" si="88"/>
+        <v>38334224.84154959</v>
       </c>
       <c r="O163" s="1">
-        <f t="shared" si="86"/>
-        <v>29055062.616034184</v>
+        <f t="shared" si="88"/>
+        <v>35675203.465257138</v>
       </c>
       <c r="P163" s="1">
-        <f t="shared" si="86"/>
-        <v>27033840.868831802</v>
+        <f t="shared" si="88"/>
+        <v>33193450.180717506</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
@@ -12891,28 +12969,28 @@
       </c>
       <c r="C164" s="119"/>
       <c r="D164" s="167">
-        <f t="shared" si="85"/>
-        <v>0.20754430379746966</v>
+        <f t="shared" si="87"/>
+        <v>0.22470103092783605</v>
       </c>
       <c r="E164" s="167">
-        <f t="shared" si="85"/>
-        <v>0.22178481012658333</v>
+        <f t="shared" si="87"/>
+        <v>0.23629896907216577</v>
       </c>
       <c r="F164" s="167">
-        <f t="shared" si="85"/>
-        <v>0.24195886075949474</v>
+        <f t="shared" si="87"/>
+        <v>0.25272938144329987</v>
       </c>
       <c r="G164" s="167">
-        <f t="shared" si="85"/>
-        <v>0.25629825949367196</v>
+        <f t="shared" si="87"/>
+        <v>0.2644078608247431</v>
       </c>
       <c r="H164" s="167">
-        <f t="shared" si="85"/>
-        <v>0.26230597310126685</v>
+        <f t="shared" si="87"/>
+        <v>0.26930074097938228</v>
       </c>
       <c r="I164" s="169">
-        <f t="shared" si="85"/>
-        <v>0.86595380725714444</v>
+        <f t="shared" si="87"/>
+        <v>0.6081802353939163</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
@@ -12924,28 +13002,28 @@
       </c>
       <c r="C165" s="119"/>
       <c r="D165" s="167">
-        <f t="shared" si="85"/>
-        <v>3.4590717299578279E-2</v>
+        <f t="shared" si="87"/>
+        <v>3.7450171821306014E-2</v>
       </c>
       <c r="E165" s="167">
-        <f t="shared" si="85"/>
-        <v>3.6964135021097223E-2</v>
+        <f t="shared" si="87"/>
+        <v>3.9383161512027628E-2</v>
       </c>
       <c r="F165" s="167">
-        <f t="shared" si="85"/>
-        <v>4.0326476793249126E-2</v>
+        <f t="shared" si="87"/>
+        <v>4.2121563573883303E-2</v>
       </c>
       <c r="G165" s="167">
-        <f t="shared" si="85"/>
-        <v>4.2716376582278663E-2</v>
+        <f t="shared" si="87"/>
+        <v>4.406797680412386E-2</v>
       </c>
       <c r="H165" s="167">
-        <f t="shared" si="85"/>
-        <v>4.371766218354449E-2</v>
+        <f t="shared" si="87"/>
+        <v>4.4883456829897056E-2</v>
       </c>
       <c r="I165" s="169">
-        <f t="shared" si="85"/>
-        <v>0.14432563454285741</v>
+        <f t="shared" si="87"/>
+        <v>0.10136337256565273</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
@@ -12957,32 +13035,32 @@
       </c>
       <c r="C166" s="119"/>
       <c r="D166" s="167">
-        <f t="shared" si="85"/>
-        <v>1.0443037974683536E-2</v>
+        <f t="shared" si="87"/>
+        <v>8.505154639175257E-3</v>
       </c>
       <c r="E166" s="167">
-        <f t="shared" si="85"/>
-        <v>1.0443037974683536E-2</v>
+        <f t="shared" si="87"/>
+        <v>8.505154639175257E-3</v>
       </c>
       <c r="F166" s="167">
-        <f t="shared" si="85"/>
-        <v>1.0443037974683536E-2</v>
+        <f t="shared" si="87"/>
+        <v>8.505154639175257E-3</v>
       </c>
       <c r="G166" s="167">
-        <f t="shared" si="85"/>
-        <v>1.0443037974683536E-2</v>
+        <f t="shared" si="87"/>
+        <v>8.505154639175257E-3</v>
       </c>
       <c r="H166" s="167">
-        <f t="shared" si="85"/>
-        <v>1.0443037974683536E-2</v>
+        <f t="shared" si="87"/>
+        <v>8.505154639175257E-3</v>
       </c>
       <c r="I166" s="169">
-        <f t="shared" si="85"/>
-        <v>3.833672859854196E-2</v>
+        <f t="shared" si="87"/>
+        <v>2.0875594248566113E-2</v>
       </c>
       <c r="K166" s="167">
         <f>((L171-I179)/I171)</f>
-        <v>9.4639086148413196E-2</v>
+        <v>-0.10403005699378902</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
@@ -12994,27 +13072,27 @@
       </c>
       <c r="C167" s="119"/>
       <c r="D167" s="167">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="E167" s="167">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="F167" s="167">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="G167" s="167">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H167" s="167">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="I167" s="169">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
     </row>
@@ -13027,28 +13105,28 @@
       </c>
       <c r="C168" s="121"/>
       <c r="D168" s="170">
-        <f t="shared" si="85"/>
-        <v>0.28650210970464285</v>
+        <f t="shared" si="87"/>
+        <v>0.29828522336769875</v>
       </c>
       <c r="E168" s="170">
-        <f t="shared" si="85"/>
-        <v>0.3031160337552754</v>
+        <f t="shared" si="87"/>
+        <v>0.31181615120275008</v>
       </c>
       <c r="F168" s="170">
-        <f t="shared" si="85"/>
-        <v>0.32665242616033879</v>
+        <f t="shared" si="87"/>
+        <v>0.33098496563573987</v>
       </c>
       <c r="G168" s="170">
-        <f t="shared" si="85"/>
-        <v>0.34338172468354555</v>
+        <f t="shared" si="87"/>
+        <v>0.34460985824742368</v>
       </c>
       <c r="H168" s="170">
-        <f t="shared" si="85"/>
-        <v>0.35039072389240628</v>
+        <f t="shared" si="87"/>
+        <v>0.350318218427836</v>
       </c>
       <c r="I168" s="171">
-        <f t="shared" si="85"/>
-        <v>1.1731524523913832</v>
+        <f t="shared" si="87"/>
+        <v>0.79823325382771959</v>
       </c>
       <c r="N168" s="1">
         <f>2^4</f>
@@ -13072,9 +13150,9 @@
       <c r="I170" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="K170" s="225">
+      <c r="K170" s="214">
         <f>(I171-I179)/I171</f>
-        <v>1.0946390861484132</v>
+        <v>0.89596994300621102</v>
       </c>
       <c r="O170" s="1">
         <f>(4/2)^4</f>
@@ -13094,27 +13172,27 @@
       </c>
       <c r="D171" s="117">
         <f>D$93-D$94-D$95-D$97-D$98-D$99-D$100-D$101-D$102-D$104</f>
-        <v>36093245.485756747</v>
+        <v>44317022.938207619</v>
       </c>
       <c r="E171" s="117">
-        <f t="shared" ref="E171:G171" si="87">E$93-E$94-E$95-E$97-E$98-E$99-E$100-E$101-E$102-E$104</f>
-        <v>36093245.485756747</v>
+        <f t="shared" ref="E171:G171" si="89">E$93-E$94-E$95-E$97-E$98-E$99-E$100-E$101-E$102-E$104</f>
+        <v>44317022.938207619</v>
       </c>
       <c r="F171" s="117">
-        <f t="shared" si="87"/>
-        <v>36093245.485756747</v>
+        <f t="shared" si="89"/>
+        <v>44317022.938207619</v>
       </c>
       <c r="G171" s="117">
-        <f t="shared" si="87"/>
-        <v>36093245.485756747</v>
+        <f t="shared" si="89"/>
+        <v>44317022.938207619</v>
       </c>
       <c r="H171" s="117">
         <f>H$93-H$94-H$95-H$97-H$98-H$99-H$100-H$101-H$102-H$104</f>
-        <v>36093245.485756747</v>
+        <v>44317022.938207619</v>
       </c>
       <c r="I171" s="162">
-        <f>NPV(_TauxDActualisation_Select,D171:H171)</f>
-        <v>146029116.97494701</v>
+        <f>NPV(_TauxDActualisation_Select,D171:H171)+C171</f>
+        <v>65082442.723173037</v>
       </c>
       <c r="J171" s="182"/>
       <c r="K171" s="1">
@@ -13139,27 +13217,27 @@
       </c>
       <c r="D172" s="135">
         <f>D171*D$136</f>
-        <v>36093245.485756747</v>
+        <v>44317022.938207619</v>
       </c>
       <c r="E172" s="135">
         <f>E171*E$136</f>
-        <v>33575112.079773717</v>
+        <v>41225137.616937317</v>
       </c>
       <c r="F172" s="135">
         <f>F171*F$136</f>
-        <v>31232662.399789508</v>
+        <v>38348965.225057974</v>
       </c>
       <c r="G172" s="135">
         <f>G171*G$136</f>
-        <v>29053639.441664662</v>
+        <v>35673456.023309745</v>
       </c>
       <c r="H172" s="135">
         <f>H171*H$136</f>
-        <v>27026641.341083404</v>
+        <v>33184610.254241623</v>
       </c>
       <c r="I172" s="164">
         <f>SUM(C172:H172)</f>
-        <v>42762169.464027777</v>
+        <v>78530060.773714006</v>
       </c>
       <c r="K172" s="1">
         <f>K171/176945019</f>
@@ -13167,8 +13245,36 @@
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I173" s="6" t="s">
-        <v>303</v>
+      <c r="C173" s="229">
+        <f>C171</f>
+        <v>-114219131.28404026</v>
+      </c>
+      <c r="D173" s="6">
+        <f>D171/(1+K173)</f>
+        <v>41225137.616937324</v>
+      </c>
+      <c r="E173" s="6">
+        <f>E171/(1+K173)^2</f>
+        <v>38348965.225057974</v>
+      </c>
+      <c r="F173" s="6">
+        <f>F171/(1+K173)^3</f>
+        <v>35673456.023309745</v>
+      </c>
+      <c r="G173" s="6">
+        <f>G171/(1+K173)^4</f>
+        <v>33184610.254241623</v>
+      </c>
+      <c r="H173" s="6">
+        <f>H171/(1+K173)^5</f>
+        <v>30869404.887666624</v>
+      </c>
+      <c r="I173" s="6">
+        <f>SUM(C173:H173)</f>
+        <v>65082442.723173037</v>
+      </c>
+      <c r="K173" s="1">
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
@@ -13178,6 +13284,10 @@
       <c r="I174" s="6" t="s">
         <v>302</v>
       </c>
+      <c r="L174" s="216">
+        <f>I171-I179</f>
+        <v>58311912.497386336</v>
+      </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" s="96" t="s">
@@ -13192,27 +13302,30 @@
       </c>
       <c r="D175" s="117">
         <f>D$171-D141</f>
-        <v>28602297.979624197</v>
+        <v>34358942.196339808</v>
       </c>
       <c r="E175" s="117">
-        <f t="shared" ref="E175:H175" si="88">E$171-E141</f>
-        <v>28088311.888846025</v>
+        <f t="shared" ref="E175:H175" si="90">E$171-E141</f>
+        <v>33844956.105561636</v>
       </c>
       <c r="F175" s="117">
-        <f t="shared" si="88"/>
-        <v>27360164.926910266</v>
+        <f t="shared" si="90"/>
+        <v>33116809.143625878</v>
       </c>
       <c r="G175" s="117">
-        <f t="shared" si="88"/>
-        <v>26842609.488279462</v>
+        <f t="shared" si="90"/>
+        <v>32599253.704995073</v>
       </c>
       <c r="H175" s="117">
-        <f t="shared" si="88"/>
-        <v>26625771.606232416</v>
+        <f t="shared" si="90"/>
+        <v>32382415.822948024</v>
       </c>
       <c r="I175" s="162">
-        <f>NPV(_TauxDActualisation_Select,C175:H175)</f>
-        <v>-2452637.1757493117</v>
+        <f>NPV(_TauxDActualisation_Select,D175:H175)+C175</f>
+        <v>20654134.958655909</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
@@ -13228,33 +13341,41 @@
       </c>
       <c r="D176" s="135">
         <f>D$172-D148</f>
-        <v>28602297.979624197</v>
+        <v>34358942.196339808</v>
       </c>
       <c r="E176" s="135">
-        <f t="shared" ref="E176:H176" si="89">E$172-E148</f>
-        <v>26128662.222182348</v>
+        <f t="shared" ref="E176:H176" si="91">E$172-E148</f>
+        <v>31483680.098196868</v>
       </c>
       <c r="F176" s="135">
-        <f t="shared" si="89"/>
-        <v>23675642.987050533</v>
+        <f t="shared" si="91"/>
+        <v>28657054.964738458</v>
       </c>
       <c r="G176" s="135">
-        <f t="shared" si="89"/>
-        <v>21607242.220809311</v>
+        <f t="shared" si="91"/>
+        <v>26241113.827960867</v>
       </c>
       <c r="H176" s="135">
-        <f t="shared" si="89"/>
-        <v>19937391.884451594</v>
+        <f t="shared" si="91"/>
+        <v>24247970.123662345</v>
       </c>
       <c r="I176" s="164">
         <f>SUM(C176:H176)</f>
-        <v>5732106.0100777261</v>
+        <v>30769629.926858079</v>
+      </c>
+      <c r="K176" s="216">
+        <f>I171-I179</f>
+        <v>58311912.497386336</v>
       </c>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I177" s="6" t="s">
         <v>303</v>
       </c>
+      <c r="K177" s="215">
+        <f>K176/I171</f>
+        <v>0.89596994300621102</v>
+      </c>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" s="152" t="s">
@@ -13265,23 +13386,23 @@
       </c>
       <c r="M178" s="1">
         <f>D171/((1+_TauxDActualisation_Select)^D1)</f>
-        <v>33575112.079773717</v>
+        <v>41225137.616937324</v>
       </c>
       <c r="N178" s="1">
         <f>E171/((1+_TauxDActualisation_Select)^E1)</f>
-        <v>31232662.399789508</v>
+        <v>38348965.225057974</v>
       </c>
       <c r="O178" s="1">
         <f>F171/((1+_TauxDActualisation_Select)^F1)</f>
-        <v>29053639.441664658</v>
+        <v>35673456.023309745</v>
       </c>
       <c r="P178" s="1">
         <f>G171/((1+_TauxDActualisation_Select)^G1)</f>
-        <v>27026641.341083404</v>
+        <v>33184610.254241623</v>
       </c>
       <c r="Q178" s="1">
         <f>H171/((1+_TauxDActualisation_Select)^H1)</f>
-        <v>25141061.712635726</v>
+        <v>30869404.887666624</v>
       </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.2">
@@ -13297,31 +13418,31 @@
       </c>
       <c r="D179" s="117">
         <f>D$171-D$145</f>
-        <v>25752454.507999863</v>
+        <v>31097909.852092929</v>
       </c>
       <c r="E179" s="117">
         <f>E$171-E$145</f>
-        <v>25152804.068758663</v>
+        <v>30498259.412851728</v>
       </c>
       <c r="F179" s="117">
         <f>F$171-F$145</f>
-        <v>24303299.279833611</v>
+        <v>29648754.623926677</v>
       </c>
       <c r="G179" s="117">
         <f>G$171-G$145</f>
-        <v>23699484.601431001</v>
+        <v>29044939.945524067</v>
       </c>
       <c r="H179" s="117">
         <f>H$171-H$145</f>
-        <v>23446507.072376117</v>
+        <v>28791962.416469183</v>
       </c>
       <c r="I179" s="162">
-        <f>NPV(_TauxDActualisation_Select,C179:H179)</f>
-        <v>-13820062.181568718</v>
+        <f>NPV(_TauxDActualisation_Select,D179:H179)+C179</f>
+        <v>6770530.2257867008</v>
       </c>
       <c r="M179" s="1">
         <f>SUM(M178:Q178)</f>
-        <v>146029116.97494701</v>
+        <v>179301574.00721326</v>
       </c>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.2">
@@ -13337,35 +13458,35 @@
       </c>
       <c r="D180" s="135">
         <f>D$172-D$152</f>
-        <v>25752454.507999863</v>
+        <v>31097909.852092929</v>
       </c>
       <c r="E180" s="135">
         <f>E$172-E$152</f>
-        <v>23397957.273263872</v>
+        <v>28370473.87242021</v>
       </c>
       <c r="F180" s="135">
         <f>F$172-F$152</f>
-        <v>21030437.451451477</v>
+        <v>25656034.28787598</v>
       </c>
       <c r="G180" s="135">
         <f>G$172-G$152</f>
-        <v>19077150.621851966</v>
+        <v>23380031.399921272</v>
       </c>
       <c r="H180" s="135">
         <f>H$172-H$152</f>
-        <v>17556756.917200755</v>
+        <v>21559436.710753597</v>
       </c>
       <c r="I180" s="164">
         <f>SUM(C180:H180)</f>
-        <v>-7404374.512272317</v>
+        <v>15844754.839023735</v>
       </c>
       <c r="K180" s="1">
         <f>_TauxDActualisation_Select</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="M180" s="182">
-        <f>-C171+M179</f>
-        <v>260248248.25898725</v>
+        <f>C171+M179</f>
+        <v>65082442.723173007</v>
       </c>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.2">
@@ -13374,7 +13495,7 @@
       </c>
       <c r="K181" s="1">
         <f>C179+(D179/(1.08^D1))+(E179/(1.08)^E1)+(F179/(1.08)^F1)+(G179/(1.08)^G1)+(H179/(1.08)^H1)</f>
-        <v>-16139920.679235701</v>
+        <v>5202932.5258773863</v>
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
@@ -13383,7 +13504,7 @@
       </c>
       <c r="K182" s="1">
         <f>K181/1.08</f>
-        <v>-14944370.999292314</v>
+        <v>4817530.1165531352</v>
       </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.2">
@@ -13404,45 +13525,45 @@
       </c>
       <c r="F183" s="179">
         <f>MAX(0,IRR($C171:F171))</f>
-        <v>0</v>
+        <v>7.9952133396201663E-2</v>
       </c>
       <c r="G183" s="179">
         <f>MAX(0,IRR($C171:G171))</f>
-        <v>0.10077469154361962</v>
+        <v>0.20233530726565263</v>
       </c>
       <c r="H183" s="180">
         <f>MAX(0,IRR($C171:H171))</f>
-        <v>0.17477335350611423</v>
+        <v>0.27104086031152019</v>
       </c>
       <c r="K183" s="182">
         <f>SUM(C180:H180)</f>
-        <v>-7404374.512272317</v>
+        <v>15844754.839023735</v>
       </c>
       <c r="M183" s="1">
         <f>D179/((1+_TauxDActualisation_Select)^D1)</f>
-        <v>23955771.635348711</v>
+        <v>28928288.23450505</v>
       </c>
       <c r="N183" s="1">
         <f>E179/((1+_TauxDActualisation_Select)^E1)</f>
-        <v>21765541.649547789</v>
+        <v>26391138.485972293</v>
       </c>
       <c r="O183" s="1">
         <f>F179/((1+_TauxDActualisation_Select)^F1)</f>
-        <v>19563197.629257187</v>
+        <v>23866078.407326493</v>
       </c>
       <c r="P183" s="1">
         <f>G179/((1+_TauxDActualisation_Select)^G1)</f>
-        <v>17746186.624978572</v>
+        <v>21748866.418531414</v>
       </c>
       <c r="Q183" s="1">
         <f>H179/((1+_TauxDActualisation_Select)^H1)</f>
-        <v>16331866.899721634</v>
+        <v>20055289.963491719</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="M184" s="1">
         <f>SUM(M183:Q183)</f>
-        <v>99362564.438853905</v>
+        <v>120989661.50982697</v>
       </c>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.2">
@@ -13451,7 +13572,7 @@
       </c>
       <c r="M185" s="182">
         <f>-C179+M184</f>
-        <v>213581695.72289416</v>
+        <v>235208792.79386723</v>
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.2">
@@ -13476,25 +13597,25 @@
       </c>
       <c r="G186" s="179">
         <f>MAX(0,IRR($C175:G175))</f>
-        <v>0</v>
+        <v>6.7478593559452404E-2</v>
       </c>
       <c r="H186" s="180">
         <f>MAX(0,IRR($C175:H175))</f>
-        <v>6.6152872107589911E-2</v>
+        <v>0.14160378380963468</v>
       </c>
       <c r="M186" s="182">
         <f>M180-M185</f>
-        <v>46666552.536093086</v>
+        <v>-170126350.07069421</v>
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="M187" s="226">
+      <c r="M187" s="215">
         <f>M186/M180</f>
-        <v>0.17931552987689142</v>
-      </c>
-      <c r="N187" s="227">
+        <v>-2.6140129803413119</v>
+      </c>
+      <c r="N187" s="216">
         <f>I171-I179</f>
-        <v>159849179.15651572</v>
+        <v>58311912.497386336</v>
       </c>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.2">
@@ -13503,7 +13624,7 @@
       </c>
       <c r="N188" s="1">
         <f>N187/I171</f>
-        <v>1.0946390861484132</v>
+        <v>0.89596994300621102</v>
       </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.2">
@@ -13528,11 +13649,11 @@
       </c>
       <c r="G189" s="179">
         <f>MAX(0,IRR($C179:G179))</f>
-        <v>0</v>
+        <v>2.129417691223634E-2</v>
       </c>
       <c r="H189" s="180">
         <f>MAX(0,IRR($C179:H179))</f>
-        <v>2.3786203374374759E-2</v>
+        <v>9.7381868561973173E-2</v>
       </c>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.2">
@@ -13553,20 +13674,20 @@
         <v>0</v>
       </c>
       <c r="E192" s="179">
-        <f t="shared" ref="E192:H192" si="90">IF(E$183&gt;0,(E$183-E186)/E$183,0)</f>
+        <f t="shared" ref="E192:H192" si="92">IF(E$183&gt;0,(E$183-E186)/E$183,0)</f>
         <v>0</v>
       </c>
       <c r="F192" s="179">
-        <f t="shared" si="90"/>
-        <v>0</v>
+        <f t="shared" si="92"/>
+        <v>1</v>
       </c>
       <c r="G192" s="179">
-        <f t="shared" si="90"/>
-        <v>1</v>
+        <f t="shared" si="92"/>
+        <v>0.66650114371360036</v>
       </c>
       <c r="H192" s="180">
-        <f t="shared" si="90"/>
-        <v>0.6214933753887395</v>
+        <f t="shared" si="92"/>
+        <v>0.47755558461966696</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -13587,20 +13708,20 @@
         <v>0</v>
       </c>
       <c r="E195" s="179">
-        <f t="shared" ref="E195:G195" si="91">IF(E$183&gt;0,(E$183-E189)/E$183,0)</f>
+        <f t="shared" ref="E195:G195" si="93">IF(E$183&gt;0,(E$183-E189)/E$183,0)</f>
         <v>0</v>
       </c>
       <c r="F195" s="179">
-        <f t="shared" si="91"/>
-        <v>0</v>
+        <f t="shared" si="93"/>
+        <v>1</v>
       </c>
       <c r="G195" s="179">
-        <f t="shared" si="91"/>
-        <v>1</v>
+        <f t="shared" si="93"/>
+        <v>0.89475797773505483</v>
       </c>
       <c r="H195" s="180">
         <f>IF(H$183&gt;0,(H$183-H189)/H$183,0)</f>
-        <v>0.86390257497952838</v>
+        <v>0.64071148368534714</v>
       </c>
     </row>
   </sheetData>

--- a/annexe/Modèle investissement.xlsx
+++ b/annexe/Modèle investissement.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3CF2CA-CE13-4924-B28B-F9298C9F1F8A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Accueil" sheetId="2" r:id="rId1"/>
@@ -205,7 +204,7 @@
     <definedName name="_Zone">Tables!$B$12</definedName>
     <definedName name="_ZoneFranc">Tables!$B$18</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1199,7 +1198,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
@@ -2510,6 +2509,18 @@
     <xf numFmtId="3" fontId="0" fillId="46" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2536,18 +2547,6 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="40" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2684,23 +2683,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2736,23 +2718,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2928,11 +2893,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2957,19 +2922,19 @@
       <c r="B3" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="220" t="s">
+      <c r="E3" s="224" t="s">
         <v>317</v>
       </c>
-      <c r="F3" s="221"/>
-      <c r="G3" s="222"/>
-      <c r="H3" s="218" t="s">
+      <c r="F3" s="225"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="222" t="s">
         <v>325</v>
       </c>
-      <c r="I3" s="219"/>
-      <c r="J3" s="218" t="s">
+      <c r="I3" s="223"/>
+      <c r="J3" s="222" t="s">
         <v>326</v>
       </c>
-      <c r="K3" s="219"/>
+      <c r="K3" s="223"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D4" s="190"/>
@@ -3009,7 +2974,7 @@
       </c>
       <c r="E5" s="194">
         <f>Select!C68</f>
-        <v>0.04</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F5" s="195" t="str">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(Select!F68&lt;&gt;"",Select!F68,IF(Select!G68&lt;&gt;"",(100%-Select!G68)*Select!C68,"")))</f>
@@ -3021,11 +2986,11 @@
       </c>
       <c r="H5" s="197">
         <f>Modèle!D163</f>
-        <v>2.7628865979381443E-2</v>
+        <v>6.0092783505154693E-2</v>
       </c>
       <c r="I5" s="198">
         <f>Modèle!I163</f>
-        <v>6.7814051619584467E-2</v>
+        <v>0.14749556227259658</v>
       </c>
       <c r="J5" s="208"/>
       <c r="K5" s="209"/>
@@ -3037,31 +3002,31 @@
       </c>
       <c r="E6" s="201">
         <f>Select!C69</f>
-        <v>0.3</v>
-      </c>
-      <c r="F6" s="203" t="str">
+        <v>0.35</v>
+      </c>
+      <c r="F6" s="203">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(Select!F69&lt;&gt;"",Select!F69,IF(Select!G69&lt;&gt;"",(100%-Select!G69)*Select!C69,"")))</f>
-        <v/>
-      </c>
-      <c r="G6" s="204" t="str">
+        <v>0</v>
+      </c>
+      <c r="G6" s="204">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F69&lt;&gt;"",Select!G69&lt;&gt;""),Select!E69,""))</f>
-        <v/>
-      </c>
-      <c r="H6" s="223">
+        <v>5</v>
+      </c>
+      <c r="H6" s="227">
         <f>Modèle!D164</f>
-        <v>0.22470103092783605</v>
-      </c>
-      <c r="I6" s="225">
+        <v>0</v>
+      </c>
+      <c r="I6" s="229">
         <f>Modèle!I164</f>
-        <v>0.6081802353939163</v>
-      </c>
-      <c r="J6" s="223">
+        <v>0</v>
+      </c>
+      <c r="J6" s="227">
         <f>Modèle!D192</f>
         <v>0</v>
       </c>
-      <c r="K6" s="225">
+      <c r="K6" s="229">
         <f>Modèle!H192</f>
-        <v>0.47755558461966696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -3070,7 +3035,7 @@
         <v>Pays</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D7" s="200" t="str">
         <f>VLOOKUP(CONCATENATE(_Impot,_Impot_IMF),_Tables,3,FALSE)</f>
@@ -3078,20 +3043,20 @@
       </c>
       <c r="E7" s="202">
         <f>Select!C70</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F7" s="206" t="str">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F7" s="206">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(Select!F70&lt;&gt;"",Select!F70,IF(Select!G70&lt;&gt;"",(100%-Select!G70)*Select!C70,"")))</f>
-        <v/>
-      </c>
-      <c r="G7" s="207" t="str">
+        <v>0</v>
+      </c>
+      <c r="G7" s="207">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F70&lt;&gt;"",Select!G70&lt;&gt;""),Select!E70,""))</f>
-        <v/>
-      </c>
-      <c r="H7" s="224"/>
-      <c r="I7" s="226"/>
-      <c r="J7" s="224"/>
-      <c r="K7" s="226"/>
+        <v>5</v>
+      </c>
+      <c r="H7" s="228"/>
+      <c r="I7" s="230"/>
+      <c r="J7" s="228"/>
+      <c r="K7" s="230"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D8" s="56" t="str">
@@ -3100,7 +3065,7 @@
       </c>
       <c r="E8" s="194">
         <f>Select!C71</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F8" s="195" t="str">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(Select!F71&lt;&gt;"",Select!F71,IF(Select!G71&lt;&gt;"",(100%-Select!G71)*Select!C71,"")))</f>
@@ -3112,11 +3077,11 @@
       </c>
       <c r="H8" s="197">
         <f>Modèle!D165</f>
-        <v>3.7450171821306014E-2</v>
+        <v>8.1791408934707904E-2</v>
       </c>
       <c r="I8" s="198">
         <f>Modèle!I165</f>
-        <v>0.10136337256565273</v>
+        <v>0.20376723880109049</v>
       </c>
       <c r="J8" s="208"/>
       <c r="K8" s="209"/>
@@ -3127,7 +3092,7 @@
         <v>Régime</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="38" t="str">
         <f>VLOOKUP(CONCATENATE(_Impot,_Impot_IRC),_Tables,3,FALSE)</f>
@@ -3135,7 +3100,7 @@
       </c>
       <c r="E9" s="183">
         <f>Select!C72</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F9" s="80" t="str">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(Select!F72&lt;&gt;"",Select!F72,IF(Select!G72&lt;&gt;"",(100%-Select!G72)*Select!C72,"")))</f>
@@ -3147,11 +3112,11 @@
       </c>
       <c r="H9" s="188">
         <f>Modèle!D166</f>
-        <v>8.505154639175257E-3</v>
+        <v>1.1340206185567026E-2</v>
       </c>
       <c r="I9" s="172">
         <f>Modèle!I166</f>
-        <v>2.0875594248566113E-2</v>
+        <v>2.7834125664754902E-2</v>
       </c>
       <c r="J9" s="210"/>
       <c r="K9" s="211"/>
@@ -3159,7 +3124,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="str">
         <f>Select!B62</f>
-        <v/>
+        <v>Code Général des Impôts</v>
       </c>
       <c r="D10" s="56" t="str">
         <f>VLOOKUP(CONCATENATE(_Impot,_Impot_TVApetrole),_Tables,3,FALSE)</f>
@@ -3191,7 +3156,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="19" t="str">
         <f>Select!B63</f>
-        <v/>
+        <v>Régime unique</v>
       </c>
       <c r="D11" s="173" t="s">
         <v>267</v>
@@ -3201,11 +3166,11 @@
       <c r="G11" s="52"/>
       <c r="H11" s="189">
         <f>Modèle!D168</f>
-        <v>0.29828522336769875</v>
+        <v>0.15322439862542961</v>
       </c>
       <c r="I11" s="174">
         <f>Modèle!I168</f>
-        <v>0.79823325382771959</v>
+        <v>0.37909692673844203</v>
       </c>
       <c r="J11" s="189">
         <f>Modèle!D195</f>
@@ -3213,13 +3178,13 @@
       </c>
       <c r="K11" s="174">
         <f>Modèle!H195</f>
-        <v>0.64071148368534714</v>
+        <v>0.29344589071542415</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="str">
         <f>Select!B64</f>
-        <v/>
+        <v>Zone unique</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -3236,15 +3201,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="227" t="str">
+      <c r="A16" s="220" t="str">
         <f>VLOOKUP(_Bilan,_Tables,4,FALSE)</f>
         <v>Bilan à l'ouverture</v>
       </c>
-      <c r="B16" s="227"/>
-      <c r="C16" s="227"/>
-      <c r="D16" s="227"/>
-      <c r="E16" s="227"/>
-      <c r="F16" s="227"/>
+      <c r="B16" s="220"/>
+      <c r="C16" s="220"/>
+      <c r="D16" s="220"/>
+      <c r="E16" s="220"/>
+      <c r="F16" s="220"/>
       <c r="H16" s="73" t="str">
         <f>VLOOKUP(_PIBPNB,_Tables,4,FALSE)</f>
         <v>PIB ou PNB</v>
@@ -3254,18 +3219,18 @@
       <c r="K16" s="68"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="228" t="str">
+      <c r="A17" s="221" t="str">
         <f>VLOOKUP(_Actif,_Tables,4,FALSE)</f>
         <v>Actif</v>
       </c>
-      <c r="B17" s="228"/>
-      <c r="C17" s="228"/>
-      <c r="D17" s="228" t="str">
+      <c r="B17" s="221"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221" t="str">
         <f>VLOOKUP(_Passif,_Tables,4,FALSE)</f>
         <v>Passif</v>
       </c>
-      <c r="E17" s="228"/>
-      <c r="F17" s="228"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
       <c r="H17" s="56" t="str">
         <f>_PIBPNB_Liste</f>
         <v>PIB/tête</v>
@@ -3273,7 +3238,7 @@
       <c r="I17" s="57"/>
       <c r="J17" s="69">
         <f>_PIBPNB_Select</f>
-        <v>456876.52513616101</v>
+        <v>506611.40425374068</v>
       </c>
       <c r="K17" s="70" t="s">
         <v>251</v>
@@ -3574,29 +3539,29 @@
       <c r="K29" s="70"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="227" t="str">
+      <c r="A31" s="220" t="str">
         <f>VLOOKUP(_CompteDeResultat,_Tables,4,FALSE)</f>
         <v>Compte de résultat</v>
       </c>
-      <c r="B31" s="227"/>
-      <c r="C31" s="227"/>
-      <c r="D31" s="227"/>
-      <c r="E31" s="227"/>
-      <c r="F31" s="227"/>
+      <c r="B31" s="220"/>
+      <c r="C31" s="220"/>
+      <c r="D31" s="220"/>
+      <c r="E31" s="220"/>
+      <c r="F31" s="220"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="228" t="str">
+      <c r="A32" s="221" t="str">
         <f>VLOOKUP(_Charges,_Tables,4,FALSE)</f>
         <v>Charges</v>
       </c>
-      <c r="B32" s="228"/>
-      <c r="C32" s="228"/>
-      <c r="D32" s="228" t="str">
+      <c r="B32" s="221"/>
+      <c r="C32" s="221"/>
+      <c r="D32" s="221" t="str">
         <f>VLOOKUP(_Produits,_Tables,4,FALSE)</f>
         <v>Produits</v>
       </c>
-      <c r="E32" s="228"/>
-      <c r="F32" s="228"/>
+      <c r="E32" s="221"/>
+      <c r="F32" s="221"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="59" t="str">
@@ -3846,23 +3811,23 @@
       </c>
       <c r="B52" s="80">
         <f>_CFE_Taux_Select1</f>
-        <v>0.04</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="C52" s="80">
         <f>_CFE_Taux_Select2</f>
-        <v>0.04</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="D52" s="80">
         <f>_CFE_Taux_Select3</f>
-        <v>0.04</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="E52" s="80">
         <f>_CFE_Taux_Select4</f>
-        <v>0.04</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F52" s="81">
         <f>_CFE_Taux_Select5</f>
-        <v>0.04</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="H52" s="38" t="str">
         <f>VLOOKUP(_Constructions,_Tables,4,FALSE)</f>
@@ -3885,23 +3850,23 @@
       </c>
       <c r="B53" s="80">
         <f>_IS_Taux_Select1</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C53" s="80">
         <f>_IS_Taux_Select2</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D53" s="80">
         <f>_IS_Taux_Select3</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E53" s="80">
         <f>_IS_Taux_Select4</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F53" s="81">
         <f>_IS_Taux_Select5</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H53" s="38" t="str">
         <f>VLOOKUP(_Equipement,_Tables,4,FALSE)</f>
@@ -3914,7 +3879,7 @@
       </c>
       <c r="K53" s="41">
         <f>_Equipement_CoefDegressif_Select</f>
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -3924,23 +3889,23 @@
       </c>
       <c r="B54" s="80">
         <f>_IMF_Taux_Select1</f>
-        <v>7.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="C54" s="80">
         <f>_IMF_Taux_Select2</f>
-        <v>7.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="D54" s="80">
         <f>_IMF_Taux_Select3</f>
-        <v>7.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="E54" s="80">
         <f>_IMF_Taux_Select4</f>
-        <v>7.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="F54" s="81">
         <f>_IMF_Taux_Select5</f>
-        <v>7.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="H54" s="38" t="str">
         <f>VLOOKUP(_Camion,_Tables,4,FALSE)</f>
@@ -3963,23 +3928,23 @@
       </c>
       <c r="B55" s="80">
         <f>_IRVM_Taux_Select1</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C55" s="80">
         <f>_IRVM_Taux_Select2</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D55" s="80">
         <f>_IRVM_Taux_Select3</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E55" s="80">
         <f>_IRVM_Taux_Select4</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F55" s="81">
         <f>_IRVM_Taux_Select5</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H55" s="38" t="str">
         <f>VLOOKUP(_Informatique,_Tables,4,FALSE)</f>
@@ -3988,7 +3953,7 @@
       <c r="I55" s="39"/>
       <c r="J55" s="40">
         <f>_Informatique_DureeLineaire_Select</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K55" s="41">
         <f>_Informatique_CoefDegressif_Select</f>
@@ -4002,23 +3967,23 @@
       </c>
       <c r="B56" s="80">
         <f>_IRC_Taux_Select1</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="C56" s="80">
         <f>_IRC_Taux_Select2</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D56" s="80">
         <f>_IRC_Taux_Select3</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E56" s="80">
         <f>_IRC_Taux_Select4</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F56" s="81">
         <f>_IRC_Taux_Select5</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="H56" s="45" t="str">
         <f>VLOOKUP(_Bureau,_Tables,4,FALSE)</f>
@@ -4112,12 +4077,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="E3:G3"/>
@@ -4125,6 +4084,12 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4135,25 +4100,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="Ce régime n'est pas disponible." xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="Ce régime n'est pas disponible.">
           <x14:formula1>
             <xm:f>Select!$B$59:$B$60</xm:f>
           </x14:formula1>
           <xm:sqref>B9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="Cette valeur n'est pas disponible." xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="Cette valeur n'est pas disponible.">
           <x14:formula1>
             <xm:f>Select!$B$39:$B$40</xm:f>
           </x14:formula1>
           <xm:sqref>B5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="Ces données ne sont pas disponibles." xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="Ces données ne sont pas disponibles.">
           <x14:formula1>
             <xm:f>Select!$B$3:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="Ce pays n'est pas disponible." xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="Ce pays n'est pas disponible.">
           <x14:formula1>
             <xm:f>Select!$B$43:$B$54</xm:f>
           </x14:formula1>
@@ -4166,7 +4131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T85"/>
   <sheetViews>
     <sheetView topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
@@ -4673,7 +4638,7 @@
       </c>
       <c r="G38" s="30">
         <f>VLOOKUP($B$38,_BaseFisc,_ColonneFisc_Select,FALSE)</f>
-        <v>456876.52513616101</v>
+        <v>506611.40425374068</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -4714,7 +4679,7 @@
       </c>
       <c r="G40" s="32">
         <f>IF(G39&lt;&gt;"",G39,G38)</f>
-        <v>456876.52513616101</v>
+        <v>506611.40425374068</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -4724,7 +4689,7 @@
       </c>
       <c r="B42" s="19" t="str">
         <f>VLOOKUP(1,$C43:$D54,2,FALSE)</f>
-        <v>_BEN</v>
+        <v>_TCD</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -4734,7 +4699,7 @@
       </c>
       <c r="C43" s="3">
         <f t="shared" ref="C43:C54" si="3">IF(_Pays_Liste=$B43,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="3" t="str">
         <f>_Pays_BEN</f>
@@ -4874,7 +4839,7 @@
       </c>
       <c r="C53" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="3" t="str">
         <f>_Pays_TCD</f>
@@ -4902,7 +4867,7 @@
       </c>
       <c r="B56" s="19">
         <f>HLOOKUP(_Pays_Select,BaseFisc!$E$1:$R$2,2,FALSE)</f>
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -4912,7 +4877,7 @@
       </c>
       <c r="B58" s="19" t="str">
         <f>VLOOKUP(1,$C59:$D60,2,FALSE)</f>
-        <v>_Gen</v>
+        <v>_Inv</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -4922,7 +4887,7 @@
       </c>
       <c r="C59" s="3">
         <f>IF(_Regime_Liste=$B59,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" s="3" t="str">
         <f>_Regime_Gen</f>
@@ -4936,7 +4901,7 @@
       </c>
       <c r="C60" s="3">
         <f>IF(_Regime_Liste=$B60,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="3" t="str">
         <f>_Regime_Inv</f>
@@ -4956,7 +4921,7 @@
       </c>
       <c r="B62" s="19" t="str">
         <f>IF(_Regime_Select=_Regime_Inv,VLOOKUP(CONCATENATE(_Regime_Inv,_Texte),_BaseFisc,_ColonneFisc_Select,FALSE),"")</f>
-        <v/>
+        <v>Code Général des Impôts</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -4966,7 +4931,7 @@
       </c>
       <c r="B63" s="19" t="str">
         <f>IF(_Regime_Select=_Regime_Inv,VLOOKUP(CONCATENATE(_Regime_Inv,_Regime),_BaseFisc,_ColonneFisc_Select,FALSE),"")</f>
-        <v/>
+        <v>Régime unique</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -4976,7 +4941,7 @@
       </c>
       <c r="B64" s="19" t="str">
         <f>IF(_Regime_Select=_Regime_Inv,VLOOKUP(CONCATENATE(_Regime_Inv,_Zone),_BaseFisc,_ColonneFisc_Select,FALSE),"")</f>
-        <v/>
+        <v>Zone unique</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
@@ -5056,7 +5021,7 @@
       </c>
       <c r="C68" s="12">
         <f>IF(VLOOKUP(CONCATENATE($C$66,$B68,C$67),_BaseFisc,_ColonneFisc_Select,FALSE)="","",VLOOKUP(CONCATENATE($C$66,$B68,C$67),_BaseFisc,_ColonneFisc_Select,FALSE))</f>
-        <v>0.04</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="E68" s="23" t="str">
         <f t="shared" ref="E68:G73" si="4">IF(VLOOKUP(CONCATENATE($E$66,$B68,E$67),_BaseFisc,_ColonneFisc_Select,FALSE)="","",VLOOKUP(CONCATENATE($E$66,$B68,E$67),_BaseFisc,_ColonneFisc_Select,FALSE))</f>
@@ -5081,23 +5046,23 @@
       <c r="N68" s="25"/>
       <c r="P68" s="24">
         <f>IF(J68&lt;&gt;"",J68,IF(OR(_Regime_Select=_Regime_Gen,$H68=_Regime_Gen),$C68,IF($E68&lt;P$67,$C68,IF($H68=_Information_Taux,$F68,IF($H68=_Information_ReducExo,(1-$G68)*$C68,_Error)))))</f>
-        <v>0.04</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="Q68" s="24">
         <f t="shared" ref="P68:T73" si="6">IF(K68&lt;&gt;"",K68,IF(OR(_Regime_Select=_Regime_Gen,$H68=_Regime_Gen),$C68,IF($E68&lt;Q$67,$C68,IF($H68=_Information_Taux,$F68,IF($H68=_Information_ReducExo,(1-$G68)*$C68,_Error)))))</f>
-        <v>0.04</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="R68" s="24">
         <f t="shared" si="6"/>
-        <v>0.04</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="S68" s="24">
         <f t="shared" si="6"/>
-        <v>0.04</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="T68" s="24">
         <f t="shared" si="6"/>
-        <v>0.04</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
@@ -5107,7 +5072,7 @@
       </c>
       <c r="C69" s="12">
         <f t="shared" ref="C69:C73" si="7">IF(VLOOKUP(CONCATENATE($C$66,$B69,C$67),_BaseFisc,_ColonneFisc_Select,FALSE)="","",VLOOKUP(CONCATENATE($C$66,$B69,C$67),_BaseFisc,_ColonneFisc_Select,FALSE))</f>
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="E69" s="23">
         <f>IF(VLOOKUP(CONCATENATE($E$66,$B69,E$67),_BaseFisc,_ColonneFisc_Select,FALSE)="","",VLOOKUP(CONCATENATE($E$66,$B69,E$67),_BaseFisc,_ColonneFisc_Select,FALSE))</f>
@@ -5132,23 +5097,23 @@
       <c r="N69" s="25"/>
       <c r="P69" s="24">
         <f>IF(J69&lt;&gt;"",J69,IF(OR(_Regime_Select=_Regime_Gen,$H69=_Regime_Gen),$C69,IF($E69&lt;P$67,$C69,IF($H69=_Information_Taux,$F69,IF($H69=_Information_ReducExo,(1-$G69)*$C69,_Error)))))</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q69" s="24">
         <f t="shared" si="6"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="R69" s="24">
         <f t="shared" si="6"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="S69" s="24">
         <f t="shared" si="6"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="T69" s="24">
         <f t="shared" si="6"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
@@ -5158,23 +5123,23 @@
       </c>
       <c r="C70" s="12">
         <f t="shared" si="7"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="E70" s="23" t="str">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E70" s="23">
         <f t="shared" si="4"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="F70" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G70" s="10" t="str">
+      <c r="G70" s="10">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H70" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>_Gen</v>
+        <v>_ReducExo</v>
       </c>
       <c r="J70" s="25"/>
       <c r="K70" s="25"/>
@@ -5183,23 +5148,23 @@
       <c r="N70" s="25"/>
       <c r="P70" s="24">
         <f t="shared" si="6"/>
-        <v>7.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="24">
         <f t="shared" si="6"/>
-        <v>7.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="R70" s="24">
         <f t="shared" si="6"/>
-        <v>7.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="S70" s="24">
         <f t="shared" si="6"/>
-        <v>7.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="T70" s="24">
         <f t="shared" si="6"/>
-        <v>7.4999999999999997E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
@@ -5209,7 +5174,7 @@
       </c>
       <c r="C71" s="12">
         <f t="shared" si="7"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E71" s="23" t="str">
         <f t="shared" si="4"/>
@@ -5234,23 +5199,23 @@
       <c r="N71" s="25"/>
       <c r="P71" s="24">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Q71" s="24">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="R71" s="24">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S71" s="24">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="T71" s="24">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
@@ -5260,7 +5225,7 @@
       </c>
       <c r="C72" s="12">
         <f t="shared" si="7"/>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E72" s="23" t="str">
         <f t="shared" si="4"/>
@@ -5285,23 +5250,23 @@
       <c r="N72" s="25"/>
       <c r="P72" s="24">
         <f t="shared" si="6"/>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="Q72" s="24">
         <f t="shared" si="6"/>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="R72" s="24">
         <f t="shared" si="6"/>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="S72" s="24">
         <f t="shared" si="6"/>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="T72" s="24">
         <f t="shared" si="6"/>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
@@ -5434,7 +5399,7 @@
       </c>
       <c r="D78" s="23">
         <f t="shared" si="8"/>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
@@ -5444,7 +5409,7 @@
       </c>
       <c r="J78" s="26">
         <f>IF(G78&lt;&gt;"",G78,IF(D78="",1,IF(D78&lt;1,_Error,D78)))</f>
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
@@ -5478,7 +5443,7 @@
       </c>
       <c r="C80" s="23">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" s="23" t="str">
         <f t="shared" si="8"/>
@@ -5488,7 +5453,7 @@
       <c r="G80" s="27"/>
       <c r="I80" s="26">
         <f>IF(F80&lt;&gt;"",F80,IF(C80&lt;1,_Error,C80))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J80" s="26">
         <f>IF(G80&lt;&gt;"",G80,IF(D80="",1,IF(D80&lt;1,_Error,D80)))</f>
@@ -5606,7 +5571,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="La valeur du PIB/PNB doit être positive." sqref="G39" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="La valeur du PIB/PNB doit être positive." sqref="G39">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5620,7 +5585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D114"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
@@ -7172,14 +7137,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9061,7 +9026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9490,10 +9455,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C156" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -9554,7 +9519,7 @@
       </c>
       <c r="C4" s="93">
         <f>(_Terrain_Select+_Constructions_Select+_Equipement_Select+_Camion_Select+_Informatique_Select+_Bureau_Select)*_PIBPNB_Select</f>
-        <v>66247096.144743346</v>
+        <v>73458653.616792396</v>
       </c>
       <c r="D4" s="91"/>
       <c r="E4" s="91"/>
@@ -9577,23 +9542,23 @@
       <c r="C7" s="116"/>
       <c r="D7" s="117">
         <f>D$22</f>
-        <v>913753.05027232214</v>
+        <v>1013222.8085074815</v>
       </c>
       <c r="E7" s="117">
         <f t="shared" ref="E7:H7" si="0">E$22</f>
-        <v>913753.05027232191</v>
+        <v>1013222.8085074815</v>
       </c>
       <c r="F7" s="117">
         <f t="shared" si="0"/>
-        <v>913753.05027232203</v>
+        <v>1013222.8085074816</v>
       </c>
       <c r="G7" s="117">
         <f t="shared" si="0"/>
-        <v>913753.05027232203</v>
+        <v>1013222.8085074815</v>
       </c>
       <c r="H7" s="118">
         <f t="shared" si="0"/>
-        <v>913753.05027232214</v>
+        <v>1013222.8085074815</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -9606,23 +9571,23 @@
       <c r="C8" s="119"/>
       <c r="D8" s="113">
         <f>D$32</f>
-        <v>6853147.8770424156</v>
+        <v>3039668.4255224443</v>
       </c>
       <c r="E8" s="113">
         <f t="shared" ref="E8:H8" si="1">E$32</f>
-        <v>5139860.9077818114</v>
+        <v>3039668.4255224438</v>
       </c>
       <c r="F8" s="113">
         <f t="shared" si="1"/>
-        <v>3854895.6808363586</v>
+        <v>3039668.4255224443</v>
       </c>
       <c r="G8" s="113">
         <f t="shared" si="1"/>
-        <v>2891171.7606272688</v>
+        <v>3039668.4255224443</v>
       </c>
       <c r="H8" s="120">
         <f t="shared" si="1"/>
-        <v>2168378.8204704514</v>
+        <v>3039668.4255224448</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -9635,15 +9600,15 @@
       <c r="C9" s="119"/>
       <c r="D9" s="113">
         <f>D$42</f>
-        <v>761460.87522693502</v>
+        <v>844352.34042290109</v>
       </c>
       <c r="E9" s="113">
         <f t="shared" ref="E9:H9" si="2">E$42</f>
-        <v>761460.87522693514</v>
+        <v>844352.34042290121</v>
       </c>
       <c r="F9" s="113">
         <f t="shared" si="2"/>
-        <v>761460.87522693514</v>
+        <v>844352.34042290121</v>
       </c>
       <c r="G9" s="113">
         <f t="shared" si="2"/>
@@ -9664,15 +9629,15 @@
       <c r="C10" s="119"/>
       <c r="D10" s="113">
         <f>D$52</f>
-        <v>1142191.3128404026</v>
+        <v>844352.34042290109</v>
       </c>
       <c r="E10" s="113">
         <f t="shared" ref="E10:H10" si="3">E$52</f>
-        <v>1142191.3128404026</v>
+        <v>844352.34042290121</v>
       </c>
       <c r="F10" s="113">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>844352.34042290121</v>
       </c>
       <c r="G10" s="113">
         <f t="shared" si="3"/>
@@ -9693,23 +9658,23 @@
       <c r="C11" s="119"/>
       <c r="D11" s="113">
         <f>D$62</f>
-        <v>228438.26256808054</v>
+        <v>253305.70212687037</v>
       </c>
       <c r="E11" s="113">
         <f t="shared" ref="E11:H11" si="4">E$62</f>
-        <v>228438.26256808051</v>
+        <v>253305.70212687034</v>
       </c>
       <c r="F11" s="113">
         <f t="shared" si="4"/>
-        <v>228438.26256808051</v>
+        <v>253305.70212687034</v>
       </c>
       <c r="G11" s="113">
         <f t="shared" si="4"/>
-        <v>228438.26256808048</v>
+        <v>253305.70212687031</v>
       </c>
       <c r="H11" s="120">
         <f t="shared" si="4"/>
-        <v>228438.26256808048</v>
+        <v>253305.70212687031</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -9722,23 +9687,23 @@
       <c r="C12" s="121"/>
       <c r="D12" s="122">
         <f>SUM(D7:D11)</f>
-        <v>9898991.3779501561</v>
+        <v>5994901.617002598</v>
       </c>
       <c r="E12" s="122">
         <f t="shared" ref="E12:H12" si="5">SUM(E7:E11)</f>
-        <v>8185704.4086895529</v>
+        <v>5994901.617002598</v>
       </c>
       <c r="F12" s="122">
         <f t="shared" si="5"/>
-        <v>5758547.8689036965</v>
+        <v>5994901.617002598</v>
       </c>
       <c r="G12" s="122">
         <f t="shared" si="5"/>
-        <v>4033363.0734676714</v>
+        <v>4306196.9361567963</v>
       </c>
       <c r="H12" s="123">
         <f t="shared" si="5"/>
-        <v>3310570.133310854</v>
+        <v>4306196.9361567963</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -9756,7 +9721,7 @@
       </c>
       <c r="D14" s="95">
         <f>_Constructions_Select*_PIBPNB_Select</f>
-        <v>18275061.005446441</v>
+        <v>20264456.170149628</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -9826,23 +9791,23 @@
       <c r="C19" s="102"/>
       <c r="D19" s="103">
         <f>D14</f>
-        <v>18275061.005446441</v>
+        <v>20264456.170149628</v>
       </c>
       <c r="E19" s="104">
         <f>D19-D22</f>
-        <v>17361307.955174118</v>
+        <v>19251233.361642148</v>
       </c>
       <c r="F19" s="104">
         <f t="shared" ref="F19:H19" si="7">E19-E22</f>
-        <v>16447554.904901797</v>
+        <v>18238010.553134669</v>
       </c>
       <c r="G19" s="104">
         <f t="shared" si="7"/>
-        <v>15533801.854629476</v>
+        <v>17224787.744627185</v>
       </c>
       <c r="H19" s="105">
         <f t="shared" si="7"/>
-        <v>14620048.804357154</v>
+        <v>16211564.936119704</v>
       </c>
       <c r="J19" s="104">
         <f>IF(E18=0,0,IF($D16*$D20&gt;100%,100%,IF($D16*$D20&gt;E20,$D16*$D20,E20)))</f>
@@ -9917,33 +9882,33 @@
       <c r="C22" s="109"/>
       <c r="D22" s="110">
         <f>D19*D21</f>
-        <v>913753.05027232214</v>
+        <v>1013222.8085074815</v>
       </c>
       <c r="E22" s="110">
         <f t="shared" ref="E22:H22" si="9">E19*E21</f>
-        <v>913753.05027232191</v>
+        <v>1013222.8085074815</v>
       </c>
       <c r="F22" s="110">
         <f t="shared" si="9"/>
-        <v>913753.05027232203</v>
+        <v>1013222.8085074816</v>
       </c>
       <c r="G22" s="110">
         <f t="shared" si="9"/>
-        <v>913753.05027232203</v>
+        <v>1013222.8085074815</v>
       </c>
       <c r="H22" s="111">
         <f t="shared" si="9"/>
-        <v>913753.05027232214</v>
+        <v>1013222.8085074815</v>
       </c>
       <c r="K22" s="1">
         <f>E19*E21</f>
-        <v>913753.05027232191</v>
+        <v>1013222.8085074815</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K23" s="1">
         <f>E19*0.0526</f>
-        <v>913204.79844215862</v>
+        <v>1012614.874822377</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -9955,7 +9920,7 @@
       </c>
       <c r="D24" s="95">
         <f>_Equipement_Select*_PIBPNB_Select</f>
-        <v>27412591.508169662</v>
+        <v>30396684.25522444</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -9979,7 +9944,7 @@
       </c>
       <c r="D26" s="94">
         <f>_Equipement_CoefDegressif_Select</f>
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -10021,23 +9986,23 @@
       <c r="C29" s="102"/>
       <c r="D29" s="103">
         <f>D24</f>
-        <v>27412591.508169662</v>
+        <v>30396684.25522444</v>
       </c>
       <c r="E29" s="104">
         <f>D29-D32</f>
-        <v>20559443.631127246</v>
+        <v>27357015.829701997</v>
       </c>
       <c r="F29" s="104">
         <f t="shared" ref="F29" si="13">E29-E32</f>
-        <v>15419582.723345434</v>
+        <v>24317347.404179554</v>
       </c>
       <c r="G29" s="104">
         <f t="shared" ref="G29" si="14">F29-F32</f>
-        <v>11564687.042509075</v>
+        <v>21277678.978657112</v>
       </c>
       <c r="H29" s="105">
         <f t="shared" ref="H29" si="15">G29-G32</f>
-        <v>8673515.2818818055</v>
+        <v>18238010.553134669</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -10079,23 +10044,23 @@
       <c r="C31" s="102"/>
       <c r="D31" s="106">
         <f>IF(D28=0,0,IF($D26*$D30&gt;100%,100%,IF($D26*$D30&gt;D30,$D26*$D30,D30)))</f>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="E31" s="106">
         <f>IF(E28=0,0,IF($D26*$D30&gt;100%,100%,IF($D26*$D30&gt;E30,$D26*$D30,E30)))</f>
-        <v>0.25</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F31" s="106">
         <f>IF(F28=0,0,IF($D26*$D30&gt;100%,100%,IF($D26*$D30&gt;F30,$D26*$D30,F30)))</f>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="G31" s="106">
         <f>IF(G28=0,0,IF($D26*$D30&gt;100%,100%,IF($D26*$D30&gt;G30,$D26*$D30,G30)))</f>
-        <v>0.25</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="H31" s="107">
         <f>IF(H28=0,0,IF($D26*$D30&gt;100%,100%,IF($D26*$D30&gt;H30,$D26*$D30,H30)))</f>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -10108,23 +10073,23 @@
       <c r="C32" s="109"/>
       <c r="D32" s="110">
         <f>D29*D31</f>
-        <v>6853147.8770424156</v>
+        <v>3039668.4255224443</v>
       </c>
       <c r="E32" s="110">
         <f t="shared" ref="E32:H32" si="17">E29*E31</f>
-        <v>5139860.9077818114</v>
+        <v>3039668.4255224438</v>
       </c>
       <c r="F32" s="110">
         <f t="shared" si="17"/>
-        <v>3854895.6808363586</v>
+        <v>3039668.4255224443</v>
       </c>
       <c r="G32" s="110">
         <f t="shared" si="17"/>
-        <v>2891171.7606272688</v>
+        <v>3039668.4255224443</v>
       </c>
       <c r="H32" s="111">
         <f t="shared" si="17"/>
-        <v>2168378.8204704514</v>
+        <v>3039668.4255224448</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -10136,7 +10101,7 @@
       </c>
       <c r="D34" s="95">
         <f>_Camion_Select*_PIBPNB_Select</f>
-        <v>2284382.6256808052</v>
+        <v>2533057.0212687035</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -10212,15 +10177,15 @@
       <c r="C39" s="102"/>
       <c r="D39" s="103">
         <f>D34</f>
-        <v>2284382.6256808052</v>
+        <v>2533057.0212687035</v>
       </c>
       <c r="E39" s="104">
         <f>D39-D42</f>
-        <v>1522921.7504538703</v>
+        <v>1688704.6808458024</v>
       </c>
       <c r="F39" s="104">
         <f t="shared" ref="F39" si="21">E39-E42</f>
-        <v>761460.87522693514</v>
+        <v>844352.34042290121</v>
       </c>
       <c r="G39" s="104">
         <f t="shared" ref="G39" si="22">F39-F42</f>
@@ -10299,15 +10264,15 @@
       <c r="C42" s="109"/>
       <c r="D42" s="110">
         <f>D39*D41</f>
-        <v>761460.87522693502</v>
+        <v>844352.34042290109</v>
       </c>
       <c r="E42" s="110">
         <f t="shared" ref="E42:H42" si="25">E39*E41</f>
-        <v>761460.87522693514</v>
+        <v>844352.34042290121</v>
       </c>
       <c r="F42" s="110">
         <f t="shared" si="25"/>
-        <v>761460.87522693514</v>
+        <v>844352.34042290121</v>
       </c>
       <c r="G42" s="110">
         <f t="shared" si="25"/>
@@ -10327,7 +10292,7 @@
       </c>
       <c r="D44" s="95">
         <f>_Informatique_Select*_PIBPNB_Select</f>
-        <v>2284382.6256808052</v>
+        <v>2533057.0212687035</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -10339,7 +10304,7 @@
       </c>
       <c r="D45" s="94">
         <f>_Informatique_DureeLineaire_Select</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -10364,15 +10329,15 @@
       <c r="C48" s="97"/>
       <c r="D48" s="98">
         <f>D45</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" s="99">
         <f>IF(D48-1&gt;0,D48-1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="99">
         <f t="shared" ref="F48" si="26">IF(E48-1&gt;0,E48-1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="99">
         <f t="shared" ref="G48" si="27">IF(F48-1&gt;0,F48-1,0)</f>
@@ -10393,15 +10358,15 @@
       <c r="C49" s="102"/>
       <c r="D49" s="103">
         <f>D44</f>
-        <v>2284382.6256808052</v>
+        <v>2533057.0212687035</v>
       </c>
       <c r="E49" s="104">
         <f>D49-D52</f>
-        <v>1142191.3128404026</v>
+        <v>1688704.6808458024</v>
       </c>
       <c r="F49" s="104">
         <f t="shared" ref="F49" si="29">E49-E52</f>
-        <v>0</v>
+        <v>844352.34042290121</v>
       </c>
       <c r="G49" s="104">
         <f t="shared" ref="G49" si="30">F49-F52</f>
@@ -10422,15 +10387,15 @@
       <c r="C50" s="102"/>
       <c r="D50" s="106">
         <f>IF(D48&gt;0,1/D48,0)</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E50" s="106">
         <f t="shared" ref="E50:H50" si="32">IF(E48&gt;0,1/E48,0)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F50" s="106">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="106">
         <f t="shared" si="32"/>
@@ -10451,15 +10416,15 @@
       <c r="C51" s="102"/>
       <c r="D51" s="106">
         <f>IF(D48=0,0,IF($D46*$D50&gt;100%,100%,IF($D46*$D50&gt;D50,$D46*$D50,D50)))</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E51" s="106">
         <f>IF(E48=0,0,IF($D46*$D50&gt;100%,100%,IF($D46*$D50&gt;E50,$D46*$D50,E50)))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F51" s="106">
         <f>IF(F48=0,0,IF($D46*$D50&gt;100%,100%,IF($D46*$D50&gt;F50,$D46*$D50,F50)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="106">
         <f>IF(G48=0,0,IF($D46*$D50&gt;100%,100%,IF($D46*$D50&gt;G50,$D46*$D50,G50)))</f>
@@ -10480,15 +10445,15 @@
       <c r="C52" s="109"/>
       <c r="D52" s="110">
         <f>D49*D51</f>
-        <v>1142191.3128404026</v>
+        <v>844352.34042290109</v>
       </c>
       <c r="E52" s="110">
         <f t="shared" ref="E52:H52" si="33">E49*E51</f>
-        <v>1142191.3128404026</v>
+        <v>844352.34042290121</v>
       </c>
       <c r="F52" s="110">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>844352.34042290121</v>
       </c>
       <c r="G52" s="110">
         <f t="shared" si="33"/>
@@ -10508,7 +10473,7 @@
       </c>
       <c r="D54" s="95">
         <f>_Bureau_Select*_PIBPNB_Select</f>
-        <v>2284382.6256808052</v>
+        <v>2533057.0212687035</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -10574,23 +10539,23 @@
       <c r="C59" s="102"/>
       <c r="D59" s="103">
         <f>D54</f>
-        <v>2284382.6256808052</v>
+        <v>2533057.0212687035</v>
       </c>
       <c r="E59" s="104">
         <f>D59-D62</f>
-        <v>2055944.3631127246</v>
+        <v>2279751.3191418331</v>
       </c>
       <c r="F59" s="104">
         <f t="shared" ref="F59" si="37">E59-E62</f>
-        <v>1827506.1005446441</v>
+        <v>2026445.6170149627</v>
       </c>
       <c r="G59" s="104">
         <f t="shared" ref="G59" si="38">F59-F62</f>
-        <v>1599067.8379765635</v>
+        <v>1773139.9148880923</v>
       </c>
       <c r="H59" s="105">
         <f t="shared" ref="H59" si="39">G59-G62</f>
-        <v>1370629.5754084829</v>
+        <v>1519834.2127612219</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -10661,23 +10626,23 @@
       <c r="C62" s="109"/>
       <c r="D62" s="110">
         <f>D59*D61</f>
-        <v>228438.26256808054</v>
+        <v>253305.70212687037</v>
       </c>
       <c r="E62" s="110">
         <f t="shared" ref="E62:H62" si="41">E59*E61</f>
-        <v>228438.26256808051</v>
+        <v>253305.70212687034</v>
       </c>
       <c r="F62" s="110">
         <f t="shared" si="41"/>
-        <v>228438.26256808051</v>
+        <v>253305.70212687034</v>
       </c>
       <c r="G62" s="110">
         <f t="shared" si="41"/>
-        <v>228438.26256808048</v>
+        <v>253305.70212687031</v>
       </c>
       <c r="H62" s="111">
         <f t="shared" si="41"/>
-        <v>228438.26256808048</v>
+        <v>253305.70212687031</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -10694,7 +10659,7 @@
       </c>
       <c r="D65" s="95">
         <f>(_Terrain_Select+_Constructions_Select+_Equipement_Select+_Camion_Select+_Informatique_Select+_Bureau_Select)*_PIBPNB_Select</f>
-        <v>66247096.144743346</v>
+        <v>73458653.616792396</v>
       </c>
       <c r="F65" s="6" t="str">
         <f>_Amortissement_TauxExceptionnel_Select</f>
@@ -10931,23 +10896,23 @@
       <c r="C80" s="116"/>
       <c r="D80" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4111888.7262254492</v>
+        <v>4559502.6382836662</v>
       </c>
       <c r="E80" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4111888.7262254492</v>
+        <v>4559502.6382836662</v>
       </c>
       <c r="F80" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4111888.7262254492</v>
+        <v>4559502.6382836662</v>
       </c>
       <c r="G80" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4111888.7262254492</v>
+        <v>4559502.6382836662</v>
       </c>
       <c r="H80" s="128">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4111888.7262254492</v>
+        <v>4559502.6382836662</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -10960,23 +10925,23 @@
       <c r="C81" s="119"/>
       <c r="D81" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>4568765.2513616104</v>
+        <v>5066114.042537407</v>
       </c>
       <c r="E81" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>4568765.2513616104</v>
+        <v>5066114.042537407</v>
       </c>
       <c r="F81" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>4568765.2513616104</v>
+        <v>5066114.042537407</v>
       </c>
       <c r="G81" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>4568765.2513616104</v>
+        <v>5066114.042537407</v>
       </c>
       <c r="H81" s="130">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>4568765.2513616104</v>
+        <v>5066114.042537407</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -10989,23 +10954,23 @@
       <c r="C82" s="119"/>
       <c r="D82" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>21930073.206535727</v>
+        <v>24317347.404179551</v>
       </c>
       <c r="E82" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>21930073.206535727</v>
+        <v>24317347.404179551</v>
       </c>
       <c r="F82" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>21930073.206535727</v>
+        <v>24317347.404179551</v>
       </c>
       <c r="G82" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>21930073.206535727</v>
+        <v>24317347.404179551</v>
       </c>
       <c r="H82" s="130">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>21930073.206535727</v>
+        <v>24317347.404179551</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -11018,23 +10983,23 @@
       <c r="C83" s="119"/>
       <c r="D83" s="114">
         <f>SUM(D80:D82)</f>
-        <v>30610727.184122786</v>
+        <v>33942964.085000619</v>
       </c>
       <c r="E83" s="114">
         <f t="shared" ref="E83:H83" si="47">SUM(E80:E82)</f>
-        <v>30610727.184122786</v>
+        <v>33942964.085000619</v>
       </c>
       <c r="F83" s="114">
         <f t="shared" si="47"/>
-        <v>30610727.184122786</v>
+        <v>33942964.085000619</v>
       </c>
       <c r="G83" s="114">
         <f t="shared" si="47"/>
-        <v>30610727.184122786</v>
+        <v>33942964.085000619</v>
       </c>
       <c r="H83" s="131">
         <f t="shared" si="47"/>
-        <v>30610727.184122786</v>
+        <v>33942964.085000619</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -11047,23 +11012,23 @@
       <c r="C84" s="119"/>
       <c r="D84" s="125">
         <f>_CFE_Taux_Select1</f>
-        <v>0.04</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="E84" s="125">
         <f>_CFE_Taux_Select2</f>
-        <v>0.04</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F84" s="125">
         <f>_CFE_Taux_Select3</f>
-        <v>0.04</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="G84" s="125">
         <f>_CFE_Taux_Select4</f>
-        <v>0.04</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="H84" s="126">
         <f>_CFE_Taux_Select5</f>
-        <v>0.04</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -11076,23 +11041,23 @@
       <c r="C85" s="121"/>
       <c r="D85" s="110">
         <f>D83*D84</f>
-        <v>1224429.0873649116</v>
+        <v>2953037.8753950535</v>
       </c>
       <c r="E85" s="110">
         <f t="shared" ref="E85:H85" si="48">E83*E84</f>
-        <v>1224429.0873649116</v>
+        <v>2953037.8753950535</v>
       </c>
       <c r="F85" s="110">
         <f t="shared" si="48"/>
-        <v>1224429.0873649116</v>
+        <v>2953037.8753950535</v>
       </c>
       <c r="G85" s="110">
         <f t="shared" si="48"/>
-        <v>1224429.0873649116</v>
+        <v>2953037.8753950535</v>
       </c>
       <c r="H85" s="111">
         <f t="shared" si="48"/>
-        <v>1224429.0873649116</v>
+        <v>2953037.8753950535</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -11110,23 +11075,23 @@
       <c r="C88" s="116"/>
       <c r="D88" s="127">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2512820.8882488855</v>
+        <v>2786362.7233955739</v>
       </c>
       <c r="E88" s="127">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2512820.8882488855</v>
+        <v>2786362.7233955739</v>
       </c>
       <c r="F88" s="127">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2512820.8882488855</v>
+        <v>2786362.7233955739</v>
       </c>
       <c r="G88" s="127">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2512820.8882488855</v>
+        <v>2786362.7233955739</v>
       </c>
       <c r="H88" s="128">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2512820.8882488855</v>
+        <v>2786362.7233955739</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -11139,23 +11104,23 @@
       <c r="C89" s="119"/>
       <c r="D89" s="125">
         <f>_IRC_Taux_Select1</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E89" s="125">
         <f>_IRC_Taux_Select2</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F89" s="125">
         <f>_IRC_Taux_Select3</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="G89" s="125">
         <f>_IRC_Taux_Select4</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="H89" s="126">
         <f>_IRC_Taux_Select5</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -11168,23 +11133,23 @@
       <c r="C90" s="121"/>
       <c r="D90" s="110">
         <f>D88*D89</f>
-        <v>376923.1332373328</v>
+        <v>557272.54467911483</v>
       </c>
       <c r="E90" s="110">
         <f t="shared" ref="E90" si="49">E88*E89</f>
-        <v>376923.1332373328</v>
+        <v>557272.54467911483</v>
       </c>
       <c r="F90" s="110">
         <f t="shared" ref="F90" si="50">F88*F89</f>
-        <v>376923.1332373328</v>
+        <v>557272.54467911483</v>
       </c>
       <c r="G90" s="110">
         <f t="shared" ref="G90" si="51">G88*G89</f>
-        <v>376923.1332373328</v>
+        <v>557272.54467911483</v>
       </c>
       <c r="H90" s="111">
         <f t="shared" ref="H90" si="52">H88*H89</f>
-        <v>376923.1332373328</v>
+        <v>557272.54467911483</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -11202,23 +11167,23 @@
       <c r="C93" s="91"/>
       <c r="D93" s="93">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>479720351.39296907</v>
+        <v>531941974.46642768</v>
       </c>
       <c r="E93" s="93">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>479720351.39296907</v>
+        <v>531941974.46642768</v>
       </c>
       <c r="F93" s="93">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>479720351.39296907</v>
+        <v>531941974.46642768</v>
       </c>
       <c r="G93" s="93">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>479720351.39296907</v>
+        <v>531941974.46642768</v>
       </c>
       <c r="H93" s="137">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>479720351.39296907</v>
+        <v>531941974.46642768</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -11231,23 +11196,23 @@
       <c r="C94" s="119"/>
       <c r="D94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>391543182.04168999</v>
+        <v>434165973.44545579</v>
       </c>
       <c r="E94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>391543182.04168999</v>
+        <v>434165973.44545579</v>
       </c>
       <c r="F94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>391543182.04168999</v>
+        <v>434165973.44545579</v>
       </c>
       <c r="G94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>391543182.04168999</v>
+        <v>434165973.44545579</v>
       </c>
       <c r="H94" s="130">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>391543182.04168999</v>
+        <v>434165973.44545579</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -11318,23 +11283,23 @@
       <c r="C97" s="119"/>
       <c r="D97" s="129">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>4568765.2513616104</v>
+        <v>5066114.042537407</v>
       </c>
       <c r="E97" s="129">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>4568765.2513616104</v>
+        <v>5066114.042537407</v>
       </c>
       <c r="F97" s="129">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>4568765.2513616104</v>
+        <v>5066114.042537407</v>
       </c>
       <c r="G97" s="129">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>4568765.2513616104</v>
+        <v>5066114.042537407</v>
       </c>
       <c r="H97" s="130">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>4568765.2513616104</v>
+        <v>5066114.042537407</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -11347,27 +11312,27 @@
       <c r="C98" s="119"/>
       <c r="D98" s="129">
         <f t="shared" ref="D98:I98" si="54">_DepensesPublicitaires_Select*_PIBPNB_Select</f>
-        <v>4797203.5139296902</v>
+        <v>5319419.744664277</v>
       </c>
       <c r="E98" s="129">
         <f t="shared" si="54"/>
-        <v>4797203.5139296902</v>
+        <v>5319419.744664277</v>
       </c>
       <c r="F98" s="129">
         <f t="shared" si="54"/>
-        <v>4797203.5139296902</v>
+        <v>5319419.744664277</v>
       </c>
       <c r="G98" s="129">
         <f t="shared" si="54"/>
-        <v>4797203.5139296902</v>
+        <v>5319419.744664277</v>
       </c>
       <c r="H98" s="130">
         <f t="shared" si="54"/>
-        <v>4797203.5139296902</v>
+        <v>5319419.744664277</v>
       </c>
       <c r="I98" s="217">
         <f t="shared" si="54"/>
-        <v>4797203.5139296902</v>
+        <v>5319419.744664277</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -11380,23 +11345,23 @@
       <c r="C99" s="119"/>
       <c r="D99" s="129">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>1370629.5754084829</v>
+        <v>1519834.2127612219</v>
       </c>
       <c r="E99" s="129">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>1370629.5754084829</v>
+        <v>1519834.2127612219</v>
       </c>
       <c r="F99" s="129">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>1370629.5754084829</v>
+        <v>1519834.2127612219</v>
       </c>
       <c r="G99" s="129">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>1370629.5754084829</v>
+        <v>1519834.2127612219</v>
       </c>
       <c r="H99" s="130">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>1370629.5754084829</v>
+        <v>1519834.2127612219</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -11409,23 +11374,23 @@
       <c r="C100" s="116"/>
       <c r="D100" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4111888.7262254492</v>
+        <v>4559502.6382836662</v>
       </c>
       <c r="E100" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4111888.7262254492</v>
+        <v>4559502.6382836662</v>
       </c>
       <c r="F100" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4111888.7262254492</v>
+        <v>4559502.6382836662</v>
       </c>
       <c r="G100" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4111888.7262254492</v>
+        <v>4559502.6382836662</v>
       </c>
       <c r="H100" s="128">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4111888.7262254492</v>
+        <v>4559502.6382836662</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -11438,23 +11403,23 @@
       <c r="C101" s="119"/>
       <c r="D101" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>4568765.2513616104</v>
+        <v>5066114.042537407</v>
       </c>
       <c r="E101" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>4568765.2513616104</v>
+        <v>5066114.042537407</v>
       </c>
       <c r="F101" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>4568765.2513616104</v>
+        <v>5066114.042537407</v>
       </c>
       <c r="G101" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>4568765.2513616104</v>
+        <v>5066114.042537407</v>
       </c>
       <c r="H101" s="130">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>4568765.2513616104</v>
+        <v>5066114.042537407</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -11467,23 +11432,23 @@
       <c r="C102" s="119"/>
       <c r="D102" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>21930073.206535727</v>
+        <v>24317347.404179551</v>
       </c>
       <c r="E102" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>21930073.206535727</v>
+        <v>24317347.404179551</v>
       </c>
       <c r="F102" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>21930073.206535727</v>
+        <v>24317347.404179551</v>
       </c>
       <c r="G102" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>21930073.206535727</v>
+        <v>24317347.404179551</v>
       </c>
       <c r="H102" s="130">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>21930073.206535727</v>
+        <v>24317347.404179551</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -11496,23 +11461,23 @@
       <c r="C103" s="121"/>
       <c r="D103" s="135">
         <f>D$85</f>
-        <v>1224429.0873649116</v>
+        <v>2953037.8753950535</v>
       </c>
       <c r="E103" s="135">
         <f t="shared" ref="E103:H103" si="55">E$85</f>
-        <v>1224429.0873649116</v>
+        <v>2953037.8753950535</v>
       </c>
       <c r="F103" s="135">
         <f t="shared" si="55"/>
-        <v>1224429.0873649116</v>
+        <v>2953037.8753950535</v>
       </c>
       <c r="G103" s="135">
         <f t="shared" si="55"/>
-        <v>1224429.0873649116</v>
+        <v>2953037.8753950535</v>
       </c>
       <c r="H103" s="136">
         <f t="shared" si="55"/>
-        <v>1224429.0873649116</v>
+        <v>2953037.8753950535</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -11525,23 +11490,23 @@
       <c r="C104" s="119"/>
       <c r="D104" s="129">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2512820.8882488855</v>
+        <v>2786362.7233955739</v>
       </c>
       <c r="E104" s="129">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2512820.8882488855</v>
+        <v>2786362.7233955739</v>
       </c>
       <c r="F104" s="129">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2512820.8882488855</v>
+        <v>2786362.7233955739</v>
       </c>
       <c r="G104" s="129">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2512820.8882488855</v>
+        <v>2786362.7233955739</v>
       </c>
       <c r="H104" s="130">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2512820.8882488855</v>
+        <v>2786362.7233955739</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -11554,23 +11519,23 @@
       <c r="C105" s="91"/>
       <c r="D105" s="112">
         <f>D$12</f>
-        <v>9898991.3779501561</v>
+        <v>5994901.617002598</v>
       </c>
       <c r="E105" s="112">
         <f t="shared" ref="E105:H105" si="56">E$12</f>
-        <v>8185704.4086895529</v>
+        <v>5994901.617002598</v>
       </c>
       <c r="F105" s="112">
         <f t="shared" si="56"/>
-        <v>5758547.8689036965</v>
+        <v>5994901.617002598</v>
       </c>
       <c r="G105" s="112">
         <f t="shared" si="56"/>
-        <v>4033363.0734676714</v>
+        <v>4306196.9361567963</v>
       </c>
       <c r="H105" s="134">
         <f t="shared" si="56"/>
-        <v>3310570.133310854</v>
+        <v>4306196.9361567963</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -11583,23 +11548,23 @@
       <c r="C106" s="116"/>
       <c r="D106" s="153">
         <f>D93-SUM(D94:D105)</f>
-        <v>33193602.472892702</v>
+        <v>40193366.720215142</v>
       </c>
       <c r="E106" s="153">
         <f>E93-SUM(E94:E105)</f>
-        <v>34906889.442153275</v>
+        <v>40193366.720215142</v>
       </c>
       <c r="F106" s="153">
         <f>F93-SUM(F94:F105)</f>
-        <v>37334045.981939137</v>
+        <v>40193366.720215142</v>
       </c>
       <c r="G106" s="153">
         <f>G93-SUM(G94:G105)</f>
-        <v>39059230.777375162</v>
+        <v>41882071.401060939</v>
       </c>
       <c r="H106" s="154">
         <f>H93-SUM(H94:H105)</f>
-        <v>39782023.717531979</v>
+        <v>41882071.401060939</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -11612,23 +11577,23 @@
       <c r="C107" s="121"/>
       <c r="D107" s="132">
         <f>D106/D$93</f>
-        <v>6.9193650793651099E-2</v>
+        <v>7.5559682539682441E-2</v>
       </c>
       <c r="E107" s="132">
         <f t="shared" ref="E107:H107" si="57">E106/E$93</f>
-        <v>7.2765079365079616E-2</v>
+        <v>7.5559682539682441E-2</v>
       </c>
       <c r="F107" s="132">
         <f t="shared" si="57"/>
-        <v>7.7824603174603435E-2</v>
+        <v>7.5559682539682441E-2</v>
       </c>
       <c r="G107" s="132">
         <f t="shared" si="57"/>
-        <v>8.1420833333333595E-2</v>
+        <v>7.8734285714285618E-2</v>
       </c>
       <c r="H107" s="133">
         <f t="shared" si="57"/>
-        <v>8.2927529761905025E-2</v>
+        <v>7.8734285714285618E-2</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -11646,23 +11611,23 @@
       <c r="C110" s="116"/>
       <c r="D110" s="117">
         <f>D106</f>
-        <v>33193602.472892702</v>
+        <v>40193366.720215142</v>
       </c>
       <c r="E110" s="117">
         <f t="shared" ref="E110:H110" si="58">E106</f>
-        <v>34906889.442153275</v>
+        <v>40193366.720215142</v>
       </c>
       <c r="F110" s="117">
         <f t="shared" si="58"/>
-        <v>37334045.981939137</v>
+        <v>40193366.720215142</v>
       </c>
       <c r="G110" s="117">
         <f t="shared" si="58"/>
-        <v>39059230.777375162</v>
+        <v>41882071.401060939</v>
       </c>
       <c r="H110" s="118">
         <f t="shared" si="58"/>
-        <v>39782023.717531979</v>
+        <v>41882071.401060939</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -11704,23 +11669,23 @@
       <c r="C112" s="121"/>
       <c r="D112" s="122">
         <f>D110-D111</f>
-        <v>33193602.472892702</v>
+        <v>40193366.720215142</v>
       </c>
       <c r="E112" s="122">
         <f t="shared" ref="E112:H112" si="59">E110-E111</f>
-        <v>34906889.442153275</v>
+        <v>40193366.720215142</v>
       </c>
       <c r="F112" s="122">
         <f t="shared" si="59"/>
-        <v>37334045.981939137</v>
+        <v>40193366.720215142</v>
       </c>
       <c r="G112" s="122">
         <f t="shared" si="59"/>
-        <v>39059230.777375162</v>
+        <v>41882071.401060939</v>
       </c>
       <c r="H112" s="123">
         <f t="shared" si="59"/>
-        <v>39782023.717531979</v>
+        <v>41882071.401060939</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -11738,23 +11703,23 @@
       <c r="C115" s="116"/>
       <c r="D115" s="117">
         <f>D$112</f>
-        <v>33193602.472892702</v>
+        <v>40193366.720215142</v>
       </c>
       <c r="E115" s="117">
         <f t="shared" ref="E115:H115" si="60">E$112</f>
-        <v>34906889.442153275</v>
+        <v>40193366.720215142</v>
       </c>
       <c r="F115" s="117">
         <f t="shared" si="60"/>
-        <v>37334045.981939137</v>
+        <v>40193366.720215142</v>
       </c>
       <c r="G115" s="117">
         <f t="shared" si="60"/>
-        <v>39059230.777375162</v>
+        <v>41882071.401060939</v>
       </c>
       <c r="H115" s="118">
         <f t="shared" si="60"/>
-        <v>39782023.717531979</v>
+        <v>41882071.401060939</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -11767,23 +11732,23 @@
       <c r="C116" s="119"/>
       <c r="D116" s="125">
         <f>_IS_Taux_Select1</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E116" s="125">
         <f>_IS_Taux_Select2</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F116" s="125">
         <f>_IS_Taux_Select3</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G116" s="125">
         <f>_IS_Taux_Select4</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H116" s="126">
         <f>_IS_Taux_Select5</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -11796,23 +11761,23 @@
       <c r="C117" s="121"/>
       <c r="D117" s="110">
         <f>D115*D116</f>
-        <v>9958080.7418678105</v>
+        <v>0</v>
       </c>
       <c r="E117" s="110">
         <f t="shared" ref="E117:H117" si="61">E115*E116</f>
-        <v>10472066.832645983</v>
+        <v>0</v>
       </c>
       <c r="F117" s="110">
         <f t="shared" si="61"/>
-        <v>11200213.794581741</v>
+        <v>0</v>
       </c>
       <c r="G117" s="110">
         <f t="shared" si="61"/>
-        <v>11717769.233212547</v>
+        <v>0</v>
       </c>
       <c r="H117" s="111">
         <f t="shared" si="61"/>
-        <v>11934607.115259593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
@@ -11830,23 +11795,23 @@
       <c r="C120" s="116"/>
       <c r="D120" s="117">
         <f>D$93</f>
-        <v>479720351.39296907</v>
+        <v>531941974.46642768</v>
       </c>
       <c r="E120" s="117">
         <f t="shared" ref="E120:H120" si="62">E$93</f>
-        <v>479720351.39296907</v>
+        <v>531941974.46642768</v>
       </c>
       <c r="F120" s="117">
         <f t="shared" si="62"/>
-        <v>479720351.39296907</v>
+        <v>531941974.46642768</v>
       </c>
       <c r="G120" s="117">
         <f t="shared" si="62"/>
-        <v>479720351.39296907</v>
+        <v>531941974.46642768</v>
       </c>
       <c r="H120" s="118">
         <f t="shared" si="62"/>
-        <v>479720351.39296907</v>
+        <v>531941974.46642768</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -11859,23 +11824,23 @@
       <c r="C121" s="119"/>
       <c r="D121" s="125">
         <f>_IMF_Taux_Select1</f>
-        <v>7.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="E121" s="125">
         <f>_IMF_Taux_Select2</f>
-        <v>7.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="F121" s="125">
         <f>_IMF_Taux_Select3</f>
-        <v>7.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="G121" s="125">
         <f>_IMF_Taux_Select4</f>
-        <v>7.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="H121" s="126">
         <f>_IMF_Taux_Select5</f>
-        <v>7.4999999999999997E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -11888,23 +11853,23 @@
       <c r="C122" s="121"/>
       <c r="D122" s="110">
         <f>D120*D121</f>
-        <v>3597902.6354472679</v>
+        <v>0</v>
       </c>
       <c r="E122" s="110">
         <f t="shared" ref="E122" si="63">E120*E121</f>
-        <v>3597902.6354472679</v>
+        <v>0</v>
       </c>
       <c r="F122" s="110">
         <f t="shared" ref="F122" si="64">F120*F121</f>
-        <v>3597902.6354472679</v>
+        <v>0</v>
       </c>
       <c r="G122" s="110">
         <f t="shared" ref="G122" si="65">G120*G121</f>
-        <v>3597902.6354472679</v>
+        <v>0</v>
       </c>
       <c r="H122" s="111">
         <f t="shared" ref="H122" si="66">H120*H121</f>
-        <v>3597902.6354472679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -11920,23 +11885,23 @@
       <c r="C125" s="116"/>
       <c r="D125" s="155">
         <f>IF(D$117&gt;D$122,D$117,D$122)</f>
-        <v>9958080.7418678105</v>
+        <v>0</v>
       </c>
       <c r="E125" s="155">
         <f>IF(E$117&gt;E$122,E$117,E$122)</f>
-        <v>10472066.832645983</v>
+        <v>0</v>
       </c>
       <c r="F125" s="155">
         <f>IF(F$117&gt;F$122,F$117,F$122)</f>
-        <v>11200213.794581741</v>
+        <v>0</v>
       </c>
       <c r="G125" s="155">
         <f>IF(G$117&gt;G$122,G$117,G$122)</f>
-        <v>11717769.233212547</v>
+        <v>0</v>
       </c>
       <c r="H125" s="156">
         <f>IF(H$117&gt;H$122,H$117,H$122)</f>
-        <v>11934607.115259593</v>
+        <v>0</v>
       </c>
       <c r="M125" s="1">
         <v>0.1</v>
@@ -11952,27 +11917,27 @@
       <c r="C126" s="119"/>
       <c r="D126" s="113">
         <f>D$106</f>
-        <v>33193602.472892702</v>
+        <v>40193366.720215142</v>
       </c>
       <c r="E126" s="113">
         <f t="shared" ref="E126:H126" si="67">E$106</f>
-        <v>34906889.442153275</v>
+        <v>40193366.720215142</v>
       </c>
       <c r="F126" s="113">
         <f t="shared" si="67"/>
-        <v>37334045.981939137</v>
+        <v>40193366.720215142</v>
       </c>
       <c r="G126" s="113">
         <f t="shared" si="67"/>
-        <v>39059230.777375162</v>
+        <v>41882071.401060939</v>
       </c>
       <c r="H126" s="120">
         <f t="shared" si="67"/>
-        <v>39782023.717531979</v>
+        <v>41882071.401060939</v>
       </c>
       <c r="I126" s="182">
         <f>D110-D125</f>
-        <v>23235521.731024891</v>
+        <v>40193366.720215142</v>
       </c>
       <c r="M126" s="1">
         <v>-10000</v>
@@ -11988,23 +11953,23 @@
       <c r="C127" s="121"/>
       <c r="D127" s="132">
         <f>D126/D$93</f>
-        <v>6.9193650793651099E-2</v>
+        <v>7.5559682539682441E-2</v>
       </c>
       <c r="E127" s="132">
         <f t="shared" ref="E127:H127" si="68">E126/E$93</f>
-        <v>7.2765079365079616E-2</v>
+        <v>7.5559682539682441E-2</v>
       </c>
       <c r="F127" s="132">
         <f t="shared" si="68"/>
-        <v>7.7824603174603435E-2</v>
+        <v>7.5559682539682441E-2</v>
       </c>
       <c r="G127" s="132">
         <f t="shared" si="68"/>
-        <v>8.1420833333333595E-2</v>
+        <v>7.8734285714285618E-2</v>
       </c>
       <c r="H127" s="133">
         <f t="shared" si="68"/>
-        <v>8.2927529761905025E-2</v>
+        <v>7.8734285714285618E-2</v>
       </c>
       <c r="M127" s="1">
         <v>3000</v>
@@ -12033,23 +11998,23 @@
       <c r="C130" s="116"/>
       <c r="D130" s="117">
         <f>D126</f>
-        <v>33193602.472892702</v>
+        <v>40193366.720215142</v>
       </c>
       <c r="E130" s="117">
         <f t="shared" ref="E130:H130" si="69">E126</f>
-        <v>34906889.442153275</v>
+        <v>40193366.720215142</v>
       </c>
       <c r="F130" s="117">
         <f t="shared" si="69"/>
-        <v>37334045.981939137</v>
+        <v>40193366.720215142</v>
       </c>
       <c r="G130" s="117">
         <f t="shared" si="69"/>
-        <v>39059230.777375162</v>
+        <v>41882071.401060939</v>
       </c>
       <c r="H130" s="118">
         <f t="shared" si="69"/>
-        <v>39782023.717531979</v>
+        <v>41882071.401060939</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
@@ -12091,23 +12056,23 @@
       <c r="C132" s="119"/>
       <c r="D132" s="125">
         <f>_IRVM_Taux_Select1</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E132" s="125">
         <f>_IRVM_Taux_Select2</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F132" s="125">
         <f>_IRVM_Taux_Select3</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G132" s="125">
         <f>_IRVM_Taux_Select4</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H132" s="126">
         <f>_IRVM_Taux_Select5</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K132" s="213">
         <f>NPV(M125,M126,M127,M128,M129)</f>
@@ -12124,34 +12089,34 @@
       <c r="C133" s="121"/>
       <c r="D133" s="110">
         <f>D130*D131*D132</f>
-        <v>1659680.1236446351</v>
+        <v>4019336.6720215143</v>
       </c>
       <c r="E133" s="110">
         <f t="shared" ref="E133:H133" si="70">E130*E131*E132</f>
-        <v>1745344.4721076638</v>
+        <v>4019336.6720215143</v>
       </c>
       <c r="F133" s="110">
         <f t="shared" si="70"/>
-        <v>1866702.2990969568</v>
+        <v>4019336.6720215143</v>
       </c>
       <c r="G133" s="110">
         <f t="shared" si="70"/>
-        <v>1952961.5388687581</v>
+        <v>4188207.1401060941</v>
       </c>
       <c r="H133" s="111">
         <f t="shared" si="70"/>
-        <v>1989101.185876599</v>
+        <v>4188207.1401060941</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J134" s="212"/>
       <c r="L134" s="1">
         <f>(D141/1.08^0)+(E141/1.08^1)+(F141/1.08^2)+(G141/1.08^3)+(H141/1.08^4)</f>
-        <v>47331052.523289263</v>
+        <v>0</v>
       </c>
       <c r="M134" s="1">
         <f>L134/1.08</f>
-        <v>43825048.632675238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
@@ -12216,31 +12181,31 @@
       <c r="C140" s="116"/>
       <c r="D140" s="117">
         <f>D$85</f>
-        <v>1224429.0873649116</v>
+        <v>2953037.8753950535</v>
       </c>
       <c r="E140" s="117">
         <f t="shared" ref="E140:H140" si="71">E$85</f>
-        <v>1224429.0873649116</v>
+        <v>2953037.8753950535</v>
       </c>
       <c r="F140" s="117">
         <f t="shared" si="71"/>
-        <v>1224429.0873649116</v>
+        <v>2953037.8753950535</v>
       </c>
       <c r="G140" s="117">
         <f t="shared" si="71"/>
-        <v>1224429.0873649116</v>
+        <v>2953037.8753950535</v>
       </c>
       <c r="H140" s="117">
         <f t="shared" si="71"/>
-        <v>1224429.0873649116</v>
+        <v>2953037.8753950535</v>
       </c>
       <c r="I140" s="162">
         <f>NPV(_TauxDActualisation_Select,D140:H140)</f>
-        <v>4953899.1581374388</v>
+        <v>11947651.355090434</v>
       </c>
       <c r="K140" s="182">
         <f>(D140/(1.08))+(D140/(1.08*2))+(D140/(1.08*3))+(D140/(1.08*4))+(D140/(1.08*5))</f>
-        <v>2588684.9532251987</v>
+        <v>6243305.3847086783</v>
       </c>
       <c r="M140" s="1">
         <v>1</v>
@@ -12268,27 +12233,27 @@
       <c r="C141" s="119"/>
       <c r="D141" s="113">
         <f>D125</f>
-        <v>9958080.7418678105</v>
+        <v>0</v>
       </c>
       <c r="E141" s="113">
         <f>E125</f>
-        <v>10472066.832645983</v>
+        <v>0</v>
       </c>
       <c r="F141" s="113">
         <f>F125</f>
-        <v>11200213.794581741</v>
+        <v>0</v>
       </c>
       <c r="G141" s="113">
         <f>G125</f>
-        <v>11717769.233212547</v>
+        <v>0</v>
       </c>
       <c r="H141" s="113">
         <f>H125</f>
-        <v>11934607.115259593</v>
+        <v>0</v>
       </c>
       <c r="I141" s="163">
         <f t="shared" ref="I141:I145" si="72">NPV(_TauxDActualisation_Select,D141:H141)</f>
-        <v>44428307.764517143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
@@ -12301,27 +12266,27 @@
       <c r="C142" s="119"/>
       <c r="D142" s="113">
         <f>D$133</f>
-        <v>1659680.1236446351</v>
+        <v>4019336.6720215143</v>
       </c>
       <c r="E142" s="113">
         <f>E$133</f>
-        <v>1745344.4721076638</v>
+        <v>4019336.6720215143</v>
       </c>
       <c r="F142" s="113">
         <f t="shared" ref="F142:H142" si="73">F$133</f>
-        <v>1866702.2990969568</v>
+        <v>4019336.6720215143</v>
       </c>
       <c r="G142" s="113">
         <f t="shared" si="73"/>
-        <v>1952961.5388687581</v>
+        <v>4188207.1401060941</v>
       </c>
       <c r="H142" s="113">
         <f t="shared" si="73"/>
-        <v>1989101.185876599</v>
+        <v>4188207.1401060941</v>
       </c>
       <c r="I142" s="163">
         <f t="shared" si="72"/>
-        <v>7404717.9607528578</v>
+        <v>16505852.035639185</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
@@ -12334,27 +12299,27 @@
       <c r="C143" s="119"/>
       <c r="D143" s="113">
         <f>D$90</f>
-        <v>376923.1332373328</v>
+        <v>557272.54467911483</v>
       </c>
       <c r="E143" s="113">
         <f t="shared" ref="E143:H143" si="74">E$90</f>
-        <v>376923.1332373328</v>
+        <v>557272.54467911483</v>
       </c>
       <c r="F143" s="113">
         <f t="shared" si="74"/>
-        <v>376923.1332373328</v>
+        <v>557272.54467911483</v>
       </c>
       <c r="G143" s="113">
         <f t="shared" si="74"/>
-        <v>376923.1332373328</v>
+        <v>557272.54467911483</v>
       </c>
       <c r="H143" s="113">
         <f t="shared" si="74"/>
-        <v>376923.1332373328</v>
+        <v>557272.54467911483</v>
       </c>
       <c r="I143" s="163">
         <f t="shared" si="72"/>
-        <v>1524987.6139788758</v>
+        <v>2254660.5748154889</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
@@ -12400,27 +12365,27 @@
       <c r="C145" s="121"/>
       <c r="D145" s="122">
         <f>SUM(D140:D144)</f>
-        <v>13219113.08611469</v>
+        <v>7529647.0920956824</v>
       </c>
       <c r="E145" s="122">
         <f>SUM(E140:E144)</f>
-        <v>13818763.52535589</v>
+        <v>7529647.0920956824</v>
       </c>
       <c r="F145" s="122">
         <f>SUM(F140:F144)</f>
-        <v>14668268.314280942</v>
+        <v>7529647.0920956824</v>
       </c>
       <c r="G145" s="122">
         <f>SUM(G140:G144)</f>
-        <v>15272082.99268355</v>
+        <v>7698517.5601802617</v>
       </c>
       <c r="H145" s="122">
         <f>SUM(H140:H144)</f>
-        <v>15525060.521738436</v>
+        <v>7698517.5601802617</v>
       </c>
       <c r="I145" s="165">
         <f t="shared" si="72"/>
-        <v>58311912.497386321</v>
+        <v>30708163.965545107</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
@@ -12441,27 +12406,27 @@
       <c r="C147" s="116"/>
       <c r="D147" s="117">
         <f t="shared" ref="D147:H148" si="76">D140*D$136</f>
-        <v>1224429.0873649116</v>
+        <v>2953037.8753950535</v>
       </c>
       <c r="E147" s="117">
         <f t="shared" si="76"/>
-        <v>1139003.8021999176</v>
+        <v>2747011.9771116776</v>
       </c>
       <c r="F147" s="117">
         <f t="shared" si="76"/>
-        <v>1059538.4206510864</v>
+        <v>2555359.9787085378</v>
       </c>
       <c r="G147" s="117">
         <f t="shared" si="76"/>
-        <v>985617.13548938266</v>
+        <v>2377079.0499614305</v>
       </c>
       <c r="H147" s="117">
         <f t="shared" si="76"/>
-        <v>916853.149292449</v>
+        <v>2211236.3255455168</v>
       </c>
       <c r="I147" s="162">
         <f>SUM(D147:H147)</f>
-        <v>5325441.5949977469</v>
+        <v>12843725.206722215</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
@@ -12474,27 +12439,27 @@
       <c r="C148" s="119"/>
       <c r="D148" s="113">
         <f t="shared" si="76"/>
-        <v>9958080.7418678105</v>
+        <v>0</v>
       </c>
       <c r="E148" s="113">
         <f t="shared" si="76"/>
-        <v>9741457.5187404491</v>
+        <v>0</v>
       </c>
       <c r="F148" s="113">
         <f t="shared" si="76"/>
-        <v>9691910.2603195179</v>
+        <v>0</v>
       </c>
       <c r="G148" s="113">
         <f t="shared" si="76"/>
-        <v>9432342.1953488775</v>
+        <v>0</v>
       </c>
       <c r="H148" s="113">
         <f t="shared" si="76"/>
-        <v>8936640.130579276</v>
+        <v>0</v>
       </c>
       <c r="I148" s="163">
         <f t="shared" ref="I148:I152" si="77">SUM(D148:H148)</f>
-        <v>47760430.846855938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
@@ -12507,27 +12472,27 @@
       <c r="C149" s="119"/>
       <c r="D149" s="113">
         <f t="shared" ref="D149:H149" si="78">D142*D$136</f>
-        <v>1659680.1236446351</v>
+        <v>4019336.6720215143</v>
       </c>
       <c r="E149" s="113">
         <f>E142*E$136</f>
-        <v>1623576.2531234082</v>
+        <v>3738917.8344386178</v>
       </c>
       <c r="F149" s="113">
         <f t="shared" si="78"/>
-        <v>1615318.3767199195</v>
+        <v>3478063.1018033656</v>
       </c>
       <c r="G149" s="113">
         <f t="shared" si="78"/>
-        <v>1572057.0325581464</v>
+        <v>3371341.6047239872</v>
       </c>
       <c r="H149" s="113">
         <f t="shared" si="78"/>
-        <v>1489440.021763213</v>
+        <v>3136131.7253246391</v>
       </c>
       <c r="I149" s="163">
         <f t="shared" si="77"/>
-        <v>7960071.8078093231</v>
+        <v>17743790.938312124</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
@@ -12540,27 +12505,27 @@
       <c r="C150" s="119"/>
       <c r="D150" s="113">
         <f t="shared" ref="D150:H150" si="79">D143*D$136</f>
-        <v>376923.1332373328</v>
+        <v>557272.54467911483</v>
       </c>
       <c r="E150" s="113">
         <f t="shared" si="79"/>
-        <v>350626.17045333283</v>
+        <v>518393.06481778121</v>
       </c>
       <c r="F150" s="113">
         <f t="shared" si="79"/>
-        <v>326163.87949147244</v>
+        <v>482226.10680723836</v>
       </c>
       <c r="G150" s="113">
         <f t="shared" si="79"/>
-        <v>303408.25999206741</v>
+        <v>448582.42493696598</v>
       </c>
       <c r="H150" s="113">
         <f t="shared" si="79"/>
-        <v>282240.24185308593</v>
+        <v>417285.97668554971</v>
       </c>
       <c r="I150" s="163">
         <f t="shared" si="77"/>
-        <v>1639361.6850272915</v>
+        <v>2423760.1179266502</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
@@ -12606,49 +12571,49 @@
       <c r="C152" s="121"/>
       <c r="D152" s="122">
         <f>SUM(D147:D151)</f>
-        <v>13219113.08611469</v>
+        <v>7529647.0920956824</v>
       </c>
       <c r="E152" s="122">
         <f t="shared" ref="E152" si="81">SUM(E147:E151)</f>
-        <v>12854663.744517107</v>
+        <v>7004322.8763680765</v>
       </c>
       <c r="F152" s="122">
         <f t="shared" ref="F152" si="82">SUM(F147:F151)</f>
-        <v>12692930.937181996</v>
+        <v>6515649.1873191418</v>
       </c>
       <c r="G152" s="122">
         <f t="shared" ref="G152" si="83">SUM(G147:G151)</f>
-        <v>12293424.623388473</v>
+        <v>6197003.0796223832</v>
       </c>
       <c r="H152" s="122">
         <f t="shared" ref="H152" si="84">SUM(H147:H151)</f>
-        <v>11625173.543488024</v>
+        <v>5764654.027555706</v>
       </c>
       <c r="I152" s="165">
         <f t="shared" si="77"/>
-        <v>62685305.934690297</v>
+        <v>33011276.262960993</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="M153" s="182">
         <f>SUM(D140:D144)</f>
-        <v>13219113.08611469</v>
+        <v>7529647.0920956824</v>
       </c>
       <c r="N153" s="182">
         <f t="shared" ref="N153:Q153" si="85">SUM(E140:E144)</f>
-        <v>13818763.52535589</v>
+        <v>7529647.0920956824</v>
       </c>
       <c r="O153" s="182">
         <f t="shared" si="85"/>
-        <v>14668268.314280942</v>
+        <v>7529647.0920956824</v>
       </c>
       <c r="P153" s="182">
         <f t="shared" si="85"/>
-        <v>15272082.99268355</v>
+        <v>7698517.5601802617</v>
       </c>
       <c r="Q153" s="182">
         <f t="shared" si="85"/>
-        <v>15525060.521738436</v>
+        <v>7698517.5601802617</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
@@ -12671,47 +12636,47 @@
       <c r="C156" s="116"/>
       <c r="D156" s="166">
         <f t="shared" ref="D156:I161" si="86">D140/D$171</f>
-        <v>2.7628865979381443E-2</v>
+        <v>6.0092783505154693E-2</v>
       </c>
       <c r="E156" s="166">
         <f t="shared" si="86"/>
-        <v>2.7628865979381443E-2</v>
+        <v>6.0092783505154693E-2</v>
       </c>
       <c r="F156" s="166">
         <f t="shared" si="86"/>
-        <v>2.7628865979381443E-2</v>
+        <v>6.0092783505154693E-2</v>
       </c>
       <c r="G156" s="166">
         <f t="shared" si="86"/>
-        <v>2.7628865979381443E-2</v>
+        <v>6.0092783505154693E-2</v>
       </c>
       <c r="H156" s="166">
         <f t="shared" si="86"/>
-        <v>2.7628865979381443E-2</v>
+        <v>6.0092783505154693E-2</v>
       </c>
       <c r="I156" s="168">
         <f t="shared" si="86"/>
-        <v>7.6117289868924506E-2</v>
+        <v>0.16555510546491134</v>
       </c>
       <c r="M156" s="182">
         <f>M153/((1+_TauxDActualisation_Select)^D1)</f>
-        <v>12296849.382432271</v>
+        <v>7004322.8763680765</v>
       </c>
       <c r="N156" s="182">
         <f>N153/((1+_TauxDActualisation_Select)^E1)</f>
-        <v>11957826.739085682</v>
+        <v>6515649.1873191418</v>
       </c>
       <c r="O156" s="182">
         <f>O153/((1+_TauxDActualisation_Select)^F1)</f>
-        <v>11807377.615983251</v>
+        <v>6061069.0114596672</v>
       </c>
       <c r="P156" s="182">
         <f>P153/((1+_TauxDActualisation_Select)^G1)</f>
-        <v>11435743.835710207</v>
+        <v>5764654.027555705</v>
       </c>
       <c r="Q156" s="182">
         <f>Q153/((1+_TauxDActualisation_Select)^H1)</f>
-        <v>10814114.924174907</v>
+        <v>5362468.862842516</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
@@ -12724,31 +12689,31 @@
       <c r="C157" s="119"/>
       <c r="D157" s="167">
         <f t="shared" si="86"/>
-        <v>0.22470103092783605</v>
+        <v>0</v>
       </c>
       <c r="E157" s="167">
         <f t="shared" si="86"/>
-        <v>0.23629896907216574</v>
+        <v>0</v>
       </c>
       <c r="F157" s="167">
         <f t="shared" si="86"/>
-        <v>0.25272938144329982</v>
+        <v>0</v>
       </c>
       <c r="G157" s="167">
         <f t="shared" si="86"/>
-        <v>0.2644078608247431</v>
+        <v>0</v>
       </c>
       <c r="H157" s="167">
         <f t="shared" si="86"/>
-        <v>0.26930074097938228</v>
+        <v>0</v>
       </c>
       <c r="I157" s="169">
         <f>I141/I$171</f>
-        <v>0.68264659262240857</v>
+        <v>0</v>
       </c>
       <c r="M157" s="182">
         <f>SUM(M156:Q156)</f>
-        <v>58311912.497386314</v>
+        <v>30708163.965545103</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
@@ -12761,35 +12726,35 @@
       <c r="C158" s="119"/>
       <c r="D158" s="167">
         <f t="shared" si="86"/>
-        <v>3.7450171821306014E-2</v>
+        <v>8.1791408934707904E-2</v>
       </c>
       <c r="E158" s="167">
         <f t="shared" si="86"/>
-        <v>3.9383161512027628E-2</v>
+        <v>8.1791408934707904E-2</v>
       </c>
       <c r="F158" s="167">
         <f t="shared" si="86"/>
-        <v>4.2121563573883303E-2</v>
+        <v>8.1791408934707904E-2</v>
       </c>
       <c r="G158" s="167">
         <f t="shared" si="86"/>
-        <v>4.4067976804123853E-2</v>
+        <v>8.522783505154638E-2</v>
       </c>
       <c r="H158" s="167">
         <f t="shared" si="86"/>
-        <v>4.4883456829897049E-2</v>
+        <v>8.522783505154638E-2</v>
       </c>
       <c r="I158" s="169">
         <f t="shared" si="86"/>
-        <v>0.11377443210373477</v>
+        <v>0.22871675723816626</v>
       </c>
       <c r="K158" s="182">
         <f>C172+M157</f>
-        <v>-55907218.786653943</v>
+        <v>-95944687.097890064</v>
       </c>
       <c r="M158" s="215">
         <f>K158/I171</f>
-        <v>-0.85902151866755005</v>
+        <v>-1.3294774277558319</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
@@ -12802,27 +12767,27 @@
       <c r="C159" s="119"/>
       <c r="D159" s="167">
         <f t="shared" si="86"/>
-        <v>8.505154639175257E-3</v>
+        <v>1.1340206185567026E-2</v>
       </c>
       <c r="E159" s="167">
         <f t="shared" si="86"/>
-        <v>8.505154639175257E-3</v>
+        <v>1.1340206185567026E-2</v>
       </c>
       <c r="F159" s="167">
         <f t="shared" si="86"/>
-        <v>8.505154639175257E-3</v>
+        <v>1.1340206185567026E-2</v>
       </c>
       <c r="G159" s="167">
         <f t="shared" si="86"/>
-        <v>8.505154639175257E-3</v>
+        <v>1.1340206185567026E-2</v>
       </c>
       <c r="H159" s="167">
         <f t="shared" si="86"/>
-        <v>8.505154639175257E-3</v>
+        <v>1.1340206185567026E-2</v>
       </c>
       <c r="I159" s="169">
         <f t="shared" si="86"/>
-        <v>2.3431628411142807E-2</v>
+        <v>3.1242171214857194E-2</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
@@ -12868,35 +12833,35 @@
       <c r="C161" s="121"/>
       <c r="D161" s="170">
         <f t="shared" si="86"/>
-        <v>0.29828522336769875</v>
+        <v>0.15322439862542961</v>
       </c>
       <c r="E161" s="170">
         <f t="shared" si="86"/>
-        <v>0.31181615120275008</v>
+        <v>0.15322439862542961</v>
       </c>
       <c r="F161" s="170">
         <f t="shared" si="86"/>
-        <v>0.33098496563573981</v>
+        <v>0.15322439862542961</v>
       </c>
       <c r="G161" s="170">
         <f t="shared" si="86"/>
-        <v>0.34460985824742368</v>
+        <v>0.15666082474226808</v>
       </c>
       <c r="H161" s="170">
         <f t="shared" si="86"/>
-        <v>0.350318218427836</v>
+        <v>0.15666082474226808</v>
       </c>
       <c r="I161" s="171">
         <f t="shared" si="86"/>
-        <v>0.8959699430062108</v>
+        <v>0.4255140339179348</v>
       </c>
       <c r="J161" s="216">
         <f>I171-I179</f>
-        <v>58311912.497386336</v>
-      </c>
-      <c r="K161" s="230">
+        <v>30708163.965545088</v>
+      </c>
+      <c r="K161" s="219">
         <f>J161/I171</f>
-        <v>0.89596994300621102</v>
+        <v>0.42551403391793452</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
@@ -12917,47 +12882,47 @@
       <c r="C163" s="116"/>
       <c r="D163" s="166">
         <f t="shared" ref="D163:I168" si="87">D147/D$172</f>
-        <v>2.7628865979381443E-2</v>
+        <v>6.0092783505154693E-2</v>
       </c>
       <c r="E163" s="166">
         <f t="shared" si="87"/>
-        <v>2.7628865979381443E-2</v>
+        <v>6.00927835051547E-2</v>
       </c>
       <c r="F163" s="166">
         <f t="shared" si="87"/>
-        <v>2.7628865979381446E-2</v>
+        <v>6.00927835051547E-2</v>
       </c>
       <c r="G163" s="166">
         <f t="shared" si="87"/>
-        <v>2.7628865979381443E-2</v>
+        <v>6.00927835051547E-2</v>
       </c>
       <c r="H163" s="166">
         <f t="shared" si="87"/>
-        <v>2.7628865979381443E-2</v>
+        <v>6.00927835051547E-2</v>
       </c>
       <c r="I163" s="168">
         <f t="shared" si="87"/>
-        <v>6.7814051619584467E-2</v>
+        <v>0.14749556227259658</v>
       </c>
       <c r="L163" s="1">
         <f>D171*M140</f>
-        <v>44317022.938207619</v>
+        <v>49141306.212612785</v>
       </c>
       <c r="M163" s="1">
         <f t="shared" ref="M163:P163" si="88">E171*N140</f>
-        <v>41214831.332533091</v>
+        <v>45701414.777729891</v>
       </c>
       <c r="N163" s="1">
         <f t="shared" si="88"/>
-        <v>38334224.84154959</v>
+        <v>42507229.873910062</v>
       </c>
       <c r="O163" s="1">
         <f t="shared" si="88"/>
-        <v>35675203.465257138</v>
+        <v>39558751.501153298</v>
       </c>
       <c r="P163" s="1">
         <f t="shared" si="88"/>
-        <v>33193450.180717506</v>
+        <v>36806838.353246979</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
@@ -12970,27 +12935,27 @@
       <c r="C164" s="119"/>
       <c r="D164" s="167">
         <f t="shared" si="87"/>
-        <v>0.22470103092783605</v>
+        <v>0</v>
       </c>
       <c r="E164" s="167">
         <f t="shared" si="87"/>
-        <v>0.23629896907216577</v>
+        <v>0</v>
       </c>
       <c r="F164" s="167">
         <f t="shared" si="87"/>
-        <v>0.25272938144329987</v>
+        <v>0</v>
       </c>
       <c r="G164" s="167">
         <f t="shared" si="87"/>
-        <v>0.2644078608247431</v>
+        <v>0</v>
       </c>
       <c r="H164" s="167">
         <f t="shared" si="87"/>
-        <v>0.26930074097938228</v>
+        <v>0</v>
       </c>
       <c r="I164" s="169">
         <f t="shared" si="87"/>
-        <v>0.6081802353939163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
@@ -13003,27 +12968,27 @@
       <c r="C165" s="119"/>
       <c r="D165" s="167">
         <f t="shared" si="87"/>
-        <v>3.7450171821306014E-2</v>
+        <v>8.1791408934707904E-2</v>
       </c>
       <c r="E165" s="167">
         <f t="shared" si="87"/>
-        <v>3.9383161512027628E-2</v>
+        <v>8.1791408934707904E-2</v>
       </c>
       <c r="F165" s="167">
         <f t="shared" si="87"/>
-        <v>4.2121563573883303E-2</v>
+        <v>8.179140893470789E-2</v>
       </c>
       <c r="G165" s="167">
         <f t="shared" si="87"/>
-        <v>4.406797680412386E-2</v>
+        <v>8.522783505154638E-2</v>
       </c>
       <c r="H165" s="167">
         <f t="shared" si="87"/>
-        <v>4.4883456829897056E-2</v>
+        <v>8.522783505154638E-2</v>
       </c>
       <c r="I165" s="169">
         <f t="shared" si="87"/>
-        <v>0.10136337256565273</v>
+        <v>0.20376723880109049</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
@@ -13036,31 +13001,31 @@
       <c r="C166" s="119"/>
       <c r="D166" s="167">
         <f t="shared" si="87"/>
-        <v>8.505154639175257E-3</v>
+        <v>1.1340206185567026E-2</v>
       </c>
       <c r="E166" s="167">
         <f t="shared" si="87"/>
-        <v>8.505154639175257E-3</v>
+        <v>1.1340206185567026E-2</v>
       </c>
       <c r="F166" s="167">
         <f t="shared" si="87"/>
-        <v>8.505154639175257E-3</v>
+        <v>1.1340206185567026E-2</v>
       </c>
       <c r="G166" s="167">
         <f t="shared" si="87"/>
-        <v>8.505154639175257E-3</v>
+        <v>1.1340206185567026E-2</v>
       </c>
       <c r="H166" s="167">
         <f t="shared" si="87"/>
-        <v>8.505154639175257E-3</v>
+        <v>1.1340206185567026E-2</v>
       </c>
       <c r="I166" s="169">
         <f t="shared" si="87"/>
-        <v>2.0875594248566113E-2</v>
+        <v>2.7834125664754902E-2</v>
       </c>
       <c r="K166" s="167">
         <f>((L171-I179)/I171)</f>
-        <v>-0.10403005699378902</v>
+        <v>-0.57448596608206548</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
@@ -13106,27 +13071,27 @@
       <c r="C168" s="121"/>
       <c r="D168" s="170">
         <f t="shared" si="87"/>
-        <v>0.29828522336769875</v>
+        <v>0.15322439862542961</v>
       </c>
       <c r="E168" s="170">
         <f t="shared" si="87"/>
-        <v>0.31181615120275008</v>
+        <v>0.15322439862542964</v>
       </c>
       <c r="F168" s="170">
         <f t="shared" si="87"/>
-        <v>0.33098496563573987</v>
+        <v>0.15322439862542961</v>
       </c>
       <c r="G168" s="170">
         <f t="shared" si="87"/>
-        <v>0.34460985824742368</v>
+        <v>0.15666082474226808</v>
       </c>
       <c r="H168" s="170">
         <f t="shared" si="87"/>
-        <v>0.350318218427836</v>
+        <v>0.15666082474226811</v>
       </c>
       <c r="I168" s="171">
         <f t="shared" si="87"/>
-        <v>0.79823325382771959</v>
+        <v>0.37909692673844203</v>
       </c>
       <c r="N168" s="1">
         <f>2^4</f>
@@ -13152,7 +13117,7 @@
       </c>
       <c r="K170" s="214">
         <f>(I171-I179)/I171</f>
-        <v>0.89596994300621102</v>
+        <v>0.42551403391793452</v>
       </c>
       <c r="O170" s="1">
         <f>(4/2)^4</f>
@@ -13168,31 +13133,31 @@
       </c>
       <c r="C171" s="177">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-114219131.28404026</v>
+        <v>-126652851.06343517</v>
       </c>
       <c r="D171" s="117">
         <f>D$93-D$94-D$95-D$97-D$98-D$99-D$100-D$101-D$102-D$104</f>
-        <v>44317022.938207619</v>
+        <v>49141306.212612785</v>
       </c>
       <c r="E171" s="117">
         <f t="shared" ref="E171:G171" si="89">E$93-E$94-E$95-E$97-E$98-E$99-E$100-E$101-E$102-E$104</f>
-        <v>44317022.938207619</v>
+        <v>49141306.212612785</v>
       </c>
       <c r="F171" s="117">
         <f t="shared" si="89"/>
-        <v>44317022.938207619</v>
+        <v>49141306.212612785</v>
       </c>
       <c r="G171" s="117">
         <f t="shared" si="89"/>
-        <v>44317022.938207619</v>
+        <v>49141306.212612785</v>
       </c>
       <c r="H171" s="117">
         <f>H$93-H$94-H$95-H$97-H$98-H$99-H$100-H$101-H$102-H$104</f>
-        <v>44317022.938207619</v>
+        <v>49141306.212612785</v>
       </c>
       <c r="I171" s="162">
         <f>NPV(_TauxDActualisation_Select,D171:H171)+C171</f>
-        <v>65082442.723173037</v>
+        <v>72167217.806657642</v>
       </c>
       <c r="J171" s="182"/>
       <c r="K171" s="1">
@@ -13213,31 +13178,31 @@
       </c>
       <c r="C172" s="178">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-114219131.28404026</v>
+        <v>-126652851.06343517</v>
       </c>
       <c r="D172" s="135">
         <f>D171*D$136</f>
-        <v>44317022.938207619</v>
+        <v>49141306.212612785</v>
       </c>
       <c r="E172" s="135">
         <f>E171*E$136</f>
-        <v>41225137.616937317</v>
+        <v>45712842.988477007</v>
       </c>
       <c r="F172" s="135">
         <f>F171*F$136</f>
-        <v>38348965.225057974</v>
+        <v>42523574.873001873</v>
       </c>
       <c r="G172" s="135">
         <f>G171*G$136</f>
-        <v>35673456.023309745</v>
+        <v>39556813.835350581</v>
       </c>
       <c r="H172" s="135">
         <f>H171*H$136</f>
-        <v>33184610.254241623</v>
+        <v>36797036.125907518</v>
       </c>
       <c r="I172" s="164">
         <f>SUM(C172:H172)</f>
-        <v>78530060.773714006</v>
+        <v>87078722.971914589</v>
       </c>
       <c r="K172" s="1">
         <f>K171/176945019</f>
@@ -13245,33 +13210,33 @@
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C173" s="229">
+      <c r="C173" s="218">
         <f>C171</f>
-        <v>-114219131.28404026</v>
+        <v>-126652851.06343517</v>
       </c>
       <c r="D173" s="6">
         <f>D171/(1+K173)</f>
-        <v>41225137.616937324</v>
+        <v>45712842.988477014</v>
       </c>
       <c r="E173" s="6">
         <f>E171/(1+K173)^2</f>
-        <v>38348965.225057974</v>
+        <v>42523574.873001873</v>
       </c>
       <c r="F173" s="6">
         <f>F171/(1+K173)^3</f>
-        <v>35673456.023309745</v>
+        <v>39556813.835350581</v>
       </c>
       <c r="G173" s="6">
         <f>G171/(1+K173)^4</f>
-        <v>33184610.254241623</v>
+        <v>36797036.125907518</v>
       </c>
       <c r="H173" s="6">
         <f>H171/(1+K173)^5</f>
-        <v>30869404.887666624</v>
+        <v>34229801.047355831</v>
       </c>
       <c r="I173" s="6">
         <f>SUM(C173:H173)</f>
-        <v>65082442.723173037</v>
+        <v>72167217.806657657</v>
       </c>
       <c r="K173" s="1">
         <v>7.4999999999999997E-2</v>
@@ -13286,7 +13251,7 @@
       </c>
       <c r="L174" s="216">
         <f>I171-I179</f>
-        <v>58311912.497386336</v>
+        <v>30708163.965545088</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
@@ -13298,31 +13263,31 @@
       </c>
       <c r="C175" s="127">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-114219131.28404026</v>
+        <v>-126652851.06343517</v>
       </c>
       <c r="D175" s="117">
         <f>D$171-D141</f>
-        <v>34358942.196339808</v>
+        <v>49141306.212612785</v>
       </c>
       <c r="E175" s="117">
         <f t="shared" ref="E175:H175" si="90">E$171-E141</f>
-        <v>33844956.105561636</v>
+        <v>49141306.212612785</v>
       </c>
       <c r="F175" s="117">
         <f t="shared" si="90"/>
-        <v>33116809.143625878</v>
+        <v>49141306.212612785</v>
       </c>
       <c r="G175" s="117">
         <f t="shared" si="90"/>
-        <v>32599253.704995073</v>
+        <v>49141306.212612785</v>
       </c>
       <c r="H175" s="117">
         <f t="shared" si="90"/>
-        <v>32382415.822948024</v>
+        <v>49141306.212612785</v>
       </c>
       <c r="I175" s="162">
         <f>NPV(_TauxDActualisation_Select,D175:H175)+C175</f>
-        <v>20654134.958655909</v>
+        <v>72167217.806657642</v>
       </c>
       <c r="K175" s="1" t="s">
         <v>327</v>
@@ -13337,35 +13302,35 @@
       </c>
       <c r="C176" s="176">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-114219131.28404026</v>
+        <v>-126652851.06343517</v>
       </c>
       <c r="D176" s="135">
         <f>D$172-D148</f>
-        <v>34358942.196339808</v>
+        <v>49141306.212612785</v>
       </c>
       <c r="E176" s="135">
         <f t="shared" ref="E176:H176" si="91">E$172-E148</f>
-        <v>31483680.098196868</v>
+        <v>45712842.988477007</v>
       </c>
       <c r="F176" s="135">
         <f t="shared" si="91"/>
-        <v>28657054.964738458</v>
+        <v>42523574.873001873</v>
       </c>
       <c r="G176" s="135">
         <f t="shared" si="91"/>
-        <v>26241113.827960867</v>
+        <v>39556813.835350581</v>
       </c>
       <c r="H176" s="135">
         <f t="shared" si="91"/>
-        <v>24247970.123662345</v>
+        <v>36797036.125907518</v>
       </c>
       <c r="I176" s="164">
         <f>SUM(C176:H176)</f>
-        <v>30769629.926858079</v>
+        <v>87078722.971914589</v>
       </c>
       <c r="K176" s="216">
         <f>I171-I179</f>
-        <v>58311912.497386336</v>
+        <v>30708163.965545088</v>
       </c>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.2">
@@ -13374,7 +13339,7 @@
       </c>
       <c r="K177" s="215">
         <f>K176/I171</f>
-        <v>0.89596994300621102</v>
+        <v>0.42551403391793452</v>
       </c>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.2">
@@ -13386,23 +13351,23 @@
       </c>
       <c r="M178" s="1">
         <f>D171/((1+_TauxDActualisation_Select)^D1)</f>
-        <v>41225137.616937324</v>
+        <v>45712842.988477014</v>
       </c>
       <c r="N178" s="1">
         <f>E171/((1+_TauxDActualisation_Select)^E1)</f>
-        <v>38348965.225057974</v>
+        <v>42523574.873001873</v>
       </c>
       <c r="O178" s="1">
         <f>F171/((1+_TauxDActualisation_Select)^F1)</f>
-        <v>35673456.023309745</v>
+        <v>39556813.835350581</v>
       </c>
       <c r="P178" s="1">
         <f>G171/((1+_TauxDActualisation_Select)^G1)</f>
-        <v>33184610.254241623</v>
+        <v>36797036.125907518</v>
       </c>
       <c r="Q178" s="1">
         <f>H171/((1+_TauxDActualisation_Select)^H1)</f>
-        <v>30869404.887666624</v>
+        <v>34229801.047355831</v>
       </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.2">
@@ -13414,35 +13379,35 @@
       </c>
       <c r="C179" s="127">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-114219131.28404026</v>
+        <v>-126652851.06343517</v>
       </c>
       <c r="D179" s="117">
         <f>D$171-D$145</f>
-        <v>31097909.852092929</v>
+        <v>41611659.120517105</v>
       </c>
       <c r="E179" s="117">
         <f>E$171-E$145</f>
-        <v>30498259.412851728</v>
+        <v>41611659.120517105</v>
       </c>
       <c r="F179" s="117">
         <f>F$171-F$145</f>
-        <v>29648754.623926677</v>
+        <v>41611659.120517105</v>
       </c>
       <c r="G179" s="117">
         <f>G$171-G$145</f>
-        <v>29044939.945524067</v>
+        <v>41442788.652432524</v>
       </c>
       <c r="H179" s="117">
         <f>H$171-H$145</f>
-        <v>28791962.416469183</v>
+        <v>41442788.652432524</v>
       </c>
       <c r="I179" s="162">
         <f>NPV(_TauxDActualisation_Select,D179:H179)+C179</f>
-        <v>6770530.2257867008</v>
+        <v>41459053.841112554</v>
       </c>
       <c r="M179" s="1">
         <f>SUM(M178:Q178)</f>
-        <v>179301574.00721326</v>
+        <v>198820068.87009281</v>
       </c>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.2">
@@ -13454,31 +13419,31 @@
       </c>
       <c r="C180" s="176">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-114219131.28404026</v>
+        <v>-126652851.06343517</v>
       </c>
       <c r="D180" s="135">
         <f>D$172-D$152</f>
-        <v>31097909.852092929</v>
+        <v>41611659.120517105</v>
       </c>
       <c r="E180" s="135">
         <f>E$172-E$152</f>
-        <v>28370473.87242021</v>
+        <v>38708520.112108931</v>
       </c>
       <c r="F180" s="135">
         <f>F$172-F$152</f>
-        <v>25656034.28787598</v>
+        <v>36007925.685682729</v>
       </c>
       <c r="G180" s="135">
         <f>G$172-G$152</f>
-        <v>23380031.399921272</v>
+        <v>33359810.755728196</v>
       </c>
       <c r="H180" s="135">
         <f>H$172-H$152</f>
-        <v>21559436.710753597</v>
+        <v>31032382.098351814</v>
       </c>
       <c r="I180" s="164">
         <f>SUM(C180:H180)</f>
-        <v>15844754.839023735</v>
+        <v>54067446.708953604</v>
       </c>
       <c r="K180" s="1">
         <f>_TauxDActualisation_Select</f>
@@ -13486,7 +13451,7 @@
       </c>
       <c r="M180" s="182">
         <f>C171+M179</f>
-        <v>65082442.723173007</v>
+        <v>72167217.806657642</v>
       </c>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.2">
@@ -13495,7 +13460,7 @@
       </c>
       <c r="K181" s="1">
         <f>C179+(D179/(1.08^D1))+(E179/(1.08)^E1)+(F179/(1.08)^F1)+(G179/(1.08)^G1)+(H179/(1.08)^H1)</f>
-        <v>5202932.5258773863</v>
+        <v>39251382.728173852</v>
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
@@ -13504,7 +13469,7 @@
       </c>
       <c r="K182" s="1">
         <f>K181/1.08</f>
-        <v>4817530.1165531352</v>
+        <v>36343872.89645727</v>
       </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.2">
@@ -13525,45 +13490,45 @@
       </c>
       <c r="F183" s="179">
         <f>MAX(0,IRR($C171:F171))</f>
-        <v>7.9952133396201663E-2</v>
+        <v>7.9952133396200775E-2</v>
       </c>
       <c r="G183" s="179">
         <f>MAX(0,IRR($C171:G171))</f>
-        <v>0.20233530726565263</v>
+        <v>0.20233530726565219</v>
       </c>
       <c r="H183" s="180">
         <f>MAX(0,IRR($C171:H171))</f>
-        <v>0.27104086031152019</v>
+        <v>0.2710408603115193</v>
       </c>
       <c r="K183" s="182">
         <f>SUM(C180:H180)</f>
-        <v>15844754.839023735</v>
+        <v>54067446.708953604</v>
       </c>
       <c r="M183" s="1">
         <f>D179/((1+_TauxDActualisation_Select)^D1)</f>
-        <v>28928288.23450505</v>
+        <v>38708520.112108938</v>
       </c>
       <c r="N183" s="1">
         <f>E179/((1+_TauxDActualisation_Select)^E1)</f>
-        <v>26391138.485972293</v>
+        <v>36007925.685682736</v>
       </c>
       <c r="O183" s="1">
         <f>F179/((1+_TauxDActualisation_Select)^F1)</f>
-        <v>23866078.407326493</v>
+        <v>33495744.823890917</v>
       </c>
       <c r="P183" s="1">
         <f>G179/((1+_TauxDActualisation_Select)^G1)</f>
-        <v>21748866.418531414</v>
+        <v>31032382.09835181</v>
       </c>
       <c r="Q183" s="1">
         <f>H179/((1+_TauxDActualisation_Select)^H1)</f>
-        <v>20055289.963491719</v>
+        <v>28867332.184513312</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="M184" s="1">
         <f>SUM(M183:Q183)</f>
-        <v>120989661.50982697</v>
+        <v>168111904.90454769</v>
       </c>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.2">
@@ -13572,7 +13537,7 @@
       </c>
       <c r="M185" s="182">
         <f>-C179+M184</f>
-        <v>235208792.79386723</v>
+        <v>294764755.96798289</v>
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.2">
@@ -13593,29 +13558,29 @@
       </c>
       <c r="F186" s="179">
         <f>MAX(0,IRR($C175:F175))</f>
-        <v>0</v>
+        <v>7.9952133396200775E-2</v>
       </c>
       <c r="G186" s="179">
         <f>MAX(0,IRR($C175:G175))</f>
-        <v>6.7478593559452404E-2</v>
+        <v>0.20233530726565219</v>
       </c>
       <c r="H186" s="180">
         <f>MAX(0,IRR($C175:H175))</f>
-        <v>0.14160378380963468</v>
+        <v>0.2710408603115193</v>
       </c>
       <c r="M186" s="182">
         <f>M180-M185</f>
-        <v>-170126350.07069421</v>
+        <v>-222597538.16132525</v>
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="M187" s="215">
         <f>M186/M180</f>
-        <v>-2.6140129803413119</v>
+        <v>-3.0844688894295986</v>
       </c>
       <c r="N187" s="216">
         <f>I171-I179</f>
-        <v>58311912.497386336</v>
+        <v>30708163.965545088</v>
       </c>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.2">
@@ -13624,7 +13589,7 @@
       </c>
       <c r="N188" s="1">
         <f>N187/I171</f>
-        <v>0.89596994300621102</v>
+        <v>0.42551403391793452</v>
       </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.2">
@@ -13649,11 +13614,11 @@
       </c>
       <c r="G189" s="179">
         <f>MAX(0,IRR($C179:G179))</f>
-        <v>2.129417691223634E-2</v>
+        <v>0.11860752182830625</v>
       </c>
       <c r="H189" s="180">
         <f>MAX(0,IRR($C179:H179))</f>
-        <v>9.7381868561973173E-2</v>
+        <v>0.19150503363713067</v>
       </c>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.2">
@@ -13679,15 +13644,15 @@
       </c>
       <c r="F192" s="179">
         <f t="shared" si="92"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G192" s="179">
         <f t="shared" si="92"/>
-        <v>0.66650114371360036</v>
+        <v>0</v>
       </c>
       <c r="H192" s="180">
         <f t="shared" si="92"/>
-        <v>0.47755558461966696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -13717,11 +13682,11 @@
       </c>
       <c r="G195" s="179">
         <f t="shared" si="93"/>
-        <v>0.89475797773505483</v>
+        <v>0.41380709362512386</v>
       </c>
       <c r="H195" s="180">
         <f>IF(H$183&gt;0,(H$183-H189)/H$183,0)</f>
-        <v>0.64071148368534714</v>
+        <v>0.29344589071542415</v>
       </c>
     </row>
   </sheetData>
@@ -13735,7 +13700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -15489,7 +15454,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A1:D1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>

--- a/annexe/Modèle investissement.xlsx
+++ b/annexe/Modèle investissement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Accueil" sheetId="2" r:id="rId1"/>
@@ -1854,7 +1854,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2515,38 +2515,41 @@
     <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="39" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2896,7 +2899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2922,19 +2925,19 @@
       <c r="B3" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="224" t="s">
+      <c r="E3" s="222" t="s">
         <v>317</v>
       </c>
-      <c r="F3" s="225"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="222" t="s">
+      <c r="F3" s="223"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="220" t="s">
         <v>325</v>
       </c>
-      <c r="I3" s="223"/>
-      <c r="J3" s="222" t="s">
+      <c r="I3" s="221"/>
+      <c r="J3" s="220" t="s">
         <v>326</v>
       </c>
-      <c r="K3" s="223"/>
+      <c r="K3" s="221"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D4" s="190"/>
@@ -2974,7 +2977,7 @@
       </c>
       <c r="E5" s="194">
         <f>Select!C68</f>
-        <v>8.6999999999999994E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F5" s="195" t="str">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(Select!F68&lt;&gt;"",Select!F68,IF(Select!G68&lt;&gt;"",(100%-Select!G68)*Select!C68,"")))</f>
@@ -2986,11 +2989,11 @@
       </c>
       <c r="H5" s="197">
         <f>Modèle!D163</f>
-        <v>6.0092783505154693E-2</v>
+        <v>1.7268041237113407E-2</v>
       </c>
       <c r="I5" s="198">
         <f>Modèle!I163</f>
-        <v>0.14749556227259658</v>
+        <v>4.2383782262240315E-2</v>
       </c>
       <c r="J5" s="208"/>
       <c r="K5" s="209"/>
@@ -3002,31 +3005,31 @@
       </c>
       <c r="E6" s="201">
         <f>Select!C69</f>
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F6" s="203">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(Select!F69&lt;&gt;"",Select!F69,IF(Select!G69&lt;&gt;"",(100%-Select!G69)*Select!C69,"")))</f>
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="G6" s="204">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F69&lt;&gt;"",Select!G69&lt;&gt;""),Select!E69,""))</f>
         <v>5</v>
       </c>
-      <c r="H6" s="227">
+      <c r="H6" s="225">
         <f>Modèle!D164</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="229">
+        <v>0.23814432989690729</v>
+      </c>
+      <c r="I6" s="227">
         <f>Modèle!I164</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="227">
+        <v>0.5845166389598514</v>
+      </c>
+      <c r="J6" s="225">
         <f>Modèle!D192</f>
         <v>0</v>
       </c>
-      <c r="K6" s="229">
+      <c r="K6" s="227">
         <f>Modèle!H192</f>
-        <v>0</v>
+        <v>0.46078684651251794</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -3035,7 +3038,7 @@
         <v>Pays</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D7" s="200" t="str">
         <f>VLOOKUP(CONCATENATE(_Impot,_Impot_IMF),_Tables,3,FALSE)</f>
@@ -3043,20 +3046,20 @@
       </c>
       <c r="E7" s="202">
         <f>Select!C70</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F7" s="206">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F7" s="206" t="str">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(Select!F70&lt;&gt;"",Select!F70,IF(Select!G70&lt;&gt;"",(100%-Select!G70)*Select!C70,"")))</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="207">
+        <v/>
+      </c>
+      <c r="G7" s="207" t="str">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F70&lt;&gt;"",Select!G70&lt;&gt;""),Select!E70,""))</f>
-        <v>5</v>
-      </c>
-      <c r="H7" s="228"/>
-      <c r="I7" s="230"/>
-      <c r="J7" s="228"/>
-      <c r="K7" s="230"/>
+        <v/>
+      </c>
+      <c r="H7" s="226"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="226"/>
+      <c r="K7" s="228"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D8" s="56" t="str">
@@ -3065,23 +3068,23 @@
       </c>
       <c r="E8" s="194">
         <f>Select!C71</f>
-        <v>0.2</v>
-      </c>
-      <c r="F8" s="195" t="str">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="F8" s="195">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(Select!F71&lt;&gt;"",Select!F71,IF(Select!G71&lt;&gt;"",(100%-Select!G71)*Select!C71,"")))</f>
-        <v/>
-      </c>
-      <c r="G8" s="196" t="str">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G8" s="196">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F71&lt;&gt;"",Select!G71&lt;&gt;""),Select!E71,""))</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="H8" s="197">
         <f>Modèle!D165</f>
-        <v>8.1791408934707904E-2</v>
+        <v>3.5682667525773266E-2</v>
       </c>
       <c r="I8" s="198">
         <f>Modèle!I165</f>
-        <v>0.20376723880109049</v>
+        <v>8.8427913140224246E-2</v>
       </c>
       <c r="J8" s="208"/>
       <c r="K8" s="209"/>
@@ -3100,7 +3103,7 @@
       </c>
       <c r="E9" s="183">
         <f>Select!C72</f>
-        <v>0.2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F9" s="80" t="str">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(Select!F72&lt;&gt;"",Select!F72,IF(Select!G72&lt;&gt;"",(100%-Select!G72)*Select!C72,"")))</f>
@@ -3112,11 +3115,11 @@
       </c>
       <c r="H9" s="188">
         <f>Modèle!D166</f>
-        <v>1.1340206185567026E-2</v>
+        <v>9.355670103092786E-3</v>
       </c>
       <c r="I9" s="172">
         <f>Modèle!I166</f>
-        <v>2.7834125664754902E-2</v>
+        <v>2.2963153673422738E-2</v>
       </c>
       <c r="J9" s="210"/>
       <c r="K9" s="211"/>
@@ -3124,7 +3127,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="str">
         <f>Select!B62</f>
-        <v>Code Général des Impôts</v>
+        <v>Incitations à l'investissement privé</v>
       </c>
       <c r="D10" s="56" t="str">
         <f>VLOOKUP(CONCATENATE(_Impot,_Impot_TVApetrole),_Tables,3,FALSE)</f>
@@ -3132,7 +3135,7 @@
       </c>
       <c r="E10" s="194">
         <f>Select!C73</f>
-        <v>0.18</v>
+        <v>0.1925</v>
       </c>
       <c r="F10" s="195" t="str">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(Select!F73&lt;&gt;"",Select!F73,IF(Select!G73&lt;&gt;"",(100%-Select!G73)*Select!C73,"")))</f>
@@ -3156,7 +3159,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="19" t="str">
         <f>Select!B63</f>
-        <v>Régime unique</v>
+        <v>Catégorie A</v>
       </c>
       <c r="D11" s="173" t="s">
         <v>267</v>
@@ -3166,11 +3169,11 @@
       <c r="G11" s="52"/>
       <c r="H11" s="189">
         <f>Modèle!D168</f>
-        <v>0.15322439862542961</v>
+        <v>0.30045070876288676</v>
       </c>
       <c r="I11" s="174">
         <f>Modèle!I168</f>
-        <v>0.37909692673844203</v>
+        <v>0.73829148803573874</v>
       </c>
       <c r="J11" s="189">
         <f>Modèle!D195</f>
@@ -3178,7 +3181,7 @@
       </c>
       <c r="K11" s="174">
         <f>Modèle!H195</f>
-        <v>0.29344589071542415</v>
+        <v>0.59020889892634221</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -3201,15 +3204,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="220" t="str">
+      <c r="A16" s="229" t="str">
         <f>VLOOKUP(_Bilan,_Tables,4,FALSE)</f>
         <v>Bilan à l'ouverture</v>
       </c>
-      <c r="B16" s="220"/>
-      <c r="C16" s="220"/>
-      <c r="D16" s="220"/>
-      <c r="E16" s="220"/>
-      <c r="F16" s="220"/>
+      <c r="B16" s="229"/>
+      <c r="C16" s="229"/>
+      <c r="D16" s="229"/>
+      <c r="E16" s="229"/>
+      <c r="F16" s="229"/>
       <c r="H16" s="73" t="str">
         <f>VLOOKUP(_PIBPNB,_Tables,4,FALSE)</f>
         <v>PIB ou PNB</v>
@@ -3219,18 +3222,18 @@
       <c r="K16" s="68"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="221" t="str">
+      <c r="A17" s="230" t="str">
         <f>VLOOKUP(_Actif,_Tables,4,FALSE)</f>
         <v>Actif</v>
       </c>
-      <c r="B17" s="221"/>
-      <c r="C17" s="221"/>
-      <c r="D17" s="221" t="str">
+      <c r="B17" s="230"/>
+      <c r="C17" s="230"/>
+      <c r="D17" s="230" t="str">
         <f>VLOOKUP(_Passif,_Tables,4,FALSE)</f>
         <v>Passif</v>
       </c>
-      <c r="E17" s="221"/>
-      <c r="F17" s="221"/>
+      <c r="E17" s="230"/>
+      <c r="F17" s="230"/>
       <c r="H17" s="56" t="str">
         <f>_PIBPNB_Liste</f>
         <v>PIB/tête</v>
@@ -3238,7 +3241,7 @@
       <c r="I17" s="57"/>
       <c r="J17" s="69">
         <f>_PIBPNB_Select</f>
-        <v>506611.40425374068</v>
+        <v>695841.35854832386</v>
       </c>
       <c r="K17" s="70" t="s">
         <v>251</v>
@@ -3539,29 +3542,29 @@
       <c r="K29" s="70"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="220" t="str">
+      <c r="A31" s="229" t="str">
         <f>VLOOKUP(_CompteDeResultat,_Tables,4,FALSE)</f>
         <v>Compte de résultat</v>
       </c>
-      <c r="B31" s="220"/>
-      <c r="C31" s="220"/>
-      <c r="D31" s="220"/>
-      <c r="E31" s="220"/>
-      <c r="F31" s="220"/>
+      <c r="B31" s="229"/>
+      <c r="C31" s="229"/>
+      <c r="D31" s="229"/>
+      <c r="E31" s="229"/>
+      <c r="F31" s="229"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="221" t="str">
+      <c r="A32" s="230" t="str">
         <f>VLOOKUP(_Charges,_Tables,4,FALSE)</f>
         <v>Charges</v>
       </c>
-      <c r="B32" s="221"/>
-      <c r="C32" s="221"/>
-      <c r="D32" s="221" t="str">
+      <c r="B32" s="230"/>
+      <c r="C32" s="230"/>
+      <c r="D32" s="230" t="str">
         <f>VLOOKUP(_Produits,_Tables,4,FALSE)</f>
         <v>Produits</v>
       </c>
-      <c r="E32" s="221"/>
-      <c r="F32" s="221"/>
+      <c r="E32" s="230"/>
+      <c r="F32" s="230"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="59" t="str">
@@ -3811,23 +3814,23 @@
       </c>
       <c r="B52" s="80">
         <f>_CFE_Taux_Select1</f>
-        <v>8.6999999999999994E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C52" s="80">
         <f>_CFE_Taux_Select2</f>
-        <v>8.6999999999999994E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D52" s="80">
         <f>_CFE_Taux_Select3</f>
-        <v>8.6999999999999994E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E52" s="80">
         <f>_CFE_Taux_Select4</f>
-        <v>8.6999999999999994E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F52" s="81">
         <f>_CFE_Taux_Select5</f>
-        <v>8.6999999999999994E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H52" s="38" t="str">
         <f>VLOOKUP(_Constructions,_Tables,4,FALSE)</f>
@@ -3850,23 +3853,23 @@
       </c>
       <c r="B53" s="80">
         <f>_IS_Taux_Select1</f>
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="C53" s="80">
         <f>_IS_Taux_Select2</f>
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D53" s="80">
         <f>_IS_Taux_Select3</f>
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="E53" s="80">
         <f>_IS_Taux_Select4</f>
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F53" s="81">
         <f>_IS_Taux_Select5</f>
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="H53" s="38" t="str">
         <f>VLOOKUP(_Equipement,_Tables,4,FALSE)</f>
@@ -3889,23 +3892,23 @@
       </c>
       <c r="B54" s="80">
         <f>_IMF_Taux_Select1</f>
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C54" s="80">
         <f>_IMF_Taux_Select2</f>
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D54" s="80">
         <f>_IMF_Taux_Select3</f>
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E54" s="80">
         <f>_IMF_Taux_Select4</f>
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F54" s="81">
         <f>_IMF_Taux_Select5</f>
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H54" s="38" t="str">
         <f>VLOOKUP(_Camion,_Tables,4,FALSE)</f>
@@ -3928,23 +3931,23 @@
       </c>
       <c r="B55" s="80">
         <f>_IRVM_Taux_Select1</f>
-        <v>0.2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="C55" s="80">
         <f>_IRVM_Taux_Select2</f>
-        <v>0.2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="D55" s="80">
         <f>_IRVM_Taux_Select3</f>
-        <v>0.2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="E55" s="80">
         <f>_IRVM_Taux_Select4</f>
-        <v>0.2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="F55" s="81">
         <f>_IRVM_Taux_Select5</f>
-        <v>0.2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="H55" s="38" t="str">
         <f>VLOOKUP(_Informatique,_Tables,4,FALSE)</f>
@@ -3953,7 +3956,7 @@
       <c r="I55" s="39"/>
       <c r="J55" s="40">
         <f>_Informatique_DureeLineaire_Select</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K55" s="41">
         <f>_Informatique_CoefDegressif_Select</f>
@@ -3967,23 +3970,23 @@
       </c>
       <c r="B56" s="80">
         <f>_IRC_Taux_Select1</f>
-        <v>0.2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="C56" s="80">
         <f>_IRC_Taux_Select2</f>
-        <v>0.2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D56" s="80">
         <f>_IRC_Taux_Select3</f>
-        <v>0.2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="E56" s="80">
         <f>_IRC_Taux_Select4</f>
-        <v>0.2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F56" s="81">
         <f>_IRC_Taux_Select5</f>
-        <v>0.2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="H56" s="45" t="str">
         <f>VLOOKUP(_Bureau,_Tables,4,FALSE)</f>
@@ -4006,23 +4009,23 @@
       </c>
       <c r="B57" s="82">
         <f>_TVApetrole_Taux_Select1</f>
-        <v>0.18</v>
+        <v>0.1925</v>
       </c>
       <c r="C57" s="82">
         <f>_TVApetrole_Taux_Select2</f>
-        <v>0.18</v>
+        <v>0.1925</v>
       </c>
       <c r="D57" s="82">
         <f>_TVApetrole_Taux_Select3</f>
-        <v>0.18</v>
+        <v>0.1925</v>
       </c>
       <c r="E57" s="82">
         <f>_TVApetrole_Taux_Select4</f>
-        <v>0.18</v>
+        <v>0.1925</v>
       </c>
       <c r="F57" s="83">
         <f>_TVApetrole_Taux_Select5</f>
-        <v>0.18</v>
+        <v>0.1925</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -4077,6 +4080,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="E3:G3"/>
@@ -4084,12 +4093,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4638,7 +4641,7 @@
       </c>
       <c r="G38" s="30">
         <f>VLOOKUP($B$38,_BaseFisc,_ColonneFisc_Select,FALSE)</f>
-        <v>506611.40425374068</v>
+        <v>695841.35854832386</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -4679,7 +4682,7 @@
       </c>
       <c r="G40" s="32">
         <f>IF(G39&lt;&gt;"",G39,G38)</f>
-        <v>506611.40425374068</v>
+        <v>695841.35854832386</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -4689,7 +4692,7 @@
       </c>
       <c r="B42" s="19" t="str">
         <f>VLOOKUP(1,$C43:$D54,2,FALSE)</f>
-        <v>_TCD</v>
+        <v>_CMR</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -4727,7 +4730,7 @@
       </c>
       <c r="C45" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="3" t="str">
         <f>_Pays_CMR</f>
@@ -4839,7 +4842,7 @@
       </c>
       <c r="C53" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="3" t="str">
         <f>_Pays_TCD</f>
@@ -4867,7 +4870,7 @@
       </c>
       <c r="B56" s="19">
         <f>HLOOKUP(_Pays_Select,BaseFisc!$E$1:$R$2,2,FALSE)</f>
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -4921,7 +4924,7 @@
       </c>
       <c r="B62" s="19" t="str">
         <f>IF(_Regime_Select=_Regime_Inv,VLOOKUP(CONCATENATE(_Regime_Inv,_Texte),_BaseFisc,_ColonneFisc_Select,FALSE),"")</f>
-        <v>Code Général des Impôts</v>
+        <v>Incitations à l'investissement privé</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -4931,7 +4934,7 @@
       </c>
       <c r="B63" s="19" t="str">
         <f>IF(_Regime_Select=_Regime_Inv,VLOOKUP(CONCATENATE(_Regime_Inv,_Regime),_BaseFisc,_ColonneFisc_Select,FALSE),"")</f>
-        <v>Régime unique</v>
+        <v>Catégorie A</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -5021,7 +5024,7 @@
       </c>
       <c r="C68" s="12">
         <f>IF(VLOOKUP(CONCATENATE($C$66,$B68,C$67),_BaseFisc,_ColonneFisc_Select,FALSE)="","",VLOOKUP(CONCATENATE($C$66,$B68,C$67),_BaseFisc,_ColonneFisc_Select,FALSE))</f>
-        <v>8.6999999999999994E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E68" s="23" t="str">
         <f t="shared" ref="E68:G73" si="4">IF(VLOOKUP(CONCATENATE($E$66,$B68,E$67),_BaseFisc,_ColonneFisc_Select,FALSE)="","",VLOOKUP(CONCATENATE($E$66,$B68,E$67),_BaseFisc,_ColonneFisc_Select,FALSE))</f>
@@ -5046,23 +5049,23 @@
       <c r="N68" s="25"/>
       <c r="P68" s="24">
         <f>IF(J68&lt;&gt;"",J68,IF(OR(_Regime_Select=_Regime_Gen,$H68=_Regime_Gen),$C68,IF($E68&lt;P$67,$C68,IF($H68=_Information_Taux,$F68,IF($H68=_Information_ReducExo,(1-$G68)*$C68,_Error)))))</f>
-        <v>8.6999999999999994E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q68" s="24">
         <f t="shared" ref="P68:T73" si="6">IF(K68&lt;&gt;"",K68,IF(OR(_Regime_Select=_Regime_Gen,$H68=_Regime_Gen),$C68,IF($E68&lt;Q$67,$C68,IF($H68=_Information_Taux,$F68,IF($H68=_Information_ReducExo,(1-$G68)*$C68,_Error)))))</f>
-        <v>8.6999999999999994E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="R68" s="24">
         <f t="shared" si="6"/>
-        <v>8.6999999999999994E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="S68" s="24">
         <f t="shared" si="6"/>
-        <v>8.6999999999999994E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="T68" s="24">
         <f t="shared" si="6"/>
-        <v>8.6999999999999994E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
@@ -5072,7 +5075,7 @@
       </c>
       <c r="C69" s="12">
         <f t="shared" ref="C69:C73" si="7">IF(VLOOKUP(CONCATENATE($C$66,$B69,C$67),_BaseFisc,_ColonneFisc_Select,FALSE)="","",VLOOKUP(CONCATENATE($C$66,$B69,C$67),_BaseFisc,_ColonneFisc_Select,FALSE))</f>
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="E69" s="23">
         <f>IF(VLOOKUP(CONCATENATE($E$66,$B69,E$67),_BaseFisc,_ColonneFisc_Select,FALSE)="","",VLOOKUP(CONCATENATE($E$66,$B69,E$67),_BaseFisc,_ColonneFisc_Select,FALSE))</f>
@@ -5084,7 +5087,7 @@
       </c>
       <c r="G69" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H69" s="3" t="str">
         <f t="shared" si="5"/>
@@ -5097,23 +5100,23 @@
       <c r="N69" s="25"/>
       <c r="P69" s="24">
         <f>IF(J69&lt;&gt;"",J69,IF(OR(_Regime_Select=_Regime_Gen,$H69=_Regime_Gen),$C69,IF($E69&lt;P$67,$C69,IF($H69=_Information_Taux,$F69,IF($H69=_Information_ReducExo,(1-$G69)*$C69,_Error)))))</f>
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="Q69" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="R69" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="S69" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="T69" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
@@ -5123,23 +5126,23 @@
       </c>
       <c r="C70" s="12">
         <f t="shared" si="7"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E70" s="23">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E70" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="F70" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="H70" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>_ReducExo</v>
+        <v>_Gen</v>
       </c>
       <c r="J70" s="25"/>
       <c r="K70" s="25"/>
@@ -5148,23 +5151,23 @@
       <c r="N70" s="25"/>
       <c r="P70" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="Q70" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="R70" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="S70" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="T70" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
@@ -5174,23 +5177,23 @@
       </c>
       <c r="C71" s="12">
         <f t="shared" si="7"/>
-        <v>0.2</v>
-      </c>
-      <c r="E71" s="23" t="str">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E71" s="23">
         <f t="shared" si="4"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="F71" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G71" s="10" t="str">
+      <c r="G71" s="10">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="H71" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>_Gen</v>
+        <v>_ReducExo</v>
       </c>
       <c r="J71" s="25"/>
       <c r="K71" s="25"/>
@@ -5199,23 +5202,23 @@
       <c r="N71" s="25"/>
       <c r="P71" s="24">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="Q71" s="24">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="R71" s="24">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="S71" s="24">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="T71" s="24">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
@@ -5225,7 +5228,7 @@
       </c>
       <c r="C72" s="12">
         <f t="shared" si="7"/>
-        <v>0.2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="E72" s="23" t="str">
         <f t="shared" si="4"/>
@@ -5250,23 +5253,23 @@
       <c r="N72" s="25"/>
       <c r="P72" s="24">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="Q72" s="24">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="R72" s="24">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="S72" s="24">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="T72" s="24">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
@@ -5276,7 +5279,7 @@
       </c>
       <c r="C73" s="12">
         <f t="shared" si="7"/>
-        <v>0.18</v>
+        <v>0.1925</v>
       </c>
       <c r="E73" s="23" t="str">
         <f t="shared" si="4"/>
@@ -5301,23 +5304,23 @@
       <c r="N73" s="25"/>
       <c r="P73" s="24">
         <f t="shared" si="6"/>
-        <v>0.18</v>
+        <v>0.1925</v>
       </c>
       <c r="Q73" s="24">
         <f t="shared" si="6"/>
-        <v>0.18</v>
+        <v>0.1925</v>
       </c>
       <c r="R73" s="24">
         <f t="shared" si="6"/>
-        <v>0.18</v>
+        <v>0.1925</v>
       </c>
       <c r="S73" s="24">
         <f t="shared" si="6"/>
-        <v>0.18</v>
+        <v>0.1925</v>
       </c>
       <c r="T73" s="24">
         <f t="shared" si="6"/>
-        <v>0.18</v>
+        <v>0.1925</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
@@ -5443,7 +5446,7 @@
       </c>
       <c r="C80" s="23">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" s="23" t="str">
         <f t="shared" si="8"/>
@@ -5453,7 +5456,7 @@
       <c r="G80" s="27"/>
       <c r="I80" s="26">
         <f>IF(F80&lt;&gt;"",F80,IF(C80&lt;1,_Error,C80))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J80" s="26">
         <f>IF(G80&lt;&gt;"",G80,IF(D80="",1,IF(D80&lt;1,_Error,D80)))</f>
@@ -7141,7 +7144,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
@@ -9027,13 +9030,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9171,19 +9174,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="str">
         <f>VLOOKUP(_Passif,_Tables,4,FALSE)</f>
         <v>Passif</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="str">
         <f>VLOOKUP(_CapitauxPropres,_Tables,4,FALSE)</f>
         <v>Capitaux propres</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="str">
         <f>_CapitalSocial</f>
         <v>_CapitalSocial</v>
@@ -9192,13 +9195,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="str">
         <f>VLOOKUP(_Dettes,_Tables,4,FALSE)</f>
         <v>Dettes</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="str">
         <f>_DettesLT</f>
         <v>_DettesLT</v>
@@ -9207,7 +9210,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="str">
         <f>_DettesCT</f>
         <v>_DettesCT</v>
@@ -9215,8 +9218,11 @@
       <c r="B22" s="13">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H22" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="str">
         <f>_DettesFournisseurs</f>
         <v>_DettesFournisseurs</v>
@@ -9225,34 +9231,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="str">
         <f>VLOOKUP(_CompteDeResultat,_Tables,4,FALSE)</f>
         <v>Compte de résultat</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="str">
         <f>VLOOKUP(_Charges,_Tables,4,FALSE)</f>
         <v>Charges</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="str">
         <f>VLOOKUP(_AchatsBetS,_Tables,4,FALSE)</f>
         <v>Achats de biens et services</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="str">
         <f>_Achats</f>
         <v>_Achats</v>
       </c>
       <c r="B28" s="13">
+        <f>INT(E37)</f>
         <v>857</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="str">
         <f>_Petrole</f>
         <v>_Petrole</v>
@@ -9261,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="str">
         <f>_DepensesAdministratives</f>
         <v>_DepensesAdministratives</v>
@@ -9270,7 +9277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="str">
         <f>_DepensesPublicitaires</f>
         <v>_DepensesPublicitaires</v>
@@ -9279,7 +9286,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="str">
         <f>_DepensesDEntretien</f>
         <v>_DepensesDEntretien</v>
@@ -9321,7 +9328,7 @@
         <v>Amortissement</v>
       </c>
       <c r="E37" s="1">
-        <f>B40/1.225</f>
+        <f>B40/(1+H22)</f>
         <v>857.14285714285711</v>
       </c>
     </row>
@@ -9456,13 +9463,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q195"/>
+  <dimension ref="A1:Q209"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C156" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K162" sqref="K162"/>
+      <selection pane="bottomRight" activeCell="K209" sqref="K209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9519,7 +9526,7 @@
       </c>
       <c r="C4" s="93">
         <f>(_Terrain_Select+_Constructions_Select+_Equipement_Select+_Camion_Select+_Informatique_Select+_Bureau_Select)*_PIBPNB_Select</f>
-        <v>73458653.616792396</v>
+        <v>100896996.98950696</v>
       </c>
       <c r="D4" s="91"/>
       <c r="E4" s="91"/>
@@ -9542,23 +9549,23 @@
       <c r="C7" s="116"/>
       <c r="D7" s="117">
         <f>D$22</f>
-        <v>1013222.8085074815</v>
+        <v>1391682.7170966477</v>
       </c>
       <c r="E7" s="117">
         <f t="shared" ref="E7:H7" si="0">E$22</f>
-        <v>1013222.8085074815</v>
+        <v>1391682.7170966475</v>
       </c>
       <c r="F7" s="117">
         <f t="shared" si="0"/>
-        <v>1013222.8085074816</v>
+        <v>1391682.7170966475</v>
       </c>
       <c r="G7" s="117">
         <f t="shared" si="0"/>
-        <v>1013222.8085074815</v>
+        <v>1391682.7170966472</v>
       </c>
       <c r="H7" s="118">
         <f t="shared" si="0"/>
-        <v>1013222.8085074815</v>
+        <v>1391682.7170966472</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -9571,23 +9578,23 @@
       <c r="C8" s="119"/>
       <c r="D8" s="113">
         <f>D$32</f>
-        <v>3039668.4255224443</v>
+        <v>4175048.1512899431</v>
       </c>
       <c r="E8" s="113">
         <f t="shared" ref="E8:H8" si="1">E$32</f>
-        <v>3039668.4255224438</v>
+        <v>4175048.1512899431</v>
       </c>
       <c r="F8" s="113">
         <f t="shared" si="1"/>
-        <v>3039668.4255224443</v>
+        <v>4175048.1512899431</v>
       </c>
       <c r="G8" s="113">
         <f t="shared" si="1"/>
-        <v>3039668.4255224443</v>
+        <v>4175048.1512899427</v>
       </c>
       <c r="H8" s="120">
         <f t="shared" si="1"/>
-        <v>3039668.4255224448</v>
+        <v>4175048.1512899427</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -9600,15 +9607,15 @@
       <c r="C9" s="119"/>
       <c r="D9" s="113">
         <f>D$42</f>
-        <v>844352.34042290109</v>
+        <v>1159735.5975805395</v>
       </c>
       <c r="E9" s="113">
         <f t="shared" ref="E9:H9" si="2">E$42</f>
-        <v>844352.34042290121</v>
+        <v>1159735.5975805398</v>
       </c>
       <c r="F9" s="113">
         <f t="shared" si="2"/>
-        <v>844352.34042290121</v>
+        <v>1159735.5975805398</v>
       </c>
       <c r="G9" s="113">
         <f t="shared" si="2"/>
@@ -9629,19 +9636,19 @@
       <c r="C10" s="119"/>
       <c r="D10" s="113">
         <f>D$52</f>
-        <v>844352.34042290109</v>
+        <v>869801.69818540476</v>
       </c>
       <c r="E10" s="113">
         <f t="shared" ref="E10:H10" si="3">E$52</f>
-        <v>844352.34042290121</v>
+        <v>869801.69818540476</v>
       </c>
       <c r="F10" s="113">
         <f t="shared" si="3"/>
-        <v>844352.34042290121</v>
+        <v>869801.69818540476</v>
       </c>
       <c r="G10" s="113">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>869801.69818540476</v>
       </c>
       <c r="H10" s="120">
         <f t="shared" si="3"/>
@@ -9658,23 +9665,23 @@
       <c r="C11" s="119"/>
       <c r="D11" s="113">
         <f>D$62</f>
-        <v>253305.70212687037</v>
+        <v>347920.67927416193</v>
       </c>
       <c r="E11" s="113">
         <f t="shared" ref="E11:H11" si="4">E$62</f>
-        <v>253305.70212687034</v>
+        <v>347920.67927416187</v>
       </c>
       <c r="F11" s="113">
         <f t="shared" si="4"/>
-        <v>253305.70212687034</v>
+        <v>347920.67927416193</v>
       </c>
       <c r="G11" s="113">
         <f t="shared" si="4"/>
-        <v>253305.70212687031</v>
+        <v>347920.67927416193</v>
       </c>
       <c r="H11" s="120">
         <f t="shared" si="4"/>
-        <v>253305.70212687031</v>
+        <v>347920.67927416193</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -9687,23 +9694,23 @@
       <c r="C12" s="121"/>
       <c r="D12" s="122">
         <f>SUM(D7:D11)</f>
-        <v>5994901.617002598</v>
+        <v>7944188.843426697</v>
       </c>
       <c r="E12" s="122">
         <f t="shared" ref="E12:H12" si="5">SUM(E7:E11)</f>
-        <v>5994901.617002598</v>
+        <v>7944188.8434266979</v>
       </c>
       <c r="F12" s="122">
         <f t="shared" si="5"/>
-        <v>5994901.617002598</v>
+        <v>7944188.8434266979</v>
       </c>
       <c r="G12" s="122">
         <f t="shared" si="5"/>
-        <v>4306196.9361567963</v>
+        <v>6784453.245846157</v>
       </c>
       <c r="H12" s="123">
         <f t="shared" si="5"/>
-        <v>4306196.9361567963</v>
+        <v>5914651.5476607522</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -9721,7 +9728,7 @@
       </c>
       <c r="D14" s="95">
         <f>_Constructions_Select*_PIBPNB_Select</f>
-        <v>20264456.170149628</v>
+        <v>27833654.341932952</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -9791,23 +9798,23 @@
       <c r="C19" s="102"/>
       <c r="D19" s="103">
         <f>D14</f>
-        <v>20264456.170149628</v>
+        <v>27833654.341932952</v>
       </c>
       <c r="E19" s="104">
         <f>D19-D22</f>
-        <v>19251233.361642148</v>
+        <v>26441971.624836303</v>
       </c>
       <c r="F19" s="104">
         <f t="shared" ref="F19:H19" si="7">E19-E22</f>
-        <v>18238010.553134669</v>
+        <v>25050288.907739654</v>
       </c>
       <c r="G19" s="104">
         <f t="shared" si="7"/>
-        <v>17224787.744627185</v>
+        <v>23658606.190643005</v>
       </c>
       <c r="H19" s="105">
         <f t="shared" si="7"/>
-        <v>16211564.936119704</v>
+        <v>22266923.473546356</v>
       </c>
       <c r="J19" s="104">
         <f>IF(E18=0,0,IF($D16*$D20&gt;100%,100%,IF($D16*$D20&gt;E20,$D16*$D20,E20)))</f>
@@ -9882,33 +9889,33 @@
       <c r="C22" s="109"/>
       <c r="D22" s="110">
         <f>D19*D21</f>
-        <v>1013222.8085074815</v>
+        <v>1391682.7170966477</v>
       </c>
       <c r="E22" s="110">
         <f t="shared" ref="E22:H22" si="9">E19*E21</f>
-        <v>1013222.8085074815</v>
+        <v>1391682.7170966475</v>
       </c>
       <c r="F22" s="110">
         <f t="shared" si="9"/>
-        <v>1013222.8085074816</v>
+        <v>1391682.7170966475</v>
       </c>
       <c r="G22" s="110">
         <f t="shared" si="9"/>
-        <v>1013222.8085074815</v>
+        <v>1391682.7170966472</v>
       </c>
       <c r="H22" s="111">
         <f t="shared" si="9"/>
-        <v>1013222.8085074815</v>
+        <v>1391682.7170966472</v>
       </c>
       <c r="K22" s="1">
         <f>E19*E21</f>
-        <v>1013222.8085074815</v>
+        <v>1391682.7170966475</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K23" s="1">
         <f>E19*0.0526</f>
-        <v>1012614.874822377</v>
+        <v>1390847.7074663895</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -9920,7 +9927,7 @@
       </c>
       <c r="D24" s="95">
         <f>_Equipement_Select*_PIBPNB_Select</f>
-        <v>30396684.25522444</v>
+        <v>41750481.512899429</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -9986,23 +9993,23 @@
       <c r="C29" s="102"/>
       <c r="D29" s="103">
         <f>D24</f>
-        <v>30396684.25522444</v>
+        <v>41750481.512899429</v>
       </c>
       <c r="E29" s="104">
         <f>D29-D32</f>
-        <v>27357015.829701997</v>
+        <v>37575433.361609489</v>
       </c>
       <c r="F29" s="104">
         <f t="shared" ref="F29" si="13">E29-E32</f>
-        <v>24317347.404179554</v>
+        <v>33400385.210319545</v>
       </c>
       <c r="G29" s="104">
         <f t="shared" ref="G29" si="14">F29-F32</f>
-        <v>21277678.978657112</v>
+        <v>29225337.059029602</v>
       </c>
       <c r="H29" s="105">
         <f t="shared" ref="H29" si="15">G29-G32</f>
-        <v>18238010.553134669</v>
+        <v>25050288.907739658</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -10073,23 +10080,23 @@
       <c r="C32" s="109"/>
       <c r="D32" s="110">
         <f>D29*D31</f>
-        <v>3039668.4255224443</v>
+        <v>4175048.1512899431</v>
       </c>
       <c r="E32" s="110">
         <f t="shared" ref="E32:H32" si="17">E29*E31</f>
-        <v>3039668.4255224438</v>
+        <v>4175048.1512899431</v>
       </c>
       <c r="F32" s="110">
         <f t="shared" si="17"/>
-        <v>3039668.4255224443</v>
+        <v>4175048.1512899431</v>
       </c>
       <c r="G32" s="110">
         <f t="shared" si="17"/>
-        <v>3039668.4255224443</v>
+        <v>4175048.1512899427</v>
       </c>
       <c r="H32" s="111">
         <f t="shared" si="17"/>
-        <v>3039668.4255224448</v>
+        <v>4175048.1512899427</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -10101,7 +10108,7 @@
       </c>
       <c r="D34" s="95">
         <f>_Camion_Select*_PIBPNB_Select</f>
-        <v>2533057.0212687035</v>
+        <v>3479206.7927416191</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -10177,15 +10184,15 @@
       <c r="C39" s="102"/>
       <c r="D39" s="103">
         <f>D34</f>
-        <v>2533057.0212687035</v>
+        <v>3479206.7927416191</v>
       </c>
       <c r="E39" s="104">
         <f>D39-D42</f>
-        <v>1688704.6808458024</v>
+        <v>2319471.1951610795</v>
       </c>
       <c r="F39" s="104">
         <f t="shared" ref="F39" si="21">E39-E42</f>
-        <v>844352.34042290121</v>
+        <v>1159735.5975805398</v>
       </c>
       <c r="G39" s="104">
         <f t="shared" ref="G39" si="22">F39-F42</f>
@@ -10264,15 +10271,15 @@
       <c r="C42" s="109"/>
       <c r="D42" s="110">
         <f>D39*D41</f>
-        <v>844352.34042290109</v>
+        <v>1159735.5975805395</v>
       </c>
       <c r="E42" s="110">
         <f t="shared" ref="E42:H42" si="25">E39*E41</f>
-        <v>844352.34042290121</v>
+        <v>1159735.5975805398</v>
       </c>
       <c r="F42" s="110">
         <f t="shared" si="25"/>
-        <v>844352.34042290121</v>
+        <v>1159735.5975805398</v>
       </c>
       <c r="G42" s="110">
         <f t="shared" si="25"/>
@@ -10292,7 +10299,7 @@
       </c>
       <c r="D44" s="95">
         <f>_Informatique_Select*_PIBPNB_Select</f>
-        <v>2533057.0212687035</v>
+        <v>3479206.7927416191</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -10304,7 +10311,7 @@
       </c>
       <c r="D45" s="94">
         <f>_Informatique_DureeLineaire_Select</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -10329,19 +10336,19 @@
       <c r="C48" s="97"/>
       <c r="D48" s="98">
         <f>D45</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E48" s="99">
         <f>IF(D48-1&gt;0,D48-1,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="99">
         <f t="shared" ref="F48" si="26">IF(E48-1&gt;0,E48-1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" s="99">
         <f t="shared" ref="G48" si="27">IF(F48-1&gt;0,F48-1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="100">
         <f t="shared" ref="H48" si="28">IF(G48-1&gt;0,G48-1,0)</f>
@@ -10358,19 +10365,19 @@
       <c r="C49" s="102"/>
       <c r="D49" s="103">
         <f>D44</f>
-        <v>2533057.0212687035</v>
+        <v>3479206.7927416191</v>
       </c>
       <c r="E49" s="104">
         <f>D49-D52</f>
-        <v>1688704.6808458024</v>
+        <v>2609405.0945562143</v>
       </c>
       <c r="F49" s="104">
         <f t="shared" ref="F49" si="29">E49-E52</f>
-        <v>844352.34042290121</v>
+        <v>1739603.3963708095</v>
       </c>
       <c r="G49" s="104">
         <f t="shared" ref="G49" si="30">F49-F52</f>
-        <v>0</v>
+        <v>869801.69818540476</v>
       </c>
       <c r="H49" s="105">
         <f t="shared" ref="H49" si="31">G49-G52</f>
@@ -10387,19 +10394,19 @@
       <c r="C50" s="102"/>
       <c r="D50" s="106">
         <f>IF(D48&gt;0,1/D48,0)</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E50" s="106">
         <f t="shared" ref="E50:H50" si="32">IF(E48&gt;0,1/E48,0)</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F50" s="106">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G50" s="106">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="107">
         <f t="shared" si="32"/>
@@ -10416,19 +10423,19 @@
       <c r="C51" s="102"/>
       <c r="D51" s="106">
         <f>IF(D48=0,0,IF($D46*$D50&gt;100%,100%,IF($D46*$D50&gt;D50,$D46*$D50,D50)))</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E51" s="106">
         <f>IF(E48=0,0,IF($D46*$D50&gt;100%,100%,IF($D46*$D50&gt;E50,$D46*$D50,E50)))</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F51" s="106">
         <f>IF(F48=0,0,IF($D46*$D50&gt;100%,100%,IF($D46*$D50&gt;F50,$D46*$D50,F50)))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G51" s="106">
         <f>IF(G48=0,0,IF($D46*$D50&gt;100%,100%,IF($D46*$D50&gt;G50,$D46*$D50,G50)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="107">
         <f>IF(H48=0,0,IF($D46*$D50&gt;100%,100%,IF($D46*$D50&gt;H50,$D46*$D50,H50)))</f>
@@ -10445,19 +10452,19 @@
       <c r="C52" s="109"/>
       <c r="D52" s="110">
         <f>D49*D51</f>
-        <v>844352.34042290109</v>
+        <v>869801.69818540476</v>
       </c>
       <c r="E52" s="110">
         <f t="shared" ref="E52:H52" si="33">E49*E51</f>
-        <v>844352.34042290121</v>
+        <v>869801.69818540476</v>
       </c>
       <c r="F52" s="110">
         <f t="shared" si="33"/>
-        <v>844352.34042290121</v>
+        <v>869801.69818540476</v>
       </c>
       <c r="G52" s="110">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>869801.69818540476</v>
       </c>
       <c r="H52" s="111">
         <f t="shared" si="33"/>
@@ -10473,7 +10480,7 @@
       </c>
       <c r="D54" s="95">
         <f>_Bureau_Select*_PIBPNB_Select</f>
-        <v>2533057.0212687035</v>
+        <v>3479206.7927416191</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -10539,23 +10546,23 @@
       <c r="C59" s="102"/>
       <c r="D59" s="103">
         <f>D54</f>
-        <v>2533057.0212687035</v>
+        <v>3479206.7927416191</v>
       </c>
       <c r="E59" s="104">
         <f>D59-D62</f>
-        <v>2279751.3191418331</v>
+        <v>3131286.1134674572</v>
       </c>
       <c r="F59" s="104">
         <f t="shared" ref="F59" si="37">E59-E62</f>
-        <v>2026445.6170149627</v>
+        <v>2783365.4341932954</v>
       </c>
       <c r="G59" s="104">
         <f t="shared" ref="G59" si="38">F59-F62</f>
-        <v>1773139.9148880923</v>
+        <v>2435444.7549191336</v>
       </c>
       <c r="H59" s="105">
         <f t="shared" ref="H59" si="39">G59-G62</f>
-        <v>1519834.2127612219</v>
+        <v>2087524.0756449718</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -10626,23 +10633,23 @@
       <c r="C62" s="109"/>
       <c r="D62" s="110">
         <f>D59*D61</f>
-        <v>253305.70212687037</v>
+        <v>347920.67927416193</v>
       </c>
       <c r="E62" s="110">
         <f t="shared" ref="E62:H62" si="41">E59*E61</f>
-        <v>253305.70212687034</v>
+        <v>347920.67927416187</v>
       </c>
       <c r="F62" s="110">
         <f t="shared" si="41"/>
-        <v>253305.70212687034</v>
+        <v>347920.67927416193</v>
       </c>
       <c r="G62" s="110">
         <f t="shared" si="41"/>
-        <v>253305.70212687031</v>
+        <v>347920.67927416193</v>
       </c>
       <c r="H62" s="111">
         <f t="shared" si="41"/>
-        <v>253305.70212687031</v>
+        <v>347920.67927416193</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -10659,7 +10666,7 @@
       </c>
       <c r="D65" s="95">
         <f>(_Terrain_Select+_Constructions_Select+_Equipement_Select+_Camion_Select+_Informatique_Select+_Bureau_Select)*_PIBPNB_Select</f>
-        <v>73458653.616792396</v>
+        <v>100896996.98950696</v>
       </c>
       <c r="F65" s="6" t="str">
         <f>_Amortissement_TauxExceptionnel_Select</f>
@@ -10833,23 +10840,23 @@
       <c r="C76" s="119"/>
       <c r="D76" s="125">
         <f>_TVApetrole_Taux_Select1</f>
-        <v>0.18</v>
+        <v>0.1925</v>
       </c>
       <c r="E76" s="125">
         <f>_TVApetrole_Taux_Select2</f>
-        <v>0.18</v>
+        <v>0.1925</v>
       </c>
       <c r="F76" s="125">
         <f>_TVApetrole_Taux_Select3</f>
-        <v>0.18</v>
+        <v>0.1925</v>
       </c>
       <c r="G76" s="125">
         <f>_TVApetrole_Taux_Select4</f>
-        <v>0.18</v>
+        <v>0.1925</v>
       </c>
       <c r="H76" s="126">
         <f>_TVApetrole_Taux_Select5</f>
-        <v>0.18</v>
+        <v>0.1925</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -10896,23 +10903,23 @@
       <c r="C80" s="116"/>
       <c r="D80" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4559502.6382836662</v>
+        <v>6262572.2269349145</v>
       </c>
       <c r="E80" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4559502.6382836662</v>
+        <v>6262572.2269349145</v>
       </c>
       <c r="F80" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4559502.6382836662</v>
+        <v>6262572.2269349145</v>
       </c>
       <c r="G80" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4559502.6382836662</v>
+        <v>6262572.2269349145</v>
       </c>
       <c r="H80" s="128">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4559502.6382836662</v>
+        <v>6262572.2269349145</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -10925,23 +10932,23 @@
       <c r="C81" s="119"/>
       <c r="D81" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>6958413.5854832381</v>
       </c>
       <c r="E81" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>6958413.5854832381</v>
       </c>
       <c r="F81" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>6958413.5854832381</v>
       </c>
       <c r="G81" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>6958413.5854832381</v>
       </c>
       <c r="H81" s="130">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>6958413.5854832381</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -10954,23 +10961,23 @@
       <c r="C82" s="119"/>
       <c r="D82" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>24317347.404179551</v>
+        <v>33400385.210319545</v>
       </c>
       <c r="E82" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>24317347.404179551</v>
+        <v>33400385.210319545</v>
       </c>
       <c r="F82" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>24317347.404179551</v>
+        <v>33400385.210319545</v>
       </c>
       <c r="G82" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>24317347.404179551</v>
+        <v>33400385.210319545</v>
       </c>
       <c r="H82" s="130">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>24317347.404179551</v>
+        <v>33400385.210319545</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -10983,23 +10990,23 @@
       <c r="C83" s="119"/>
       <c r="D83" s="114">
         <f>SUM(D80:D82)</f>
-        <v>33942964.085000619</v>
+        <v>46621371.022737697</v>
       </c>
       <c r="E83" s="114">
         <f t="shared" ref="E83:H83" si="47">SUM(E80:E82)</f>
-        <v>33942964.085000619</v>
+        <v>46621371.022737697</v>
       </c>
       <c r="F83" s="114">
         <f t="shared" si="47"/>
-        <v>33942964.085000619</v>
+        <v>46621371.022737697</v>
       </c>
       <c r="G83" s="114">
         <f t="shared" si="47"/>
-        <v>33942964.085000619</v>
+        <v>46621371.022737697</v>
       </c>
       <c r="H83" s="131">
         <f t="shared" si="47"/>
-        <v>33942964.085000619</v>
+        <v>46621371.022737697</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -11012,23 +11019,23 @@
       <c r="C84" s="119"/>
       <c r="D84" s="125">
         <f>_CFE_Taux_Select1</f>
-        <v>8.6999999999999994E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E84" s="125">
         <f>_CFE_Taux_Select2</f>
-        <v>8.6999999999999994E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F84" s="125">
         <f>_CFE_Taux_Select3</f>
-        <v>8.6999999999999994E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G84" s="125">
         <f>_CFE_Taux_Select4</f>
-        <v>8.6999999999999994E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H84" s="126">
         <f>_CFE_Taux_Select5</f>
-        <v>8.6999999999999994E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -11041,23 +11048,23 @@
       <c r="C85" s="121"/>
       <c r="D85" s="110">
         <f>D83*D84</f>
-        <v>2953037.8753950535</v>
+        <v>1165534.2755684424</v>
       </c>
       <c r="E85" s="110">
         <f t="shared" ref="E85:H85" si="48">E83*E84</f>
-        <v>2953037.8753950535</v>
+        <v>1165534.2755684424</v>
       </c>
       <c r="F85" s="110">
         <f t="shared" si="48"/>
-        <v>2953037.8753950535</v>
+        <v>1165534.2755684424</v>
       </c>
       <c r="G85" s="110">
         <f t="shared" si="48"/>
-        <v>2953037.8753950535</v>
+        <v>1165534.2755684424</v>
       </c>
       <c r="H85" s="111">
         <f t="shared" si="48"/>
-        <v>2953037.8753950535</v>
+        <v>1165534.2755684424</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -11075,23 +11082,23 @@
       <c r="C88" s="116"/>
       <c r="D88" s="127">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2786362.7233955739</v>
+        <v>3827127.4720157813</v>
       </c>
       <c r="E88" s="127">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2786362.7233955739</v>
+        <v>3827127.4720157813</v>
       </c>
       <c r="F88" s="127">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2786362.7233955739</v>
+        <v>3827127.4720157813</v>
       </c>
       <c r="G88" s="127">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2786362.7233955739</v>
+        <v>3827127.4720157813</v>
       </c>
       <c r="H88" s="128">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2786362.7233955739</v>
+        <v>3827127.4720157813</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -11104,23 +11111,23 @@
       <c r="C89" s="119"/>
       <c r="D89" s="125">
         <f>_IRC_Taux_Select1</f>
-        <v>0.2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="E89" s="125">
         <f>_IRC_Taux_Select2</f>
-        <v>0.2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F89" s="125">
         <f>_IRC_Taux_Select3</f>
-        <v>0.2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="G89" s="125">
         <f>_IRC_Taux_Select4</f>
-        <v>0.2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="H89" s="126">
         <f>_IRC_Taux_Select5</f>
-        <v>0.2</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -11133,23 +11140,23 @@
       <c r="C90" s="121"/>
       <c r="D90" s="110">
         <f>D88*D89</f>
-        <v>557272.54467911483</v>
+        <v>631476.03288260393</v>
       </c>
       <c r="E90" s="110">
         <f t="shared" ref="E90" si="49">E88*E89</f>
-        <v>557272.54467911483</v>
+        <v>631476.03288260393</v>
       </c>
       <c r="F90" s="110">
         <f t="shared" ref="F90" si="50">F88*F89</f>
-        <v>557272.54467911483</v>
+        <v>631476.03288260393</v>
       </c>
       <c r="G90" s="110">
         <f t="shared" ref="G90" si="51">G88*G89</f>
-        <v>557272.54467911483</v>
+        <v>631476.03288260393</v>
       </c>
       <c r="H90" s="111">
         <f t="shared" ref="H90" si="52">H88*H89</f>
-        <v>557272.54467911483</v>
+        <v>631476.03288260393</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -11167,23 +11174,23 @@
       <c r="C93" s="91"/>
       <c r="D93" s="93">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>531941974.46642768</v>
+        <v>730633426.47574008</v>
       </c>
       <c r="E93" s="93">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>531941974.46642768</v>
+        <v>730633426.47574008</v>
       </c>
       <c r="F93" s="93">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>531941974.46642768</v>
+        <v>730633426.47574008</v>
       </c>
       <c r="G93" s="93">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>531941974.46642768</v>
+        <v>730633426.47574008</v>
       </c>
       <c r="H93" s="137">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>531941974.46642768</v>
+        <v>730633426.47574008</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -11196,23 +11203,23 @@
       <c r="C94" s="119"/>
       <c r="D94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>434165973.44545579</v>
+        <v>596336044.2759136</v>
       </c>
       <c r="E94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>434165973.44545579</v>
+        <v>596336044.2759136</v>
       </c>
       <c r="F94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>434165973.44545579</v>
+        <v>596336044.2759136</v>
       </c>
       <c r="G94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>434165973.44545579</v>
+        <v>596336044.2759136</v>
       </c>
       <c r="H94" s="130">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>434165973.44545579</v>
+        <v>596336044.2759136</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -11283,23 +11290,23 @@
       <c r="C97" s="119"/>
       <c r="D97" s="129">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>6958413.5854832381</v>
       </c>
       <c r="E97" s="129">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>6958413.5854832381</v>
       </c>
       <c r="F97" s="129">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>6958413.5854832381</v>
       </c>
       <c r="G97" s="129">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>6958413.5854832381</v>
       </c>
       <c r="H97" s="130">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>6958413.5854832381</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -11312,27 +11319,27 @@
       <c r="C98" s="119"/>
       <c r="D98" s="129">
         <f t="shared" ref="D98:I98" si="54">_DepensesPublicitaires_Select*_PIBPNB_Select</f>
-        <v>5319419.744664277</v>
+        <v>7306334.2647574004</v>
       </c>
       <c r="E98" s="129">
         <f t="shared" si="54"/>
-        <v>5319419.744664277</v>
+        <v>7306334.2647574004</v>
       </c>
       <c r="F98" s="129">
         <f t="shared" si="54"/>
-        <v>5319419.744664277</v>
+        <v>7306334.2647574004</v>
       </c>
       <c r="G98" s="129">
         <f t="shared" si="54"/>
-        <v>5319419.744664277</v>
+        <v>7306334.2647574004</v>
       </c>
       <c r="H98" s="130">
         <f t="shared" si="54"/>
-        <v>5319419.744664277</v>
+        <v>7306334.2647574004</v>
       </c>
       <c r="I98" s="217">
         <f t="shared" si="54"/>
-        <v>5319419.744664277</v>
+        <v>7306334.2647574004</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -11345,23 +11352,23 @@
       <c r="C99" s="119"/>
       <c r="D99" s="129">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>1519834.2127612219</v>
+        <v>2087524.0756449716</v>
       </c>
       <c r="E99" s="129">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>1519834.2127612219</v>
+        <v>2087524.0756449716</v>
       </c>
       <c r="F99" s="129">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>1519834.2127612219</v>
+        <v>2087524.0756449716</v>
       </c>
       <c r="G99" s="129">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>1519834.2127612219</v>
+        <v>2087524.0756449716</v>
       </c>
       <c r="H99" s="130">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>1519834.2127612219</v>
+        <v>2087524.0756449716</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -11374,23 +11381,23 @@
       <c r="C100" s="116"/>
       <c r="D100" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4559502.6382836662</v>
+        <v>6262572.2269349145</v>
       </c>
       <c r="E100" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4559502.6382836662</v>
+        <v>6262572.2269349145</v>
       </c>
       <c r="F100" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4559502.6382836662</v>
+        <v>6262572.2269349145</v>
       </c>
       <c r="G100" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4559502.6382836662</v>
+        <v>6262572.2269349145</v>
       </c>
       <c r="H100" s="128">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>4559502.6382836662</v>
+        <v>6262572.2269349145</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -11403,23 +11410,23 @@
       <c r="C101" s="119"/>
       <c r="D101" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>6958413.5854832381</v>
       </c>
       <c r="E101" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>6958413.5854832381</v>
       </c>
       <c r="F101" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>6958413.5854832381</v>
       </c>
       <c r="G101" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>6958413.5854832381</v>
       </c>
       <c r="H101" s="130">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>5066114.042537407</v>
+        <v>6958413.5854832381</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -11432,23 +11439,23 @@
       <c r="C102" s="119"/>
       <c r="D102" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>24317347.404179551</v>
+        <v>33400385.210319545</v>
       </c>
       <c r="E102" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>24317347.404179551</v>
+        <v>33400385.210319545</v>
       </c>
       <c r="F102" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>24317347.404179551</v>
+        <v>33400385.210319545</v>
       </c>
       <c r="G102" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>24317347.404179551</v>
+        <v>33400385.210319545</v>
       </c>
       <c r="H102" s="130">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>24317347.404179551</v>
+        <v>33400385.210319545</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -11461,23 +11468,23 @@
       <c r="C103" s="121"/>
       <c r="D103" s="135">
         <f>D$85</f>
-        <v>2953037.8753950535</v>
+        <v>1165534.2755684424</v>
       </c>
       <c r="E103" s="135">
         <f t="shared" ref="E103:H103" si="55">E$85</f>
-        <v>2953037.8753950535</v>
+        <v>1165534.2755684424</v>
       </c>
       <c r="F103" s="135">
         <f t="shared" si="55"/>
-        <v>2953037.8753950535</v>
+        <v>1165534.2755684424</v>
       </c>
       <c r="G103" s="135">
         <f t="shared" si="55"/>
-        <v>2953037.8753950535</v>
+        <v>1165534.2755684424</v>
       </c>
       <c r="H103" s="136">
         <f t="shared" si="55"/>
-        <v>2953037.8753950535</v>
+        <v>1165534.2755684424</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -11490,23 +11497,23 @@
       <c r="C104" s="119"/>
       <c r="D104" s="129">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2786362.7233955739</v>
+        <v>3827127.4720157813</v>
       </c>
       <c r="E104" s="129">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2786362.7233955739</v>
+        <v>3827127.4720157813</v>
       </c>
       <c r="F104" s="129">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2786362.7233955739</v>
+        <v>3827127.4720157813</v>
       </c>
       <c r="G104" s="129">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2786362.7233955739</v>
+        <v>3827127.4720157813</v>
       </c>
       <c r="H104" s="130">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>2786362.7233955739</v>
+        <v>3827127.4720157813</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -11519,23 +11526,23 @@
       <c r="C105" s="91"/>
       <c r="D105" s="112">
         <f>D$12</f>
-        <v>5994901.617002598</v>
+        <v>7944188.843426697</v>
       </c>
       <c r="E105" s="112">
         <f t="shared" ref="E105:H105" si="56">E$12</f>
-        <v>5994901.617002598</v>
+        <v>7944188.8434266979</v>
       </c>
       <c r="F105" s="112">
         <f t="shared" si="56"/>
-        <v>5994901.617002598</v>
+        <v>7944188.8434266979</v>
       </c>
       <c r="G105" s="112">
         <f t="shared" si="56"/>
-        <v>4306196.9361567963</v>
+        <v>6784453.245846157</v>
       </c>
       <c r="H105" s="134">
         <f t="shared" si="56"/>
-        <v>4306196.9361567963</v>
+        <v>5914651.5476607522</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -11548,23 +11555,23 @@
       <c r="C106" s="116"/>
       <c r="D106" s="153">
         <f>D93-SUM(D94:D105)</f>
-        <v>40193366.720215142</v>
+        <v>58386888.66019237</v>
       </c>
       <c r="E106" s="153">
         <f>E93-SUM(E94:E105)</f>
-        <v>40193366.720215142</v>
+        <v>58386888.66019237</v>
       </c>
       <c r="F106" s="153">
         <f>F93-SUM(F94:F105)</f>
-        <v>40193366.720215142</v>
+        <v>58386888.66019237</v>
       </c>
       <c r="G106" s="153">
         <f>G93-SUM(G94:G105)</f>
-        <v>41882071.401060939</v>
+        <v>59546624.257772923</v>
       </c>
       <c r="H106" s="154">
         <f>H93-SUM(H94:H105)</f>
-        <v>41882071.401060939</v>
+        <v>60416425.955958366</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -11577,23 +11584,23 @@
       <c r="C107" s="121"/>
       <c r="D107" s="132">
         <f>D106/D$93</f>
-        <v>7.5559682539682441E-2</v>
+        <v>7.9912698412698546E-2</v>
       </c>
       <c r="E107" s="132">
         <f t="shared" ref="E107:H107" si="57">E106/E$93</f>
-        <v>7.5559682539682441E-2</v>
+        <v>7.9912698412698546E-2</v>
       </c>
       <c r="F107" s="132">
         <f t="shared" si="57"/>
-        <v>7.5559682539682441E-2</v>
+        <v>7.9912698412698546E-2</v>
       </c>
       <c r="G107" s="132">
         <f t="shared" si="57"/>
-        <v>7.8734285714285618E-2</v>
+        <v>8.1500000000000142E-2</v>
       </c>
       <c r="H107" s="133">
         <f t="shared" si="57"/>
-        <v>7.8734285714285618E-2</v>
+        <v>8.2690476190476384E-2</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -11611,23 +11618,23 @@
       <c r="C110" s="116"/>
       <c r="D110" s="117">
         <f>D106</f>
-        <v>40193366.720215142</v>
+        <v>58386888.66019237</v>
       </c>
       <c r="E110" s="117">
         <f t="shared" ref="E110:H110" si="58">E106</f>
-        <v>40193366.720215142</v>
+        <v>58386888.66019237</v>
       </c>
       <c r="F110" s="117">
         <f t="shared" si="58"/>
-        <v>40193366.720215142</v>
+        <v>58386888.66019237</v>
       </c>
       <c r="G110" s="117">
         <f t="shared" si="58"/>
-        <v>41882071.401060939</v>
+        <v>59546624.257772923</v>
       </c>
       <c r="H110" s="118">
         <f t="shared" si="58"/>
-        <v>41882071.401060939</v>
+        <v>60416425.955958366</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -11669,23 +11676,23 @@
       <c r="C112" s="121"/>
       <c r="D112" s="122">
         <f>D110-D111</f>
-        <v>40193366.720215142</v>
+        <v>58386888.66019237</v>
       </c>
       <c r="E112" s="122">
         <f t="shared" ref="E112:H112" si="59">E110-E111</f>
-        <v>40193366.720215142</v>
+        <v>58386888.66019237</v>
       </c>
       <c r="F112" s="122">
         <f t="shared" si="59"/>
-        <v>40193366.720215142</v>
+        <v>58386888.66019237</v>
       </c>
       <c r="G112" s="122">
         <f t="shared" si="59"/>
-        <v>41882071.401060939</v>
+        <v>59546624.257772923</v>
       </c>
       <c r="H112" s="123">
         <f t="shared" si="59"/>
-        <v>41882071.401060939</v>
+        <v>60416425.955958366</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -11703,23 +11710,23 @@
       <c r="C115" s="116"/>
       <c r="D115" s="117">
         <f>D$112</f>
-        <v>40193366.720215142</v>
+        <v>58386888.66019237</v>
       </c>
       <c r="E115" s="117">
         <f t="shared" ref="E115:H115" si="60">E$112</f>
-        <v>40193366.720215142</v>
+        <v>58386888.66019237</v>
       </c>
       <c r="F115" s="117">
         <f t="shared" si="60"/>
-        <v>40193366.720215142</v>
+        <v>58386888.66019237</v>
       </c>
       <c r="G115" s="117">
         <f t="shared" si="60"/>
-        <v>41882071.401060939</v>
+        <v>59546624.257772923</v>
       </c>
       <c r="H115" s="118">
         <f t="shared" si="60"/>
-        <v>41882071.401060939</v>
+        <v>60416425.955958366</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -11732,23 +11739,23 @@
       <c r="C116" s="119"/>
       <c r="D116" s="125">
         <f>_IS_Taux_Select1</f>
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="E116" s="125">
         <f>_IS_Taux_Select2</f>
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F116" s="125">
         <f>_IS_Taux_Select3</f>
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="G116" s="125">
         <f>_IS_Taux_Select4</f>
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="H116" s="126">
         <f>_IS_Taux_Select5</f>
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -11761,23 +11768,23 @@
       <c r="C117" s="121"/>
       <c r="D117" s="110">
         <f>D115*D116</f>
-        <v>0</v>
+        <v>9633836.6289317422</v>
       </c>
       <c r="E117" s="110">
         <f t="shared" ref="E117:H117" si="61">E115*E116</f>
-        <v>0</v>
+        <v>9633836.6289317422</v>
       </c>
       <c r="F117" s="110">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>9633836.6289317422</v>
       </c>
       <c r="G117" s="110">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>9825193.0025325324</v>
       </c>
       <c r="H117" s="111">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>9968710.2827331312</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
@@ -11795,23 +11802,23 @@
       <c r="C120" s="116"/>
       <c r="D120" s="117">
         <f>D$93</f>
-        <v>531941974.46642768</v>
+        <v>730633426.47574008</v>
       </c>
       <c r="E120" s="117">
         <f t="shared" ref="E120:H120" si="62">E$93</f>
-        <v>531941974.46642768</v>
+        <v>730633426.47574008</v>
       </c>
       <c r="F120" s="117">
         <f t="shared" si="62"/>
-        <v>531941974.46642768</v>
+        <v>730633426.47574008</v>
       </c>
       <c r="G120" s="117">
         <f t="shared" si="62"/>
-        <v>531941974.46642768</v>
+        <v>730633426.47574008</v>
       </c>
       <c r="H120" s="118">
         <f t="shared" si="62"/>
-        <v>531941974.46642768</v>
+        <v>730633426.47574008</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -11824,23 +11831,23 @@
       <c r="C121" s="119"/>
       <c r="D121" s="125">
         <f>_IMF_Taux_Select1</f>
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E121" s="125">
         <f>_IMF_Taux_Select2</f>
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F121" s="125">
         <f>_IMF_Taux_Select3</f>
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="G121" s="125">
         <f>_IMF_Taux_Select4</f>
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H121" s="126">
         <f>_IMF_Taux_Select5</f>
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -11853,23 +11860,23 @@
       <c r="C122" s="121"/>
       <c r="D122" s="110">
         <f>D120*D121</f>
-        <v>0</v>
+        <v>16073935.382466281</v>
       </c>
       <c r="E122" s="110">
         <f t="shared" ref="E122" si="63">E120*E121</f>
-        <v>0</v>
+        <v>16073935.382466281</v>
       </c>
       <c r="F122" s="110">
         <f t="shared" ref="F122" si="64">F120*F121</f>
-        <v>0</v>
+        <v>16073935.382466281</v>
       </c>
       <c r="G122" s="110">
         <f t="shared" ref="G122" si="65">G120*G121</f>
-        <v>0</v>
+        <v>16073935.382466281</v>
       </c>
       <c r="H122" s="111">
         <f t="shared" ref="H122" si="66">H120*H121</f>
-        <v>0</v>
+        <v>16073935.382466281</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -11885,23 +11892,23 @@
       <c r="C125" s="116"/>
       <c r="D125" s="155">
         <f>IF(D$117&gt;D$122,D$117,D$122)</f>
-        <v>0</v>
+        <v>16073935.382466281</v>
       </c>
       <c r="E125" s="155">
         <f>IF(E$117&gt;E$122,E$117,E$122)</f>
-        <v>0</v>
+        <v>16073935.382466281</v>
       </c>
       <c r="F125" s="155">
         <f>IF(F$117&gt;F$122,F$117,F$122)</f>
-        <v>0</v>
+        <v>16073935.382466281</v>
       </c>
       <c r="G125" s="155">
         <f>IF(G$117&gt;G$122,G$117,G$122)</f>
-        <v>0</v>
+        <v>16073935.382466281</v>
       </c>
       <c r="H125" s="156">
         <f>IF(H$117&gt;H$122,H$117,H$122)</f>
-        <v>0</v>
+        <v>16073935.382466281</v>
       </c>
       <c r="M125" s="1">
         <v>0.1</v>
@@ -11917,27 +11924,27 @@
       <c r="C126" s="119"/>
       <c r="D126" s="113">
         <f>D$106</f>
-        <v>40193366.720215142</v>
+        <v>58386888.66019237</v>
       </c>
       <c r="E126" s="113">
         <f t="shared" ref="E126:H126" si="67">E$106</f>
-        <v>40193366.720215142</v>
+        <v>58386888.66019237</v>
       </c>
       <c r="F126" s="113">
         <f t="shared" si="67"/>
-        <v>40193366.720215142</v>
+        <v>58386888.66019237</v>
       </c>
       <c r="G126" s="113">
         <f t="shared" si="67"/>
-        <v>41882071.401060939</v>
+        <v>59546624.257772923</v>
       </c>
       <c r="H126" s="120">
         <f t="shared" si="67"/>
-        <v>41882071.401060939</v>
+        <v>60416425.955958366</v>
       </c>
       <c r="I126" s="182">
         <f>D110-D125</f>
-        <v>40193366.720215142</v>
+        <v>42312953.277726091</v>
       </c>
       <c r="M126" s="1">
         <v>-10000</v>
@@ -11953,23 +11960,23 @@
       <c r="C127" s="121"/>
       <c r="D127" s="132">
         <f>D126/D$93</f>
-        <v>7.5559682539682441E-2</v>
+        <v>7.9912698412698546E-2</v>
       </c>
       <c r="E127" s="132">
         <f t="shared" ref="E127:H127" si="68">E126/E$93</f>
-        <v>7.5559682539682441E-2</v>
+        <v>7.9912698412698546E-2</v>
       </c>
       <c r="F127" s="132">
         <f t="shared" si="68"/>
-        <v>7.5559682539682441E-2</v>
+        <v>7.9912698412698546E-2</v>
       </c>
       <c r="G127" s="132">
         <f t="shared" si="68"/>
-        <v>7.8734285714285618E-2</v>
+        <v>8.1500000000000142E-2</v>
       </c>
       <c r="H127" s="133">
         <f t="shared" si="68"/>
-        <v>7.8734285714285618E-2</v>
+        <v>8.2690476190476384E-2</v>
       </c>
       <c r="M127" s="1">
         <v>3000</v>
@@ -11998,23 +12005,23 @@
       <c r="C130" s="116"/>
       <c r="D130" s="117">
         <f>D126</f>
-        <v>40193366.720215142</v>
+        <v>58386888.66019237</v>
       </c>
       <c r="E130" s="117">
         <f t="shared" ref="E130:H130" si="69">E126</f>
-        <v>40193366.720215142</v>
+        <v>58386888.66019237</v>
       </c>
       <c r="F130" s="117">
         <f t="shared" si="69"/>
-        <v>40193366.720215142</v>
+        <v>58386888.66019237</v>
       </c>
       <c r="G130" s="117">
         <f t="shared" si="69"/>
-        <v>41882071.401060939</v>
+        <v>59546624.257772923</v>
       </c>
       <c r="H130" s="118">
         <f t="shared" si="69"/>
-        <v>41882071.401060939</v>
+        <v>60416425.955958366</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
@@ -12056,23 +12063,23 @@
       <c r="C132" s="119"/>
       <c r="D132" s="125">
         <f>_IRVM_Taux_Select1</f>
-        <v>0.2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="E132" s="125">
         <f>_IRVM_Taux_Select2</f>
-        <v>0.2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="F132" s="125">
         <f>_IRVM_Taux_Select3</f>
-        <v>0.2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="G132" s="125">
         <f>_IRVM_Taux_Select4</f>
-        <v>0.2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="H132" s="126">
         <f>_IRVM_Taux_Select5</f>
-        <v>0.2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="K132" s="213">
         <f>NPV(M125,M126,M127,M128,M129)</f>
@@ -12089,34 +12096,34 @@
       <c r="C133" s="121"/>
       <c r="D133" s="110">
         <f>D130*D131*D132</f>
-        <v>4019336.6720215143</v>
+        <v>2408459.1572329355</v>
       </c>
       <c r="E133" s="110">
         <f t="shared" ref="E133:H133" si="70">E130*E131*E132</f>
-        <v>4019336.6720215143</v>
+        <v>2408459.1572329355</v>
       </c>
       <c r="F133" s="110">
         <f t="shared" si="70"/>
-        <v>4019336.6720215143</v>
+        <v>2408459.1572329355</v>
       </c>
       <c r="G133" s="110">
         <f t="shared" si="70"/>
-        <v>4188207.1401060941</v>
+        <v>2456298.2506331331</v>
       </c>
       <c r="H133" s="111">
         <f t="shared" si="70"/>
-        <v>4188207.1401060941</v>
+        <v>2492177.5706832828</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J134" s="212"/>
       <c r="L134" s="1">
         <f>(D141/1.08^0)+(E141/1.08^1)+(F141/1.08^2)+(G141/1.08^3)+(H141/1.08^4)</f>
-        <v>0</v>
+        <v>69312848.187871113</v>
       </c>
       <c r="M134" s="1">
         <f>L134/1.08</f>
-        <v>0</v>
+        <v>64178563.136917695</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
@@ -12181,31 +12188,31 @@
       <c r="C140" s="116"/>
       <c r="D140" s="117">
         <f>D$85</f>
-        <v>2953037.8753950535</v>
+        <v>1165534.2755684424</v>
       </c>
       <c r="E140" s="117">
         <f t="shared" ref="E140:H140" si="71">E$85</f>
-        <v>2953037.8753950535</v>
+        <v>1165534.2755684424</v>
       </c>
       <c r="F140" s="117">
         <f t="shared" si="71"/>
-        <v>2953037.8753950535</v>
+        <v>1165534.2755684424</v>
       </c>
       <c r="G140" s="117">
         <f t="shared" si="71"/>
-        <v>2953037.8753950535</v>
+        <v>1165534.2755684424</v>
       </c>
       <c r="H140" s="117">
         <f t="shared" si="71"/>
-        <v>2953037.8753950535</v>
+        <v>1165534.2755684424</v>
       </c>
       <c r="I140" s="162">
         <f>NPV(_TauxDActualisation_Select,D140:H140)</f>
-        <v>11947651.355090434</v>
+        <v>4715617.5282840645</v>
       </c>
       <c r="K140" s="182">
         <f>(D140/(1.08))+(D140/(1.08*2))+(D140/(1.08*3))+(D140/(1.08*4))+(D140/(1.08*5))</f>
-        <v>6243305.3847086783</v>
+        <v>2464169.6875443924</v>
       </c>
       <c r="M140" s="1">
         <v>1</v>
@@ -12233,27 +12240,27 @@
       <c r="C141" s="119"/>
       <c r="D141" s="113">
         <f>D125</f>
-        <v>0</v>
+        <v>16073935.382466281</v>
       </c>
       <c r="E141" s="113">
         <f>E125</f>
-        <v>0</v>
+        <v>16073935.382466281</v>
       </c>
       <c r="F141" s="113">
         <f>F125</f>
-        <v>0</v>
+        <v>16073935.382466281</v>
       </c>
       <c r="G141" s="113">
         <f>G125</f>
-        <v>0</v>
+        <v>16073935.382466281</v>
       </c>
       <c r="H141" s="113">
         <f>H125</f>
-        <v>0</v>
+        <v>16073935.382466281</v>
       </c>
       <c r="I141" s="163">
         <f t="shared" ref="I141:I145" si="72">NPV(_TauxDActualisation_Select,D141:H141)</f>
-        <v>0</v>
+        <v>65033292.479619041</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
@@ -12266,27 +12273,27 @@
       <c r="C142" s="119"/>
       <c r="D142" s="113">
         <f>D$133</f>
-        <v>4019336.6720215143</v>
+        <v>2408459.1572329355</v>
       </c>
       <c r="E142" s="113">
         <f>E$133</f>
-        <v>4019336.6720215143</v>
+        <v>2408459.1572329355</v>
       </c>
       <c r="F142" s="113">
         <f t="shared" ref="F142:H142" si="73">F$133</f>
-        <v>4019336.6720215143</v>
+        <v>2408459.1572329355</v>
       </c>
       <c r="G142" s="113">
         <f t="shared" si="73"/>
-        <v>4188207.1401060941</v>
+        <v>2456298.2506331331</v>
       </c>
       <c r="H142" s="113">
         <f t="shared" si="73"/>
-        <v>4188207.1401060941</v>
+        <v>2492177.5706832828</v>
       </c>
       <c r="I142" s="163">
         <f t="shared" si="72"/>
-        <v>16505852.035639185</v>
+        <v>9838485.2633862365</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
@@ -12299,27 +12306,27 @@
       <c r="C143" s="119"/>
       <c r="D143" s="113">
         <f>D$90</f>
-        <v>557272.54467911483</v>
+        <v>631476.03288260393</v>
       </c>
       <c r="E143" s="113">
         <f t="shared" ref="E143:H143" si="74">E$90</f>
-        <v>557272.54467911483</v>
+        <v>631476.03288260393</v>
       </c>
       <c r="F143" s="113">
         <f t="shared" si="74"/>
-        <v>557272.54467911483</v>
+        <v>631476.03288260393</v>
       </c>
       <c r="G143" s="113">
         <f t="shared" si="74"/>
-        <v>557272.54467911483</v>
+        <v>631476.03288260393</v>
       </c>
       <c r="H143" s="113">
         <f t="shared" si="74"/>
-        <v>557272.54467911483</v>
+        <v>631476.03288260393</v>
       </c>
       <c r="I143" s="163">
         <f t="shared" si="72"/>
-        <v>2254660.5748154889</v>
+        <v>2554879.3474136055</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
@@ -12365,27 +12372,27 @@
       <c r="C145" s="121"/>
       <c r="D145" s="122">
         <f>SUM(D140:D144)</f>
-        <v>7529647.0920956824</v>
+        <v>20279404.848150264</v>
       </c>
       <c r="E145" s="122">
         <f>SUM(E140:E144)</f>
-        <v>7529647.0920956824</v>
+        <v>20279404.848150264</v>
       </c>
       <c r="F145" s="122">
         <f>SUM(F140:F144)</f>
-        <v>7529647.0920956824</v>
+        <v>20279404.848150264</v>
       </c>
       <c r="G145" s="122">
         <f>SUM(G140:G144)</f>
-        <v>7698517.5601802617</v>
+        <v>20327243.94155046</v>
       </c>
       <c r="H145" s="122">
         <f>SUM(H140:H144)</f>
-        <v>7698517.5601802617</v>
+        <v>20363123.26160061</v>
       </c>
       <c r="I145" s="165">
         <f t="shared" si="72"/>
-        <v>30708163.965545107</v>
+        <v>82142274.618702963</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
@@ -12406,27 +12413,27 @@
       <c r="C147" s="116"/>
       <c r="D147" s="117">
         <f t="shared" ref="D147:H148" si="76">D140*D$136</f>
-        <v>2953037.8753950535</v>
+        <v>1165534.2755684424</v>
       </c>
       <c r="E147" s="117">
         <f t="shared" si="76"/>
-        <v>2747011.9771116776</v>
+        <v>1084217.9307613417</v>
       </c>
       <c r="F147" s="117">
         <f t="shared" si="76"/>
-        <v>2555359.9787085378</v>
+        <v>1008574.8193128761</v>
       </c>
       <c r="G147" s="117">
         <f t="shared" si="76"/>
-        <v>2377079.0499614305</v>
+        <v>938209.13424453605</v>
       </c>
       <c r="H147" s="117">
         <f t="shared" si="76"/>
-        <v>2211236.3255455168</v>
+        <v>872752.68301817297</v>
       </c>
       <c r="I147" s="162">
         <f>SUM(D147:H147)</f>
-        <v>12843725.206722215</v>
+        <v>5069288.8429053696</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
@@ -12439,27 +12446,27 @@
       <c r="C148" s="119"/>
       <c r="D148" s="113">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>16073935.382466281</v>
       </c>
       <c r="E148" s="113">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>14952498.030201191</v>
       </c>
       <c r="F148" s="113">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>13909300.493210411</v>
       </c>
       <c r="G148" s="113">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>12938884.179730617</v>
       </c>
       <c r="H148" s="113">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>12036171.329981968</v>
       </c>
       <c r="I148" s="163">
         <f t="shared" ref="I148:I152" si="77">SUM(D148:H148)</f>
-        <v>0</v>
+        <v>69910789.415590465</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
@@ -12472,27 +12479,27 @@
       <c r="C149" s="119"/>
       <c r="D149" s="113">
         <f t="shared" ref="D149:H149" si="78">D142*D$136</f>
-        <v>4019336.6720215143</v>
+        <v>2408459.1572329355</v>
       </c>
       <c r="E149" s="113">
         <f>E142*E$136</f>
-        <v>3738917.8344386178</v>
+        <v>2240427.1230073818</v>
       </c>
       <c r="F149" s="113">
         <f t="shared" si="78"/>
-        <v>3478063.1018033656</v>
+        <v>2084118.2539603554</v>
       </c>
       <c r="G149" s="113">
         <f t="shared" si="78"/>
-        <v>3371341.6047239872</v>
+        <v>1977223.2387150885</v>
       </c>
       <c r="H149" s="113">
         <f t="shared" si="78"/>
-        <v>3136131.7253246391</v>
+        <v>1866143.8852244411</v>
       </c>
       <c r="I149" s="163">
         <f t="shared" si="77"/>
-        <v>17743790.938312124</v>
+        <v>10576371.658140203</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
@@ -12505,27 +12512,27 @@
       <c r="C150" s="119"/>
       <c r="D150" s="113">
         <f t="shared" ref="D150:H150" si="79">D143*D$136</f>
-        <v>557272.54467911483</v>
+        <v>631476.03288260393</v>
       </c>
       <c r="E150" s="113">
         <f t="shared" si="79"/>
-        <v>518393.06481778121</v>
+        <v>587419.56547218969</v>
       </c>
       <c r="F150" s="113">
         <f t="shared" si="79"/>
-        <v>482226.10680723836</v>
+        <v>546436.80509040912</v>
       </c>
       <c r="G150" s="113">
         <f t="shared" si="79"/>
-        <v>448582.42493696598</v>
+        <v>508313.30706084566</v>
       </c>
       <c r="H150" s="113">
         <f t="shared" si="79"/>
-        <v>417285.97668554971</v>
+        <v>472849.58796357736</v>
       </c>
       <c r="I150" s="163">
         <f t="shared" si="77"/>
-        <v>2423760.1179266502</v>
+        <v>2746495.2984696259</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
@@ -12571,49 +12578,49 @@
       <c r="C152" s="121"/>
       <c r="D152" s="122">
         <f>SUM(D147:D151)</f>
-        <v>7529647.0920956824</v>
+        <v>20279404.848150264</v>
       </c>
       <c r="E152" s="122">
         <f t="shared" ref="E152" si="81">SUM(E147:E151)</f>
-        <v>7004322.8763680765</v>
+        <v>18864562.649442103</v>
       </c>
       <c r="F152" s="122">
         <f t="shared" ref="F152" si="82">SUM(F147:F151)</f>
-        <v>6515649.1873191418</v>
+        <v>17548430.371574052</v>
       </c>
       <c r="G152" s="122">
         <f t="shared" ref="G152" si="83">SUM(G147:G151)</f>
-        <v>6197003.0796223832</v>
+        <v>16362629.859751085</v>
       </c>
       <c r="H152" s="122">
         <f t="shared" ref="H152" si="84">SUM(H147:H151)</f>
-        <v>5764654.027555706</v>
+        <v>15247917.486188158</v>
       </c>
       <c r="I152" s="165">
         <f t="shared" si="77"/>
-        <v>33011276.262960993</v>
+        <v>88302945.215105668</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="M153" s="182">
         <f>SUM(D140:D144)</f>
-        <v>7529647.0920956824</v>
+        <v>20279404.848150264</v>
       </c>
       <c r="N153" s="182">
         <f t="shared" ref="N153:Q153" si="85">SUM(E140:E144)</f>
-        <v>7529647.0920956824</v>
+        <v>20279404.848150264</v>
       </c>
       <c r="O153" s="182">
         <f t="shared" si="85"/>
-        <v>7529647.0920956824</v>
+        <v>20279404.848150264</v>
       </c>
       <c r="P153" s="182">
         <f t="shared" si="85"/>
-        <v>7698517.5601802617</v>
+        <v>20327243.94155046</v>
       </c>
       <c r="Q153" s="182">
         <f t="shared" si="85"/>
-        <v>7698517.5601802617</v>
+        <v>20363123.26160061</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
@@ -12636,47 +12643,47 @@
       <c r="C156" s="116"/>
       <c r="D156" s="166">
         <f t="shared" ref="D156:I161" si="86">D140/D$171</f>
-        <v>6.0092783505154693E-2</v>
+        <v>1.7268041237113407E-2</v>
       </c>
       <c r="E156" s="166">
         <f t="shared" si="86"/>
-        <v>6.0092783505154693E-2</v>
+        <v>1.7268041237113407E-2</v>
       </c>
       <c r="F156" s="166">
         <f t="shared" si="86"/>
-        <v>6.0092783505154693E-2</v>
+        <v>1.7268041237113407E-2</v>
       </c>
       <c r="G156" s="166">
         <f t="shared" si="86"/>
-        <v>6.0092783505154693E-2</v>
+        <v>1.7268041237113407E-2</v>
       </c>
       <c r="H156" s="166">
         <f t="shared" si="86"/>
-        <v>6.0092783505154693E-2</v>
+        <v>1.7268041237113407E-2</v>
       </c>
       <c r="I156" s="168">
         <f t="shared" si="86"/>
-        <v>0.16555510546491134</v>
+        <v>4.7573306168077874E-2</v>
       </c>
       <c r="M156" s="182">
         <f>M153/((1+_TauxDActualisation_Select)^D1)</f>
-        <v>7004322.8763680765</v>
+        <v>18864562.649442106</v>
       </c>
       <c r="N156" s="182">
         <f>N153/((1+_TauxDActualisation_Select)^E1)</f>
-        <v>6515649.1873191418</v>
+        <v>17548430.371574055</v>
       </c>
       <c r="O156" s="182">
         <f>O153/((1+_TauxDActualisation_Select)^F1)</f>
-        <v>6061069.0114596672</v>
+        <v>16324121.275882842</v>
       </c>
       <c r="P156" s="182">
         <f>P153/((1+_TauxDActualisation_Select)^G1)</f>
-        <v>5764654.027555705</v>
+        <v>15221051.03232659</v>
       </c>
       <c r="Q156" s="182">
         <f>Q153/((1+_TauxDActualisation_Select)^H1)</f>
-        <v>5362468.862842516</v>
+        <v>14184109.289477358</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
@@ -12689,31 +12696,31 @@
       <c r="C157" s="119"/>
       <c r="D157" s="167">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>0.23814432989690729</v>
       </c>
       <c r="E157" s="167">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>0.23814432989690729</v>
       </c>
       <c r="F157" s="167">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>0.23814432989690729</v>
       </c>
       <c r="G157" s="167">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>0.23814432989690729</v>
       </c>
       <c r="H157" s="167">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>0.23814432989690729</v>
       </c>
       <c r="I157" s="169">
         <f>I141/I$171</f>
-        <v>0</v>
+        <v>0.6560855955119993</v>
       </c>
       <c r="M157" s="182">
         <f>SUM(M156:Q156)</f>
-        <v>30708163.965545103</v>
+        <v>82142274.618702963</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
@@ -12726,35 +12733,35 @@
       <c r="C158" s="119"/>
       <c r="D158" s="167">
         <f t="shared" si="86"/>
-        <v>8.1791408934707904E-2</v>
+        <v>3.5682667525773266E-2</v>
       </c>
       <c r="E158" s="167">
         <f t="shared" si="86"/>
-        <v>8.1791408934707904E-2</v>
+        <v>3.5682667525773266E-2</v>
       </c>
       <c r="F158" s="167">
         <f t="shared" si="86"/>
-        <v>8.1791408934707904E-2</v>
+        <v>3.5682667525773266E-2</v>
       </c>
       <c r="G158" s="167">
         <f t="shared" si="86"/>
-        <v>8.522783505154638E-2</v>
+        <v>3.6391430412371209E-2</v>
       </c>
       <c r="H158" s="167">
         <f t="shared" si="86"/>
-        <v>8.522783505154638E-2</v>
+        <v>3.6923002577319688E-2</v>
       </c>
       <c r="I158" s="169">
         <f t="shared" si="86"/>
-        <v>0.22871675723816626</v>
+        <v>9.9255138665902604E-2</v>
       </c>
       <c r="K158" s="182">
         <f>C172+M157</f>
-        <v>-95944687.097890064</v>
+        <v>-91818065.018378004</v>
       </c>
       <c r="M158" s="215">
         <f>K158/I171</f>
-        <v>-1.3294774277558319</v>
+        <v>-0.92630263007552538</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
@@ -12767,27 +12774,27 @@
       <c r="C159" s="119"/>
       <c r="D159" s="167">
         <f t="shared" si="86"/>
-        <v>1.1340206185567026E-2</v>
+        <v>9.355670103092786E-3</v>
       </c>
       <c r="E159" s="167">
         <f t="shared" si="86"/>
-        <v>1.1340206185567026E-2</v>
+        <v>9.355670103092786E-3</v>
       </c>
       <c r="F159" s="167">
         <f t="shared" si="86"/>
-        <v>1.1340206185567026E-2</v>
+        <v>9.355670103092786E-3</v>
       </c>
       <c r="G159" s="167">
         <f t="shared" si="86"/>
-        <v>1.1340206185567026E-2</v>
+        <v>9.355670103092786E-3</v>
       </c>
       <c r="H159" s="167">
         <f t="shared" si="86"/>
-        <v>1.1340206185567026E-2</v>
+        <v>9.355670103092786E-3</v>
       </c>
       <c r="I159" s="169">
         <f t="shared" si="86"/>
-        <v>3.1242171214857194E-2</v>
+        <v>2.577479125225712E-2</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
@@ -12833,35 +12840,35 @@
       <c r="C161" s="121"/>
       <c r="D161" s="170">
         <f t="shared" si="86"/>
-        <v>0.15322439862542961</v>
+        <v>0.30045070876288676</v>
       </c>
       <c r="E161" s="170">
         <f t="shared" si="86"/>
-        <v>0.15322439862542961</v>
+        <v>0.30045070876288676</v>
       </c>
       <c r="F161" s="170">
         <f t="shared" si="86"/>
-        <v>0.15322439862542961</v>
+        <v>0.30045070876288676</v>
       </c>
       <c r="G161" s="170">
         <f t="shared" si="86"/>
-        <v>0.15666082474226808</v>
+        <v>0.30115947164948464</v>
       </c>
       <c r="H161" s="170">
         <f t="shared" si="86"/>
-        <v>0.15666082474226808</v>
+        <v>0.30169104381443318</v>
       </c>
       <c r="I161" s="171">
         <f t="shared" si="86"/>
-        <v>0.4255140339179348</v>
+        <v>0.82868883159823703</v>
       </c>
       <c r="J161" s="216">
         <f>I171-I179</f>
-        <v>30708163.965545088</v>
+        <v>82142274.618702918</v>
       </c>
       <c r="K161" s="219">
         <f>J161/I171</f>
-        <v>0.42551403391793452</v>
+        <v>0.82868883159823659</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
@@ -12882,47 +12889,47 @@
       <c r="C163" s="116"/>
       <c r="D163" s="166">
         <f t="shared" ref="D163:I168" si="87">D147/D$172</f>
-        <v>6.0092783505154693E-2</v>
+        <v>1.7268041237113407E-2</v>
       </c>
       <c r="E163" s="166">
         <f t="shared" si="87"/>
-        <v>6.00927835051547E-2</v>
+        <v>1.7268041237113407E-2</v>
       </c>
       <c r="F163" s="166">
         <f t="shared" si="87"/>
-        <v>6.00927835051547E-2</v>
+        <v>1.7268041237113407E-2</v>
       </c>
       <c r="G163" s="166">
         <f t="shared" si="87"/>
-        <v>6.00927835051547E-2</v>
+        <v>1.7268041237113407E-2</v>
       </c>
       <c r="H163" s="166">
         <f t="shared" si="87"/>
-        <v>6.00927835051547E-2</v>
+        <v>1.7268041237113403E-2</v>
       </c>
       <c r="I163" s="168">
         <f t="shared" si="87"/>
-        <v>0.14749556227259658</v>
+        <v>4.2383782262240315E-2</v>
       </c>
       <c r="L163" s="1">
         <f>D171*M140</f>
-        <v>49141306.212612785</v>
+        <v>67496611.779187396</v>
       </c>
       <c r="M163" s="1">
         <f t="shared" ref="M163:P163" si="88">E171*N140</f>
-        <v>45701414.777729891</v>
+        <v>62771848.954644285</v>
       </c>
       <c r="N163" s="1">
         <f t="shared" si="88"/>
-        <v>42507229.873910062</v>
+        <v>58384569.188997097</v>
       </c>
       <c r="O163" s="1">
         <f t="shared" si="88"/>
-        <v>39558751.501153298</v>
+        <v>54334772.482245855</v>
       </c>
       <c r="P163" s="1">
         <f t="shared" si="88"/>
-        <v>36806838.353246979</v>
+        <v>50554962.22261136</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
@@ -12935,27 +12942,27 @@
       <c r="C164" s="119"/>
       <c r="D164" s="167">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>0.23814432989690729</v>
       </c>
       <c r="E164" s="167">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>0.23814432989690729</v>
       </c>
       <c r="F164" s="167">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>0.23814432989690726</v>
       </c>
       <c r="G164" s="167">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>0.23814432989690729</v>
       </c>
       <c r="H164" s="167">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>0.23814432989690726</v>
       </c>
       <c r="I164" s="169">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>0.5845166389598514</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
@@ -12968,27 +12975,27 @@
       <c r="C165" s="119"/>
       <c r="D165" s="167">
         <f t="shared" si="87"/>
-        <v>8.1791408934707904E-2</v>
+        <v>3.5682667525773266E-2</v>
       </c>
       <c r="E165" s="167">
         <f t="shared" si="87"/>
-        <v>8.1791408934707904E-2</v>
+        <v>3.5682667525773266E-2</v>
       </c>
       <c r="F165" s="167">
         <f t="shared" si="87"/>
-        <v>8.179140893470789E-2</v>
+        <v>3.5682667525773266E-2</v>
       </c>
       <c r="G165" s="167">
         <f t="shared" si="87"/>
-        <v>8.522783505154638E-2</v>
+        <v>3.6391430412371209E-2</v>
       </c>
       <c r="H165" s="167">
         <f t="shared" si="87"/>
-        <v>8.522783505154638E-2</v>
+        <v>3.6923002577319688E-2</v>
       </c>
       <c r="I165" s="169">
         <f t="shared" si="87"/>
-        <v>0.20376723880109049</v>
+        <v>8.8427913140224246E-2</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
@@ -13001,31 +13008,31 @@
       <c r="C166" s="119"/>
       <c r="D166" s="167">
         <f t="shared" si="87"/>
-        <v>1.1340206185567026E-2</v>
+        <v>9.355670103092786E-3</v>
       </c>
       <c r="E166" s="167">
         <f t="shared" si="87"/>
-        <v>1.1340206185567026E-2</v>
+        <v>9.355670103092786E-3</v>
       </c>
       <c r="F166" s="167">
         <f t="shared" si="87"/>
-        <v>1.1340206185567026E-2</v>
+        <v>9.3556701030927877E-3</v>
       </c>
       <c r="G166" s="167">
         <f t="shared" si="87"/>
-        <v>1.1340206185567026E-2</v>
+        <v>9.355670103092786E-3</v>
       </c>
       <c r="H166" s="167">
         <f t="shared" si="87"/>
-        <v>1.1340206185567026E-2</v>
+        <v>9.355670103092786E-3</v>
       </c>
       <c r="I166" s="169">
         <f t="shared" si="87"/>
-        <v>2.7834125664754902E-2</v>
+        <v>2.2963153673422738E-2</v>
       </c>
       <c r="K166" s="167">
         <f>((L171-I179)/I171)</f>
-        <v>-0.57448596608206548</v>
+        <v>-0.17131116840176339</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
@@ -13071,27 +13078,27 @@
       <c r="C168" s="121"/>
       <c r="D168" s="170">
         <f t="shared" si="87"/>
-        <v>0.15322439862542961</v>
+        <v>0.30045070876288676</v>
       </c>
       <c r="E168" s="170">
         <f t="shared" si="87"/>
-        <v>0.15322439862542964</v>
+        <v>0.30045070876288671</v>
       </c>
       <c r="F168" s="170">
         <f t="shared" si="87"/>
-        <v>0.15322439862542961</v>
+        <v>0.30045070876288671</v>
       </c>
       <c r="G168" s="170">
         <f t="shared" si="87"/>
-        <v>0.15666082474226808</v>
+        <v>0.30115947164948464</v>
       </c>
       <c r="H168" s="170">
         <f t="shared" si="87"/>
-        <v>0.15666082474226811</v>
+        <v>0.30169104381443312</v>
       </c>
       <c r="I168" s="171">
         <f t="shared" si="87"/>
-        <v>0.37909692673844203</v>
+        <v>0.73829148803573874</v>
       </c>
       <c r="N168" s="1">
         <f>2^4</f>
@@ -13117,7 +13124,7 @@
       </c>
       <c r="K170" s="214">
         <f>(I171-I179)/I171</f>
-        <v>0.42551403391793452</v>
+        <v>0.82868883159823659</v>
       </c>
       <c r="O170" s="1">
         <f>(4/2)^4</f>
@@ -13133,31 +13140,31 @@
       </c>
       <c r="C171" s="177">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-126652851.06343517</v>
+        <v>-173960339.63708097</v>
       </c>
       <c r="D171" s="117">
         <f>D$93-D$94-D$95-D$97-D$98-D$99-D$100-D$101-D$102-D$104</f>
-        <v>49141306.212612785</v>
+        <v>67496611.779187396</v>
       </c>
       <c r="E171" s="117">
         <f t="shared" ref="E171:G171" si="89">E$93-E$94-E$95-E$97-E$98-E$99-E$100-E$101-E$102-E$104</f>
-        <v>49141306.212612785</v>
+        <v>67496611.779187396</v>
       </c>
       <c r="F171" s="117">
         <f t="shared" si="89"/>
-        <v>49141306.212612785</v>
+        <v>67496611.779187396</v>
       </c>
       <c r="G171" s="117">
         <f t="shared" si="89"/>
-        <v>49141306.212612785</v>
+        <v>67496611.779187396</v>
       </c>
       <c r="H171" s="117">
         <f>H$93-H$94-H$95-H$97-H$98-H$99-H$100-H$101-H$102-H$104</f>
-        <v>49141306.212612785</v>
+        <v>67496611.779187396</v>
       </c>
       <c r="I171" s="162">
         <f>NPV(_TauxDActualisation_Select,D171:H171)+C171</f>
-        <v>72167217.806657642</v>
+        <v>99123182.89638418</v>
       </c>
       <c r="J171" s="182"/>
       <c r="K171" s="1">
@@ -13178,31 +13185,31 @@
       </c>
       <c r="C172" s="178">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-126652851.06343517</v>
+        <v>-173960339.63708097</v>
       </c>
       <c r="D172" s="135">
         <f>D171*D$136</f>
-        <v>49141306.212612785</v>
+        <v>67496611.779187396</v>
       </c>
       <c r="E172" s="135">
         <f>E171*E$136</f>
-        <v>45712842.988477007</v>
+        <v>62787545.841104552</v>
       </c>
       <c r="F172" s="135">
         <f>F171*F$136</f>
-        <v>42523574.873001873</v>
+        <v>58407019.387074009</v>
       </c>
       <c r="G172" s="135">
         <f>G171*G$136</f>
-        <v>39556813.835350581</v>
+        <v>54332111.057743266</v>
       </c>
       <c r="H172" s="135">
         <f>H171*H$136</f>
-        <v>36797036.125907518</v>
+        <v>50541498.658365831</v>
       </c>
       <c r="I172" s="164">
         <f>SUM(C172:H172)</f>
-        <v>87078722.971914589</v>
+        <v>119604447.08639409</v>
       </c>
       <c r="K172" s="1">
         <f>K171/176945019</f>
@@ -13212,31 +13219,31 @@
     <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C173" s="218">
         <f>C171</f>
-        <v>-126652851.06343517</v>
+        <v>-173960339.63708097</v>
       </c>
       <c r="D173" s="6">
         <f>D171/(1+K173)</f>
-        <v>45712842.988477014</v>
+        <v>62787545.84110456</v>
       </c>
       <c r="E173" s="6">
         <f>E171/(1+K173)^2</f>
-        <v>42523574.873001873</v>
+        <v>58407019.387074009</v>
       </c>
       <c r="F173" s="6">
         <f>F171/(1+K173)^3</f>
-        <v>39556813.835350581</v>
+        <v>54332111.057743266</v>
       </c>
       <c r="G173" s="6">
         <f>G171/(1+K173)^4</f>
-        <v>36797036.125907518</v>
+        <v>50541498.658365831</v>
       </c>
       <c r="H173" s="6">
         <f>H171/(1+K173)^5</f>
-        <v>34229801.047355831</v>
+        <v>47015347.589177512</v>
       </c>
       <c r="I173" s="6">
         <f>SUM(C173:H173)</f>
-        <v>72167217.806657657</v>
+        <v>99123182.896384209</v>
       </c>
       <c r="K173" s="1">
         <v>7.4999999999999997E-2</v>
@@ -13251,7 +13258,7 @@
       </c>
       <c r="L174" s="216">
         <f>I171-I179</f>
-        <v>30708163.965545088</v>
+        <v>82142274.618702918</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
@@ -13263,31 +13270,31 @@
       </c>
       <c r="C175" s="127">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-126652851.06343517</v>
+        <v>-173960339.63708097</v>
       </c>
       <c r="D175" s="117">
         <f>D$171-D141</f>
-        <v>49141306.212612785</v>
+        <v>51422676.396721117</v>
       </c>
       <c r="E175" s="117">
         <f t="shared" ref="E175:H175" si="90">E$171-E141</f>
-        <v>49141306.212612785</v>
+        <v>51422676.396721117</v>
       </c>
       <c r="F175" s="117">
         <f t="shared" si="90"/>
-        <v>49141306.212612785</v>
+        <v>51422676.396721117</v>
       </c>
       <c r="G175" s="117">
         <f t="shared" si="90"/>
-        <v>49141306.212612785</v>
+        <v>51422676.396721117</v>
       </c>
       <c r="H175" s="117">
         <f t="shared" si="90"/>
-        <v>49141306.212612785</v>
+        <v>51422676.396721117</v>
       </c>
       <c r="I175" s="162">
         <f>NPV(_TauxDActualisation_Select,D175:H175)+C175</f>
-        <v>72167217.806657642</v>
+        <v>34089890.416765183</v>
       </c>
       <c r="K175" s="1" t="s">
         <v>327</v>
@@ -13302,35 +13309,35 @@
       </c>
       <c r="C176" s="176">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-126652851.06343517</v>
+        <v>-173960339.63708097</v>
       </c>
       <c r="D176" s="135">
         <f>D$172-D148</f>
-        <v>49141306.212612785</v>
+        <v>51422676.396721117</v>
       </c>
       <c r="E176" s="135">
         <f t="shared" ref="E176:H176" si="91">E$172-E148</f>
-        <v>45712842.988477007</v>
+        <v>47835047.810903363</v>
       </c>
       <c r="F176" s="135">
         <f t="shared" si="91"/>
-        <v>42523574.873001873</v>
+        <v>44497718.893863596</v>
       </c>
       <c r="G176" s="135">
         <f t="shared" si="91"/>
-        <v>39556813.835350581</v>
+        <v>41393226.87801265</v>
       </c>
       <c r="H176" s="135">
         <f t="shared" si="91"/>
-        <v>36797036.125907518</v>
+        <v>38505327.328383863</v>
       </c>
       <c r="I176" s="164">
         <f>SUM(C176:H176)</f>
-        <v>87078722.971914589</v>
+        <v>49693657.670803636</v>
       </c>
       <c r="K176" s="216">
         <f>I171-I179</f>
-        <v>30708163.965545088</v>
+        <v>82142274.618702918</v>
       </c>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.2">
@@ -13339,7 +13346,7 @@
       </c>
       <c r="K177" s="215">
         <f>K176/I171</f>
-        <v>0.42551403391793452</v>
+        <v>0.82868883159823659</v>
       </c>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.2">
@@ -13351,23 +13358,23 @@
       </c>
       <c r="M178" s="1">
         <f>D171/((1+_TauxDActualisation_Select)^D1)</f>
-        <v>45712842.988477014</v>
+        <v>62787545.84110456</v>
       </c>
       <c r="N178" s="1">
         <f>E171/((1+_TauxDActualisation_Select)^E1)</f>
-        <v>42523574.873001873</v>
+        <v>58407019.387074009</v>
       </c>
       <c r="O178" s="1">
         <f>F171/((1+_TauxDActualisation_Select)^F1)</f>
-        <v>39556813.835350581</v>
+        <v>54332111.057743266</v>
       </c>
       <c r="P178" s="1">
         <f>G171/((1+_TauxDActualisation_Select)^G1)</f>
-        <v>36797036.125907518</v>
+        <v>50541498.658365831</v>
       </c>
       <c r="Q178" s="1">
         <f>H171/((1+_TauxDActualisation_Select)^H1)</f>
-        <v>34229801.047355831</v>
+        <v>47015347.589177512</v>
       </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.2">
@@ -13379,35 +13386,35 @@
       </c>
       <c r="C179" s="127">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-126652851.06343517</v>
+        <v>-173960339.63708097</v>
       </c>
       <c r="D179" s="117">
         <f>D$171-D$145</f>
-        <v>41611659.120517105</v>
+        <v>47217206.931037128</v>
       </c>
       <c r="E179" s="117">
         <f>E$171-E$145</f>
-        <v>41611659.120517105</v>
+        <v>47217206.931037128</v>
       </c>
       <c r="F179" s="117">
         <f>F$171-F$145</f>
-        <v>41611659.120517105</v>
+        <v>47217206.931037128</v>
       </c>
       <c r="G179" s="117">
         <f>G$171-G$145</f>
-        <v>41442788.652432524</v>
+        <v>47169367.837636933</v>
       </c>
       <c r="H179" s="117">
         <f>H$171-H$145</f>
-        <v>41442788.652432524</v>
+        <v>47133488.517586783</v>
       </c>
       <c r="I179" s="162">
         <f>NPV(_TauxDActualisation_Select,D179:H179)+C179</f>
-        <v>41459053.841112554</v>
+        <v>16980908.277681261</v>
       </c>
       <c r="M179" s="1">
         <f>SUM(M178:Q178)</f>
-        <v>198820068.87009281</v>
+        <v>273083522.53346515</v>
       </c>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.2">
@@ -13419,31 +13426,31 @@
       </c>
       <c r="C180" s="176">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-126652851.06343517</v>
+        <v>-173960339.63708097</v>
       </c>
       <c r="D180" s="135">
         <f>D$172-D$152</f>
-        <v>41611659.120517105</v>
+        <v>47217206.931037128</v>
       </c>
       <c r="E180" s="135">
         <f>E$172-E$152</f>
-        <v>38708520.112108931</v>
+        <v>43922983.191662446</v>
       </c>
       <c r="F180" s="135">
         <f>F$172-F$152</f>
-        <v>36007925.685682729</v>
+        <v>40858589.015499957</v>
       </c>
       <c r="G180" s="135">
         <f>G$172-G$152</f>
-        <v>33359810.755728196</v>
+        <v>37969481.197992183</v>
       </c>
       <c r="H180" s="135">
         <f>H$172-H$152</f>
-        <v>31032382.098351814</v>
+        <v>35293581.172177672</v>
       </c>
       <c r="I180" s="164">
         <f>SUM(C180:H180)</f>
-        <v>54067446.708953604</v>
+        <v>31301501.871288419</v>
       </c>
       <c r="K180" s="1">
         <f>_TauxDActualisation_Select</f>
@@ -13451,7 +13458,7 @@
       </c>
       <c r="M180" s="182">
         <f>C171+M179</f>
-        <v>72167217.806657642</v>
+        <v>99123182.89638418</v>
       </c>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.2">
@@ -13460,7 +13467,7 @@
       </c>
       <c r="K181" s="1">
         <f>C179+(D179/(1.08^D1))+(E179/(1.08)^E1)+(F179/(1.08)^F1)+(G179/(1.08)^G1)+(H179/(1.08)^H1)</f>
-        <v>39251382.728173852</v>
+        <v>14472135.892007384</v>
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
@@ -13469,7 +13476,7 @@
       </c>
       <c r="K182" s="1">
         <f>K181/1.08</f>
-        <v>36343872.89645727</v>
+        <v>13400125.825932762</v>
       </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.2">
@@ -13490,45 +13497,45 @@
       </c>
       <c r="F183" s="179">
         <f>MAX(0,IRR($C171:F171))</f>
-        <v>7.9952133396200775E-2</v>
+        <v>7.9952133396201663E-2</v>
       </c>
       <c r="G183" s="179">
         <f>MAX(0,IRR($C171:G171))</f>
-        <v>0.20233530726565219</v>
+        <v>0.20233530726565263</v>
       </c>
       <c r="H183" s="180">
         <f>MAX(0,IRR($C171:H171))</f>
-        <v>0.2710408603115193</v>
+        <v>0.27104086031151997</v>
       </c>
       <c r="K183" s="182">
         <f>SUM(C180:H180)</f>
-        <v>54067446.708953604</v>
+        <v>31301501.871288419</v>
       </c>
       <c r="M183" s="1">
         <f>D179/((1+_TauxDActualisation_Select)^D1)</f>
-        <v>38708520.112108938</v>
+        <v>43922983.191662446</v>
       </c>
       <c r="N183" s="1">
         <f>E179/((1+_TauxDActualisation_Select)^E1)</f>
-        <v>36007925.685682736</v>
+        <v>40858589.015499949</v>
       </c>
       <c r="O183" s="1">
         <f>F179/((1+_TauxDActualisation_Select)^F1)</f>
-        <v>33495744.823890917</v>
+        <v>38007989.781860419</v>
       </c>
       <c r="P183" s="1">
         <f>G179/((1+_TauxDActualisation_Select)^G1)</f>
-        <v>31032382.09835181</v>
+        <v>35320447.626039237</v>
       </c>
       <c r="Q183" s="1">
         <f>H179/((1+_TauxDActualisation_Select)^H1)</f>
-        <v>28867332.184513312</v>
+        <v>32831238.299700152</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="M184" s="1">
         <f>SUM(M183:Q183)</f>
-        <v>168111904.90454769</v>
+        <v>190941247.9147622</v>
       </c>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.2">
@@ -13537,7 +13544,7 @@
       </c>
       <c r="M185" s="182">
         <f>-C179+M184</f>
-        <v>294764755.96798289</v>
+        <v>364901587.55184317</v>
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.2">
@@ -13558,29 +13565,29 @@
       </c>
       <c r="F186" s="179">
         <f>MAX(0,IRR($C175:F175))</f>
-        <v>7.9952133396200775E-2</v>
+        <v>0</v>
       </c>
       <c r="G186" s="179">
         <f>MAX(0,IRR($C175:G175))</f>
-        <v>0.20233530726565219</v>
+        <v>7.0557849917318727E-2</v>
       </c>
       <c r="H186" s="180">
         <f>MAX(0,IRR($C175:H175))</f>
-        <v>0.2710408603115193</v>
+        <v>0.1461487970125348</v>
       </c>
       <c r="M186" s="182">
         <f>M180-M185</f>
-        <v>-222597538.16132525</v>
+        <v>-265778404.65545899</v>
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="M187" s="215">
         <f>M186/M180</f>
-        <v>-3.0844688894295986</v>
+        <v>-2.681294091749288</v>
       </c>
       <c r="N187" s="216">
         <f>I171-I179</f>
-        <v>30708163.965545088</v>
+        <v>82142274.618702918</v>
       </c>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.2">
@@ -13589,7 +13596,7 @@
       </c>
       <c r="N188" s="1">
         <f>N187/I171</f>
-        <v>0.42551403391793452</v>
+        <v>0.82868883159823659</v>
       </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.2">
@@ -13614,11 +13621,11 @@
       </c>
       <c r="G189" s="179">
         <f>MAX(0,IRR($C179:G179))</f>
-        <v>0.11860752182830625</v>
+        <v>3.3619909869568865E-2</v>
       </c>
       <c r="H189" s="180">
         <f>MAX(0,IRR($C179:H179))</f>
-        <v>0.19150503363713067</v>
+        <v>0.11107013258300924</v>
       </c>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.2">
@@ -13644,23 +13651,23 @@
       </c>
       <c r="F192" s="179">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192" s="179">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>0.65128256224366698</v>
       </c>
       <c r="H192" s="180">
         <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.46078684651251794</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="152" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="159" t="s">
         <v>291</v>
       </c>
@@ -13682,11 +13689,113 @@
       </c>
       <c r="G195" s="179">
         <f t="shared" si="93"/>
-        <v>0.41380709362512386</v>
+        <v>0.83384061672722209</v>
       </c>
       <c r="H195" s="180">
         <f>IF(H$183&gt;0,(H$183-H189)/H$183,0)</f>
-        <v>0.29344589071542415</v>
+        <v>0.59020889892634221</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C198" s="6">
+        <v>-197263413</v>
+      </c>
+      <c r="D198" s="6">
+        <v>47189600</v>
+      </c>
+      <c r="E198" s="6">
+        <v>47189599</v>
+      </c>
+      <c r="F198" s="6">
+        <v>47189600</v>
+      </c>
+      <c r="G198" s="6">
+        <v>46647126</v>
+      </c>
+      <c r="H198" s="6">
+        <v>46240269</v>
+      </c>
+      <c r="I198" s="213">
+        <f>NPV(7.5,D198:H198)</f>
+        <v>6291679.5316908676</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I200" s="213">
+        <f>I198+C198</f>
+        <v>-190971733.46830913</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D201" s="6">
+        <f>D179/(1+_TauxDActualisation_Select)^D1</f>
+        <v>43922983.191662446</v>
+      </c>
+      <c r="E201" s="6">
+        <f>E198/(1+_TauxDActualisation_Select)^E1</f>
+        <v>40834698.972417526</v>
+      </c>
+      <c r="F201" s="6">
+        <f>F198/(1+_TauxDActualisation_Select)^F1</f>
+        <v>37985767.290930361</v>
+      </c>
+      <c r="G201" s="6">
+        <f>G198/(1+_TauxDActualisation_Select)^G1</f>
+        <v>34929392.661345311</v>
+      </c>
+      <c r="H201" s="6">
+        <f>H198/(1+_TauxDActualisation_Select)^H1</f>
+        <v>32209058.534141473</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H202" s="231">
+        <f>SUM(C198,I198)</f>
+        <v>-190971733.46830913</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D205" s="6">
+        <f>C198+F205</f>
+        <v>-7381512.3495028913</v>
+      </c>
+      <c r="F205" s="6">
+        <f>SUM(D201:H201)</f>
+        <v>189881900.65049711</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G206" s="218">
+        <f>D179/(1+_TauxDActualisation_Select)^D1</f>
+        <v>43922983.191662446</v>
+      </c>
+      <c r="H206" s="218">
+        <f>E179/(1+_TauxDActualisation_Select)^E1</f>
+        <v>40858589.015499949</v>
+      </c>
+      <c r="I206" s="218">
+        <f>F179/(1+_TauxDActualisation_Select)^F1</f>
+        <v>38007989.781860419</v>
+      </c>
+      <c r="J206" s="218">
+        <f>G179/(1+_TauxDActualisation_Select)^G1</f>
+        <v>35320447.626039237</v>
+      </c>
+      <c r="K206" s="218">
+        <f>H179/(1+_TauxDActualisation_Select)^H1</f>
+        <v>32831238.299700152</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K208" s="182">
+        <f>SUM(G206:K206)</f>
+        <v>190941247.9147622</v>
+      </c>
+    </row>
+    <row r="209" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K209" s="182">
+        <f>C179+K208</f>
+        <v>16980908.277681231</v>
       </c>
     </row>
   </sheetData>

--- a/annexe/Modèle investissement.xlsx
+++ b/annexe/Modèle investissement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Accueil" sheetId="2" r:id="rId1"/>
@@ -2515,6 +2515,15 @@
     <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2541,15 +2550,6 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="40" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2899,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2925,19 +2925,19 @@
       <c r="B3" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="222" t="s">
+      <c r="E3" s="225" t="s">
         <v>317</v>
       </c>
-      <c r="F3" s="223"/>
-      <c r="G3" s="224"/>
-      <c r="H3" s="220" t="s">
+      <c r="F3" s="226"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="223" t="s">
         <v>325</v>
       </c>
-      <c r="I3" s="221"/>
-      <c r="J3" s="220" t="s">
+      <c r="I3" s="224"/>
+      <c r="J3" s="223" t="s">
         <v>326</v>
       </c>
-      <c r="K3" s="221"/>
+      <c r="K3" s="224"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D4" s="190"/>
@@ -2977,23 +2977,23 @@
       </c>
       <c r="E5" s="194">
         <f>Select!C68</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F5" s="195" t="str">
+        <v>0.03</v>
+      </c>
+      <c r="F5" s="195">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(Select!F68&lt;&gt;"",Select!F68,IF(Select!G68&lt;&gt;"",(100%-Select!G68)*Select!C68,"")))</f>
-        <v/>
-      </c>
-      <c r="G5" s="196" t="str">
+        <v>0</v>
+      </c>
+      <c r="G5" s="196">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F68&lt;&gt;"",Select!G68&lt;&gt;""),Select!E68,""))</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="H5" s="197">
         <f>Modèle!D163</f>
-        <v>1.7268041237113407E-2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="198">
         <f>Modèle!I163</f>
-        <v>4.2383782262240315E-2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="208"/>
       <c r="K5" s="209"/>
@@ -3005,31 +3005,31 @@
       </c>
       <c r="E6" s="201">
         <f>Select!C69</f>
-        <v>0.33</v>
-      </c>
-      <c r="F6" s="203">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="203" t="str">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(Select!F69&lt;&gt;"",Select!F69,IF(Select!G69&lt;&gt;"",(100%-Select!G69)*Select!C69,"")))</f>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="G6" s="204">
+        <v/>
+      </c>
+      <c r="G6" s="204" t="str">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F69&lt;&gt;"",Select!G69&lt;&gt;""),Select!E69,""))</f>
-        <v>5</v>
-      </c>
-      <c r="H6" s="225">
+        <v/>
+      </c>
+      <c r="H6" s="228">
         <f>Modèle!D164</f>
-        <v>0.23814432989690729</v>
-      </c>
-      <c r="I6" s="227">
+        <v>0.11649484536082488</v>
+      </c>
+      <c r="I6" s="230">
         <f>Modèle!I164</f>
-        <v>0.5845166389598514</v>
-      </c>
-      <c r="J6" s="225">
+        <v>0.5297697407485138</v>
+      </c>
+      <c r="J6" s="228">
         <f>Modèle!D192</f>
         <v>0</v>
       </c>
-      <c r="K6" s="227">
+      <c r="K6" s="230">
         <f>Modèle!H192</f>
-        <v>0.46078684651251794</v>
+        <v>0.40232466137854034</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -3038,7 +3038,7 @@
         <v>Pays</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D7" s="200" t="str">
         <f>VLOOKUP(CONCATENATE(_Impot,_Impot_IMF),_Tables,3,FALSE)</f>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="E7" s="202">
         <f>Select!C70</f>
-        <v>2.1999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F7" s="206" t="str">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(Select!F70&lt;&gt;"",Select!F70,IF(Select!G70&lt;&gt;"",(100%-Select!G70)*Select!C70,"")))</f>
@@ -3056,10 +3056,10 @@
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F70&lt;&gt;"",Select!G70&lt;&gt;""),Select!E70,""))</f>
         <v/>
       </c>
-      <c r="H7" s="226"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="226"/>
-      <c r="K7" s="228"/>
+      <c r="H7" s="229"/>
+      <c r="I7" s="231"/>
+      <c r="J7" s="229"/>
+      <c r="K7" s="231"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D8" s="56" t="str">
@@ -3068,23 +3068,23 @@
       </c>
       <c r="E8" s="194">
         <f>Select!C71</f>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="F8" s="195">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="195" t="str">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(Select!F71&lt;&gt;"",Select!F71,IF(Select!G71&lt;&gt;"",(100%-Select!G71)*Select!C71,"")))</f>
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="G8" s="196">
+        <v/>
+      </c>
+      <c r="G8" s="196" t="str">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F71&lt;&gt;"",Select!G71&lt;&gt;""),Select!E71,""))</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="H8" s="197">
         <f>Modèle!D165</f>
-        <v>3.5682667525773266E-2</v>
+        <v>3.8831615120274963E-2</v>
       </c>
       <c r="I8" s="198">
         <f>Modèle!I165</f>
-        <v>8.8427913140224246E-2</v>
+        <v>0.10475407514663165</v>
       </c>
       <c r="J8" s="208"/>
       <c r="K8" s="209"/>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="E9" s="183">
         <f>Select!C72</f>
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="F9" s="80" t="str">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(Select!F72&lt;&gt;"",Select!F72,IF(Select!G72&lt;&gt;"",(100%-Select!G72)*Select!C72,"")))</f>
@@ -3115,11 +3115,11 @@
       </c>
       <c r="H9" s="188">
         <f>Modèle!D166</f>
-        <v>9.355670103092786E-3</v>
+        <v>9.0721649484536079E-3</v>
       </c>
       <c r="I9" s="172">
         <f>Modèle!I166</f>
-        <v>2.2963153673422738E-2</v>
+        <v>2.2267300531803848E-2</v>
       </c>
       <c r="J9" s="210"/>
       <c r="K9" s="211"/>
@@ -3127,7 +3127,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="str">
         <f>Select!B62</f>
-        <v>Incitations à l'investissement privé</v>
+        <v>Code des investissements</v>
       </c>
       <c r="D10" s="56" t="str">
         <f>VLOOKUP(CONCATENATE(_Impot,_Impot_TVApetrole),_Tables,3,FALSE)</f>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="E10" s="194">
         <f>Select!C73</f>
-        <v>0.1925</v>
+        <v>0.18</v>
       </c>
       <c r="F10" s="195" t="str">
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(Select!F73&lt;&gt;"",Select!F73,IF(Select!G73&lt;&gt;"",(100%-Select!G73)*Select!C73,"")))</f>
@@ -3159,7 +3159,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="19" t="str">
         <f>Select!B63</f>
-        <v>Catégorie A</v>
+        <v>Régime normal</v>
       </c>
       <c r="D11" s="173" t="s">
         <v>267</v>
@@ -3169,11 +3169,11 @@
       <c r="G11" s="52"/>
       <c r="H11" s="189">
         <f>Modèle!D168</f>
-        <v>0.30045070876288676</v>
+        <v>0.16439862542955347</v>
       </c>
       <c r="I11" s="174">
         <f>Modèle!I168</f>
-        <v>0.73829148803573874</v>
+        <v>0.65679111642694932</v>
       </c>
       <c r="J11" s="189">
         <f>Modèle!D195</f>
@@ -3181,7 +3181,11 @@
       </c>
       <c r="K11" s="174">
         <f>Modèle!H195</f>
-        <v>0.59020889892634221</v>
+        <v>0.51155412770347752</v>
+      </c>
+      <c r="L11" s="1">
+        <f>65082443-6770530</f>
+        <v>58311913</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -3204,15 +3208,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="229" t="str">
+      <c r="A16" s="221" t="str">
         <f>VLOOKUP(_Bilan,_Tables,4,FALSE)</f>
         <v>Bilan à l'ouverture</v>
       </c>
-      <c r="B16" s="229"/>
-      <c r="C16" s="229"/>
-      <c r="D16" s="229"/>
-      <c r="E16" s="229"/>
-      <c r="F16" s="229"/>
+      <c r="B16" s="221"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="221"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="221"/>
       <c r="H16" s="73" t="str">
         <f>VLOOKUP(_PIBPNB,_Tables,4,FALSE)</f>
         <v>PIB ou PNB</v>
@@ -3222,18 +3226,18 @@
       <c r="K16" s="68"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="230" t="str">
+      <c r="A17" s="222" t="str">
         <f>VLOOKUP(_Actif,_Tables,4,FALSE)</f>
         <v>Actif</v>
       </c>
-      <c r="B17" s="230"/>
-      <c r="C17" s="230"/>
-      <c r="D17" s="230" t="str">
+      <c r="B17" s="222"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="222" t="str">
         <f>VLOOKUP(_Passif,_Tables,4,FALSE)</f>
         <v>Passif</v>
       </c>
-      <c r="E17" s="230"/>
-      <c r="F17" s="230"/>
+      <c r="E17" s="222"/>
+      <c r="F17" s="222"/>
       <c r="H17" s="56" t="str">
         <f>_PIBPNB_Liste</f>
         <v>PIB/tête</v>
@@ -3241,7 +3245,7 @@
       <c r="I17" s="57"/>
       <c r="J17" s="69">
         <f>_PIBPNB_Select</f>
-        <v>695841.35854832386</v>
+        <v>527605.94582116802</v>
       </c>
       <c r="K17" s="70" t="s">
         <v>251</v>
@@ -3542,29 +3546,29 @@
       <c r="K29" s="70"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="229" t="str">
+      <c r="A31" s="221" t="str">
         <f>VLOOKUP(_CompteDeResultat,_Tables,4,FALSE)</f>
         <v>Compte de résultat</v>
       </c>
-      <c r="B31" s="229"/>
-      <c r="C31" s="229"/>
-      <c r="D31" s="229"/>
-      <c r="E31" s="229"/>
-      <c r="F31" s="229"/>
+      <c r="B31" s="221"/>
+      <c r="C31" s="221"/>
+      <c r="D31" s="221"/>
+      <c r="E31" s="221"/>
+      <c r="F31" s="221"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="230" t="str">
+      <c r="A32" s="222" t="str">
         <f>VLOOKUP(_Charges,_Tables,4,FALSE)</f>
         <v>Charges</v>
       </c>
-      <c r="B32" s="230"/>
-      <c r="C32" s="230"/>
-      <c r="D32" s="230" t="str">
+      <c r="B32" s="222"/>
+      <c r="C32" s="222"/>
+      <c r="D32" s="222" t="str">
         <f>VLOOKUP(_Produits,_Tables,4,FALSE)</f>
         <v>Produits</v>
       </c>
-      <c r="E32" s="230"/>
-      <c r="F32" s="230"/>
+      <c r="E32" s="222"/>
+      <c r="F32" s="222"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="59" t="str">
@@ -3814,23 +3818,23 @@
       </c>
       <c r="B52" s="80">
         <f>_CFE_Taux_Select1</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C52" s="80">
         <f>_CFE_Taux_Select2</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D52" s="80">
         <f>_CFE_Taux_Select3</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E52" s="80">
         <f>_CFE_Taux_Select4</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F52" s="81">
         <f>_CFE_Taux_Select5</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H52" s="38" t="str">
         <f>VLOOKUP(_Constructions,_Tables,4,FALSE)</f>
@@ -3853,23 +3857,23 @@
       </c>
       <c r="B53" s="80">
         <f>_IS_Taux_Select1</f>
-        <v>0.16500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="C53" s="80">
         <f>_IS_Taux_Select2</f>
-        <v>0.16500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="D53" s="80">
         <f>_IS_Taux_Select3</f>
-        <v>0.16500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="E53" s="80">
         <f>_IS_Taux_Select4</f>
-        <v>0.16500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="F53" s="81">
         <f>_IS_Taux_Select5</f>
-        <v>0.16500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="H53" s="38" t="str">
         <f>VLOOKUP(_Equipement,_Tables,4,FALSE)</f>
@@ -3882,7 +3886,7 @@
       </c>
       <c r="K53" s="41">
         <f>_Equipement_CoefDegressif_Select</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -3892,23 +3896,23 @@
       </c>
       <c r="B54" s="80">
         <f>_IMF_Taux_Select1</f>
-        <v>2.1999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C54" s="80">
         <f>_IMF_Taux_Select2</f>
-        <v>2.1999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D54" s="80">
         <f>_IMF_Taux_Select3</f>
-        <v>2.1999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E54" s="80">
         <f>_IMF_Taux_Select4</f>
-        <v>2.1999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F54" s="81">
         <f>_IMF_Taux_Select5</f>
-        <v>2.1999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H54" s="38" t="str">
         <f>VLOOKUP(_Camion,_Tables,4,FALSE)</f>
@@ -3931,23 +3935,23 @@
       </c>
       <c r="B55" s="80">
         <f>_IRVM_Taux_Select1</f>
-        <v>8.2500000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C55" s="80">
         <f>_IRVM_Taux_Select2</f>
-        <v>8.2500000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D55" s="80">
         <f>_IRVM_Taux_Select3</f>
-        <v>8.2500000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E55" s="80">
         <f>_IRVM_Taux_Select4</f>
-        <v>8.2500000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F55" s="81">
         <f>_IRVM_Taux_Select5</f>
-        <v>8.2500000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H55" s="38" t="str">
         <f>VLOOKUP(_Informatique,_Tables,4,FALSE)</f>
@@ -3956,7 +3960,7 @@
       <c r="I55" s="39"/>
       <c r="J55" s="40">
         <f>_Informatique_DureeLineaire_Select</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K55" s="41">
         <f>_Informatique_CoefDegressif_Select</f>
@@ -3970,23 +3974,23 @@
       </c>
       <c r="B56" s="80">
         <f>_IRC_Taux_Select1</f>
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="C56" s="80">
         <f>_IRC_Taux_Select2</f>
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="D56" s="80">
         <f>_IRC_Taux_Select3</f>
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="E56" s="80">
         <f>_IRC_Taux_Select4</f>
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="F56" s="81">
         <f>_IRC_Taux_Select5</f>
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="H56" s="45" t="str">
         <f>VLOOKUP(_Bureau,_Tables,4,FALSE)</f>
@@ -4009,23 +4013,23 @@
       </c>
       <c r="B57" s="82">
         <f>_TVApetrole_Taux_Select1</f>
-        <v>0.1925</v>
+        <v>0.18</v>
       </c>
       <c r="C57" s="82">
         <f>_TVApetrole_Taux_Select2</f>
-        <v>0.1925</v>
+        <v>0.18</v>
       </c>
       <c r="D57" s="82">
         <f>_TVApetrole_Taux_Select3</f>
-        <v>0.1925</v>
+        <v>0.18</v>
       </c>
       <c r="E57" s="82">
         <f>_TVApetrole_Taux_Select4</f>
-        <v>0.1925</v>
+        <v>0.18</v>
       </c>
       <c r="F57" s="83">
         <f>_TVApetrole_Taux_Select5</f>
-        <v>0.1925</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -4041,9 +4045,9 @@
         <f>VLOOKUP(CONCATENATE(_Information,_Information_Taux),_Tables,4,FALSE)</f>
         <v>Taux</v>
       </c>
-      <c r="I59" s="139" t="str">
+      <c r="I59" s="139">
         <f>IF(ISNUMBER(_Amortissement_TauxExceptionnel_Select),_Amortissement_TauxExceptionnel_Select,"")</f>
-        <v/>
+        <v>0.4</v>
       </c>
       <c r="J59" s="140" t="s">
         <v>248</v>
@@ -4055,9 +4059,9 @@
         <f>VLOOKUP(CONCATENATE(_Information,_Information_Limitation),_Tables,4,FALSE)</f>
         <v>Limitation</v>
       </c>
-      <c r="I60" s="88" t="str">
+      <c r="I60" s="88">
         <f>IF(ISNUMBER(_Amortissement_Limitation_Select),_Amortissement_Limitation_Select,"")</f>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="J60" s="86" t="s">
         <v>250</v>
@@ -4069,9 +4073,9 @@
         <f>VLOOKUP(CONCATENATE(_Information,_Information_Duree),_Tables,4,FALSE)</f>
         <v>Durée</v>
       </c>
-      <c r="I61" s="144" t="str">
+      <c r="I61" s="144">
         <f>IF(ISNUMBER(_Amortissement_Duree_Select),_Amortissement_Duree_Select,"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="J61" s="87" t="s">
         <v>282</v>
@@ -4080,12 +4084,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="E3:G3"/>
@@ -4093,6 +4091,12 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4641,7 +4645,7 @@
       </c>
       <c r="G38" s="30">
         <f>VLOOKUP($B$38,_BaseFisc,_ColonneFisc_Select,FALSE)</f>
-        <v>695841.35854832386</v>
+        <v>527605.94582116802</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -4682,7 +4686,7 @@
       </c>
       <c r="G40" s="32">
         <f>IF(G39&lt;&gt;"",G39,G38)</f>
-        <v>695841.35854832386</v>
+        <v>527605.94582116802</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -4692,7 +4696,7 @@
       </c>
       <c r="B42" s="19" t="str">
         <f>VLOOKUP(1,$C43:$D54,2,FALSE)</f>
-        <v>_CMR</v>
+        <v>_SEN</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -4730,7 +4734,7 @@
       </c>
       <c r="C45" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="3" t="str">
         <f>_Pays_CMR</f>
@@ -4828,7 +4832,7 @@
       </c>
       <c r="C52" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="3" t="str">
         <f>_Pays_SEN</f>
@@ -4870,7 +4874,7 @@
       </c>
       <c r="B56" s="19">
         <f>HLOOKUP(_Pays_Select,BaseFisc!$E$1:$R$2,2,FALSE)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -4924,7 +4928,7 @@
       </c>
       <c r="B62" s="19" t="str">
         <f>IF(_Regime_Select=_Regime_Inv,VLOOKUP(CONCATENATE(_Regime_Inv,_Texte),_BaseFisc,_ColonneFisc_Select,FALSE),"")</f>
-        <v>Incitations à l'investissement privé</v>
+        <v>Code des investissements</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -4934,7 +4938,7 @@
       </c>
       <c r="B63" s="19" t="str">
         <f>IF(_Regime_Select=_Regime_Inv,VLOOKUP(CONCATENATE(_Regime_Inv,_Regime),_BaseFisc,_ColonneFisc_Select,FALSE),"")</f>
-        <v>Catégorie A</v>
+        <v>Régime normal</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -5024,23 +5028,23 @@
       </c>
       <c r="C68" s="12">
         <f>IF(VLOOKUP(CONCATENATE($C$66,$B68,C$67),_BaseFisc,_ColonneFisc_Select,FALSE)="","",VLOOKUP(CONCATENATE($C$66,$B68,C$67),_BaseFisc,_ColonneFisc_Select,FALSE))</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E68" s="23" t="str">
+        <v>0.03</v>
+      </c>
+      <c r="E68" s="23">
         <f t="shared" ref="E68:G73" si="4">IF(VLOOKUP(CONCATENATE($E$66,$B68,E$67),_BaseFisc,_ColonneFisc_Select,FALSE)="","",VLOOKUP(CONCATENATE($E$66,$B68,E$67),_BaseFisc,_ColonneFisc_Select,FALSE))</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="F68" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G68" s="10" t="str">
+      <c r="G68" s="10">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H68" s="3" t="str">
         <f t="shared" ref="H68:H73" si="5">IF(AND(E68="",F68="",G68=""),_Regime_Gen,IF(AND(E68&lt;&gt;"",F68="",G68=""),_Regime_Gen,IF(AND(E68&lt;&gt;"",F68&lt;&gt;""),_Information_Taux,IF(AND(E68&lt;&gt;"",G68&lt;&gt;""),_Information_ReducExo,_Error))))</f>
-        <v>_Gen</v>
+        <v>_ReducExo</v>
       </c>
       <c r="J68" s="25"/>
       <c r="K68" s="25"/>
@@ -5049,23 +5053,23 @@
       <c r="N68" s="25"/>
       <c r="P68" s="24">
         <f>IF(J68&lt;&gt;"",J68,IF(OR(_Regime_Select=_Regime_Gen,$H68=_Regime_Gen),$C68,IF($E68&lt;P$67,$C68,IF($H68=_Information_Taux,$F68,IF($H68=_Information_ReducExo,(1-$G68)*$C68,_Error)))))</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="24">
         <f t="shared" ref="P68:T73" si="6">IF(K68&lt;&gt;"",K68,IF(OR(_Regime_Select=_Regime_Gen,$H68=_Regime_Gen),$C68,IF($E68&lt;Q$67,$C68,IF($H68=_Information_Taux,$F68,IF($H68=_Information_ReducExo,(1-$G68)*$C68,_Error)))))</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="R68" s="24">
         <f t="shared" si="6"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="S68" s="24">
         <f t="shared" si="6"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="T68" s="24">
         <f t="shared" si="6"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
@@ -5075,7 +5079,7 @@
       </c>
       <c r="C69" s="12">
         <f t="shared" ref="C69:C73" si="7">IF(VLOOKUP(CONCATENATE($C$66,$B69,C$67),_BaseFisc,_ColonneFisc_Select,FALSE)="","",VLOOKUP(CONCATENATE($C$66,$B69,C$67),_BaseFisc,_ColonneFisc_Select,FALSE))</f>
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="E69" s="23">
         <f>IF(VLOOKUP(CONCATENATE($E$66,$B69,E$67),_BaseFisc,_ColonneFisc_Select,FALSE)="","",VLOOKUP(CONCATENATE($E$66,$B69,E$67),_BaseFisc,_ColonneFisc_Select,FALSE))</f>
@@ -5085,13 +5089,13 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G69" s="10">
+      <c r="G69" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v/>
       </c>
       <c r="H69" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>_ReducExo</v>
+        <v>_Gen</v>
       </c>
       <c r="J69" s="25"/>
       <c r="K69" s="25"/>
@@ -5100,23 +5104,23 @@
       <c r="N69" s="25"/>
       <c r="P69" s="24">
         <f>IF(J69&lt;&gt;"",J69,IF(OR(_Regime_Select=_Regime_Gen,$H69=_Regime_Gen),$C69,IF($E69&lt;P$67,$C69,IF($H69=_Information_Taux,$F69,IF($H69=_Information_ReducExo,(1-$G69)*$C69,_Error)))))</f>
-        <v>0.16500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="Q69" s="24">
         <f t="shared" si="6"/>
-        <v>0.16500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="R69" s="24">
         <f t="shared" si="6"/>
-        <v>0.16500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="S69" s="24">
         <f t="shared" si="6"/>
-        <v>0.16500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="T69" s="24">
         <f t="shared" si="6"/>
-        <v>0.16500000000000001</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
@@ -5126,7 +5130,7 @@
       </c>
       <c r="C70" s="12">
         <f t="shared" si="7"/>
-        <v>2.1999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E70" s="23" t="str">
         <f t="shared" si="4"/>
@@ -5151,23 +5155,23 @@
       <c r="N70" s="25"/>
       <c r="P70" s="24">
         <f t="shared" si="6"/>
-        <v>2.1999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q70" s="24">
         <f t="shared" si="6"/>
-        <v>2.1999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="R70" s="24">
         <f t="shared" si="6"/>
-        <v>2.1999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="S70" s="24">
         <f t="shared" si="6"/>
-        <v>2.1999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="T70" s="24">
         <f t="shared" si="6"/>
-        <v>2.1999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
@@ -5177,23 +5181,23 @@
       </c>
       <c r="C71" s="12">
         <f t="shared" si="7"/>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="E71" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="E71" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="F71" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G71" s="10">
+      <c r="G71" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v/>
       </c>
       <c r="H71" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>_ReducExo</v>
+        <v>_Gen</v>
       </c>
       <c r="J71" s="25"/>
       <c r="K71" s="25"/>
@@ -5202,23 +5206,23 @@
       <c r="N71" s="25"/>
       <c r="P71" s="24">
         <f t="shared" si="6"/>
-        <v>8.2500000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="Q71" s="24">
         <f t="shared" si="6"/>
-        <v>8.2500000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="R71" s="24">
         <f t="shared" si="6"/>
-        <v>8.2500000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="S71" s="24">
         <f t="shared" si="6"/>
-        <v>8.2500000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="T71" s="24">
         <f t="shared" si="6"/>
-        <v>8.2500000000000004E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
@@ -5228,7 +5232,7 @@
       </c>
       <c r="C72" s="12">
         <f t="shared" si="7"/>
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="E72" s="23" t="str">
         <f t="shared" si="4"/>
@@ -5253,23 +5257,23 @@
       <c r="N72" s="25"/>
       <c r="P72" s="24">
         <f t="shared" si="6"/>
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="Q72" s="24">
         <f t="shared" si="6"/>
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="R72" s="24">
         <f t="shared" si="6"/>
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="S72" s="24">
         <f t="shared" si="6"/>
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="T72" s="24">
         <f t="shared" si="6"/>
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
@@ -5279,7 +5283,7 @@
       </c>
       <c r="C73" s="12">
         <f t="shared" si="7"/>
-        <v>0.1925</v>
+        <v>0.18</v>
       </c>
       <c r="E73" s="23" t="str">
         <f t="shared" si="4"/>
@@ -5304,23 +5308,23 @@
       <c r="N73" s="25"/>
       <c r="P73" s="24">
         <f t="shared" si="6"/>
-        <v>0.1925</v>
+        <v>0.18</v>
       </c>
       <c r="Q73" s="24">
         <f t="shared" si="6"/>
-        <v>0.1925</v>
+        <v>0.18</v>
       </c>
       <c r="R73" s="24">
         <f t="shared" si="6"/>
-        <v>0.1925</v>
+        <v>0.18</v>
       </c>
       <c r="S73" s="24">
         <f t="shared" si="6"/>
-        <v>0.1925</v>
+        <v>0.18</v>
       </c>
       <c r="T73" s="24">
         <f t="shared" si="6"/>
-        <v>0.1925</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
@@ -5402,7 +5406,7 @@
       </c>
       <c r="D78" s="23">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
@@ -5412,7 +5416,7 @@
       </c>
       <c r="J78" s="26">
         <f>IF(G78&lt;&gt;"",G78,IF(D78="",1,IF(D78&lt;1,_Error,D78)))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
@@ -5446,7 +5450,7 @@
       </c>
       <c r="C80" s="23">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" s="23" t="str">
         <f t="shared" si="8"/>
@@ -5456,7 +5460,7 @@
       <c r="G80" s="27"/>
       <c r="I80" s="26">
         <f>IF(F80&lt;&gt;"",F80,IF(C80&lt;1,_Error,C80))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J80" s="26">
         <f>IF(G80&lt;&gt;"",G80,IF(D80="",1,IF(D80&lt;1,_Error,D80)))</f>
@@ -5544,13 +5548,13 @@
         <f>_Amortissement</f>
         <v>_Amortissement</v>
       </c>
-      <c r="C85" s="10" t="str">
+      <c r="C85" s="10">
         <f>IF(VLOOKUP(CONCATENATE($C$83,$B85,C$84),_BaseFisc,_ColonneFisc_Select,FALSE)="","",VLOOKUP(CONCATENATE($C$83,$B85,C$84),_BaseFisc,_ColonneFisc_Select,FALSE))</f>
-        <v/>
-      </c>
-      <c r="D85" s="10" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="D85" s="10">
         <f>IF(VLOOKUP(CONCATENATE($C$83,$B85,D$84),_BaseFisc,_ColonneFisc_Select,FALSE)="","",VLOOKUP(CONCATENATE($C$83,$B85,D$84),_BaseFisc,_ColonneFisc_Select,FALSE))</f>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="E85" s="14">
         <f>$E$69</f>
@@ -5559,17 +5563,17 @@
       <c r="G85" s="28"/>
       <c r="H85" s="28"/>
       <c r="I85" s="5"/>
-      <c r="K85" s="29" t="str">
+      <c r="K85" s="29">
         <f>IF(G85&lt;&gt;"",G85,IF(OR(_Regime_Select=_Regime_Gen,C85="",$C85=""),_Regime_Gen,C85))</f>
-        <v>_Gen</v>
-      </c>
-      <c r="L85" s="29" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="L85" s="29">
         <f>IF(H85&lt;&gt;"",H85,IF(OR(_Regime_Select=_Regime_Gen,D85="",$C85=""),_Regime_Gen,D85))</f>
-        <v>_Gen</v>
-      </c>
-      <c r="M85" s="143" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="M85" s="143">
         <f>IF(I85&lt;&gt;"",I85,IF(OR(_Regime_Select=_Regime_Gen,E85="",$C85=""),_Regime_Gen,E85))</f>
-        <v>_Gen</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5591,7 +5595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D114"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
@@ -9465,8 +9469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C171" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K209" sqref="K209"/>
@@ -9526,7 +9530,7 @@
       </c>
       <c r="C4" s="93">
         <f>(_Terrain_Select+_Constructions_Select+_Equipement_Select+_Camion_Select+_Informatique_Select+_Bureau_Select)*_PIBPNB_Select</f>
-        <v>100896996.98950696</v>
+        <v>76502862.144069359</v>
       </c>
       <c r="D4" s="91"/>
       <c r="E4" s="91"/>
@@ -9549,23 +9553,23 @@
       <c r="C7" s="116"/>
       <c r="D7" s="117">
         <f>D$22</f>
-        <v>1391682.7170966477</v>
+        <v>1055211.891642336</v>
       </c>
       <c r="E7" s="117">
         <f t="shared" ref="E7:H7" si="0">E$22</f>
-        <v>1391682.7170966475</v>
+        <v>1055211.891642336</v>
       </c>
       <c r="F7" s="117">
         <f t="shared" si="0"/>
-        <v>1391682.7170966475</v>
+        <v>1055211.891642336</v>
       </c>
       <c r="G7" s="117">
         <f t="shared" si="0"/>
-        <v>1391682.7170966472</v>
+        <v>1055211.891642336</v>
       </c>
       <c r="H7" s="118">
         <f t="shared" si="0"/>
-        <v>1391682.7170966472</v>
+        <v>1055211.891642336</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -9578,23 +9582,23 @@
       <c r="C8" s="119"/>
       <c r="D8" s="113">
         <f>D$32</f>
-        <v>4175048.1512899431</v>
+        <v>7914089.1873175204</v>
       </c>
       <c r="E8" s="113">
         <f t="shared" ref="E8:H8" si="1">E$32</f>
-        <v>4175048.1512899431</v>
+        <v>5935566.8904881403</v>
       </c>
       <c r="F8" s="113">
         <f t="shared" si="1"/>
-        <v>4175048.1512899431</v>
+        <v>4451675.1678661052</v>
       </c>
       <c r="G8" s="113">
         <f t="shared" si="1"/>
-        <v>4175048.1512899427</v>
+        <v>3338756.3758995789</v>
       </c>
       <c r="H8" s="120">
         <f t="shared" si="1"/>
-        <v>4175048.1512899427</v>
+        <v>2504067.2819246841</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -9607,15 +9611,15 @@
       <c r="C9" s="119"/>
       <c r="D9" s="113">
         <f>D$42</f>
-        <v>1159735.5975805395</v>
+        <v>879343.24303527991</v>
       </c>
       <c r="E9" s="113">
         <f t="shared" ref="E9:H9" si="2">E$42</f>
-        <v>1159735.5975805398</v>
+        <v>879343.24303528003</v>
       </c>
       <c r="F9" s="113">
         <f t="shared" si="2"/>
-        <v>1159735.5975805398</v>
+        <v>879343.24303528003</v>
       </c>
       <c r="G9" s="113">
         <f t="shared" si="2"/>
@@ -9636,19 +9640,19 @@
       <c r="C10" s="119"/>
       <c r="D10" s="113">
         <f>D$52</f>
-        <v>869801.69818540476</v>
+        <v>1319014.86455292</v>
       </c>
       <c r="E10" s="113">
         <f t="shared" ref="E10:H10" si="3">E$52</f>
-        <v>869801.69818540476</v>
+        <v>1319014.86455292</v>
       </c>
       <c r="F10" s="113">
         <f t="shared" si="3"/>
-        <v>869801.69818540476</v>
+        <v>0</v>
       </c>
       <c r="G10" s="113">
         <f t="shared" si="3"/>
-        <v>869801.69818540476</v>
+        <v>0</v>
       </c>
       <c r="H10" s="120">
         <f t="shared" si="3"/>
@@ -9665,23 +9669,23 @@
       <c r="C11" s="119"/>
       <c r="D11" s="113">
         <f>D$62</f>
-        <v>347920.67927416193</v>
+        <v>263802.97291058401</v>
       </c>
       <c r="E11" s="113">
         <f t="shared" ref="E11:H11" si="4">E$62</f>
-        <v>347920.67927416187</v>
+        <v>263802.97291058401</v>
       </c>
       <c r="F11" s="113">
         <f t="shared" si="4"/>
-        <v>347920.67927416193</v>
+        <v>263802.97291058401</v>
       </c>
       <c r="G11" s="113">
         <f t="shared" si="4"/>
-        <v>347920.67927416193</v>
+        <v>263802.97291058401</v>
       </c>
       <c r="H11" s="120">
         <f t="shared" si="4"/>
-        <v>347920.67927416193</v>
+        <v>263802.97291058401</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -9694,23 +9698,23 @@
       <c r="C12" s="121"/>
       <c r="D12" s="122">
         <f>SUM(D7:D11)</f>
-        <v>7944188.843426697</v>
+        <v>11431462.159458641</v>
       </c>
       <c r="E12" s="122">
         <f t="shared" ref="E12:H12" si="5">SUM(E7:E11)</f>
-        <v>7944188.8434266979</v>
+        <v>9452939.8626292609</v>
       </c>
       <c r="F12" s="122">
         <f t="shared" si="5"/>
-        <v>7944188.8434266979</v>
+        <v>6650033.2754543051</v>
       </c>
       <c r="G12" s="122">
         <f t="shared" si="5"/>
-        <v>6784453.245846157</v>
+        <v>4657771.2404524991</v>
       </c>
       <c r="H12" s="123">
         <f t="shared" si="5"/>
-        <v>5914651.5476607522</v>
+        <v>3823082.1464776043</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -9728,7 +9732,7 @@
       </c>
       <c r="D14" s="95">
         <f>_Constructions_Select*_PIBPNB_Select</f>
-        <v>27833654.341932952</v>
+        <v>21104237.83284672</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -9798,23 +9802,23 @@
       <c r="C19" s="102"/>
       <c r="D19" s="103">
         <f>D14</f>
-        <v>27833654.341932952</v>
+        <v>21104237.83284672</v>
       </c>
       <c r="E19" s="104">
         <f>D19-D22</f>
-        <v>26441971.624836303</v>
+        <v>20049025.941204384</v>
       </c>
       <c r="F19" s="104">
         <f t="shared" ref="F19:H19" si="7">E19-E22</f>
-        <v>25050288.907739654</v>
+        <v>18993814.049562048</v>
       </c>
       <c r="G19" s="104">
         <f t="shared" si="7"/>
-        <v>23658606.190643005</v>
+        <v>17938602.157919712</v>
       </c>
       <c r="H19" s="105">
         <f t="shared" si="7"/>
-        <v>22266923.473546356</v>
+        <v>16883390.266277377</v>
       </c>
       <c r="J19" s="104">
         <f>IF(E18=0,0,IF($D16*$D20&gt;100%,100%,IF($D16*$D20&gt;E20,$D16*$D20,E20)))</f>
@@ -9889,33 +9893,33 @@
       <c r="C22" s="109"/>
       <c r="D22" s="110">
         <f>D19*D21</f>
-        <v>1391682.7170966477</v>
+        <v>1055211.891642336</v>
       </c>
       <c r="E22" s="110">
         <f t="shared" ref="E22:H22" si="9">E19*E21</f>
-        <v>1391682.7170966475</v>
+        <v>1055211.891642336</v>
       </c>
       <c r="F22" s="110">
         <f t="shared" si="9"/>
-        <v>1391682.7170966475</v>
+        <v>1055211.891642336</v>
       </c>
       <c r="G22" s="110">
         <f t="shared" si="9"/>
-        <v>1391682.7170966472</v>
+        <v>1055211.891642336</v>
       </c>
       <c r="H22" s="111">
         <f t="shared" si="9"/>
-        <v>1391682.7170966472</v>
+        <v>1055211.891642336</v>
       </c>
       <c r="K22" s="1">
         <f>E19*E21</f>
-        <v>1391682.7170966475</v>
+        <v>1055211.891642336</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K23" s="1">
         <f>E19*0.0526</f>
-        <v>1390847.7074663895</v>
+        <v>1054578.7645073505</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -9927,7 +9931,7 @@
       </c>
       <c r="D24" s="95">
         <f>_Equipement_Select*_PIBPNB_Select</f>
-        <v>41750481.512899429</v>
+        <v>31656356.749270082</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -9951,7 +9955,7 @@
       </c>
       <c r="D26" s="94">
         <f>_Equipement_CoefDegressif_Select</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -9993,23 +9997,23 @@
       <c r="C29" s="102"/>
       <c r="D29" s="103">
         <f>D24</f>
-        <v>41750481.512899429</v>
+        <v>31656356.749270082</v>
       </c>
       <c r="E29" s="104">
         <f>D29-D32</f>
-        <v>37575433.361609489</v>
+        <v>23742267.561952561</v>
       </c>
       <c r="F29" s="104">
         <f t="shared" ref="F29" si="13">E29-E32</f>
-        <v>33400385.210319545</v>
+        <v>17806700.671464421</v>
       </c>
       <c r="G29" s="104">
         <f t="shared" ref="G29" si="14">F29-F32</f>
-        <v>29225337.059029602</v>
+        <v>13355025.503598316</v>
       </c>
       <c r="H29" s="105">
         <f t="shared" ref="H29" si="15">G29-G32</f>
-        <v>25050288.907739658</v>
+        <v>10016269.127698736</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -10051,23 +10055,23 @@
       <c r="C31" s="102"/>
       <c r="D31" s="106">
         <f>IF(D28=0,0,IF($D26*$D30&gt;100%,100%,IF($D26*$D30&gt;D30,$D26*$D30,D30)))</f>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E31" s="106">
         <f>IF(E28=0,0,IF($D26*$D30&gt;100%,100%,IF($D26*$D30&gt;E30,$D26*$D30,E30)))</f>
-        <v>0.1111111111111111</v>
+        <v>0.25</v>
       </c>
       <c r="F31" s="106">
         <f>IF(F28=0,0,IF($D26*$D30&gt;100%,100%,IF($D26*$D30&gt;F30,$D26*$D30,F30)))</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="G31" s="106">
         <f>IF(G28=0,0,IF($D26*$D30&gt;100%,100%,IF($D26*$D30&gt;G30,$D26*$D30,G30)))</f>
-        <v>0.14285714285714285</v>
+        <v>0.25</v>
       </c>
       <c r="H31" s="107">
         <f>IF(H28=0,0,IF($D26*$D30&gt;100%,100%,IF($D26*$D30&gt;H30,$D26*$D30,H30)))</f>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -10080,23 +10084,23 @@
       <c r="C32" s="109"/>
       <c r="D32" s="110">
         <f>D29*D31</f>
-        <v>4175048.1512899431</v>
+        <v>7914089.1873175204</v>
       </c>
       <c r="E32" s="110">
         <f t="shared" ref="E32:H32" si="17">E29*E31</f>
-        <v>4175048.1512899431</v>
+        <v>5935566.8904881403</v>
       </c>
       <c r="F32" s="110">
         <f t="shared" si="17"/>
-        <v>4175048.1512899431</v>
+        <v>4451675.1678661052</v>
       </c>
       <c r="G32" s="110">
         <f t="shared" si="17"/>
-        <v>4175048.1512899427</v>
+        <v>3338756.3758995789</v>
       </c>
       <c r="H32" s="111">
         <f t="shared" si="17"/>
-        <v>4175048.1512899427</v>
+        <v>2504067.2819246841</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -10108,7 +10112,7 @@
       </c>
       <c r="D34" s="95">
         <f>_Camion_Select*_PIBPNB_Select</f>
-        <v>3479206.7927416191</v>
+        <v>2638029.72910584</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -10184,15 +10188,15 @@
       <c r="C39" s="102"/>
       <c r="D39" s="103">
         <f>D34</f>
-        <v>3479206.7927416191</v>
+        <v>2638029.72910584</v>
       </c>
       <c r="E39" s="104">
         <f>D39-D42</f>
-        <v>2319471.1951610795</v>
+        <v>1758686.4860705601</v>
       </c>
       <c r="F39" s="104">
         <f t="shared" ref="F39" si="21">E39-E42</f>
-        <v>1159735.5975805398</v>
+        <v>879343.24303528003</v>
       </c>
       <c r="G39" s="104">
         <f t="shared" ref="G39" si="22">F39-F42</f>
@@ -10271,15 +10275,15 @@
       <c r="C42" s="109"/>
       <c r="D42" s="110">
         <f>D39*D41</f>
-        <v>1159735.5975805395</v>
+        <v>879343.24303527991</v>
       </c>
       <c r="E42" s="110">
         <f t="shared" ref="E42:H42" si="25">E39*E41</f>
-        <v>1159735.5975805398</v>
+        <v>879343.24303528003</v>
       </c>
       <c r="F42" s="110">
         <f t="shared" si="25"/>
-        <v>1159735.5975805398</v>
+        <v>879343.24303528003</v>
       </c>
       <c r="G42" s="110">
         <f t="shared" si="25"/>
@@ -10299,7 +10303,7 @@
       </c>
       <c r="D44" s="95">
         <f>_Informatique_Select*_PIBPNB_Select</f>
-        <v>3479206.7927416191</v>
+        <v>2638029.72910584</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -10311,7 +10315,7 @@
       </c>
       <c r="D45" s="94">
         <f>_Informatique_DureeLineaire_Select</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -10336,19 +10340,19 @@
       <c r="C48" s="97"/>
       <c r="D48" s="98">
         <f>D45</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E48" s="99">
         <f>IF(D48-1&gt;0,D48-1,0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48" s="99">
         <f t="shared" ref="F48" si="26">IF(E48-1&gt;0,E48-1,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48" s="99">
         <f t="shared" ref="G48" si="27">IF(F48-1&gt;0,F48-1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="100">
         <f t="shared" ref="H48" si="28">IF(G48-1&gt;0,G48-1,0)</f>
@@ -10365,19 +10369,19 @@
       <c r="C49" s="102"/>
       <c r="D49" s="103">
         <f>D44</f>
-        <v>3479206.7927416191</v>
+        <v>2638029.72910584</v>
       </c>
       <c r="E49" s="104">
         <f>D49-D52</f>
-        <v>2609405.0945562143</v>
+        <v>1319014.86455292</v>
       </c>
       <c r="F49" s="104">
         <f t="shared" ref="F49" si="29">E49-E52</f>
-        <v>1739603.3963708095</v>
+        <v>0</v>
       </c>
       <c r="G49" s="104">
         <f t="shared" ref="G49" si="30">F49-F52</f>
-        <v>869801.69818540476</v>
+        <v>0</v>
       </c>
       <c r="H49" s="105">
         <f t="shared" ref="H49" si="31">G49-G52</f>
@@ -10394,19 +10398,19 @@
       <c r="C50" s="102"/>
       <c r="D50" s="106">
         <f>IF(D48&gt;0,1/D48,0)</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E50" s="106">
         <f t="shared" ref="E50:H50" si="32">IF(E48&gt;0,1/E48,0)</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F50" s="106">
         <f t="shared" si="32"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G50" s="106">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="107">
         <f t="shared" si="32"/>
@@ -10423,19 +10427,19 @@
       <c r="C51" s="102"/>
       <c r="D51" s="106">
         <f>IF(D48=0,0,IF($D46*$D50&gt;100%,100%,IF($D46*$D50&gt;D50,$D46*$D50,D50)))</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E51" s="106">
         <f>IF(E48=0,0,IF($D46*$D50&gt;100%,100%,IF($D46*$D50&gt;E50,$D46*$D50,E50)))</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F51" s="106">
         <f>IF(F48=0,0,IF($D46*$D50&gt;100%,100%,IF($D46*$D50&gt;F50,$D46*$D50,F50)))</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G51" s="106">
         <f>IF(G48=0,0,IF($D46*$D50&gt;100%,100%,IF($D46*$D50&gt;G50,$D46*$D50,G50)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="107">
         <f>IF(H48=0,0,IF($D46*$D50&gt;100%,100%,IF($D46*$D50&gt;H50,$D46*$D50,H50)))</f>
@@ -10452,19 +10456,19 @@
       <c r="C52" s="109"/>
       <c r="D52" s="110">
         <f>D49*D51</f>
-        <v>869801.69818540476</v>
+        <v>1319014.86455292</v>
       </c>
       <c r="E52" s="110">
         <f t="shared" ref="E52:H52" si="33">E49*E51</f>
-        <v>869801.69818540476</v>
+        <v>1319014.86455292</v>
       </c>
       <c r="F52" s="110">
         <f t="shared" si="33"/>
-        <v>869801.69818540476</v>
+        <v>0</v>
       </c>
       <c r="G52" s="110">
         <f t="shared" si="33"/>
-        <v>869801.69818540476</v>
+        <v>0</v>
       </c>
       <c r="H52" s="111">
         <f t="shared" si="33"/>
@@ -10480,7 +10484,7 @@
       </c>
       <c r="D54" s="95">
         <f>_Bureau_Select*_PIBPNB_Select</f>
-        <v>3479206.7927416191</v>
+        <v>2638029.72910584</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -10546,23 +10550,23 @@
       <c r="C59" s="102"/>
       <c r="D59" s="103">
         <f>D54</f>
-        <v>3479206.7927416191</v>
+        <v>2638029.72910584</v>
       </c>
       <c r="E59" s="104">
         <f>D59-D62</f>
-        <v>3131286.1134674572</v>
+        <v>2374226.756195256</v>
       </c>
       <c r="F59" s="104">
         <f t="shared" ref="F59" si="37">E59-E62</f>
-        <v>2783365.4341932954</v>
+        <v>2110423.7832846721</v>
       </c>
       <c r="G59" s="104">
         <f t="shared" ref="G59" si="38">F59-F62</f>
-        <v>2435444.7549191336</v>
+        <v>1846620.8103740881</v>
       </c>
       <c r="H59" s="105">
         <f t="shared" ref="H59" si="39">G59-G62</f>
-        <v>2087524.0756449718</v>
+        <v>1582817.8374635042</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -10633,23 +10637,23 @@
       <c r="C62" s="109"/>
       <c r="D62" s="110">
         <f>D59*D61</f>
-        <v>347920.67927416193</v>
+        <v>263802.97291058401</v>
       </c>
       <c r="E62" s="110">
         <f t="shared" ref="E62:H62" si="41">E59*E61</f>
-        <v>347920.67927416187</v>
+        <v>263802.97291058401</v>
       </c>
       <c r="F62" s="110">
         <f t="shared" si="41"/>
-        <v>347920.67927416193</v>
+        <v>263802.97291058401</v>
       </c>
       <c r="G62" s="110">
         <f t="shared" si="41"/>
-        <v>347920.67927416193</v>
+        <v>263802.97291058401</v>
       </c>
       <c r="H62" s="111">
         <f t="shared" si="41"/>
-        <v>347920.67927416193</v>
+        <v>263802.97291058401</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -10666,11 +10670,11 @@
       </c>
       <c r="D65" s="95">
         <f>(_Terrain_Select+_Constructions_Select+_Equipement_Select+_Camion_Select+_Informatique_Select+_Bureau_Select)*_PIBPNB_Select</f>
-        <v>100896996.98950696</v>
-      </c>
-      <c r="F65" s="6" t="str">
+        <v>76502862.144069359</v>
+      </c>
+      <c r="F65" s="6">
         <f>_Amortissement_TauxExceptionnel_Select</f>
-        <v>_Gen</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -10682,7 +10686,7 @@
       </c>
       <c r="D66" s="124">
         <f>IF(ISNUMBER(_Amortissement_TauxExceptionnel_Select),_Amortissement_TauxExceptionnel_Select,0)</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -10694,7 +10698,7 @@
       </c>
       <c r="D67" s="124">
         <f>IF(ISNUMBER(_Amortissement_Limitation_Select),_Amortissement_Limitation_Select,0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -10706,7 +10710,7 @@
       </c>
       <c r="D68" s="146">
         <f>IF(ISNUMBER(_Amortissement_Duree_Select),_Amortissement_Duree_Select,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -10719,23 +10723,23 @@
       <c r="C70" s="97"/>
       <c r="D70" s="98">
         <f>D68</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E70" s="99">
         <f>IF(D70-1&gt;0,D70-1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F70" s="99">
         <f t="shared" ref="F70" si="42">IF(E70-1&gt;0,E70-1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G70" s="99">
         <f t="shared" ref="G70" si="43">IF(F70-1&gt;0,F70-1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H70" s="100">
         <f t="shared" ref="H70" si="44">IF(G70-1&gt;0,G70-1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -10748,11 +10752,11 @@
       <c r="C71" s="119"/>
       <c r="D71" s="148">
         <f>D65*D66</f>
-        <v>0</v>
+        <v>30601144.857627746</v>
       </c>
       <c r="E71" s="114">
         <f>D71-D72</f>
-        <v>0</v>
+        <v>10727987.565030392</v>
       </c>
       <c r="F71" s="114">
         <f t="shared" ref="F71:H71" si="45">E71-E72</f>
@@ -10777,11 +10781,11 @@
       <c r="C72" s="121"/>
       <c r="D72" s="150">
         <f>IF(D70&lt;=0,0,IF(D$106&lt;=0,0,IF($D67*D$106&gt;D71,D71,$D67*D$106)))</f>
-        <v>0</v>
+        <v>19873157.292597353</v>
       </c>
       <c r="E72" s="150">
         <f>IF(E70&lt;=0,0,IF(E$106&lt;=0,0,IF($D67*E$106&gt;E71,E71,$D67*E$106)))</f>
-        <v>0</v>
+        <v>10727987.565030392</v>
       </c>
       <c r="F72" s="150">
         <f>IF(F70&lt;=0,0,IF(F$106&lt;=0,0,IF($D67*F$106&gt;F71,F71,$D67*F$106)))</f>
@@ -10840,23 +10844,23 @@
       <c r="C76" s="119"/>
       <c r="D76" s="125">
         <f>_TVApetrole_Taux_Select1</f>
-        <v>0.1925</v>
+        <v>0.18</v>
       </c>
       <c r="E76" s="125">
         <f>_TVApetrole_Taux_Select2</f>
-        <v>0.1925</v>
+        <v>0.18</v>
       </c>
       <c r="F76" s="125">
         <f>_TVApetrole_Taux_Select3</f>
-        <v>0.1925</v>
+        <v>0.18</v>
       </c>
       <c r="G76" s="125">
         <f>_TVApetrole_Taux_Select4</f>
-        <v>0.1925</v>
+        <v>0.18</v>
       </c>
       <c r="H76" s="126">
         <f>_TVApetrole_Taux_Select5</f>
-        <v>0.1925</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -10903,23 +10907,23 @@
       <c r="C80" s="116"/>
       <c r="D80" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>6262572.2269349145</v>
+        <v>4748453.512390512</v>
       </c>
       <c r="E80" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>6262572.2269349145</v>
+        <v>4748453.512390512</v>
       </c>
       <c r="F80" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>6262572.2269349145</v>
+        <v>4748453.512390512</v>
       </c>
       <c r="G80" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>6262572.2269349145</v>
+        <v>4748453.512390512</v>
       </c>
       <c r="H80" s="128">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>6262572.2269349145</v>
+        <v>4748453.512390512</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -10932,23 +10936,23 @@
       <c r="C81" s="119"/>
       <c r="D81" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>6958413.5854832381</v>
+        <v>5276059.4582116799</v>
       </c>
       <c r="E81" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>6958413.5854832381</v>
+        <v>5276059.4582116799</v>
       </c>
       <c r="F81" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>6958413.5854832381</v>
+        <v>5276059.4582116799</v>
       </c>
       <c r="G81" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>6958413.5854832381</v>
+        <v>5276059.4582116799</v>
       </c>
       <c r="H81" s="130">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>6958413.5854832381</v>
+        <v>5276059.4582116799</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -10961,23 +10965,23 @@
       <c r="C82" s="119"/>
       <c r="D82" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>33400385.210319545</v>
+        <v>25325085.399416067</v>
       </c>
       <c r="E82" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>33400385.210319545</v>
+        <v>25325085.399416067</v>
       </c>
       <c r="F82" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>33400385.210319545</v>
+        <v>25325085.399416067</v>
       </c>
       <c r="G82" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>33400385.210319545</v>
+        <v>25325085.399416067</v>
       </c>
       <c r="H82" s="130">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>33400385.210319545</v>
+        <v>25325085.399416067</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -10990,23 +10994,23 @@
       <c r="C83" s="119"/>
       <c r="D83" s="114">
         <f>SUM(D80:D82)</f>
-        <v>46621371.022737697</v>
+        <v>35349598.370018259</v>
       </c>
       <c r="E83" s="114">
         <f t="shared" ref="E83:H83" si="47">SUM(E80:E82)</f>
-        <v>46621371.022737697</v>
+        <v>35349598.370018259</v>
       </c>
       <c r="F83" s="114">
         <f t="shared" si="47"/>
-        <v>46621371.022737697</v>
+        <v>35349598.370018259</v>
       </c>
       <c r="G83" s="114">
         <f t="shared" si="47"/>
-        <v>46621371.022737697</v>
+        <v>35349598.370018259</v>
       </c>
       <c r="H83" s="131">
         <f t="shared" si="47"/>
-        <v>46621371.022737697</v>
+        <v>35349598.370018259</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -11019,23 +11023,23 @@
       <c r="C84" s="119"/>
       <c r="D84" s="125">
         <f>_CFE_Taux_Select1</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E84" s="125">
         <f>_CFE_Taux_Select2</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F84" s="125">
         <f>_CFE_Taux_Select3</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G84" s="125">
         <f>_CFE_Taux_Select4</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H84" s="126">
         <f>_CFE_Taux_Select5</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -11048,23 +11052,23 @@
       <c r="C85" s="121"/>
       <c r="D85" s="110">
         <f>D83*D84</f>
-        <v>1165534.2755684424</v>
+        <v>0</v>
       </c>
       <c r="E85" s="110">
         <f t="shared" ref="E85:H85" si="48">E83*E84</f>
-        <v>1165534.2755684424</v>
+        <v>0</v>
       </c>
       <c r="F85" s="110">
         <f t="shared" si="48"/>
-        <v>1165534.2755684424</v>
+        <v>0</v>
       </c>
       <c r="G85" s="110">
         <f t="shared" si="48"/>
-        <v>1165534.2755684424</v>
+        <v>0</v>
       </c>
       <c r="H85" s="111">
         <f t="shared" si="48"/>
-        <v>1165534.2755684424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -11082,23 +11086,23 @@
       <c r="C88" s="116"/>
       <c r="D88" s="127">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>3827127.4720157813</v>
+        <v>2901832.7020164239</v>
       </c>
       <c r="E88" s="127">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>3827127.4720157813</v>
+        <v>2901832.7020164239</v>
       </c>
       <c r="F88" s="127">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>3827127.4720157813</v>
+        <v>2901832.7020164239</v>
       </c>
       <c r="G88" s="127">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>3827127.4720157813</v>
+        <v>2901832.7020164239</v>
       </c>
       <c r="H88" s="128">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>3827127.4720157813</v>
+        <v>2901832.7020164239</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -11111,23 +11115,23 @@
       <c r="C89" s="119"/>
       <c r="D89" s="125">
         <f>_IRC_Taux_Select1</f>
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="E89" s="125">
         <f>_IRC_Taux_Select2</f>
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="F89" s="125">
         <f>_IRC_Taux_Select3</f>
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="G89" s="125">
         <f>_IRC_Taux_Select4</f>
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="H89" s="126">
         <f>_IRC_Taux_Select5</f>
-        <v>0.16500000000000001</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -11140,23 +11144,23 @@
       <c r="C90" s="121"/>
       <c r="D90" s="110">
         <f>D88*D89</f>
-        <v>631476.03288260393</v>
+        <v>464293.23232262785</v>
       </c>
       <c r="E90" s="110">
         <f t="shared" ref="E90" si="49">E88*E89</f>
-        <v>631476.03288260393</v>
+        <v>464293.23232262785</v>
       </c>
       <c r="F90" s="110">
         <f t="shared" ref="F90" si="50">F88*F89</f>
-        <v>631476.03288260393</v>
+        <v>464293.23232262785</v>
       </c>
       <c r="G90" s="110">
         <f t="shared" ref="G90" si="51">G88*G89</f>
-        <v>631476.03288260393</v>
+        <v>464293.23232262785</v>
       </c>
       <c r="H90" s="111">
         <f t="shared" ref="H90" si="52">H88*H89</f>
-        <v>631476.03288260393</v>
+        <v>464293.23232262785</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -11174,23 +11178,23 @@
       <c r="C93" s="91"/>
       <c r="D93" s="93">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>730633426.47574008</v>
+        <v>553986243.11222637</v>
       </c>
       <c r="E93" s="93">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>730633426.47574008</v>
+        <v>553986243.11222637</v>
       </c>
       <c r="F93" s="93">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>730633426.47574008</v>
+        <v>553986243.11222637</v>
       </c>
       <c r="G93" s="93">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>730633426.47574008</v>
+        <v>553986243.11222637</v>
       </c>
       <c r="H93" s="137">
         <f>_Ventes_Select*_PIBPNB_Select</f>
-        <v>730633426.47574008</v>
+        <v>553986243.11222637</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -11203,23 +11207,23 @@
       <c r="C94" s="119"/>
       <c r="D94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>596336044.2759136</v>
+        <v>452158295.56874096</v>
       </c>
       <c r="E94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>596336044.2759136</v>
+        <v>452158295.56874096</v>
       </c>
       <c r="F94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>596336044.2759136</v>
+        <v>452158295.56874096</v>
       </c>
       <c r="G94" s="129">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>596336044.2759136</v>
+        <v>452158295.56874096</v>
       </c>
       <c r="H94" s="130">
         <f>_Achats_Select*_PIBPNB_Select</f>
-        <v>596336044.2759136</v>
+        <v>452158295.56874096</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -11290,23 +11294,23 @@
       <c r="C97" s="119"/>
       <c r="D97" s="129">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>6958413.5854832381</v>
+        <v>5276059.4582116799</v>
       </c>
       <c r="E97" s="129">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>6958413.5854832381</v>
+        <v>5276059.4582116799</v>
       </c>
       <c r="F97" s="129">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>6958413.5854832381</v>
+        <v>5276059.4582116799</v>
       </c>
       <c r="G97" s="129">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>6958413.5854832381</v>
+        <v>5276059.4582116799</v>
       </c>
       <c r="H97" s="130">
         <f>_DepensesAdministratives_Select*_PIBPNB_Select</f>
-        <v>6958413.5854832381</v>
+        <v>5276059.4582116799</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -11319,27 +11323,27 @@
       <c r="C98" s="119"/>
       <c r="D98" s="129">
         <f t="shared" ref="D98:I98" si="54">_DepensesPublicitaires_Select*_PIBPNB_Select</f>
-        <v>7306334.2647574004</v>
+        <v>5539862.4311222639</v>
       </c>
       <c r="E98" s="129">
         <f t="shared" si="54"/>
-        <v>7306334.2647574004</v>
+        <v>5539862.4311222639</v>
       </c>
       <c r="F98" s="129">
         <f t="shared" si="54"/>
-        <v>7306334.2647574004</v>
+        <v>5539862.4311222639</v>
       </c>
       <c r="G98" s="129">
         <f t="shared" si="54"/>
-        <v>7306334.2647574004</v>
+        <v>5539862.4311222639</v>
       </c>
       <c r="H98" s="130">
         <f t="shared" si="54"/>
-        <v>7306334.2647574004</v>
+        <v>5539862.4311222639</v>
       </c>
       <c r="I98" s="217">
         <f t="shared" si="54"/>
-        <v>7306334.2647574004</v>
+        <v>5539862.4311222639</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -11352,23 +11356,23 @@
       <c r="C99" s="119"/>
       <c r="D99" s="129">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>2087524.0756449716</v>
+        <v>1582817.8374635042</v>
       </c>
       <c r="E99" s="129">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>2087524.0756449716</v>
+        <v>1582817.8374635042</v>
       </c>
       <c r="F99" s="129">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>2087524.0756449716</v>
+        <v>1582817.8374635042</v>
       </c>
       <c r="G99" s="129">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>2087524.0756449716</v>
+        <v>1582817.8374635042</v>
       </c>
       <c r="H99" s="130">
         <f>_DepensesDEntretien_Select*_PIBPNB_Select</f>
-        <v>2087524.0756449716</v>
+        <v>1582817.8374635042</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -11381,23 +11385,23 @@
       <c r="C100" s="116"/>
       <c r="D100" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>6262572.2269349145</v>
+        <v>4748453.512390512</v>
       </c>
       <c r="E100" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>6262572.2269349145</v>
+        <v>4748453.512390512</v>
       </c>
       <c r="F100" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>6262572.2269349145</v>
+        <v>4748453.512390512</v>
       </c>
       <c r="G100" s="127">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>6262572.2269349145</v>
+        <v>4748453.512390512</v>
       </c>
       <c r="H100" s="128">
         <f>_Nombre_Cadres_Select*_Indice_Cadres_Select*_PIBPNB_Select</f>
-        <v>6262572.2269349145</v>
+        <v>4748453.512390512</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -11410,23 +11414,23 @@
       <c r="C101" s="119"/>
       <c r="D101" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>6958413.5854832381</v>
+        <v>5276059.4582116799</v>
       </c>
       <c r="E101" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>6958413.5854832381</v>
+        <v>5276059.4582116799</v>
       </c>
       <c r="F101" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>6958413.5854832381</v>
+        <v>5276059.4582116799</v>
       </c>
       <c r="G101" s="129">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>6958413.5854832381</v>
+        <v>5276059.4582116799</v>
       </c>
       <c r="H101" s="130">
         <f>_Nombre_Secretaires_Select*_Indice_Secretaires_Select*_PIBPNB_Select</f>
-        <v>6958413.5854832381</v>
+        <v>5276059.4582116799</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -11439,23 +11443,23 @@
       <c r="C102" s="119"/>
       <c r="D102" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>33400385.210319545</v>
+        <v>25325085.399416067</v>
       </c>
       <c r="E102" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>33400385.210319545</v>
+        <v>25325085.399416067</v>
       </c>
       <c r="F102" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>33400385.210319545</v>
+        <v>25325085.399416067</v>
       </c>
       <c r="G102" s="129">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>33400385.210319545</v>
+        <v>25325085.399416067</v>
       </c>
       <c r="H102" s="130">
         <f>_Nombre_Ouvriers_Select*_Indice_Ouvriers_Select*_PIBPNB_Select</f>
-        <v>33400385.210319545</v>
+        <v>25325085.399416067</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -11468,23 +11472,23 @@
       <c r="C103" s="121"/>
       <c r="D103" s="135">
         <f>D$85</f>
-        <v>1165534.2755684424</v>
+        <v>0</v>
       </c>
       <c r="E103" s="135">
         <f t="shared" ref="E103:H103" si="55">E$85</f>
-        <v>1165534.2755684424</v>
+        <v>0</v>
       </c>
       <c r="F103" s="135">
         <f t="shared" si="55"/>
-        <v>1165534.2755684424</v>
+        <v>0</v>
       </c>
       <c r="G103" s="135">
         <f t="shared" si="55"/>
-        <v>1165534.2755684424</v>
+        <v>0</v>
       </c>
       <c r="H103" s="136">
         <f t="shared" si="55"/>
-        <v>1165534.2755684424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -11497,23 +11501,23 @@
       <c r="C104" s="119"/>
       <c r="D104" s="129">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>3827127.4720157813</v>
+        <v>2901832.7020164239</v>
       </c>
       <c r="E104" s="129">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>3827127.4720157813</v>
+        <v>2901832.7020164239</v>
       </c>
       <c r="F104" s="129">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>3827127.4720157813</v>
+        <v>2901832.7020164239</v>
       </c>
       <c r="G104" s="129">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>3827127.4720157813</v>
+        <v>2901832.7020164239</v>
       </c>
       <c r="H104" s="130">
         <f>_ChargesFinancieres_Select*_PIBPNB_Select</f>
-        <v>3827127.4720157813</v>
+        <v>2901832.7020164239</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -11526,23 +11530,23 @@
       <c r="C105" s="91"/>
       <c r="D105" s="112">
         <f>D$12</f>
-        <v>7944188.843426697</v>
+        <v>11431462.159458641</v>
       </c>
       <c r="E105" s="112">
         <f t="shared" ref="E105:H105" si="56">E$12</f>
-        <v>7944188.8434266979</v>
+        <v>9452939.8626292609</v>
       </c>
       <c r="F105" s="112">
         <f t="shared" si="56"/>
-        <v>7944188.8434266979</v>
+        <v>6650033.2754543051</v>
       </c>
       <c r="G105" s="112">
         <f t="shared" si="56"/>
-        <v>6784453.245846157</v>
+        <v>4657771.2404524991</v>
       </c>
       <c r="H105" s="134">
         <f t="shared" si="56"/>
-        <v>5914651.5476607522</v>
+        <v>3823082.1464776043</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -11555,23 +11559,23 @@
       <c r="C106" s="116"/>
       <c r="D106" s="153">
         <f>D93-SUM(D94:D105)</f>
-        <v>58386888.66019237</v>
+        <v>39746314.585194707</v>
       </c>
       <c r="E106" s="153">
         <f>E93-SUM(E94:E105)</f>
-        <v>58386888.66019237</v>
+        <v>41724836.882024109</v>
       </c>
       <c r="F106" s="153">
         <f>F93-SUM(F94:F105)</f>
-        <v>58386888.66019237</v>
+        <v>44527743.469199061</v>
       </c>
       <c r="G106" s="153">
         <f>G93-SUM(G94:G105)</f>
-        <v>59546624.257772923</v>
+        <v>46520005.504200816</v>
       </c>
       <c r="H106" s="154">
         <f>H93-SUM(H94:H105)</f>
-        <v>60416425.955958366</v>
+        <v>47354694.598175764</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -11584,23 +11588,23 @@
       <c r="C107" s="121"/>
       <c r="D107" s="132">
         <f>D106/D$93</f>
-        <v>7.9912698412698546E-2</v>
+        <v>7.1746031746031835E-2</v>
       </c>
       <c r="E107" s="132">
         <f t="shared" ref="E107:H107" si="57">E106/E$93</f>
-        <v>7.9912698412698546E-2</v>
+        <v>7.531746031746045E-2</v>
       </c>
       <c r="F107" s="132">
         <f t="shared" si="57"/>
-        <v>7.9912698412698546E-2</v>
+        <v>8.0376984126984255E-2</v>
       </c>
       <c r="G107" s="132">
         <f t="shared" si="57"/>
-        <v>8.1500000000000142E-2</v>
+        <v>8.3973214285714332E-2</v>
       </c>
       <c r="H107" s="133">
         <f t="shared" si="57"/>
-        <v>8.2690476190476384E-2</v>
+        <v>8.5479910714285845E-2</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -11618,23 +11622,23 @@
       <c r="C110" s="116"/>
       <c r="D110" s="117">
         <f>D106</f>
-        <v>58386888.66019237</v>
+        <v>39746314.585194707</v>
       </c>
       <c r="E110" s="117">
         <f t="shared" ref="E110:H110" si="58">E106</f>
-        <v>58386888.66019237</v>
+        <v>41724836.882024109</v>
       </c>
       <c r="F110" s="117">
         <f t="shared" si="58"/>
-        <v>58386888.66019237</v>
+        <v>44527743.469199061</v>
       </c>
       <c r="G110" s="117">
         <f t="shared" si="58"/>
-        <v>59546624.257772923</v>
+        <v>46520005.504200816</v>
       </c>
       <c r="H110" s="118">
         <f t="shared" si="58"/>
-        <v>60416425.955958366</v>
+        <v>47354694.598175764</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -11647,11 +11651,11 @@
       <c r="C111" s="119"/>
       <c r="D111" s="113">
         <f>D72</f>
-        <v>0</v>
+        <v>19873157.292597353</v>
       </c>
       <c r="E111" s="113">
         <f>E72</f>
-        <v>0</v>
+        <v>10727987.565030392</v>
       </c>
       <c r="F111" s="113">
         <f>F72</f>
@@ -11676,23 +11680,23 @@
       <c r="C112" s="121"/>
       <c r="D112" s="122">
         <f>D110-D111</f>
-        <v>58386888.66019237</v>
+        <v>19873157.292597353</v>
       </c>
       <c r="E112" s="122">
         <f t="shared" ref="E112:H112" si="59">E110-E111</f>
-        <v>58386888.66019237</v>
+        <v>30996849.316993717</v>
       </c>
       <c r="F112" s="122">
         <f t="shared" si="59"/>
-        <v>58386888.66019237</v>
+        <v>44527743.469199061</v>
       </c>
       <c r="G112" s="122">
         <f t="shared" si="59"/>
-        <v>59546624.257772923</v>
+        <v>46520005.504200816</v>
       </c>
       <c r="H112" s="123">
         <f t="shared" si="59"/>
-        <v>60416425.955958366</v>
+        <v>47354694.598175764</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -11710,23 +11714,23 @@
       <c r="C115" s="116"/>
       <c r="D115" s="117">
         <f>D$112</f>
-        <v>58386888.66019237</v>
+        <v>19873157.292597353</v>
       </c>
       <c r="E115" s="117">
         <f t="shared" ref="E115:H115" si="60">E$112</f>
-        <v>58386888.66019237</v>
+        <v>30996849.316993717</v>
       </c>
       <c r="F115" s="117">
         <f t="shared" si="60"/>
-        <v>58386888.66019237</v>
+        <v>44527743.469199061</v>
       </c>
       <c r="G115" s="117">
         <f t="shared" si="60"/>
-        <v>59546624.257772923</v>
+        <v>46520005.504200816</v>
       </c>
       <c r="H115" s="118">
         <f t="shared" si="60"/>
-        <v>60416425.955958366</v>
+        <v>47354694.598175764</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -11739,23 +11743,23 @@
       <c r="C116" s="119"/>
       <c r="D116" s="125">
         <f>_IS_Taux_Select1</f>
-        <v>0.16500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="E116" s="125">
         <f>_IS_Taux_Select2</f>
-        <v>0.16500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="F116" s="125">
         <f>_IS_Taux_Select3</f>
-        <v>0.16500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="G116" s="125">
         <f>_IS_Taux_Select4</f>
-        <v>0.16500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="H116" s="126">
         <f>_IS_Taux_Select5</f>
-        <v>0.16500000000000001</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -11768,23 +11772,23 @@
       <c r="C117" s="121"/>
       <c r="D117" s="110">
         <f>D115*D116</f>
-        <v>9633836.6289317422</v>
+        <v>5961947.1877792059</v>
       </c>
       <c r="E117" s="110">
         <f t="shared" ref="E117:H117" si="61">E115*E116</f>
-        <v>9633836.6289317422</v>
+        <v>9299054.7950981148</v>
       </c>
       <c r="F117" s="110">
         <f t="shared" si="61"/>
-        <v>9633836.6289317422</v>
+        <v>13358323.040759718</v>
       </c>
       <c r="G117" s="110">
         <f t="shared" si="61"/>
-        <v>9825193.0025325324</v>
+        <v>13956001.651260244</v>
       </c>
       <c r="H117" s="111">
         <f t="shared" si="61"/>
-        <v>9968710.2827331312</v>
+        <v>14206408.37945273</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
@@ -11802,23 +11806,23 @@
       <c r="C120" s="116"/>
       <c r="D120" s="117">
         <f>D$93</f>
-        <v>730633426.47574008</v>
+        <v>553986243.11222637</v>
       </c>
       <c r="E120" s="117">
         <f t="shared" ref="E120:H120" si="62">E$93</f>
-        <v>730633426.47574008</v>
+        <v>553986243.11222637</v>
       </c>
       <c r="F120" s="117">
         <f t="shared" si="62"/>
-        <v>730633426.47574008</v>
+        <v>553986243.11222637</v>
       </c>
       <c r="G120" s="117">
         <f t="shared" si="62"/>
-        <v>730633426.47574008</v>
+        <v>553986243.11222637</v>
       </c>
       <c r="H120" s="118">
         <f t="shared" si="62"/>
-        <v>730633426.47574008</v>
+        <v>553986243.11222637</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -11831,23 +11835,23 @@
       <c r="C121" s="119"/>
       <c r="D121" s="125">
         <f>_IMF_Taux_Select1</f>
-        <v>2.1999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E121" s="125">
         <f>_IMF_Taux_Select2</f>
-        <v>2.1999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F121" s="125">
         <f>_IMF_Taux_Select3</f>
-        <v>2.1999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G121" s="125">
         <f>_IMF_Taux_Select4</f>
-        <v>2.1999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H121" s="126">
         <f>_IMF_Taux_Select5</f>
-        <v>2.1999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -11860,23 +11864,23 @@
       <c r="C122" s="121"/>
       <c r="D122" s="110">
         <f>D120*D121</f>
-        <v>16073935.382466281</v>
+        <v>2769931.2155611319</v>
       </c>
       <c r="E122" s="110">
         <f t="shared" ref="E122" si="63">E120*E121</f>
-        <v>16073935.382466281</v>
+        <v>2769931.2155611319</v>
       </c>
       <c r="F122" s="110">
         <f t="shared" ref="F122" si="64">F120*F121</f>
-        <v>16073935.382466281</v>
+        <v>2769931.2155611319</v>
       </c>
       <c r="G122" s="110">
         <f t="shared" ref="G122" si="65">G120*G121</f>
-        <v>16073935.382466281</v>
+        <v>2769931.2155611319</v>
       </c>
       <c r="H122" s="111">
         <f t="shared" ref="H122" si="66">H120*H121</f>
-        <v>16073935.382466281</v>
+        <v>2769931.2155611319</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -11892,23 +11896,23 @@
       <c r="C125" s="116"/>
       <c r="D125" s="155">
         <f>IF(D$117&gt;D$122,D$117,D$122)</f>
-        <v>16073935.382466281</v>
+        <v>5961947.1877792059</v>
       </c>
       <c r="E125" s="155">
         <f>IF(E$117&gt;E$122,E$117,E$122)</f>
-        <v>16073935.382466281</v>
+        <v>9299054.7950981148</v>
       </c>
       <c r="F125" s="155">
         <f>IF(F$117&gt;F$122,F$117,F$122)</f>
-        <v>16073935.382466281</v>
+        <v>13358323.040759718</v>
       </c>
       <c r="G125" s="155">
         <f>IF(G$117&gt;G$122,G$117,G$122)</f>
-        <v>16073935.382466281</v>
+        <v>13956001.651260244</v>
       </c>
       <c r="H125" s="156">
         <f>IF(H$117&gt;H$122,H$117,H$122)</f>
-        <v>16073935.382466281</v>
+        <v>14206408.37945273</v>
       </c>
       <c r="M125" s="1">
         <v>0.1</v>
@@ -11924,27 +11928,27 @@
       <c r="C126" s="119"/>
       <c r="D126" s="113">
         <f>D$106</f>
-        <v>58386888.66019237</v>
+        <v>39746314.585194707</v>
       </c>
       <c r="E126" s="113">
         <f t="shared" ref="E126:H126" si="67">E$106</f>
-        <v>58386888.66019237</v>
+        <v>41724836.882024109</v>
       </c>
       <c r="F126" s="113">
         <f t="shared" si="67"/>
-        <v>58386888.66019237</v>
+        <v>44527743.469199061</v>
       </c>
       <c r="G126" s="113">
         <f t="shared" si="67"/>
-        <v>59546624.257772923</v>
+        <v>46520005.504200816</v>
       </c>
       <c r="H126" s="120">
         <f t="shared" si="67"/>
-        <v>60416425.955958366</v>
+        <v>47354694.598175764</v>
       </c>
       <c r="I126" s="182">
         <f>D110-D125</f>
-        <v>42312953.277726091</v>
+        <v>33784367.397415504</v>
       </c>
       <c r="M126" s="1">
         <v>-10000</v>
@@ -11960,23 +11964,23 @@
       <c r="C127" s="121"/>
       <c r="D127" s="132">
         <f>D126/D$93</f>
-        <v>7.9912698412698546E-2</v>
+        <v>7.1746031746031835E-2</v>
       </c>
       <c r="E127" s="132">
         <f t="shared" ref="E127:H127" si="68">E126/E$93</f>
-        <v>7.9912698412698546E-2</v>
+        <v>7.531746031746045E-2</v>
       </c>
       <c r="F127" s="132">
         <f t="shared" si="68"/>
-        <v>7.9912698412698546E-2</v>
+        <v>8.0376984126984255E-2</v>
       </c>
       <c r="G127" s="132">
         <f t="shared" si="68"/>
-        <v>8.1500000000000142E-2</v>
+        <v>8.3973214285714332E-2</v>
       </c>
       <c r="H127" s="133">
         <f t="shared" si="68"/>
-        <v>8.2690476190476384E-2</v>
+        <v>8.5479910714285845E-2</v>
       </c>
       <c r="M127" s="1">
         <v>3000</v>
@@ -12005,23 +12009,23 @@
       <c r="C130" s="116"/>
       <c r="D130" s="117">
         <f>D126</f>
-        <v>58386888.66019237</v>
+        <v>39746314.585194707</v>
       </c>
       <c r="E130" s="117">
         <f t="shared" ref="E130:H130" si="69">E126</f>
-        <v>58386888.66019237</v>
+        <v>41724836.882024109</v>
       </c>
       <c r="F130" s="117">
         <f t="shared" si="69"/>
-        <v>58386888.66019237</v>
+        <v>44527743.469199061</v>
       </c>
       <c r="G130" s="117">
         <f t="shared" si="69"/>
-        <v>59546624.257772923</v>
+        <v>46520005.504200816</v>
       </c>
       <c r="H130" s="118">
         <f t="shared" si="69"/>
-        <v>60416425.955958366</v>
+        <v>47354694.598175764</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
@@ -12063,23 +12067,23 @@
       <c r="C132" s="119"/>
       <c r="D132" s="125">
         <f>_IRVM_Taux_Select1</f>
-        <v>8.2500000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E132" s="125">
         <f>_IRVM_Taux_Select2</f>
-        <v>8.2500000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F132" s="125">
         <f>_IRVM_Taux_Select3</f>
-        <v>8.2500000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="G132" s="125">
         <f>_IRVM_Taux_Select4</f>
-        <v>8.2500000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H132" s="126">
         <f>_IRVM_Taux_Select5</f>
-        <v>8.2500000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="K132" s="213">
         <f>NPV(M125,M126,M127,M128,M129)</f>
@@ -12096,34 +12100,34 @@
       <c r="C133" s="121"/>
       <c r="D133" s="110">
         <f>D130*D131*D132</f>
-        <v>2408459.1572329355</v>
+        <v>1987315.7292597354</v>
       </c>
       <c r="E133" s="110">
         <f t="shared" ref="E133:H133" si="70">E130*E131*E132</f>
-        <v>2408459.1572329355</v>
+        <v>2086241.8441012055</v>
       </c>
       <c r="F133" s="110">
         <f t="shared" si="70"/>
-        <v>2408459.1572329355</v>
+        <v>2226387.1734599532</v>
       </c>
       <c r="G133" s="110">
         <f t="shared" si="70"/>
-        <v>2456298.2506331331</v>
+        <v>2326000.2752100411</v>
       </c>
       <c r="H133" s="111">
         <f t="shared" si="70"/>
-        <v>2492177.5706832828</v>
+        <v>2367734.7299087881</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J134" s="212"/>
       <c r="L134" s="1">
         <f>(D141/1.08^0)+(E141/1.08^1)+(F141/1.08^2)+(G141/1.08^3)+(H141/1.08^4)</f>
-        <v>69312848.187871113</v>
+        <v>47545650.352557965</v>
       </c>
       <c r="M134" s="1">
         <f>L134/1.08</f>
-        <v>64178563.136917695</v>
+        <v>44023750.326442555</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
@@ -12188,31 +12192,31 @@
       <c r="C140" s="116"/>
       <c r="D140" s="117">
         <f>D$85</f>
-        <v>1165534.2755684424</v>
+        <v>0</v>
       </c>
       <c r="E140" s="117">
         <f t="shared" ref="E140:H140" si="71">E$85</f>
-        <v>1165534.2755684424</v>
+        <v>0</v>
       </c>
       <c r="F140" s="117">
         <f t="shared" si="71"/>
-        <v>1165534.2755684424</v>
+        <v>0</v>
       </c>
       <c r="G140" s="117">
         <f t="shared" si="71"/>
-        <v>1165534.2755684424</v>
+        <v>0</v>
       </c>
       <c r="H140" s="117">
         <f t="shared" si="71"/>
-        <v>1165534.2755684424</v>
+        <v>0</v>
       </c>
       <c r="I140" s="162">
         <f>NPV(_TauxDActualisation_Select,D140:H140)</f>
-        <v>4715617.5282840645</v>
+        <v>0</v>
       </c>
       <c r="K140" s="182">
         <f>(D140/(1.08))+(D140/(1.08*2))+(D140/(1.08*3))+(D140/(1.08*4))+(D140/(1.08*5))</f>
-        <v>2464169.6875443924</v>
+        <v>0</v>
       </c>
       <c r="M140" s="1">
         <v>1</v>
@@ -12240,27 +12244,27 @@
       <c r="C141" s="119"/>
       <c r="D141" s="113">
         <f>D125</f>
-        <v>16073935.382466281</v>
+        <v>5961947.1877792059</v>
       </c>
       <c r="E141" s="113">
         <f>E125</f>
-        <v>16073935.382466281</v>
+        <v>9299054.7950981148</v>
       </c>
       <c r="F141" s="113">
         <f>F125</f>
-        <v>16073935.382466281</v>
+        <v>13358323.040759718</v>
       </c>
       <c r="G141" s="113">
         <f>G125</f>
-        <v>16073935.382466281</v>
+        <v>13956001.651260244</v>
       </c>
       <c r="H141" s="113">
         <f>H125</f>
-        <v>16073935.382466281</v>
+        <v>14206408.37945273</v>
       </c>
       <c r="I141" s="163">
         <f t="shared" ref="I141:I145" si="72">NPV(_TauxDActualisation_Select,D141:H141)</f>
-        <v>65033292.479619041</v>
+        <v>44691553.905031733</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
@@ -12273,27 +12277,27 @@
       <c r="C142" s="119"/>
       <c r="D142" s="113">
         <f>D$133</f>
-        <v>2408459.1572329355</v>
+        <v>1987315.7292597354</v>
       </c>
       <c r="E142" s="113">
         <f>E$133</f>
-        <v>2408459.1572329355</v>
+        <v>2086241.8441012055</v>
       </c>
       <c r="F142" s="113">
         <f t="shared" ref="F142:H142" si="73">F$133</f>
-        <v>2408459.1572329355</v>
+        <v>2226387.1734599532</v>
       </c>
       <c r="G142" s="113">
         <f t="shared" si="73"/>
-        <v>2456298.2506331331</v>
+        <v>2326000.2752100411</v>
       </c>
       <c r="H142" s="113">
         <f t="shared" si="73"/>
-        <v>2492177.5706832828</v>
+        <v>2367734.7299087881</v>
       </c>
       <c r="I142" s="163">
         <f t="shared" si="72"/>
-        <v>9838485.2633862365</v>
+        <v>8837089.0900124833</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
@@ -12306,27 +12310,27 @@
       <c r="C143" s="119"/>
       <c r="D143" s="113">
         <f>D$90</f>
-        <v>631476.03288260393</v>
+        <v>464293.23232262785</v>
       </c>
       <c r="E143" s="113">
         <f t="shared" ref="E143:H143" si="74">E$90</f>
-        <v>631476.03288260393</v>
+        <v>464293.23232262785</v>
       </c>
       <c r="F143" s="113">
         <f t="shared" si="74"/>
-        <v>631476.03288260393</v>
+        <v>464293.23232262785</v>
       </c>
       <c r="G143" s="113">
         <f t="shared" si="74"/>
-        <v>631476.03288260393</v>
+        <v>464293.23232262785</v>
       </c>
       <c r="H143" s="113">
         <f t="shared" si="74"/>
-        <v>631476.03288260393</v>
+        <v>464293.23232262785</v>
       </c>
       <c r="I143" s="163">
         <f t="shared" si="72"/>
-        <v>2554879.3474136055</v>
+        <v>1878476.97875418</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
@@ -12372,27 +12376,27 @@
       <c r="C145" s="121"/>
       <c r="D145" s="122">
         <f>SUM(D140:D144)</f>
-        <v>20279404.848150264</v>
+        <v>8413556.1493615694</v>
       </c>
       <c r="E145" s="122">
         <f>SUM(E140:E144)</f>
-        <v>20279404.848150264</v>
+        <v>11849589.871521948</v>
       </c>
       <c r="F145" s="122">
         <f>SUM(F140:F144)</f>
-        <v>20279404.848150264</v>
+        <v>16049003.446542298</v>
       </c>
       <c r="G145" s="122">
         <f>SUM(G140:G144)</f>
-        <v>20327243.94155046</v>
+        <v>16746295.158792913</v>
       </c>
       <c r="H145" s="122">
         <f>SUM(H140:H144)</f>
-        <v>20363123.26160061</v>
+        <v>17038436.341684148</v>
       </c>
       <c r="I145" s="165">
         <f t="shared" si="72"/>
-        <v>82142274.618702963</v>
+        <v>55407119.973798394</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
@@ -12413,27 +12417,27 @@
       <c r="C147" s="116"/>
       <c r="D147" s="117">
         <f t="shared" ref="D147:H148" si="76">D140*D$136</f>
-        <v>1165534.2755684424</v>
+        <v>0</v>
       </c>
       <c r="E147" s="117">
         <f t="shared" si="76"/>
-        <v>1084217.9307613417</v>
+        <v>0</v>
       </c>
       <c r="F147" s="117">
         <f t="shared" si="76"/>
-        <v>1008574.8193128761</v>
+        <v>0</v>
       </c>
       <c r="G147" s="117">
         <f t="shared" si="76"/>
-        <v>938209.13424453605</v>
+        <v>0</v>
       </c>
       <c r="H147" s="117">
         <f t="shared" si="76"/>
-        <v>872752.68301817297</v>
+        <v>0</v>
       </c>
       <c r="I147" s="162">
         <f>SUM(D147:H147)</f>
-        <v>5069288.8429053696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
@@ -12446,27 +12450,27 @@
       <c r="C148" s="119"/>
       <c r="D148" s="113">
         <f t="shared" si="76"/>
-        <v>16073935.382466281</v>
+        <v>5961947.1877792059</v>
       </c>
       <c r="E148" s="113">
         <f t="shared" si="76"/>
-        <v>14952498.030201191</v>
+        <v>8650283.5303238276</v>
       </c>
       <c r="F148" s="113">
         <f t="shared" si="76"/>
-        <v>13909300.493210411</v>
+        <v>11559392.571776934</v>
       </c>
       <c r="G148" s="113">
         <f t="shared" si="76"/>
-        <v>12938884.179730617</v>
+        <v>11234031.037275406</v>
       </c>
       <c r="H148" s="113">
         <f t="shared" si="76"/>
-        <v>12036171.329981968</v>
+        <v>10637766.120753735</v>
       </c>
       <c r="I148" s="163">
         <f t="shared" ref="I148:I152" si="77">SUM(D148:H148)</f>
-        <v>69910789.415590465</v>
+        <v>48043420.447909109</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
@@ -12479,27 +12483,27 @@
       <c r="C149" s="119"/>
       <c r="D149" s="113">
         <f t="shared" ref="D149:H149" si="78">D142*D$136</f>
-        <v>2408459.1572329355</v>
+        <v>1987315.7292597354</v>
       </c>
       <c r="E149" s="113">
         <f>E142*E$136</f>
-        <v>2240427.1230073818</v>
+        <v>1940690.0875360051</v>
       </c>
       <c r="F149" s="113">
         <f t="shared" si="78"/>
-        <v>2084118.2539603554</v>
+        <v>1926565.4286294891</v>
       </c>
       <c r="G149" s="113">
         <f t="shared" si="78"/>
-        <v>1977223.2387150885</v>
+        <v>1872338.5062125681</v>
       </c>
       <c r="H149" s="113">
         <f t="shared" si="78"/>
-        <v>1866143.8852244411</v>
+        <v>1772961.0201256224</v>
       </c>
       <c r="I149" s="163">
         <f t="shared" si="77"/>
-        <v>10576371.658140203</v>
+        <v>9499870.7717634197</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
@@ -12512,27 +12516,27 @@
       <c r="C150" s="119"/>
       <c r="D150" s="113">
         <f t="shared" ref="D150:H150" si="79">D143*D$136</f>
-        <v>631476.03288260393</v>
+        <v>464293.23232262785</v>
       </c>
       <c r="E150" s="113">
         <f t="shared" si="79"/>
-        <v>587419.56547218969</v>
+        <v>431900.6812303515</v>
       </c>
       <c r="F150" s="113">
         <f t="shared" si="79"/>
-        <v>546436.80509040912</v>
+        <v>401768.07556311769</v>
       </c>
       <c r="G150" s="113">
         <f t="shared" si="79"/>
-        <v>508313.30706084566</v>
+        <v>373737.74470987695</v>
       </c>
       <c r="H150" s="113">
         <f t="shared" si="79"/>
-        <v>472849.58796357736</v>
+        <v>347663.01833476924</v>
       </c>
       <c r="I150" s="163">
         <f t="shared" si="77"/>
-        <v>2746495.2984696259</v>
+        <v>2019362.7521607433</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
@@ -12578,49 +12582,49 @@
       <c r="C152" s="121"/>
       <c r="D152" s="122">
         <f>SUM(D147:D151)</f>
-        <v>20279404.848150264</v>
+        <v>8413556.1493615694</v>
       </c>
       <c r="E152" s="122">
         <f t="shared" ref="E152" si="81">SUM(E147:E151)</f>
-        <v>18864562.649442103</v>
+        <v>11022874.299090184</v>
       </c>
       <c r="F152" s="122">
         <f t="shared" ref="F152" si="82">SUM(F147:F151)</f>
-        <v>17548430.371574052</v>
+        <v>13887726.075969541</v>
       </c>
       <c r="G152" s="122">
         <f t="shared" ref="G152" si="83">SUM(G147:G151)</f>
-        <v>16362629.859751085</v>
+        <v>13480107.288197851</v>
       </c>
       <c r="H152" s="122">
         <f t="shared" ref="H152" si="84">SUM(H147:H151)</f>
-        <v>15247917.486188158</v>
+        <v>12758390.159214126</v>
       </c>
       <c r="I152" s="165">
         <f t="shared" si="77"/>
-        <v>88302945.215105668</v>
+        <v>59562653.971833274</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="M153" s="182">
         <f>SUM(D140:D144)</f>
-        <v>20279404.848150264</v>
+        <v>8413556.1493615694</v>
       </c>
       <c r="N153" s="182">
         <f t="shared" ref="N153:Q153" si="85">SUM(E140:E144)</f>
-        <v>20279404.848150264</v>
+        <v>11849589.871521948</v>
       </c>
       <c r="O153" s="182">
         <f t="shared" si="85"/>
-        <v>20279404.848150264</v>
+        <v>16049003.446542298</v>
       </c>
       <c r="P153" s="182">
         <f t="shared" si="85"/>
-        <v>20327243.94155046</v>
+        <v>16746295.158792913</v>
       </c>
       <c r="Q153" s="182">
         <f t="shared" si="85"/>
-        <v>20363123.26160061</v>
+        <v>17038436.341684148</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
@@ -12643,47 +12647,47 @@
       <c r="C156" s="116"/>
       <c r="D156" s="166">
         <f t="shared" ref="D156:I161" si="86">D140/D$171</f>
-        <v>1.7268041237113407E-2</v>
+        <v>0</v>
       </c>
       <c r="E156" s="166">
         <f t="shared" si="86"/>
-        <v>1.7268041237113407E-2</v>
+        <v>0</v>
       </c>
       <c r="F156" s="166">
         <f t="shared" si="86"/>
-        <v>1.7268041237113407E-2</v>
+        <v>0</v>
       </c>
       <c r="G156" s="166">
         <f t="shared" si="86"/>
-        <v>1.7268041237113407E-2</v>
+        <v>0</v>
       </c>
       <c r="H156" s="166">
         <f t="shared" si="86"/>
-        <v>1.7268041237113407E-2</v>
+        <v>0</v>
       </c>
       <c r="I156" s="168">
         <f t="shared" si="86"/>
-        <v>4.7573306168077874E-2</v>
+        <v>0</v>
       </c>
       <c r="M156" s="182">
         <f>M153/((1+_TauxDActualisation_Select)^D1)</f>
-        <v>18864562.649442106</v>
+        <v>7826563.8598712273</v>
       </c>
       <c r="N156" s="182">
         <f>N153/((1+_TauxDActualisation_Select)^E1)</f>
-        <v>17548430.371574055</v>
+        <v>10253836.557293195</v>
       </c>
       <c r="O156" s="182">
         <f>O153/((1+_TauxDActualisation_Select)^F1)</f>
-        <v>16324121.275882842</v>
+        <v>12918814.954390271</v>
       </c>
       <c r="P156" s="182">
         <f>P153/((1+_TauxDActualisation_Select)^G1)</f>
-        <v>15221051.03232659</v>
+        <v>12539634.686695674</v>
       </c>
       <c r="Q156" s="182">
         <f>Q153/((1+_TauxDActualisation_Select)^H1)</f>
-        <v>14184109.289477358</v>
+        <v>11868269.915548027</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
@@ -12696,31 +12700,31 @@
       <c r="C157" s="119"/>
       <c r="D157" s="167">
         <f t="shared" si="86"/>
-        <v>0.23814432989690729</v>
+        <v>0.11649484536082488</v>
       </c>
       <c r="E157" s="167">
         <f t="shared" si="86"/>
-        <v>0.23814432989690729</v>
+        <v>0.1817010309278356</v>
       </c>
       <c r="F157" s="167">
         <f t="shared" si="86"/>
-        <v>0.23814432989690729</v>
+        <v>0.26101804123711381</v>
       </c>
       <c r="G157" s="167">
         <f t="shared" si="86"/>
-        <v>0.23814432989690729</v>
+        <v>0.27269652061855676</v>
       </c>
       <c r="H157" s="167">
         <f t="shared" si="86"/>
-        <v>0.23814432989690729</v>
+        <v>0.27758940077319627</v>
       </c>
       <c r="I157" s="169">
         <f>I141/I$171</f>
-        <v>0.6560855955119993</v>
+        <v>0.59463541784154361</v>
       </c>
       <c r="M157" s="182">
         <f>SUM(M156:Q156)</f>
-        <v>82142274.618702963</v>
+        <v>55407119.973798394</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
@@ -12733,35 +12737,35 @@
       <c r="C158" s="119"/>
       <c r="D158" s="167">
         <f t="shared" si="86"/>
-        <v>3.5682667525773266E-2</v>
+        <v>3.8831615120274963E-2</v>
       </c>
       <c r="E158" s="167">
         <f t="shared" si="86"/>
-        <v>3.5682667525773266E-2</v>
+        <v>4.0764604810996634E-2</v>
       </c>
       <c r="F158" s="167">
         <f t="shared" si="86"/>
-        <v>3.5682667525773266E-2</v>
+        <v>4.3503006872852301E-2</v>
       </c>
       <c r="G158" s="167">
         <f t="shared" si="86"/>
-        <v>3.6391430412371209E-2</v>
+        <v>4.5449420103092802E-2</v>
       </c>
       <c r="H158" s="167">
         <f t="shared" si="86"/>
-        <v>3.6923002577319688E-2</v>
+        <v>4.6264900128866047E-2</v>
       </c>
       <c r="I158" s="169">
         <f t="shared" si="86"/>
-        <v>9.9255138665902604E-2</v>
+        <v>0.11758029659718068</v>
       </c>
       <c r="K158" s="182">
         <f>C172+M157</f>
-        <v>-91818065.018378004</v>
+        <v>-76494366.481493607</v>
       </c>
       <c r="M158" s="215">
         <f>K158/I171</f>
-        <v>-0.92630263007552538</v>
+        <v>-1.0177820102631499</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
@@ -12774,27 +12778,27 @@
       <c r="C159" s="119"/>
       <c r="D159" s="167">
         <f t="shared" si="86"/>
-        <v>9.355670103092786E-3</v>
+        <v>9.0721649484536079E-3</v>
       </c>
       <c r="E159" s="167">
         <f t="shared" si="86"/>
-        <v>9.355670103092786E-3</v>
+        <v>9.0721649484536079E-3</v>
       </c>
       <c r="F159" s="167">
         <f t="shared" si="86"/>
-        <v>9.355670103092786E-3</v>
+        <v>9.0721649484536079E-3</v>
       </c>
       <c r="G159" s="167">
         <f t="shared" si="86"/>
-        <v>9.355670103092786E-3</v>
+        <v>9.0721649484536079E-3</v>
       </c>
       <c r="H159" s="167">
         <f t="shared" si="86"/>
-        <v>9.355670103092786E-3</v>
+        <v>9.0721649484536079E-3</v>
       </c>
       <c r="I159" s="169">
         <f t="shared" si="86"/>
-        <v>2.577479125225712E-2</v>
+        <v>2.4993736971885654E-2</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
@@ -12840,35 +12844,35 @@
       <c r="C161" s="121"/>
       <c r="D161" s="170">
         <f t="shared" si="86"/>
-        <v>0.30045070876288676</v>
+        <v>0.16439862542955347</v>
       </c>
       <c r="E161" s="170">
         <f t="shared" si="86"/>
-        <v>0.30045070876288676</v>
+        <v>0.23153780068728583</v>
       </c>
       <c r="F161" s="170">
         <f t="shared" si="86"/>
-        <v>0.30045070876288676</v>
+        <v>0.3135932130584197</v>
       </c>
       <c r="G161" s="170">
         <f t="shared" si="86"/>
-        <v>0.30115947164948464</v>
+        <v>0.32721810567010318</v>
       </c>
       <c r="H161" s="170">
         <f t="shared" si="86"/>
-        <v>0.30169104381443318</v>
+        <v>0.332926465850516</v>
       </c>
       <c r="I161" s="171">
         <f t="shared" si="86"/>
-        <v>0.82868883159823703</v>
+        <v>0.73720945141061001</v>
       </c>
       <c r="J161" s="216">
         <f>I171-I179</f>
-        <v>82142274.618702918</v>
+        <v>55407119.973798424</v>
       </c>
       <c r="K161" s="219">
         <f>J161/I171</f>
-        <v>0.82868883159823659</v>
+        <v>0.73720945141061034</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
@@ -12889,47 +12893,47 @@
       <c r="C163" s="116"/>
       <c r="D163" s="166">
         <f t="shared" ref="D163:I168" si="87">D147/D$172</f>
-        <v>1.7268041237113407E-2</v>
+        <v>0</v>
       </c>
       <c r="E163" s="166">
         <f t="shared" si="87"/>
-        <v>1.7268041237113407E-2</v>
+        <v>0</v>
       </c>
       <c r="F163" s="166">
         <f t="shared" si="87"/>
-        <v>1.7268041237113407E-2</v>
+        <v>0</v>
       </c>
       <c r="G163" s="166">
         <f t="shared" si="87"/>
-        <v>1.7268041237113407E-2</v>
+        <v>0</v>
       </c>
       <c r="H163" s="166">
         <f t="shared" si="87"/>
-        <v>1.7268041237113403E-2</v>
+        <v>0</v>
       </c>
       <c r="I163" s="168">
         <f t="shared" si="87"/>
-        <v>4.2383782262240315E-2</v>
+        <v>0</v>
       </c>
       <c r="L163" s="1">
         <f>D171*M140</f>
-        <v>67496611.779187396</v>
+        <v>51177776.744653299</v>
       </c>
       <c r="M163" s="1">
         <f t="shared" ref="M163:P163" si="88">E171*N140</f>
-        <v>62771848.954644285</v>
+        <v>47595332.37252757</v>
       </c>
       <c r="N163" s="1">
         <f t="shared" si="88"/>
-        <v>58384569.188997097</v>
+        <v>44268776.884125106</v>
       </c>
       <c r="O163" s="1">
         <f t="shared" si="88"/>
-        <v>54334772.482245855</v>
+        <v>41198110.279445909</v>
       </c>
       <c r="P163" s="1">
         <f t="shared" si="88"/>
-        <v>50554962.22261136</v>
+        <v>38332154.781745322</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
@@ -12942,27 +12946,27 @@
       <c r="C164" s="119"/>
       <c r="D164" s="167">
         <f t="shared" si="87"/>
-        <v>0.23814432989690729</v>
+        <v>0.11649484536082488</v>
       </c>
       <c r="E164" s="167">
         <f t="shared" si="87"/>
-        <v>0.23814432989690729</v>
+        <v>0.1817010309278356</v>
       </c>
       <c r="F164" s="167">
         <f t="shared" si="87"/>
-        <v>0.23814432989690726</v>
+        <v>0.26101804123711381</v>
       </c>
       <c r="G164" s="167">
         <f t="shared" si="87"/>
-        <v>0.23814432989690729</v>
+        <v>0.27269652061855676</v>
       </c>
       <c r="H164" s="167">
         <f t="shared" si="87"/>
-        <v>0.23814432989690726</v>
+        <v>0.27758940077319627</v>
       </c>
       <c r="I164" s="169">
         <f t="shared" si="87"/>
-        <v>0.5845166389598514</v>
+        <v>0.5297697407485138</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
@@ -12975,27 +12979,27 @@
       <c r="C165" s="119"/>
       <c r="D165" s="167">
         <f t="shared" si="87"/>
-        <v>3.5682667525773266E-2</v>
+        <v>3.8831615120274963E-2</v>
       </c>
       <c r="E165" s="167">
         <f t="shared" si="87"/>
-        <v>3.5682667525773266E-2</v>
+        <v>4.0764604810996634E-2</v>
       </c>
       <c r="F165" s="167">
         <f t="shared" si="87"/>
-        <v>3.5682667525773266E-2</v>
+        <v>4.3503006872852301E-2</v>
       </c>
       <c r="G165" s="167">
         <f t="shared" si="87"/>
-        <v>3.6391430412371209E-2</v>
+        <v>4.5449420103092809E-2</v>
       </c>
       <c r="H165" s="167">
         <f t="shared" si="87"/>
-        <v>3.6923002577319688E-2</v>
+        <v>4.6264900128866047E-2</v>
       </c>
       <c r="I165" s="169">
         <f t="shared" si="87"/>
-        <v>8.8427913140224246E-2</v>
+        <v>0.10475407514663165</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
@@ -13008,31 +13012,31 @@
       <c r="C166" s="119"/>
       <c r="D166" s="167">
         <f t="shared" si="87"/>
-        <v>9.355670103092786E-3</v>
+        <v>9.0721649484536079E-3</v>
       </c>
       <c r="E166" s="167">
         <f t="shared" si="87"/>
-        <v>9.355670103092786E-3</v>
+        <v>9.0721649484536079E-3</v>
       </c>
       <c r="F166" s="167">
         <f t="shared" si="87"/>
-        <v>9.3556701030927877E-3</v>
+        <v>9.0721649484536079E-3</v>
       </c>
       <c r="G166" s="167">
         <f t="shared" si="87"/>
-        <v>9.355670103092786E-3</v>
+        <v>9.0721649484536079E-3</v>
       </c>
       <c r="H166" s="167">
         <f t="shared" si="87"/>
-        <v>9.355670103092786E-3</v>
+        <v>9.0721649484536079E-3</v>
       </c>
       <c r="I166" s="169">
         <f t="shared" si="87"/>
-        <v>2.2963153673422738E-2</v>
+        <v>2.2267300531803848E-2</v>
       </c>
       <c r="K166" s="167">
         <f>((L171-I179)/I171)</f>
-        <v>-0.17131116840176339</v>
+        <v>-0.26279054858938966</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
@@ -13078,27 +13082,27 @@
       <c r="C168" s="121"/>
       <c r="D168" s="170">
         <f t="shared" si="87"/>
-        <v>0.30045070876288676</v>
+        <v>0.16439862542955347</v>
       </c>
       <c r="E168" s="170">
         <f t="shared" si="87"/>
-        <v>0.30045070876288671</v>
+        <v>0.23153780068728583</v>
       </c>
       <c r="F168" s="170">
         <f t="shared" si="87"/>
-        <v>0.30045070876288671</v>
+        <v>0.3135932130584197</v>
       </c>
       <c r="G168" s="170">
         <f t="shared" si="87"/>
-        <v>0.30115947164948464</v>
+        <v>0.32721810567010318</v>
       </c>
       <c r="H168" s="170">
         <f t="shared" si="87"/>
-        <v>0.30169104381443312</v>
+        <v>0.33292646585051594</v>
       </c>
       <c r="I168" s="171">
         <f t="shared" si="87"/>
-        <v>0.73829148803573874</v>
+        <v>0.65679111642694932</v>
       </c>
       <c r="N168" s="1">
         <f>2^4</f>
@@ -13124,7 +13128,7 @@
       </c>
       <c r="K170" s="214">
         <f>(I171-I179)/I171</f>
-        <v>0.82868883159823659</v>
+        <v>0.73720945141061034</v>
       </c>
       <c r="O170" s="1">
         <f>(4/2)^4</f>
@@ -13140,31 +13144,31 @@
       </c>
       <c r="C171" s="177">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-173960339.63708097</v>
+        <v>-131901486.455292</v>
       </c>
       <c r="D171" s="117">
         <f>D$93-D$94-D$95-D$97-D$98-D$99-D$100-D$101-D$102-D$104</f>
-        <v>67496611.779187396</v>
+        <v>51177776.744653299</v>
       </c>
       <c r="E171" s="117">
         <f t="shared" ref="E171:G171" si="89">E$93-E$94-E$95-E$97-E$98-E$99-E$100-E$101-E$102-E$104</f>
-        <v>67496611.779187396</v>
+        <v>51177776.744653299</v>
       </c>
       <c r="F171" s="117">
         <f t="shared" si="89"/>
-        <v>67496611.779187396</v>
+        <v>51177776.744653299</v>
       </c>
       <c r="G171" s="117">
         <f t="shared" si="89"/>
-        <v>67496611.779187396</v>
+        <v>51177776.744653299</v>
       </c>
       <c r="H171" s="117">
         <f>H$93-H$94-H$95-H$97-H$98-H$99-H$100-H$101-H$102-H$104</f>
-        <v>67496611.779187396</v>
+        <v>51177776.744653299</v>
       </c>
       <c r="I171" s="162">
         <f>NPV(_TauxDActualisation_Select,D171:H171)+C171</f>
-        <v>99123182.89638418</v>
+        <v>75157907.793748304</v>
       </c>
       <c r="J171" s="182"/>
       <c r="K171" s="1">
@@ -13185,31 +13189,31 @@
       </c>
       <c r="C172" s="178">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-173960339.63708097</v>
+        <v>-131901486.455292</v>
       </c>
       <c r="D172" s="135">
         <f>D171*D$136</f>
-        <v>67496611.779187396</v>
+        <v>51177776.744653299</v>
       </c>
       <c r="E172" s="135">
         <f>E171*E$136</f>
-        <v>62787545.841104552</v>
+        <v>47607234.181072839</v>
       </c>
       <c r="F172" s="135">
         <f>F171*F$136</f>
-        <v>58407019.387074009</v>
+        <v>44285799.238207296</v>
       </c>
       <c r="G172" s="135">
         <f>G171*G$136</f>
-        <v>54332111.057743266</v>
+        <v>41196092.314611435</v>
       </c>
       <c r="H172" s="135">
         <f>H171*H$136</f>
-        <v>50541498.658365831</v>
+        <v>38321946.339173429</v>
       </c>
       <c r="I172" s="164">
         <f>SUM(C172:H172)</f>
-        <v>119604447.08639409</v>
+        <v>90687362.362426296</v>
       </c>
       <c r="K172" s="1">
         <f>K171/176945019</f>
@@ -13219,31 +13223,31 @@
     <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C173" s="218">
         <f>C171</f>
-        <v>-173960339.63708097</v>
+        <v>-131901486.455292</v>
       </c>
       <c r="D173" s="6">
         <f>D171/(1+K173)</f>
-        <v>62787545.84110456</v>
+        <v>47607234.181072839</v>
       </c>
       <c r="E173" s="6">
         <f>E171/(1+K173)^2</f>
-        <v>58407019.387074009</v>
+        <v>44285799.238207296</v>
       </c>
       <c r="F173" s="6">
         <f>F171/(1+K173)^3</f>
-        <v>54332111.057743266</v>
+        <v>41196092.314611435</v>
       </c>
       <c r="G173" s="6">
         <f>G171/(1+K173)^4</f>
-        <v>50541498.658365831</v>
+        <v>38321946.339173429</v>
       </c>
       <c r="H173" s="6">
         <f>H171/(1+K173)^5</f>
-        <v>47015347.589177512</v>
+        <v>35648322.175975285</v>
       </c>
       <c r="I173" s="6">
         <f>SUM(C173:H173)</f>
-        <v>99123182.896384209</v>
+        <v>75157907.793748289</v>
       </c>
       <c r="K173" s="1">
         <v>7.4999999999999997E-2</v>
@@ -13258,7 +13262,7 @@
       </c>
       <c r="L174" s="216">
         <f>I171-I179</f>
-        <v>82142274.618702918</v>
+        <v>55407119.973798424</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
@@ -13270,31 +13274,31 @@
       </c>
       <c r="C175" s="127">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-173960339.63708097</v>
+        <v>-131901486.455292</v>
       </c>
       <c r="D175" s="117">
         <f>D$171-D141</f>
-        <v>51422676.396721117</v>
+        <v>45215829.556874096</v>
       </c>
       <c r="E175" s="117">
         <f t="shared" ref="E175:H175" si="90">E$171-E141</f>
-        <v>51422676.396721117</v>
+        <v>41878721.949555188</v>
       </c>
       <c r="F175" s="117">
         <f t="shared" si="90"/>
-        <v>51422676.396721117</v>
+        <v>37819453.70389358</v>
       </c>
       <c r="G175" s="117">
         <f t="shared" si="90"/>
-        <v>51422676.396721117</v>
+        <v>37221775.093393058</v>
       </c>
       <c r="H175" s="117">
         <f t="shared" si="90"/>
-        <v>51422676.396721117</v>
+        <v>36971368.365200572</v>
       </c>
       <c r="I175" s="162">
         <f>NPV(_TauxDActualisation_Select,D175:H175)+C175</f>
-        <v>34089890.416765183</v>
+        <v>30466353.888716534</v>
       </c>
       <c r="K175" s="1" t="s">
         <v>327</v>
@@ -13309,35 +13313,35 @@
       </c>
       <c r="C176" s="176">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-173960339.63708097</v>
+        <v>-131901486.455292</v>
       </c>
       <c r="D176" s="135">
         <f>D$172-D148</f>
-        <v>51422676.396721117</v>
+        <v>45215829.556874096</v>
       </c>
       <c r="E176" s="135">
         <f t="shared" ref="E176:H176" si="91">E$172-E148</f>
-        <v>47835047.810903363</v>
+        <v>38956950.650749013</v>
       </c>
       <c r="F176" s="135">
         <f t="shared" si="91"/>
-        <v>44497718.893863596</v>
+        <v>32726406.666430362</v>
       </c>
       <c r="G176" s="135">
         <f t="shared" si="91"/>
-        <v>41393226.87801265</v>
+        <v>29962061.277336031</v>
       </c>
       <c r="H176" s="135">
         <f t="shared" si="91"/>
-        <v>38505327.328383863</v>
+        <v>27684180.218419693</v>
       </c>
       <c r="I176" s="164">
         <f>SUM(C176:H176)</f>
-        <v>49693657.670803636</v>
+        <v>42643941.914517194</v>
       </c>
       <c r="K176" s="216">
         <f>I171-I179</f>
-        <v>82142274.618702918</v>
+        <v>55407119.973798424</v>
       </c>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.2">
@@ -13346,7 +13350,7 @@
       </c>
       <c r="K177" s="215">
         <f>K176/I171</f>
-        <v>0.82868883159823659</v>
+        <v>0.73720945141061034</v>
       </c>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.2">
@@ -13358,23 +13362,23 @@
       </c>
       <c r="M178" s="1">
         <f>D171/((1+_TauxDActualisation_Select)^D1)</f>
-        <v>62787545.84110456</v>
+        <v>47607234.181072839</v>
       </c>
       <c r="N178" s="1">
         <f>E171/((1+_TauxDActualisation_Select)^E1)</f>
-        <v>58407019.387074009</v>
+        <v>44285799.238207296</v>
       </c>
       <c r="O178" s="1">
         <f>F171/((1+_TauxDActualisation_Select)^F1)</f>
-        <v>54332111.057743266</v>
+        <v>41196092.314611435</v>
       </c>
       <c r="P178" s="1">
         <f>G171/((1+_TauxDActualisation_Select)^G1)</f>
-        <v>50541498.658365831</v>
+        <v>38321946.339173429</v>
       </c>
       <c r="Q178" s="1">
         <f>H171/((1+_TauxDActualisation_Select)^H1)</f>
-        <v>47015347.589177512</v>
+        <v>35648322.175975285</v>
       </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.2">
@@ -13386,35 +13390,35 @@
       </c>
       <c r="C179" s="127">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-173960339.63708097</v>
+        <v>-131901486.455292</v>
       </c>
       <c r="D179" s="117">
         <f>D$171-D$145</f>
-        <v>47217206.931037128</v>
+        <v>42764220.595291734</v>
       </c>
       <c r="E179" s="117">
         <f>E$171-E$145</f>
-        <v>47217206.931037128</v>
+        <v>39328186.87313135</v>
       </c>
       <c r="F179" s="117">
         <f>F$171-F$145</f>
-        <v>47217206.931037128</v>
+        <v>35128773.298110999</v>
       </c>
       <c r="G179" s="117">
         <f>G$171-G$145</f>
-        <v>47169367.837636933</v>
+        <v>34431481.585860386</v>
       </c>
       <c r="H179" s="117">
         <f>H$171-H$145</f>
-        <v>47133488.517586783</v>
+        <v>34139340.402969152</v>
       </c>
       <c r="I179" s="162">
         <f>NPV(_TauxDActualisation_Select,D179:H179)+C179</f>
-        <v>16980908.277681261</v>
+        <v>19750787.81994988</v>
       </c>
       <c r="M179" s="1">
         <f>SUM(M178:Q178)</f>
-        <v>273083522.53346515</v>
+        <v>207059394.24904031</v>
       </c>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.2">
@@ -13426,31 +13430,31 @@
       </c>
       <c r="C180" s="176">
         <f>-(_CapitalSocial_Select+_DettesLT_Select+_DettesCT_Select+_DettesFournisseurs_Select)*_PIBPNB_Select</f>
-        <v>-173960339.63708097</v>
+        <v>-131901486.455292</v>
       </c>
       <c r="D180" s="135">
         <f>D$172-D$152</f>
-        <v>47217206.931037128</v>
+        <v>42764220.595291734</v>
       </c>
       <c r="E180" s="135">
         <f>E$172-E$152</f>
-        <v>43922983.191662446</v>
+        <v>36584359.881982654</v>
       </c>
       <c r="F180" s="135">
         <f>F$172-F$152</f>
-        <v>40858589.015499957</v>
+        <v>30398073.162237756</v>
       </c>
       <c r="G180" s="135">
         <f>G$172-G$152</f>
-        <v>37969481.197992183</v>
+        <v>27715985.026413582</v>
       </c>
       <c r="H180" s="135">
         <f>H$172-H$152</f>
-        <v>35293581.172177672</v>
+        <v>25563556.179959305</v>
       </c>
       <c r="I180" s="164">
         <f>SUM(C180:H180)</f>
-        <v>31301501.871288419</v>
+        <v>31124708.39059303</v>
       </c>
       <c r="K180" s="1">
         <f>_TauxDActualisation_Select</f>
@@ -13458,7 +13462,7 @@
       </c>
       <c r="M180" s="182">
         <f>C171+M179</f>
-        <v>99123182.89638418</v>
+        <v>75157907.793748304</v>
       </c>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.2">
@@ -13467,7 +13471,7 @@
       </c>
       <c r="K181" s="1">
         <f>C179+(D179/(1.08^D1))+(E179/(1.08)^E1)+(F179/(1.08)^F1)+(G179/(1.08)^G1)+(H179/(1.08)^H1)</f>
-        <v>14472135.892007384</v>
+        <v>17841776.543546576</v>
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
@@ -13476,7 +13480,7 @@
       </c>
       <c r="K182" s="1">
         <f>K181/1.08</f>
-        <v>13400125.825932762</v>
+        <v>16520163.466246828</v>
       </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.2">
@@ -13505,37 +13509,37 @@
       </c>
       <c r="H183" s="180">
         <f>MAX(0,IRR($C171:H171))</f>
-        <v>0.27104086031151997</v>
+        <v>0.27104086031152019</v>
       </c>
       <c r="K183" s="182">
         <f>SUM(C180:H180)</f>
-        <v>31301501.871288419</v>
+        <v>31124708.39059303</v>
       </c>
       <c r="M183" s="1">
         <f>D179/((1+_TauxDActualisation_Select)^D1)</f>
-        <v>43922983.191662446</v>
+        <v>39780670.321201615</v>
       </c>
       <c r="N183" s="1">
         <f>E179/((1+_TauxDActualisation_Select)^E1)</f>
-        <v>40858589.015499949</v>
+        <v>34031962.680914097</v>
       </c>
       <c r="O183" s="1">
         <f>F179/((1+_TauxDActualisation_Select)^F1)</f>
-        <v>38007989.781860419</v>
+        <v>28277277.360221166</v>
       </c>
       <c r="P183" s="1">
         <f>G179/((1+_TauxDActualisation_Select)^G1)</f>
-        <v>35320447.626039237</v>
+        <v>25782311.652477752</v>
       </c>
       <c r="Q183" s="1">
         <f>H179/((1+_TauxDActualisation_Select)^H1)</f>
-        <v>32831238.299700152</v>
+        <v>23780052.260427255</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="M184" s="1">
         <f>SUM(M183:Q183)</f>
-        <v>190941247.9147622</v>
+        <v>151652274.27524188</v>
       </c>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.2">
@@ -13544,7 +13548,7 @@
       </c>
       <c r="M185" s="182">
         <f>-C179+M184</f>
-        <v>364901587.55184317</v>
+        <v>283553760.7305339</v>
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.2">
@@ -13569,25 +13573,25 @@
       </c>
       <c r="G186" s="179">
         <f>MAX(0,IRR($C175:G175))</f>
-        <v>7.0557849917318727E-2</v>
+        <v>9.1439310908830285E-2</v>
       </c>
       <c r="H186" s="180">
         <f>MAX(0,IRR($C175:H175))</f>
-        <v>0.1461487970125348</v>
+        <v>0.16199443796693958</v>
       </c>
       <c r="M186" s="182">
         <f>M180-M185</f>
-        <v>-265778404.65545899</v>
+        <v>-208395852.93678558</v>
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="M187" s="215">
         <f>M186/M180</f>
-        <v>-2.681294091749288</v>
+        <v>-2.7727734719369095</v>
       </c>
       <c r="N187" s="216">
         <f>I171-I179</f>
-        <v>82142274.618702918</v>
+        <v>55407119.973798424</v>
       </c>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.2">
@@ -13596,7 +13600,7 @@
       </c>
       <c r="N188" s="1">
         <f>N187/I171</f>
-        <v>0.82868883159823659</v>
+        <v>0.73720945141061034</v>
       </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.2">
@@ -13621,11 +13625,11 @@
       </c>
       <c r="G189" s="179">
         <f>MAX(0,IRR($C179:G179))</f>
-        <v>3.3619909869568865E-2</v>
+        <v>6.0730135413856745E-2</v>
       </c>
       <c r="H189" s="180">
         <f>MAX(0,IRR($C179:H179))</f>
-        <v>0.11107013258300924</v>
+        <v>0.13238878944286037</v>
       </c>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.2">
@@ -13655,11 +13659,11 @@
       </c>
       <c r="G192" s="179">
         <f t="shared" si="92"/>
-        <v>0.65128256224366698</v>
+        <v>0.54808030222438331</v>
       </c>
       <c r="H192" s="180">
         <f t="shared" si="92"/>
-        <v>0.46078684651251794</v>
+        <v>0.40232466137854034</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
@@ -13689,11 +13693,11 @@
       </c>
       <c r="G195" s="179">
         <f t="shared" si="93"/>
-        <v>0.83384061672722209</v>
+        <v>0.6998539887350349</v>
       </c>
       <c r="H195" s="180">
         <f>IF(H$183&gt;0,(H$183-H189)/H$183,0)</f>
-        <v>0.59020889892634221</v>
+        <v>0.51155412770347752</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
@@ -13729,7 +13733,7 @@
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D201" s="6">
         <f>D179/(1+_TauxDActualisation_Select)^D1</f>
-        <v>43922983.191662446</v>
+        <v>39780670.321201615</v>
       </c>
       <c r="E201" s="6">
         <f>E198/(1+_TauxDActualisation_Select)^E1</f>
@@ -13749,7 +13753,7 @@
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H202" s="231">
+      <c r="H202" s="220">
         <f>SUM(C198,I198)</f>
         <v>-190971733.46830913</v>
       </c>
@@ -13757,45 +13761,45 @@
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D205" s="6">
         <f>C198+F205</f>
-        <v>-7381512.3495028913</v>
+        <v>-11523825.2199637</v>
       </c>
       <c r="F205" s="6">
         <f>SUM(D201:H201)</f>
-        <v>189881900.65049711</v>
+        <v>185739587.7800363</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G206" s="218">
         <f>D179/(1+_TauxDActualisation_Select)^D1</f>
-        <v>43922983.191662446</v>
+        <v>39780670.321201615</v>
       </c>
       <c r="H206" s="218">
         <f>E179/(1+_TauxDActualisation_Select)^E1</f>
-        <v>40858589.015499949</v>
+        <v>34031962.680914097</v>
       </c>
       <c r="I206" s="218">
         <f>F179/(1+_TauxDActualisation_Select)^F1</f>
-        <v>38007989.781860419</v>
+        <v>28277277.360221166</v>
       </c>
       <c r="J206" s="218">
         <f>G179/(1+_TauxDActualisation_Select)^G1</f>
-        <v>35320447.626039237</v>
+        <v>25782311.652477752</v>
       </c>
       <c r="K206" s="218">
         <f>H179/(1+_TauxDActualisation_Select)^H1</f>
-        <v>32831238.299700152</v>
+        <v>23780052.260427255</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K208" s="182">
         <f>SUM(G206:K206)</f>
-        <v>190941247.9147622</v>
+        <v>151652274.27524188</v>
       </c>
     </row>
     <row r="209" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K209" s="182">
         <f>C179+K208</f>
-        <v>16980908.277681231</v>
+        <v>19750787.81994988</v>
       </c>
     </row>
   </sheetData>

--- a/annexe/Modèle investissement.xlsx
+++ b/annexe/Modèle investissement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Accueil" sheetId="2" r:id="rId1"/>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="329">
   <si>
     <t>BEN</t>
   </si>
@@ -1153,12 +1153,6 @@
     <t>TAUX EFFECTIFS MARGINAUX D'IMPOSITION après IS/IMF</t>
   </si>
   <si>
-    <t>FLUX DE TRESORERIE sans IS/IMF</t>
-  </si>
-  <si>
-    <t>TAUX DE RENDEMENT INTERNE sans IS/IMF</t>
-  </si>
-  <si>
     <t>Investissement éligible</t>
   </si>
   <si>
@@ -1193,6 +1187,15 @@
   </si>
   <si>
     <t>tri</t>
+  </si>
+  <si>
+    <t>TAUX DE RENDEMENT INTERNE après IS/IMF</t>
+  </si>
+  <si>
+    <t>FLUX DE TRESORERIE après IS/IMF</t>
+  </si>
+  <si>
+    <t>taux de marge :</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1857,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2518,38 +2521,41 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="39" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2899,7 +2905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -2913,7 +2919,7 @@
         <v>240</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I1" s="34"/>
     </row>
@@ -2925,27 +2931,27 @@
       <c r="B3" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="225" t="s">
-        <v>317</v>
-      </c>
-      <c r="F3" s="226"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="223" t="s">
-        <v>325</v>
-      </c>
-      <c r="I3" s="224"/>
-      <c r="J3" s="223" t="s">
-        <v>326</v>
-      </c>
-      <c r="K3" s="224"/>
+      <c r="E3" s="223" t="s">
+        <v>315</v>
+      </c>
+      <c r="F3" s="224"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="221" t="s">
+        <v>323</v>
+      </c>
+      <c r="I3" s="222"/>
+      <c r="J3" s="221" t="s">
+        <v>324</v>
+      </c>
+      <c r="K3" s="222"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D4" s="190"/>
       <c r="E4" s="191" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F4" s="192" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G4" s="193" t="s">
         <v>100</v>
@@ -3015,19 +3021,19 @@
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F69&lt;&gt;"",Select!G69&lt;&gt;""),Select!E69,""))</f>
         <v/>
       </c>
-      <c r="H6" s="228">
+      <c r="H6" s="226">
         <f>Modèle!D164</f>
         <v>0.11649484536082488</v>
       </c>
-      <c r="I6" s="230">
+      <c r="I6" s="228">
         <f>Modèle!I164</f>
         <v>0.5297697407485138</v>
       </c>
-      <c r="J6" s="228">
+      <c r="J6" s="226">
         <f>Modèle!D192</f>
         <v>0</v>
       </c>
-      <c r="K6" s="230">
+      <c r="K6" s="228">
         <f>Modèle!H192</f>
         <v>0.40232466137854034</v>
       </c>
@@ -3056,10 +3062,10 @@
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F70&lt;&gt;"",Select!G70&lt;&gt;""),Select!E70,""))</f>
         <v/>
       </c>
-      <c r="H7" s="229"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="229"/>
-      <c r="K7" s="231"/>
+      <c r="H7" s="227"/>
+      <c r="I7" s="229"/>
+      <c r="J7" s="227"/>
+      <c r="K7" s="229"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D8" s="56" t="str">
@@ -3208,15 +3214,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="221" t="str">
+      <c r="A16" s="230" t="str">
         <f>VLOOKUP(_Bilan,_Tables,4,FALSE)</f>
         <v>Bilan à l'ouverture</v>
       </c>
-      <c r="B16" s="221"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="221"/>
-      <c r="E16" s="221"/>
-      <c r="F16" s="221"/>
+      <c r="B16" s="230"/>
+      <c r="C16" s="230"/>
+      <c r="D16" s="230"/>
+      <c r="E16" s="230"/>
+      <c r="F16" s="230"/>
       <c r="H16" s="73" t="str">
         <f>VLOOKUP(_PIBPNB,_Tables,4,FALSE)</f>
         <v>PIB ou PNB</v>
@@ -3226,18 +3232,18 @@
       <c r="K16" s="68"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="222" t="str">
+      <c r="A17" s="231" t="str">
         <f>VLOOKUP(_Actif,_Tables,4,FALSE)</f>
         <v>Actif</v>
       </c>
-      <c r="B17" s="222"/>
-      <c r="C17" s="222"/>
-      <c r="D17" s="222" t="str">
+      <c r="B17" s="231"/>
+      <c r="C17" s="231"/>
+      <c r="D17" s="231" t="str">
         <f>VLOOKUP(_Passif,_Tables,4,FALSE)</f>
         <v>Passif</v>
       </c>
-      <c r="E17" s="222"/>
-      <c r="F17" s="222"/>
+      <c r="E17" s="231"/>
+      <c r="F17" s="231"/>
       <c r="H17" s="56" t="str">
         <f>_PIBPNB_Liste</f>
         <v>PIB/tête</v>
@@ -3546,29 +3552,29 @@
       <c r="K29" s="70"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="221" t="str">
+      <c r="A31" s="230" t="str">
         <f>VLOOKUP(_CompteDeResultat,_Tables,4,FALSE)</f>
         <v>Compte de résultat</v>
       </c>
-      <c r="B31" s="221"/>
-      <c r="C31" s="221"/>
-      <c r="D31" s="221"/>
-      <c r="E31" s="221"/>
-      <c r="F31" s="221"/>
+      <c r="B31" s="230"/>
+      <c r="C31" s="230"/>
+      <c r="D31" s="230"/>
+      <c r="E31" s="230"/>
+      <c r="F31" s="230"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="222" t="str">
+      <c r="A32" s="231" t="str">
         <f>VLOOKUP(_Charges,_Tables,4,FALSE)</f>
         <v>Charges</v>
       </c>
-      <c r="B32" s="222"/>
-      <c r="C32" s="222"/>
-      <c r="D32" s="222" t="str">
+      <c r="B32" s="231"/>
+      <c r="C32" s="231"/>
+      <c r="D32" s="231" t="str">
         <f>VLOOKUP(_Produits,_Tables,4,FALSE)</f>
         <v>Produits</v>
       </c>
-      <c r="E32" s="222"/>
-      <c r="F32" s="222"/>
+      <c r="E32" s="231"/>
+      <c r="F32" s="231"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="59" t="str">
@@ -4084,6 +4090,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="E3:G3"/>
@@ -4091,12 +4103,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4141,7 +4147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T85"/>
   <sheetViews>
-    <sheetView topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
@@ -7148,7 +7154,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
@@ -9040,7 +9046,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9213,6 +9219,9 @@
       <c r="B21" s="13">
         <v>43</v>
       </c>
+      <c r="H21" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="str">
@@ -9222,7 +9231,7 @@
       <c r="B22" s="13">
         <v>55</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="215">
         <v>0.22500000000000001</v>
       </c>
     </row>
@@ -9469,11 +9478,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q209"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K209" sqref="K209"/>
+      <selection pane="bottomRight" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9523,7 +9532,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B4" s="79" t="s">
         <v>251</v>
@@ -13255,7 +13264,7 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="152" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="I174" s="6" t="s">
         <v>302</v>
@@ -13301,7 +13310,7 @@
         <v>30466353.888716534</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
@@ -13537,6 +13546,10 @@
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H184" s="232">
+        <f>MAX(0,IRR($C172:H172))</f>
+        <v>0.21699349403850565</v>
+      </c>
       <c r="M184" s="1">
         <f>SUM(M183:Q183)</f>
         <v>151652274.27524188</v>
@@ -13544,7 +13557,7 @@
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" s="152" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="M185" s="182">
         <f>-C179+M184</f>
@@ -13585,6 +13598,10 @@
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H187" s="232">
+        <f>MAX(0,IRR($C176:H176))</f>
+        <v>0.11180960570026599</v>
+      </c>
       <c r="M187" s="215">
         <f>M186/M180</f>
         <v>-2.7727734719369095</v>
@@ -13630,6 +13647,12 @@
       <c r="H189" s="180">
         <f>MAX(0,IRR($C179:H179))</f>
         <v>0.13238878944286037</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H190" s="232">
+        <f>MAX(0,IRR($C180:H180))</f>
+        <v>8.304380841722514E-2</v>
       </c>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.2">
@@ -13820,7 +13843,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13833,7 +13856,7 @@
         <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>89</v>
@@ -13884,7 +13907,7 @@
       </c>
       <c r="B2" s="186"/>
       <c r="C2" s="186" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D2" s="186" t="s">
         <v>54</v>
@@ -13932,7 +13955,7 @@
       </c>
       <c r="B3" s="186"/>
       <c r="C3" s="186" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D3" s="186" t="s">
         <v>57</v>
@@ -13980,7 +14003,7 @@
       </c>
       <c r="B4" s="186"/>
       <c r="C4" s="186" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D4" s="186" t="s">
         <v>58</v>
@@ -14028,7 +14051,7 @@
       </c>
       <c r="B5" s="186"/>
       <c r="C5" s="186" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D5" s="186" t="s">
         <v>59</v>
@@ -14076,7 +14099,7 @@
       </c>
       <c r="B6" s="186"/>
       <c r="C6" s="186" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D6" s="186" t="s">
         <v>60</v>
@@ -14124,7 +14147,7 @@
       </c>
       <c r="B7" s="186"/>
       <c r="C7" s="186" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D7" s="186" t="s">
         <v>61</v>
@@ -14174,7 +14197,7 @@
         <v>306</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>54</v>
@@ -14224,7 +14247,7 @@
         <v>306</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>288</v>
@@ -14274,7 +14297,7 @@
         <v>306</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>59</v>
@@ -14324,7 +14347,7 @@
         <v>306</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>60</v>
@@ -14374,7 +14397,7 @@
         <v>306</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>61</v>
@@ -14424,7 +14447,7 @@
         <v>306</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>267</v>
@@ -14474,7 +14497,7 @@
         <v>307</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>54</v>
@@ -14524,7 +14547,7 @@
         <v>307</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>288</v>
@@ -14574,7 +14597,7 @@
         <v>307</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>59</v>
@@ -14624,7 +14647,7 @@
         <v>307</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>60</v>
@@ -14674,7 +14697,7 @@
         <v>307</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>61</v>
@@ -14724,7 +14747,7 @@
         <v>307</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>267</v>
@@ -14774,7 +14797,7 @@
         <v>307</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>288</v>
@@ -14824,7 +14847,7 @@
         <v>307</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>267</v>
@@ -14874,7 +14897,7 @@
         <v>306</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>54</v>
@@ -14924,7 +14947,7 @@
         <v>306</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>288</v>
@@ -14974,7 +14997,7 @@
         <v>306</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>59</v>
@@ -15024,7 +15047,7 @@
         <v>306</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>60</v>
@@ -15074,7 +15097,7 @@
         <v>306</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>61</v>
@@ -15124,7 +15147,7 @@
         <v>306</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>267</v>
@@ -15174,7 +15197,7 @@
         <v>307</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>54</v>
@@ -15224,7 +15247,7 @@
         <v>307</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>288</v>
@@ -15274,7 +15297,7 @@
         <v>307</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>59</v>
@@ -15324,7 +15347,7 @@
         <v>307</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>60</v>
@@ -15374,7 +15397,7 @@
         <v>307</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>61</v>
@@ -15424,7 +15447,7 @@
         <v>307</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>267</v>
@@ -15474,7 +15497,7 @@
         <v>307</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>288</v>
@@ -15524,7 +15547,7 @@
         <v>307</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>267</v>

--- a/annexe/Modèle investissement.xlsx
+++ b/annexe/Modèle investissement.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927F8362-3E65-4BC3-BFDA-B9D0FD4B2E1E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accueil" sheetId="2" r:id="rId1"/>
@@ -204,7 +205,7 @@
     <definedName name="_Zone">Tables!$B$12</definedName>
     <definedName name="_ZoneFranc">Tables!$B$18</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1201,7 +1202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
@@ -2521,6 +2522,15 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2547,15 +2557,6 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="40" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2692,6 +2693,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2727,6 +2745,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2902,7 +2937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2931,19 +2966,19 @@
       <c r="B3" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="223" t="s">
+      <c r="E3" s="226" t="s">
         <v>315</v>
       </c>
-      <c r="F3" s="224"/>
-      <c r="G3" s="225"/>
-      <c r="H3" s="221" t="s">
+      <c r="F3" s="227"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="224" t="s">
         <v>323</v>
       </c>
-      <c r="I3" s="222"/>
-      <c r="J3" s="221" t="s">
+      <c r="I3" s="225"/>
+      <c r="J3" s="224" t="s">
         <v>324</v>
       </c>
-      <c r="K3" s="222"/>
+      <c r="K3" s="225"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D4" s="190"/>
@@ -3021,19 +3056,19 @@
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F69&lt;&gt;"",Select!G69&lt;&gt;""),Select!E69,""))</f>
         <v/>
       </c>
-      <c r="H6" s="226">
+      <c r="H6" s="229">
         <f>Modèle!D164</f>
         <v>0.11649484536082488</v>
       </c>
-      <c r="I6" s="228">
+      <c r="I6" s="231">
         <f>Modèle!I164</f>
         <v>0.5297697407485138</v>
       </c>
-      <c r="J6" s="226">
+      <c r="J6" s="229">
         <f>Modèle!D192</f>
         <v>0</v>
       </c>
-      <c r="K6" s="228">
+      <c r="K6" s="231">
         <f>Modèle!H192</f>
         <v>0.40232466137854034</v>
       </c>
@@ -3062,10 +3097,10 @@
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F70&lt;&gt;"",Select!G70&lt;&gt;""),Select!E70,""))</f>
         <v/>
       </c>
-      <c r="H7" s="227"/>
-      <c r="I7" s="229"/>
-      <c r="J7" s="227"/>
-      <c r="K7" s="229"/>
+      <c r="H7" s="230"/>
+      <c r="I7" s="232"/>
+      <c r="J7" s="230"/>
+      <c r="K7" s="232"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D8" s="56" t="str">
@@ -3214,15 +3249,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="230" t="str">
+      <c r="A16" s="222" t="str">
         <f>VLOOKUP(_Bilan,_Tables,4,FALSE)</f>
         <v>Bilan à l'ouverture</v>
       </c>
-      <c r="B16" s="230"/>
-      <c r="C16" s="230"/>
-      <c r="D16" s="230"/>
-      <c r="E16" s="230"/>
-      <c r="F16" s="230"/>
+      <c r="B16" s="222"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="222"/>
+      <c r="E16" s="222"/>
+      <c r="F16" s="222"/>
       <c r="H16" s="73" t="str">
         <f>VLOOKUP(_PIBPNB,_Tables,4,FALSE)</f>
         <v>PIB ou PNB</v>
@@ -3232,18 +3267,18 @@
       <c r="K16" s="68"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="231" t="str">
+      <c r="A17" s="223" t="str">
         <f>VLOOKUP(_Actif,_Tables,4,FALSE)</f>
         <v>Actif</v>
       </c>
-      <c r="B17" s="231"/>
-      <c r="C17" s="231"/>
-      <c r="D17" s="231" t="str">
+      <c r="B17" s="223"/>
+      <c r="C17" s="223"/>
+      <c r="D17" s="223" t="str">
         <f>VLOOKUP(_Passif,_Tables,4,FALSE)</f>
         <v>Passif</v>
       </c>
-      <c r="E17" s="231"/>
-      <c r="F17" s="231"/>
+      <c r="E17" s="223"/>
+      <c r="F17" s="223"/>
       <c r="H17" s="56" t="str">
         <f>_PIBPNB_Liste</f>
         <v>PIB/tête</v>
@@ -3552,29 +3587,29 @@
       <c r="K29" s="70"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="230" t="str">
+      <c r="A31" s="222" t="str">
         <f>VLOOKUP(_CompteDeResultat,_Tables,4,FALSE)</f>
         <v>Compte de résultat</v>
       </c>
-      <c r="B31" s="230"/>
-      <c r="C31" s="230"/>
-      <c r="D31" s="230"/>
-      <c r="E31" s="230"/>
-      <c r="F31" s="230"/>
+      <c r="B31" s="222"/>
+      <c r="C31" s="222"/>
+      <c r="D31" s="222"/>
+      <c r="E31" s="222"/>
+      <c r="F31" s="222"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="231" t="str">
+      <c r="A32" s="223" t="str">
         <f>VLOOKUP(_Charges,_Tables,4,FALSE)</f>
         <v>Charges</v>
       </c>
-      <c r="B32" s="231"/>
-      <c r="C32" s="231"/>
-      <c r="D32" s="231" t="str">
+      <c r="B32" s="223"/>
+      <c r="C32" s="223"/>
+      <c r="D32" s="223" t="str">
         <f>VLOOKUP(_Produits,_Tables,4,FALSE)</f>
         <v>Produits</v>
       </c>
-      <c r="E32" s="231"/>
-      <c r="F32" s="231"/>
+      <c r="E32" s="223"/>
+      <c r="F32" s="223"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="59" t="str">
@@ -4090,12 +4125,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="E3:G3"/>
@@ -4103,6 +4132,12 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4113,25 +4148,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="Ce régime n'est pas disponible.">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="Ce régime n'est pas disponible." xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Select!$B$59:$B$60</xm:f>
           </x14:formula1>
           <xm:sqref>B9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="Cette valeur n'est pas disponible.">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="Cette valeur n'est pas disponible." xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Select!$B$39:$B$40</xm:f>
           </x14:formula1>
           <xm:sqref>B5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="Ces données ne sont pas disponibles.">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="Ces données ne sont pas disponibles." xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Select!$B$3:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="Ce pays n'est pas disponible.">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="Ce pays n'est pas disponible." xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Select!$B$43:$B$54</xm:f>
           </x14:formula1>
@@ -4144,7 +4179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:T85"/>
   <sheetViews>
     <sheetView topLeftCell="B64" zoomScaleNormal="100" workbookViewId="0">
@@ -5584,7 +5619,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="La valeur du PIB/PNB doit être positive." sqref="G39">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur" error="La valeur du PIB/PNB doit être positive." sqref="G39" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5598,7 +5633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:D114"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
@@ -7150,7 +7185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9039,7 +9074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9475,14 +9510,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E72" sqref="E72"/>
+      <selection pane="bottomRight" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13546,7 +13581,7 @@
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H184" s="232">
+      <c r="H184" s="221">
         <f>MAX(0,IRR($C172:H172))</f>
         <v>0.21699349403850565</v>
       </c>
@@ -13598,7 +13633,7 @@
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H187" s="232">
+      <c r="H187" s="221">
         <f>MAX(0,IRR($C176:H176))</f>
         <v>0.11180960570026599</v>
       </c>
@@ -13650,7 +13685,7 @@
       </c>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H190" s="232">
+      <c r="H190" s="221">
         <f>MAX(0,IRR($C180:H180))</f>
         <v>8.304380841722514E-2</v>
       </c>
@@ -13836,7 +13871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -15590,7 +15625,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>

--- a/annexe/Modèle investissement.xlsx
+++ b/annexe/Modèle investissement.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927F8362-3E65-4BC3-BFDA-B9D0FD4B2E1E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F61DD57-7D49-4AB1-8FBC-017BA640774C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accueil" sheetId="2" r:id="rId1"/>
@@ -2525,38 +2525,38 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="40" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="39" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="40" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2940,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2966,19 +2966,19 @@
       <c r="B3" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="226" t="s">
+      <c r="E3" s="224" t="s">
         <v>315</v>
       </c>
-      <c r="F3" s="227"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="224" t="s">
+      <c r="F3" s="225"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="222" t="s">
         <v>323</v>
       </c>
-      <c r="I3" s="225"/>
-      <c r="J3" s="224" t="s">
+      <c r="I3" s="223"/>
+      <c r="J3" s="222" t="s">
         <v>324</v>
       </c>
-      <c r="K3" s="225"/>
+      <c r="K3" s="223"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D4" s="190"/>
@@ -3056,19 +3056,19 @@
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F69&lt;&gt;"",Select!G69&lt;&gt;""),Select!E69,""))</f>
         <v/>
       </c>
-      <c r="H6" s="229">
+      <c r="H6" s="227">
         <f>Modèle!D164</f>
         <v>0.11649484536082488</v>
       </c>
-      <c r="I6" s="231">
+      <c r="I6" s="229">
         <f>Modèle!I164</f>
         <v>0.5297697407485138</v>
       </c>
-      <c r="J6" s="229">
+      <c r="J6" s="227">
         <f>Modèle!D192</f>
         <v>0</v>
       </c>
-      <c r="K6" s="231">
+      <c r="K6" s="229">
         <f>Modèle!H192</f>
         <v>0.40232466137854034</v>
       </c>
@@ -3097,10 +3097,10 @@
         <f>IF(_Regime_Select=_Regime_Gen,"",IF(OR(Select!F70&lt;&gt;"",Select!G70&lt;&gt;""),Select!E70,""))</f>
         <v/>
       </c>
-      <c r="H7" s="230"/>
-      <c r="I7" s="232"/>
-      <c r="J7" s="230"/>
-      <c r="K7" s="232"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="230"/>
+      <c r="J7" s="228"/>
+      <c r="K7" s="230"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D8" s="56" t="str">
@@ -3249,15 +3249,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="222" t="str">
+      <c r="A16" s="231" t="str">
         <f>VLOOKUP(_Bilan,_Tables,4,FALSE)</f>
         <v>Bilan à l'ouverture</v>
       </c>
-      <c r="B16" s="222"/>
-      <c r="C16" s="222"/>
-      <c r="D16" s="222"/>
-      <c r="E16" s="222"/>
-      <c r="F16" s="222"/>
+      <c r="B16" s="231"/>
+      <c r="C16" s="231"/>
+      <c r="D16" s="231"/>
+      <c r="E16" s="231"/>
+      <c r="F16" s="231"/>
       <c r="H16" s="73" t="str">
         <f>VLOOKUP(_PIBPNB,_Tables,4,FALSE)</f>
         <v>PIB ou PNB</v>
@@ -3267,18 +3267,18 @@
       <c r="K16" s="68"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="223" t="str">
+      <c r="A17" s="232" t="str">
         <f>VLOOKUP(_Actif,_Tables,4,FALSE)</f>
         <v>Actif</v>
       </c>
-      <c r="B17" s="223"/>
-      <c r="C17" s="223"/>
-      <c r="D17" s="223" t="str">
+      <c r="B17" s="232"/>
+      <c r="C17" s="232"/>
+      <c r="D17" s="232" t="str">
         <f>VLOOKUP(_Passif,_Tables,4,FALSE)</f>
         <v>Passif</v>
       </c>
-      <c r="E17" s="223"/>
-      <c r="F17" s="223"/>
+      <c r="E17" s="232"/>
+      <c r="F17" s="232"/>
       <c r="H17" s="56" t="str">
         <f>_PIBPNB_Liste</f>
         <v>PIB/tête</v>
@@ -3587,29 +3587,29 @@
       <c r="K29" s="70"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="222" t="str">
+      <c r="A31" s="231" t="str">
         <f>VLOOKUP(_CompteDeResultat,_Tables,4,FALSE)</f>
         <v>Compte de résultat</v>
       </c>
-      <c r="B31" s="222"/>
-      <c r="C31" s="222"/>
-      <c r="D31" s="222"/>
-      <c r="E31" s="222"/>
-      <c r="F31" s="222"/>
+      <c r="B31" s="231"/>
+      <c r="C31" s="231"/>
+      <c r="D31" s="231"/>
+      <c r="E31" s="231"/>
+      <c r="F31" s="231"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="223" t="str">
+      <c r="A32" s="232" t="str">
         <f>VLOOKUP(_Charges,_Tables,4,FALSE)</f>
         <v>Charges</v>
       </c>
-      <c r="B32" s="223"/>
-      <c r="C32" s="223"/>
-      <c r="D32" s="223" t="str">
+      <c r="B32" s="232"/>
+      <c r="C32" s="232"/>
+      <c r="D32" s="232" t="str">
         <f>VLOOKUP(_Produits,_Tables,4,FALSE)</f>
         <v>Produits</v>
       </c>
-      <c r="E32" s="223"/>
-      <c r="F32" s="223"/>
+      <c r="E32" s="232"/>
+      <c r="F32" s="232"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="59" t="str">
@@ -4125,6 +4125,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="E3:G3"/>
@@ -4132,12 +4138,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -7189,10 +7189,10 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9078,10 +9078,10 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9514,10 +9514,10 @@
   <dimension ref="A1:Q209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E73" sqref="E73"/>
+      <selection pane="bottomRight" activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12907,7 +12907,7 @@
         <v>0.332926465850516</v>
       </c>
       <c r="I161" s="171">
-        <f t="shared" si="86"/>
+        <f>I145/I$171</f>
         <v>0.73720945141061001</v>
       </c>
       <c r="J161" s="216">
@@ -13878,7 +13878,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
